--- a/5. WS/1. Bộ phận bảo hành/1. Thực hiện sửa chữa bảo hành/nam2021/Thang6/02.XuLyBH/XLBH2106_AnhTuanNB.xlsx
+++ b/5. WS/1. Bộ phận bảo hành/1. Thực hiện sửa chữa bảo hành/nam2021/Thang6/02.XuLyBH/XLBH2106_AnhTuanNB.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="-15" yWindow="4035" windowWidth="10320" windowHeight="4065" activeTab="5"/>
+    <workbookView xWindow="-15" yWindow="4035" windowWidth="10320" windowHeight="4065"/>
   </bookViews>
   <sheets>
     <sheet name="TOP-1" sheetId="36" r:id="rId1"/>
@@ -41,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="516" uniqueCount="69">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="519" uniqueCount="72">
   <si>
     <t>STT</t>
   </si>
@@ -253,6 +253,15 @@
   </si>
   <si>
     <t>TG102SE</t>
+  </si>
+  <si>
+    <t>LE.2.00.---28.200624</t>
+  </si>
+  <si>
+    <t>125.212.203.114,16969</t>
+  </si>
+  <si>
+    <t>Thiết bị không chốt GSM</t>
   </si>
 </sst>
 </file>
@@ -685,22 +694,7 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="7" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -722,6 +716,21 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1030,8 +1039,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:X57"/>
   <sheetViews>
-    <sheetView showZeros="0" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B7" sqref="B7"/>
+    <sheetView showZeros="0" tabSelected="1" topLeftCell="D1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="H13" sqref="H13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -1063,41 +1072,41 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="84" t="s">
+      <c r="A1" s="79" t="s">
         <v>61</v>
       </c>
-      <c r="B1" s="84"/>
-      <c r="C1" s="84"/>
-      <c r="D1" s="84"/>
-      <c r="E1" s="84"/>
-      <c r="F1" s="84"/>
-      <c r="G1" s="84"/>
-      <c r="H1" s="84"/>
-      <c r="I1" s="84"/>
-      <c r="J1" s="84"/>
-      <c r="K1" s="84"/>
-      <c r="L1" s="84"/>
-      <c r="M1" s="84"/>
-      <c r="N1" s="84"/>
-      <c r="O1" s="84"/>
-      <c r="P1" s="84"/>
-      <c r="Q1" s="84"/>
-      <c r="R1" s="84"/>
-      <c r="S1" s="84"/>
-      <c r="T1" s="84"/>
-      <c r="U1" s="84"/>
-      <c r="V1" s="84"/>
+      <c r="B1" s="79"/>
+      <c r="C1" s="79"/>
+      <c r="D1" s="79"/>
+      <c r="E1" s="79"/>
+      <c r="F1" s="79"/>
+      <c r="G1" s="79"/>
+      <c r="H1" s="79"/>
+      <c r="I1" s="79"/>
+      <c r="J1" s="79"/>
+      <c r="K1" s="79"/>
+      <c r="L1" s="79"/>
+      <c r="M1" s="79"/>
+      <c r="N1" s="79"/>
+      <c r="O1" s="79"/>
+      <c r="P1" s="79"/>
+      <c r="Q1" s="79"/>
+      <c r="R1" s="79"/>
+      <c r="S1" s="79"/>
+      <c r="T1" s="79"/>
+      <c r="U1" s="79"/>
+      <c r="V1" s="79"/>
       <c r="W1" s="47"/>
     </row>
     <row r="2" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="85" t="s">
+      <c r="A2" s="80" t="s">
         <v>9</v>
       </c>
-      <c r="B2" s="86"/>
-      <c r="C2" s="86"/>
-      <c r="D2" s="86"/>
-      <c r="E2" s="87"/>
-      <c r="F2" s="87"/>
+      <c r="B2" s="81"/>
+      <c r="C2" s="81"/>
+      <c r="D2" s="81"/>
+      <c r="E2" s="82"/>
+      <c r="F2" s="82"/>
       <c r="G2" s="5"/>
       <c r="H2" s="21"/>
       <c r="I2" s="53"/>
@@ -1142,58 +1151,58 @@
       <c r="W3" s="27"/>
     </row>
     <row r="4" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="88" t="s">
-        <v>0</v>
-      </c>
-      <c r="B4" s="82" t="s">
+      <c r="A4" s="83" t="s">
+        <v>0</v>
+      </c>
+      <c r="B4" s="78" t="s">
         <v>8</v>
       </c>
-      <c r="C4" s="82"/>
-      <c r="D4" s="82"/>
-      <c r="E4" s="82"/>
-      <c r="F4" s="82"/>
-      <c r="G4" s="82"/>
-      <c r="H4" s="82"/>
-      <c r="I4" s="82"/>
-      <c r="J4" s="82" t="s">
+      <c r="C4" s="78"/>
+      <c r="D4" s="78"/>
+      <c r="E4" s="78"/>
+      <c r="F4" s="78"/>
+      <c r="G4" s="78"/>
+      <c r="H4" s="78"/>
+      <c r="I4" s="78"/>
+      <c r="J4" s="78" t="s">
         <v>6</v>
       </c>
-      <c r="K4" s="82" t="s">
+      <c r="K4" s="78" t="s">
         <v>11</v>
       </c>
-      <c r="L4" s="82"/>
-      <c r="M4" s="89" t="s">
+      <c r="L4" s="78"/>
+      <c r="M4" s="84" t="s">
         <v>42</v>
       </c>
-      <c r="N4" s="89" t="s">
+      <c r="N4" s="84" t="s">
         <v>10</v>
       </c>
-      <c r="O4" s="82" t="s">
+      <c r="O4" s="78" t="s">
         <v>7</v>
       </c>
-      <c r="P4" s="81" t="s">
+      <c r="P4" s="89" t="s">
         <v>14</v>
       </c>
-      <c r="Q4" s="82" t="s">
+      <c r="Q4" s="78" t="s">
         <v>39</v>
       </c>
-      <c r="R4" s="82" t="s">
+      <c r="R4" s="78" t="s">
         <v>53</v>
       </c>
-      <c r="S4" s="83" t="s">
+      <c r="S4" s="90" t="s">
         <v>54</v>
       </c>
       <c r="T4" s="27"/>
-      <c r="U4" s="82" t="s">
+      <c r="U4" s="78" t="s">
         <v>39</v>
       </c>
-      <c r="V4" s="82" t="s">
+      <c r="V4" s="78" t="s">
         <v>53</v>
       </c>
       <c r="W4" s="48"/>
     </row>
     <row r="5" spans="1:23" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="88"/>
+      <c r="A5" s="83"/>
       <c r="B5" s="64" t="s">
         <v>1</v>
       </c>
@@ -1218,23 +1227,23 @@
       <c r="I5" s="55" t="s">
         <v>15</v>
       </c>
-      <c r="J5" s="82"/>
+      <c r="J5" s="78"/>
       <c r="K5" s="76" t="s">
         <v>12</v>
       </c>
       <c r="L5" s="76" t="s">
         <v>13</v>
       </c>
-      <c r="M5" s="90"/>
-      <c r="N5" s="90"/>
-      <c r="O5" s="82"/>
-      <c r="P5" s="81"/>
-      <c r="Q5" s="82"/>
-      <c r="R5" s="82"/>
-      <c r="S5" s="83"/>
+      <c r="M5" s="85"/>
+      <c r="N5" s="85"/>
+      <c r="O5" s="78"/>
+      <c r="P5" s="89"/>
+      <c r="Q5" s="78"/>
+      <c r="R5" s="78"/>
+      <c r="S5" s="90"/>
       <c r="T5" s="27"/>
-      <c r="U5" s="82"/>
-      <c r="V5" s="82"/>
+      <c r="U5" s="78"/>
+      <c r="V5" s="78"/>
       <c r="W5" s="48"/>
     </row>
     <row r="6" spans="1:23" s="12" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -1254,9 +1263,15 @@
       <c r="F6" s="38"/>
       <c r="G6" s="38"/>
       <c r="H6" s="38"/>
-      <c r="I6" s="50"/>
-      <c r="J6" s="1"/>
-      <c r="K6" s="61"/>
+      <c r="I6" s="50" t="s">
+        <v>70</v>
+      </c>
+      <c r="J6" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="K6" s="61" t="s">
+        <v>69</v>
+      </c>
       <c r="L6" s="40"/>
       <c r="M6" s="40"/>
       <c r="N6" s="41"/>
@@ -1266,7 +1281,7 @@
       <c r="R6" s="38"/>
       <c r="S6" s="4"/>
       <c r="T6" s="77"/>
-      <c r="U6" s="78" t="s">
+      <c r="U6" s="86" t="s">
         <v>18</v>
       </c>
       <c r="V6" s="4" t="s">
@@ -1305,7 +1320,7 @@
       <c r="R7" s="38"/>
       <c r="S7" s="4"/>
       <c r="T7" s="77"/>
-      <c r="U7" s="79"/>
+      <c r="U7" s="87"/>
       <c r="V7" s="4" t="s">
         <v>35</v>
       </c>
@@ -1334,7 +1349,7 @@
       <c r="R8" s="38"/>
       <c r="S8" s="4"/>
       <c r="T8" s="77"/>
-      <c r="U8" s="79"/>
+      <c r="U8" s="87"/>
       <c r="V8" s="4" t="s">
         <v>21</v>
       </c>
@@ -1363,7 +1378,7 @@
       <c r="R9" s="38"/>
       <c r="S9" s="4"/>
       <c r="T9" s="77"/>
-      <c r="U9" s="79"/>
+      <c r="U9" s="87"/>
       <c r="V9" s="4" t="s">
         <v>51</v>
       </c>
@@ -1392,7 +1407,7 @@
       <c r="R10" s="38"/>
       <c r="S10" s="4"/>
       <c r="T10" s="77"/>
-      <c r="U10" s="79"/>
+      <c r="U10" s="87"/>
       <c r="V10" s="4" t="s">
         <v>31</v>
       </c>
@@ -1421,7 +1436,7 @@
       <c r="R11" s="38"/>
       <c r="S11" s="4"/>
       <c r="T11" s="77"/>
-      <c r="U11" s="79"/>
+      <c r="U11" s="87"/>
       <c r="V11" s="4" t="s">
         <v>30</v>
       </c>
@@ -1450,7 +1465,7 @@
       <c r="R12" s="38"/>
       <c r="S12" s="4"/>
       <c r="T12" s="77"/>
-      <c r="U12" s="78" t="s">
+      <c r="U12" s="86" t="s">
         <v>19</v>
       </c>
       <c r="V12" s="4" t="s">
@@ -1481,7 +1496,7 @@
       <c r="R13" s="10"/>
       <c r="S13" s="4"/>
       <c r="T13" s="77"/>
-      <c r="U13" s="79"/>
+      <c r="U13" s="87"/>
       <c r="V13" s="4" t="s">
         <v>37</v>
       </c>
@@ -1510,7 +1525,7 @@
       <c r="R14" s="38"/>
       <c r="S14" s="4"/>
       <c r="T14" s="77"/>
-      <c r="U14" s="79"/>
+      <c r="U14" s="87"/>
       <c r="V14" s="4" t="s">
         <v>36</v>
       </c>
@@ -1539,7 +1554,7 @@
       <c r="R15" s="38"/>
       <c r="S15" s="4"/>
       <c r="T15" s="14"/>
-      <c r="U15" s="79"/>
+      <c r="U15" s="87"/>
       <c r="V15" s="4" t="s">
         <v>24</v>
       </c>
@@ -1568,7 +1583,7 @@
       <c r="R16" s="38"/>
       <c r="S16" s="4"/>
       <c r="T16" s="14"/>
-      <c r="U16" s="80"/>
+      <c r="U16" s="88"/>
       <c r="V16" s="4" t="s">
         <v>25</v>
       </c>
@@ -2860,41 +2875,41 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="84" t="s">
+      <c r="A1" s="79" t="s">
         <v>61</v>
       </c>
-      <c r="B1" s="84"/>
-      <c r="C1" s="84"/>
-      <c r="D1" s="84"/>
-      <c r="E1" s="84"/>
-      <c r="F1" s="84"/>
-      <c r="G1" s="84"/>
-      <c r="H1" s="84"/>
-      <c r="I1" s="84"/>
-      <c r="J1" s="84"/>
-      <c r="K1" s="84"/>
-      <c r="L1" s="84"/>
-      <c r="M1" s="84"/>
-      <c r="N1" s="84"/>
-      <c r="O1" s="84"/>
-      <c r="P1" s="84"/>
-      <c r="Q1" s="84"/>
-      <c r="R1" s="84"/>
-      <c r="S1" s="84"/>
-      <c r="T1" s="84"/>
-      <c r="U1" s="84"/>
-      <c r="V1" s="84"/>
+      <c r="B1" s="79"/>
+      <c r="C1" s="79"/>
+      <c r="D1" s="79"/>
+      <c r="E1" s="79"/>
+      <c r="F1" s="79"/>
+      <c r="G1" s="79"/>
+      <c r="H1" s="79"/>
+      <c r="I1" s="79"/>
+      <c r="J1" s="79"/>
+      <c r="K1" s="79"/>
+      <c r="L1" s="79"/>
+      <c r="M1" s="79"/>
+      <c r="N1" s="79"/>
+      <c r="O1" s="79"/>
+      <c r="P1" s="79"/>
+      <c r="Q1" s="79"/>
+      <c r="R1" s="79"/>
+      <c r="S1" s="79"/>
+      <c r="T1" s="79"/>
+      <c r="U1" s="79"/>
+      <c r="V1" s="79"/>
       <c r="W1" s="47"/>
     </row>
     <row r="2" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="85" t="s">
+      <c r="A2" s="80" t="s">
         <v>9</v>
       </c>
-      <c r="B2" s="86"/>
-      <c r="C2" s="86"/>
-      <c r="D2" s="86"/>
-      <c r="E2" s="87"/>
-      <c r="F2" s="87"/>
+      <c r="B2" s="81"/>
+      <c r="C2" s="81"/>
+      <c r="D2" s="81"/>
+      <c r="E2" s="82"/>
+      <c r="F2" s="82"/>
       <c r="G2" s="5"/>
       <c r="H2" s="21"/>
       <c r="I2" s="53"/>
@@ -2939,58 +2954,58 @@
       <c r="W3" s="27"/>
     </row>
     <row r="4" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="88" t="s">
-        <v>0</v>
-      </c>
-      <c r="B4" s="82" t="s">
+      <c r="A4" s="83" t="s">
+        <v>0</v>
+      </c>
+      <c r="B4" s="78" t="s">
         <v>8</v>
       </c>
-      <c r="C4" s="82"/>
-      <c r="D4" s="82"/>
-      <c r="E4" s="82"/>
-      <c r="F4" s="82"/>
-      <c r="G4" s="82"/>
-      <c r="H4" s="82"/>
-      <c r="I4" s="82"/>
-      <c r="J4" s="82" t="s">
+      <c r="C4" s="78"/>
+      <c r="D4" s="78"/>
+      <c r="E4" s="78"/>
+      <c r="F4" s="78"/>
+      <c r="G4" s="78"/>
+      <c r="H4" s="78"/>
+      <c r="I4" s="78"/>
+      <c r="J4" s="78" t="s">
         <v>6</v>
       </c>
-      <c r="K4" s="82" t="s">
+      <c r="K4" s="78" t="s">
         <v>11</v>
       </c>
-      <c r="L4" s="82"/>
-      <c r="M4" s="89" t="s">
+      <c r="L4" s="78"/>
+      <c r="M4" s="84" t="s">
         <v>42</v>
       </c>
-      <c r="N4" s="89" t="s">
+      <c r="N4" s="84" t="s">
         <v>10</v>
       </c>
-      <c r="O4" s="82" t="s">
+      <c r="O4" s="78" t="s">
         <v>7</v>
       </c>
-      <c r="P4" s="81" t="s">
+      <c r="P4" s="89" t="s">
         <v>14</v>
       </c>
-      <c r="Q4" s="82" t="s">
+      <c r="Q4" s="78" t="s">
         <v>39</v>
       </c>
-      <c r="R4" s="82" t="s">
+      <c r="R4" s="78" t="s">
         <v>53</v>
       </c>
-      <c r="S4" s="83" t="s">
+      <c r="S4" s="90" t="s">
         <v>54</v>
       </c>
       <c r="T4" s="27"/>
-      <c r="U4" s="82" t="s">
+      <c r="U4" s="78" t="s">
         <v>39</v>
       </c>
-      <c r="V4" s="82" t="s">
+      <c r="V4" s="78" t="s">
         <v>53</v>
       </c>
       <c r="W4" s="48"/>
     </row>
     <row r="5" spans="1:23" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="88"/>
+      <c r="A5" s="83"/>
       <c r="B5" s="64" t="s">
         <v>1</v>
       </c>
@@ -3015,23 +3030,23 @@
       <c r="I5" s="55" t="s">
         <v>15</v>
       </c>
-      <c r="J5" s="82"/>
+      <c r="J5" s="78"/>
       <c r="K5" s="74" t="s">
         <v>12</v>
       </c>
       <c r="L5" s="74" t="s">
         <v>13</v>
       </c>
-      <c r="M5" s="90"/>
-      <c r="N5" s="90"/>
-      <c r="O5" s="82"/>
-      <c r="P5" s="81"/>
-      <c r="Q5" s="82"/>
-      <c r="R5" s="82"/>
-      <c r="S5" s="83"/>
+      <c r="M5" s="85"/>
+      <c r="N5" s="85"/>
+      <c r="O5" s="78"/>
+      <c r="P5" s="89"/>
+      <c r="Q5" s="78"/>
+      <c r="R5" s="78"/>
+      <c r="S5" s="90"/>
       <c r="T5" s="27"/>
-      <c r="U5" s="82"/>
-      <c r="V5" s="82"/>
+      <c r="U5" s="78"/>
+      <c r="V5" s="78"/>
       <c r="W5" s="48"/>
     </row>
     <row r="6" spans="1:23" s="12" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -3063,7 +3078,7 @@
       <c r="R6" s="38"/>
       <c r="S6" s="4"/>
       <c r="T6" s="75"/>
-      <c r="U6" s="78" t="s">
+      <c r="U6" s="86" t="s">
         <v>18</v>
       </c>
       <c r="V6" s="4" t="s">
@@ -3094,7 +3109,7 @@
       <c r="R7" s="38"/>
       <c r="S7" s="4"/>
       <c r="T7" s="75"/>
-      <c r="U7" s="79"/>
+      <c r="U7" s="87"/>
       <c r="V7" s="4" t="s">
         <v>35</v>
       </c>
@@ -3123,7 +3138,7 @@
       <c r="R8" s="38"/>
       <c r="S8" s="4"/>
       <c r="T8" s="75"/>
-      <c r="U8" s="79"/>
+      <c r="U8" s="87"/>
       <c r="V8" s="4" t="s">
         <v>21</v>
       </c>
@@ -3152,7 +3167,7 @@
       <c r="R9" s="38"/>
       <c r="S9" s="4"/>
       <c r="T9" s="75"/>
-      <c r="U9" s="79"/>
+      <c r="U9" s="87"/>
       <c r="V9" s="4" t="s">
         <v>51</v>
       </c>
@@ -3181,7 +3196,7 @@
       <c r="R10" s="38"/>
       <c r="S10" s="4"/>
       <c r="T10" s="75"/>
-      <c r="U10" s="79"/>
+      <c r="U10" s="87"/>
       <c r="V10" s="4" t="s">
         <v>31</v>
       </c>
@@ -3210,7 +3225,7 @@
       <c r="R11" s="38"/>
       <c r="S11" s="4"/>
       <c r="T11" s="75"/>
-      <c r="U11" s="79"/>
+      <c r="U11" s="87"/>
       <c r="V11" s="4" t="s">
         <v>30</v>
       </c>
@@ -3239,7 +3254,7 @@
       <c r="R12" s="38"/>
       <c r="S12" s="4"/>
       <c r="T12" s="75"/>
-      <c r="U12" s="78" t="s">
+      <c r="U12" s="86" t="s">
         <v>19</v>
       </c>
       <c r="V12" s="4" t="s">
@@ -3270,7 +3285,7 @@
       <c r="R13" s="10"/>
       <c r="S13" s="4"/>
       <c r="T13" s="75"/>
-      <c r="U13" s="79"/>
+      <c r="U13" s="87"/>
       <c r="V13" s="4" t="s">
         <v>37</v>
       </c>
@@ -3299,7 +3314,7 @@
       <c r="R14" s="38"/>
       <c r="S14" s="4"/>
       <c r="T14" s="75"/>
-      <c r="U14" s="79"/>
+      <c r="U14" s="87"/>
       <c r="V14" s="4" t="s">
         <v>36</v>
       </c>
@@ -3328,7 +3343,7 @@
       <c r="R15" s="38"/>
       <c r="S15" s="4"/>
       <c r="T15" s="14"/>
-      <c r="U15" s="79"/>
+      <c r="U15" s="87"/>
       <c r="V15" s="4" t="s">
         <v>24</v>
       </c>
@@ -3357,7 +3372,7 @@
       <c r="R16" s="38"/>
       <c r="S16" s="4"/>
       <c r="T16" s="14"/>
-      <c r="U16" s="80"/>
+      <c r="U16" s="88"/>
       <c r="V16" s="4" t="s">
         <v>25</v>
       </c>
@@ -4649,41 +4664,41 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="84" t="s">
+      <c r="A1" s="79" t="s">
         <v>61</v>
       </c>
-      <c r="B1" s="84"/>
-      <c r="C1" s="84"/>
-      <c r="D1" s="84"/>
-      <c r="E1" s="84"/>
-      <c r="F1" s="84"/>
-      <c r="G1" s="84"/>
-      <c r="H1" s="84"/>
-      <c r="I1" s="84"/>
-      <c r="J1" s="84"/>
-      <c r="K1" s="84"/>
-      <c r="L1" s="84"/>
-      <c r="M1" s="84"/>
-      <c r="N1" s="84"/>
-      <c r="O1" s="84"/>
-      <c r="P1" s="84"/>
-      <c r="Q1" s="84"/>
-      <c r="R1" s="84"/>
-      <c r="S1" s="84"/>
-      <c r="T1" s="84"/>
-      <c r="U1" s="84"/>
-      <c r="V1" s="84"/>
+      <c r="B1" s="79"/>
+      <c r="C1" s="79"/>
+      <c r="D1" s="79"/>
+      <c r="E1" s="79"/>
+      <c r="F1" s="79"/>
+      <c r="G1" s="79"/>
+      <c r="H1" s="79"/>
+      <c r="I1" s="79"/>
+      <c r="J1" s="79"/>
+      <c r="K1" s="79"/>
+      <c r="L1" s="79"/>
+      <c r="M1" s="79"/>
+      <c r="N1" s="79"/>
+      <c r="O1" s="79"/>
+      <c r="P1" s="79"/>
+      <c r="Q1" s="79"/>
+      <c r="R1" s="79"/>
+      <c r="S1" s="79"/>
+      <c r="T1" s="79"/>
+      <c r="U1" s="79"/>
+      <c r="V1" s="79"/>
       <c r="W1" s="47"/>
     </row>
     <row r="2" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="85" t="s">
+      <c r="A2" s="80" t="s">
         <v>9</v>
       </c>
-      <c r="B2" s="86"/>
-      <c r="C2" s="86"/>
-      <c r="D2" s="86"/>
-      <c r="E2" s="87"/>
-      <c r="F2" s="87"/>
+      <c r="B2" s="81"/>
+      <c r="C2" s="81"/>
+      <c r="D2" s="81"/>
+      <c r="E2" s="82"/>
+      <c r="F2" s="82"/>
       <c r="G2" s="5"/>
       <c r="H2" s="21"/>
       <c r="I2" s="53"/>
@@ -4728,58 +4743,58 @@
       <c r="W3" s="27"/>
     </row>
     <row r="4" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="88" t="s">
-        <v>0</v>
-      </c>
-      <c r="B4" s="82" t="s">
+      <c r="A4" s="83" t="s">
+        <v>0</v>
+      </c>
+      <c r="B4" s="78" t="s">
         <v>8</v>
       </c>
-      <c r="C4" s="82"/>
-      <c r="D4" s="82"/>
-      <c r="E4" s="82"/>
-      <c r="F4" s="82"/>
-      <c r="G4" s="82"/>
-      <c r="H4" s="82"/>
-      <c r="I4" s="82"/>
-      <c r="J4" s="82" t="s">
+      <c r="C4" s="78"/>
+      <c r="D4" s="78"/>
+      <c r="E4" s="78"/>
+      <c r="F4" s="78"/>
+      <c r="G4" s="78"/>
+      <c r="H4" s="78"/>
+      <c r="I4" s="78"/>
+      <c r="J4" s="78" t="s">
         <v>6</v>
       </c>
-      <c r="K4" s="82" t="s">
+      <c r="K4" s="78" t="s">
         <v>11</v>
       </c>
-      <c r="L4" s="82"/>
-      <c r="M4" s="89" t="s">
+      <c r="L4" s="78"/>
+      <c r="M4" s="84" t="s">
         <v>42</v>
       </c>
-      <c r="N4" s="89" t="s">
+      <c r="N4" s="84" t="s">
         <v>10</v>
       </c>
-      <c r="O4" s="82" t="s">
+      <c r="O4" s="78" t="s">
         <v>7</v>
       </c>
-      <c r="P4" s="81" t="s">
+      <c r="P4" s="89" t="s">
         <v>14</v>
       </c>
-      <c r="Q4" s="82" t="s">
+      <c r="Q4" s="78" t="s">
         <v>39</v>
       </c>
-      <c r="R4" s="82" t="s">
+      <c r="R4" s="78" t="s">
         <v>53</v>
       </c>
-      <c r="S4" s="83" t="s">
+      <c r="S4" s="90" t="s">
         <v>54</v>
       </c>
       <c r="T4" s="27"/>
-      <c r="U4" s="82" t="s">
+      <c r="U4" s="78" t="s">
         <v>39</v>
       </c>
-      <c r="V4" s="82" t="s">
+      <c r="V4" s="78" t="s">
         <v>53</v>
       </c>
       <c r="W4" s="48"/>
     </row>
     <row r="5" spans="1:23" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="88"/>
+      <c r="A5" s="83"/>
       <c r="B5" s="64" t="s">
         <v>1</v>
       </c>
@@ -4804,23 +4819,23 @@
       <c r="I5" s="55" t="s">
         <v>15</v>
       </c>
-      <c r="J5" s="82"/>
+      <c r="J5" s="78"/>
       <c r="K5" s="74" t="s">
         <v>12</v>
       </c>
       <c r="L5" s="74" t="s">
         <v>13</v>
       </c>
-      <c r="M5" s="90"/>
-      <c r="N5" s="90"/>
-      <c r="O5" s="82"/>
-      <c r="P5" s="81"/>
-      <c r="Q5" s="82"/>
-      <c r="R5" s="82"/>
-      <c r="S5" s="83"/>
+      <c r="M5" s="85"/>
+      <c r="N5" s="85"/>
+      <c r="O5" s="78"/>
+      <c r="P5" s="89"/>
+      <c r="Q5" s="78"/>
+      <c r="R5" s="78"/>
+      <c r="S5" s="90"/>
       <c r="T5" s="27"/>
-      <c r="U5" s="82"/>
-      <c r="V5" s="82"/>
+      <c r="U5" s="78"/>
+      <c r="V5" s="78"/>
       <c r="W5" s="48"/>
     </row>
     <row r="6" spans="1:23" s="12" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -4854,7 +4869,7 @@
       <c r="R6" s="38"/>
       <c r="S6" s="4"/>
       <c r="T6" s="75"/>
-      <c r="U6" s="78" t="s">
+      <c r="U6" s="86" t="s">
         <v>18</v>
       </c>
       <c r="V6" s="4" t="s">
@@ -4893,7 +4908,7 @@
       <c r="R7" s="38"/>
       <c r="S7" s="4"/>
       <c r="T7" s="75"/>
-      <c r="U7" s="79"/>
+      <c r="U7" s="87"/>
       <c r="V7" s="4" t="s">
         <v>35</v>
       </c>
@@ -4922,7 +4937,7 @@
       <c r="R8" s="38"/>
       <c r="S8" s="4"/>
       <c r="T8" s="75"/>
-      <c r="U8" s="79"/>
+      <c r="U8" s="87"/>
       <c r="V8" s="4" t="s">
         <v>21</v>
       </c>
@@ -4951,7 +4966,7 @@
       <c r="R9" s="38"/>
       <c r="S9" s="4"/>
       <c r="T9" s="75"/>
-      <c r="U9" s="79"/>
+      <c r="U9" s="87"/>
       <c r="V9" s="4" t="s">
         <v>51</v>
       </c>
@@ -4980,7 +4995,7 @@
       <c r="R10" s="38"/>
       <c r="S10" s="4"/>
       <c r="T10" s="75"/>
-      <c r="U10" s="79"/>
+      <c r="U10" s="87"/>
       <c r="V10" s="4" t="s">
         <v>31</v>
       </c>
@@ -5009,7 +5024,7 @@
       <c r="R11" s="38"/>
       <c r="S11" s="4"/>
       <c r="T11" s="75"/>
-      <c r="U11" s="79"/>
+      <c r="U11" s="87"/>
       <c r="V11" s="4" t="s">
         <v>30</v>
       </c>
@@ -5038,7 +5053,7 @@
       <c r="R12" s="38"/>
       <c r="S12" s="4"/>
       <c r="T12" s="75"/>
-      <c r="U12" s="78" t="s">
+      <c r="U12" s="86" t="s">
         <v>19</v>
       </c>
       <c r="V12" s="4" t="s">
@@ -5069,7 +5084,7 @@
       <c r="R13" s="10"/>
       <c r="S13" s="4"/>
       <c r="T13" s="75"/>
-      <c r="U13" s="79"/>
+      <c r="U13" s="87"/>
       <c r="V13" s="4" t="s">
         <v>37</v>
       </c>
@@ -5098,7 +5113,7 @@
       <c r="R14" s="38"/>
       <c r="S14" s="4"/>
       <c r="T14" s="75"/>
-      <c r="U14" s="79"/>
+      <c r="U14" s="87"/>
       <c r="V14" s="4" t="s">
         <v>36</v>
       </c>
@@ -5127,7 +5142,7 @@
       <c r="R15" s="38"/>
       <c r="S15" s="4"/>
       <c r="T15" s="14"/>
-      <c r="U15" s="79"/>
+      <c r="U15" s="87"/>
       <c r="V15" s="4" t="s">
         <v>24</v>
       </c>
@@ -5156,7 +5171,7 @@
       <c r="R16" s="38"/>
       <c r="S16" s="4"/>
       <c r="T16" s="14"/>
-      <c r="U16" s="80"/>
+      <c r="U16" s="88"/>
       <c r="V16" s="4" t="s">
         <v>25</v>
       </c>
@@ -6448,41 +6463,41 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="84" t="s">
+      <c r="A1" s="79" t="s">
         <v>61</v>
       </c>
-      <c r="B1" s="84"/>
-      <c r="C1" s="84"/>
-      <c r="D1" s="84"/>
-      <c r="E1" s="84"/>
-      <c r="F1" s="84"/>
-      <c r="G1" s="84"/>
-      <c r="H1" s="84"/>
-      <c r="I1" s="84"/>
-      <c r="J1" s="84"/>
-      <c r="K1" s="84"/>
-      <c r="L1" s="84"/>
-      <c r="M1" s="84"/>
-      <c r="N1" s="84"/>
-      <c r="O1" s="84"/>
-      <c r="P1" s="84"/>
-      <c r="Q1" s="84"/>
-      <c r="R1" s="84"/>
-      <c r="S1" s="84"/>
-      <c r="T1" s="84"/>
-      <c r="U1" s="84"/>
-      <c r="V1" s="84"/>
+      <c r="B1" s="79"/>
+      <c r="C1" s="79"/>
+      <c r="D1" s="79"/>
+      <c r="E1" s="79"/>
+      <c r="F1" s="79"/>
+      <c r="G1" s="79"/>
+      <c r="H1" s="79"/>
+      <c r="I1" s="79"/>
+      <c r="J1" s="79"/>
+      <c r="K1" s="79"/>
+      <c r="L1" s="79"/>
+      <c r="M1" s="79"/>
+      <c r="N1" s="79"/>
+      <c r="O1" s="79"/>
+      <c r="P1" s="79"/>
+      <c r="Q1" s="79"/>
+      <c r="R1" s="79"/>
+      <c r="S1" s="79"/>
+      <c r="T1" s="79"/>
+      <c r="U1" s="79"/>
+      <c r="V1" s="79"/>
       <c r="W1" s="47"/>
     </row>
     <row r="2" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="85" t="s">
+      <c r="A2" s="80" t="s">
         <v>9</v>
       </c>
-      <c r="B2" s="86"/>
-      <c r="C2" s="86"/>
-      <c r="D2" s="86"/>
-      <c r="E2" s="87"/>
-      <c r="F2" s="87"/>
+      <c r="B2" s="81"/>
+      <c r="C2" s="81"/>
+      <c r="D2" s="81"/>
+      <c r="E2" s="82"/>
+      <c r="F2" s="82"/>
       <c r="G2" s="5"/>
       <c r="H2" s="21"/>
       <c r="I2" s="53"/>
@@ -6527,58 +6542,58 @@
       <c r="W3" s="27"/>
     </row>
     <row r="4" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="88" t="s">
-        <v>0</v>
-      </c>
-      <c r="B4" s="82" t="s">
+      <c r="A4" s="83" t="s">
+        <v>0</v>
+      </c>
+      <c r="B4" s="78" t="s">
         <v>8</v>
       </c>
-      <c r="C4" s="82"/>
-      <c r="D4" s="82"/>
-      <c r="E4" s="82"/>
-      <c r="F4" s="82"/>
-      <c r="G4" s="82"/>
-      <c r="H4" s="82"/>
-      <c r="I4" s="82"/>
-      <c r="J4" s="82" t="s">
+      <c r="C4" s="78"/>
+      <c r="D4" s="78"/>
+      <c r="E4" s="78"/>
+      <c r="F4" s="78"/>
+      <c r="G4" s="78"/>
+      <c r="H4" s="78"/>
+      <c r="I4" s="78"/>
+      <c r="J4" s="78" t="s">
         <v>6</v>
       </c>
-      <c r="K4" s="82" t="s">
+      <c r="K4" s="78" t="s">
         <v>11</v>
       </c>
-      <c r="L4" s="82"/>
-      <c r="M4" s="89" t="s">
+      <c r="L4" s="78"/>
+      <c r="M4" s="84" t="s">
         <v>42</v>
       </c>
-      <c r="N4" s="89" t="s">
+      <c r="N4" s="84" t="s">
         <v>10</v>
       </c>
-      <c r="O4" s="82" t="s">
+      <c r="O4" s="78" t="s">
         <v>7</v>
       </c>
-      <c r="P4" s="81" t="s">
+      <c r="P4" s="89" t="s">
         <v>14</v>
       </c>
-      <c r="Q4" s="82" t="s">
+      <c r="Q4" s="78" t="s">
         <v>39</v>
       </c>
-      <c r="R4" s="82" t="s">
+      <c r="R4" s="78" t="s">
         <v>53</v>
       </c>
-      <c r="S4" s="83" t="s">
+      <c r="S4" s="90" t="s">
         <v>54</v>
       </c>
       <c r="T4" s="27"/>
-      <c r="U4" s="82" t="s">
+      <c r="U4" s="78" t="s">
         <v>39</v>
       </c>
-      <c r="V4" s="82" t="s">
+      <c r="V4" s="78" t="s">
         <v>53</v>
       </c>
       <c r="W4" s="48"/>
     </row>
     <row r="5" spans="1:23" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="88"/>
+      <c r="A5" s="83"/>
       <c r="B5" s="64" t="s">
         <v>1</v>
       </c>
@@ -6603,23 +6618,23 @@
       <c r="I5" s="55" t="s">
         <v>15</v>
       </c>
-      <c r="J5" s="82"/>
+      <c r="J5" s="78"/>
       <c r="K5" s="73" t="s">
         <v>12</v>
       </c>
       <c r="L5" s="73" t="s">
         <v>13</v>
       </c>
-      <c r="M5" s="90"/>
-      <c r="N5" s="90"/>
-      <c r="O5" s="82"/>
-      <c r="P5" s="81"/>
-      <c r="Q5" s="82"/>
-      <c r="R5" s="82"/>
-      <c r="S5" s="83"/>
+      <c r="M5" s="85"/>
+      <c r="N5" s="85"/>
+      <c r="O5" s="78"/>
+      <c r="P5" s="89"/>
+      <c r="Q5" s="78"/>
+      <c r="R5" s="78"/>
+      <c r="S5" s="90"/>
       <c r="T5" s="27"/>
-      <c r="U5" s="82"/>
-      <c r="V5" s="82"/>
+      <c r="U5" s="78"/>
+      <c r="V5" s="78"/>
       <c r="W5" s="48"/>
     </row>
     <row r="6" spans="1:23" s="12" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -6653,7 +6668,7 @@
       <c r="R6" s="38"/>
       <c r="S6" s="4"/>
       <c r="T6" s="72"/>
-      <c r="U6" s="78" t="s">
+      <c r="U6" s="86" t="s">
         <v>18</v>
       </c>
       <c r="V6" s="4" t="s">
@@ -6690,7 +6705,7 @@
       <c r="R7" s="38"/>
       <c r="S7" s="4"/>
       <c r="T7" s="72"/>
-      <c r="U7" s="79"/>
+      <c r="U7" s="87"/>
       <c r="V7" s="4" t="s">
         <v>35</v>
       </c>
@@ -6727,7 +6742,7 @@
       <c r="R8" s="38"/>
       <c r="S8" s="4"/>
       <c r="T8" s="72"/>
-      <c r="U8" s="79"/>
+      <c r="U8" s="87"/>
       <c r="V8" s="4" t="s">
         <v>21</v>
       </c>
@@ -6762,7 +6777,7 @@
       <c r="R9" s="38"/>
       <c r="S9" s="4"/>
       <c r="T9" s="72"/>
-      <c r="U9" s="79"/>
+      <c r="U9" s="87"/>
       <c r="V9" s="4" t="s">
         <v>51</v>
       </c>
@@ -6799,7 +6814,7 @@
       <c r="R10" s="38"/>
       <c r="S10" s="4"/>
       <c r="T10" s="72"/>
-      <c r="U10" s="79"/>
+      <c r="U10" s="87"/>
       <c r="V10" s="4" t="s">
         <v>31</v>
       </c>
@@ -6836,7 +6851,7 @@
       <c r="R11" s="38"/>
       <c r="S11" s="4"/>
       <c r="T11" s="72"/>
-      <c r="U11" s="79"/>
+      <c r="U11" s="87"/>
       <c r="V11" s="4" t="s">
         <v>30</v>
       </c>
@@ -6873,7 +6888,7 @@
       <c r="R12" s="38"/>
       <c r="S12" s="4"/>
       <c r="T12" s="72"/>
-      <c r="U12" s="78" t="s">
+      <c r="U12" s="86" t="s">
         <v>19</v>
       </c>
       <c r="V12" s="4" t="s">
@@ -6912,7 +6927,7 @@
       <c r="R13" s="10"/>
       <c r="S13" s="4"/>
       <c r="T13" s="72"/>
-      <c r="U13" s="79"/>
+      <c r="U13" s="87"/>
       <c r="V13" s="4" t="s">
         <v>37</v>
       </c>
@@ -6947,7 +6962,7 @@
       <c r="R14" s="38"/>
       <c r="S14" s="4"/>
       <c r="T14" s="72"/>
-      <c r="U14" s="79"/>
+      <c r="U14" s="87"/>
       <c r="V14" s="4" t="s">
         <v>36</v>
       </c>
@@ -6984,7 +6999,7 @@
       <c r="R15" s="38"/>
       <c r="S15" s="4"/>
       <c r="T15" s="14"/>
-      <c r="U15" s="79"/>
+      <c r="U15" s="87"/>
       <c r="V15" s="4" t="s">
         <v>24</v>
       </c>
@@ -7013,7 +7028,7 @@
       <c r="R16" s="38"/>
       <c r="S16" s="4"/>
       <c r="T16" s="14"/>
-      <c r="U16" s="80"/>
+      <c r="U16" s="88"/>
       <c r="V16" s="4" t="s">
         <v>25</v>
       </c>
@@ -8305,41 +8320,41 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="84" t="s">
+      <c r="A1" s="79" t="s">
         <v>61</v>
       </c>
-      <c r="B1" s="84"/>
-      <c r="C1" s="84"/>
-      <c r="D1" s="84"/>
-      <c r="E1" s="84"/>
-      <c r="F1" s="84"/>
-      <c r="G1" s="84"/>
-      <c r="H1" s="84"/>
-      <c r="I1" s="84"/>
-      <c r="J1" s="84"/>
-      <c r="K1" s="84"/>
-      <c r="L1" s="84"/>
-      <c r="M1" s="84"/>
-      <c r="N1" s="84"/>
-      <c r="O1" s="84"/>
-      <c r="P1" s="84"/>
-      <c r="Q1" s="84"/>
-      <c r="R1" s="84"/>
-      <c r="S1" s="84"/>
-      <c r="T1" s="84"/>
-      <c r="U1" s="84"/>
-      <c r="V1" s="84"/>
+      <c r="B1" s="79"/>
+      <c r="C1" s="79"/>
+      <c r="D1" s="79"/>
+      <c r="E1" s="79"/>
+      <c r="F1" s="79"/>
+      <c r="G1" s="79"/>
+      <c r="H1" s="79"/>
+      <c r="I1" s="79"/>
+      <c r="J1" s="79"/>
+      <c r="K1" s="79"/>
+      <c r="L1" s="79"/>
+      <c r="M1" s="79"/>
+      <c r="N1" s="79"/>
+      <c r="O1" s="79"/>
+      <c r="P1" s="79"/>
+      <c r="Q1" s="79"/>
+      <c r="R1" s="79"/>
+      <c r="S1" s="79"/>
+      <c r="T1" s="79"/>
+      <c r="U1" s="79"/>
+      <c r="V1" s="79"/>
       <c r="W1" s="47"/>
     </row>
     <row r="2" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="85" t="s">
+      <c r="A2" s="80" t="s">
         <v>9</v>
       </c>
-      <c r="B2" s="86"/>
-      <c r="C2" s="86"/>
-      <c r="D2" s="86"/>
-      <c r="E2" s="87"/>
-      <c r="F2" s="87"/>
+      <c r="B2" s="81"/>
+      <c r="C2" s="81"/>
+      <c r="D2" s="81"/>
+      <c r="E2" s="82"/>
+      <c r="F2" s="82"/>
       <c r="G2" s="5"/>
       <c r="H2" s="21"/>
       <c r="I2" s="53"/>
@@ -8384,58 +8399,58 @@
       <c r="W3" s="27"/>
     </row>
     <row r="4" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="88" t="s">
-        <v>0</v>
-      </c>
-      <c r="B4" s="82" t="s">
+      <c r="A4" s="83" t="s">
+        <v>0</v>
+      </c>
+      <c r="B4" s="78" t="s">
         <v>8</v>
       </c>
-      <c r="C4" s="82"/>
-      <c r="D4" s="82"/>
-      <c r="E4" s="82"/>
-      <c r="F4" s="82"/>
-      <c r="G4" s="82"/>
-      <c r="H4" s="82"/>
-      <c r="I4" s="82"/>
-      <c r="J4" s="82" t="s">
+      <c r="C4" s="78"/>
+      <c r="D4" s="78"/>
+      <c r="E4" s="78"/>
+      <c r="F4" s="78"/>
+      <c r="G4" s="78"/>
+      <c r="H4" s="78"/>
+      <c r="I4" s="78"/>
+      <c r="J4" s="78" t="s">
         <v>6</v>
       </c>
-      <c r="K4" s="82" t="s">
+      <c r="K4" s="78" t="s">
         <v>11</v>
       </c>
-      <c r="L4" s="82"/>
-      <c r="M4" s="89" t="s">
+      <c r="L4" s="78"/>
+      <c r="M4" s="84" t="s">
         <v>42</v>
       </c>
-      <c r="N4" s="89" t="s">
+      <c r="N4" s="84" t="s">
         <v>10</v>
       </c>
-      <c r="O4" s="82" t="s">
+      <c r="O4" s="78" t="s">
         <v>7</v>
       </c>
-      <c r="P4" s="81" t="s">
+      <c r="P4" s="89" t="s">
         <v>14</v>
       </c>
-      <c r="Q4" s="82" t="s">
+      <c r="Q4" s="78" t="s">
         <v>39</v>
       </c>
-      <c r="R4" s="82" t="s">
+      <c r="R4" s="78" t="s">
         <v>53</v>
       </c>
-      <c r="S4" s="83" t="s">
+      <c r="S4" s="90" t="s">
         <v>54</v>
       </c>
       <c r="T4" s="27"/>
-      <c r="U4" s="82" t="s">
+      <c r="U4" s="78" t="s">
         <v>39</v>
       </c>
-      <c r="V4" s="82" t="s">
+      <c r="V4" s="78" t="s">
         <v>53</v>
       </c>
       <c r="W4" s="48"/>
     </row>
     <row r="5" spans="1:23" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="88"/>
+      <c r="A5" s="83"/>
       <c r="B5" s="64" t="s">
         <v>1</v>
       </c>
@@ -8460,23 +8475,23 @@
       <c r="I5" s="55" t="s">
         <v>15</v>
       </c>
-      <c r="J5" s="82"/>
+      <c r="J5" s="78"/>
       <c r="K5" s="74" t="s">
         <v>12</v>
       </c>
       <c r="L5" s="74" t="s">
         <v>13</v>
       </c>
-      <c r="M5" s="90"/>
-      <c r="N5" s="90"/>
-      <c r="O5" s="82"/>
-      <c r="P5" s="81"/>
-      <c r="Q5" s="82"/>
-      <c r="R5" s="82"/>
-      <c r="S5" s="83"/>
+      <c r="M5" s="85"/>
+      <c r="N5" s="85"/>
+      <c r="O5" s="78"/>
+      <c r="P5" s="89"/>
+      <c r="Q5" s="78"/>
+      <c r="R5" s="78"/>
+      <c r="S5" s="90"/>
       <c r="T5" s="27"/>
-      <c r="U5" s="82"/>
-      <c r="V5" s="82"/>
+      <c r="U5" s="78"/>
+      <c r="V5" s="78"/>
       <c r="W5" s="48"/>
     </row>
     <row r="6" spans="1:23" s="12" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -8510,7 +8525,7 @@
       <c r="R6" s="38"/>
       <c r="S6" s="4"/>
       <c r="T6" s="75"/>
-      <c r="U6" s="78" t="s">
+      <c r="U6" s="86" t="s">
         <v>18</v>
       </c>
       <c r="V6" s="4" t="s">
@@ -8549,7 +8564,7 @@
       <c r="R7" s="38"/>
       <c r="S7" s="4"/>
       <c r="T7" s="75"/>
-      <c r="U7" s="79"/>
+      <c r="U7" s="87"/>
       <c r="V7" s="4" t="s">
         <v>35</v>
       </c>
@@ -8588,7 +8603,7 @@
       <c r="R8" s="38"/>
       <c r="S8" s="4"/>
       <c r="T8" s="75"/>
-      <c r="U8" s="79"/>
+      <c r="U8" s="87"/>
       <c r="V8" s="4" t="s">
         <v>21</v>
       </c>
@@ -8625,7 +8640,7 @@
       <c r="R9" s="38"/>
       <c r="S9" s="4"/>
       <c r="T9" s="75"/>
-      <c r="U9" s="79"/>
+      <c r="U9" s="87"/>
       <c r="V9" s="4" t="s">
         <v>51</v>
       </c>
@@ -8654,7 +8669,7 @@
       <c r="R10" s="38"/>
       <c r="S10" s="4"/>
       <c r="T10" s="75"/>
-      <c r="U10" s="79"/>
+      <c r="U10" s="87"/>
       <c r="V10" s="4" t="s">
         <v>31</v>
       </c>
@@ -8683,7 +8698,7 @@
       <c r="R11" s="38"/>
       <c r="S11" s="4"/>
       <c r="T11" s="75"/>
-      <c r="U11" s="79"/>
+      <c r="U11" s="87"/>
       <c r="V11" s="4" t="s">
         <v>30</v>
       </c>
@@ -8712,7 +8727,7 @@
       <c r="R12" s="38"/>
       <c r="S12" s="4"/>
       <c r="T12" s="75"/>
-      <c r="U12" s="78" t="s">
+      <c r="U12" s="86" t="s">
         <v>19</v>
       </c>
       <c r="V12" s="4" t="s">
@@ -8743,7 +8758,7 @@
       <c r="R13" s="10"/>
       <c r="S13" s="4"/>
       <c r="T13" s="75"/>
-      <c r="U13" s="79"/>
+      <c r="U13" s="87"/>
       <c r="V13" s="4" t="s">
         <v>37</v>
       </c>
@@ -8772,7 +8787,7 @@
       <c r="R14" s="38"/>
       <c r="S14" s="4"/>
       <c r="T14" s="75"/>
-      <c r="U14" s="79"/>
+      <c r="U14" s="87"/>
       <c r="V14" s="4" t="s">
         <v>36</v>
       </c>
@@ -8801,7 +8816,7 @@
       <c r="R15" s="38"/>
       <c r="S15" s="4"/>
       <c r="T15" s="14"/>
-      <c r="U15" s="79"/>
+      <c r="U15" s="87"/>
       <c r="V15" s="4" t="s">
         <v>24</v>
       </c>
@@ -8830,7 +8845,7 @@
       <c r="R16" s="38"/>
       <c r="S16" s="4"/>
       <c r="T16" s="14"/>
-      <c r="U16" s="80"/>
+      <c r="U16" s="88"/>
       <c r="V16" s="4" t="s">
         <v>25</v>
       </c>
@@ -10089,7 +10104,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:X57"/>
   <sheetViews>
-    <sheetView showZeros="0" tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+    <sheetView showZeros="0" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <selection activeCell="J13" sqref="J13"/>
     </sheetView>
   </sheetViews>
@@ -10122,41 +10137,41 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="84" t="s">
+      <c r="A1" s="79" t="s">
         <v>61</v>
       </c>
-      <c r="B1" s="84"/>
-      <c r="C1" s="84"/>
-      <c r="D1" s="84"/>
-      <c r="E1" s="84"/>
-      <c r="F1" s="84"/>
-      <c r="G1" s="84"/>
-      <c r="H1" s="84"/>
-      <c r="I1" s="84"/>
-      <c r="J1" s="84"/>
-      <c r="K1" s="84"/>
-      <c r="L1" s="84"/>
-      <c r="M1" s="84"/>
-      <c r="N1" s="84"/>
-      <c r="O1" s="84"/>
-      <c r="P1" s="84"/>
-      <c r="Q1" s="84"/>
-      <c r="R1" s="84"/>
-      <c r="S1" s="84"/>
-      <c r="T1" s="84"/>
-      <c r="U1" s="84"/>
-      <c r="V1" s="84"/>
+      <c r="B1" s="79"/>
+      <c r="C1" s="79"/>
+      <c r="D1" s="79"/>
+      <c r="E1" s="79"/>
+      <c r="F1" s="79"/>
+      <c r="G1" s="79"/>
+      <c r="H1" s="79"/>
+      <c r="I1" s="79"/>
+      <c r="J1" s="79"/>
+      <c r="K1" s="79"/>
+      <c r="L1" s="79"/>
+      <c r="M1" s="79"/>
+      <c r="N1" s="79"/>
+      <c r="O1" s="79"/>
+      <c r="P1" s="79"/>
+      <c r="Q1" s="79"/>
+      <c r="R1" s="79"/>
+      <c r="S1" s="79"/>
+      <c r="T1" s="79"/>
+      <c r="U1" s="79"/>
+      <c r="V1" s="79"/>
       <c r="W1" s="47"/>
     </row>
     <row r="2" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="85" t="s">
+      <c r="A2" s="80" t="s">
         <v>9</v>
       </c>
-      <c r="B2" s="86"/>
-      <c r="C2" s="86"/>
-      <c r="D2" s="86"/>
-      <c r="E2" s="87"/>
-      <c r="F2" s="87"/>
+      <c r="B2" s="81"/>
+      <c r="C2" s="81"/>
+      <c r="D2" s="81"/>
+      <c r="E2" s="82"/>
+      <c r="F2" s="82"/>
       <c r="G2" s="5"/>
       <c r="H2" s="21"/>
       <c r="I2" s="53"/>
@@ -10201,58 +10216,58 @@
       <c r="W3" s="27"/>
     </row>
     <row r="4" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="88" t="s">
-        <v>0</v>
-      </c>
-      <c r="B4" s="82" t="s">
+      <c r="A4" s="83" t="s">
+        <v>0</v>
+      </c>
+      <c r="B4" s="78" t="s">
         <v>8</v>
       </c>
-      <c r="C4" s="82"/>
-      <c r="D4" s="82"/>
-      <c r="E4" s="82"/>
-      <c r="F4" s="82"/>
-      <c r="G4" s="82"/>
-      <c r="H4" s="82"/>
-      <c r="I4" s="82"/>
-      <c r="J4" s="82" t="s">
+      <c r="C4" s="78"/>
+      <c r="D4" s="78"/>
+      <c r="E4" s="78"/>
+      <c r="F4" s="78"/>
+      <c r="G4" s="78"/>
+      <c r="H4" s="78"/>
+      <c r="I4" s="78"/>
+      <c r="J4" s="78" t="s">
         <v>6</v>
       </c>
-      <c r="K4" s="82" t="s">
+      <c r="K4" s="78" t="s">
         <v>11</v>
       </c>
-      <c r="L4" s="82"/>
-      <c r="M4" s="89" t="s">
+      <c r="L4" s="78"/>
+      <c r="M4" s="84" t="s">
         <v>42</v>
       </c>
-      <c r="N4" s="89" t="s">
+      <c r="N4" s="84" t="s">
         <v>10</v>
       </c>
-      <c r="O4" s="82" t="s">
+      <c r="O4" s="78" t="s">
         <v>7</v>
       </c>
-      <c r="P4" s="81" t="s">
+      <c r="P4" s="89" t="s">
         <v>14</v>
       </c>
-      <c r="Q4" s="82" t="s">
+      <c r="Q4" s="78" t="s">
         <v>39</v>
       </c>
-      <c r="R4" s="82" t="s">
+      <c r="R4" s="78" t="s">
         <v>53</v>
       </c>
-      <c r="S4" s="83" t="s">
+      <c r="S4" s="90" t="s">
         <v>54</v>
       </c>
       <c r="T4" s="27"/>
-      <c r="U4" s="82" t="s">
+      <c r="U4" s="78" t="s">
         <v>39</v>
       </c>
-      <c r="V4" s="82" t="s">
+      <c r="V4" s="78" t="s">
         <v>53</v>
       </c>
       <c r="W4" s="48"/>
     </row>
     <row r="5" spans="1:23" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="88"/>
+      <c r="A5" s="83"/>
       <c r="B5" s="64" t="s">
         <v>1</v>
       </c>
@@ -10277,23 +10292,23 @@
       <c r="I5" s="55" t="s">
         <v>15</v>
       </c>
-      <c r="J5" s="82"/>
+      <c r="J5" s="78"/>
       <c r="K5" s="70" t="s">
         <v>12</v>
       </c>
       <c r="L5" s="70" t="s">
         <v>13</v>
       </c>
-      <c r="M5" s="90"/>
-      <c r="N5" s="90"/>
-      <c r="O5" s="82"/>
-      <c r="P5" s="81"/>
-      <c r="Q5" s="82"/>
-      <c r="R5" s="82"/>
-      <c r="S5" s="83"/>
+      <c r="M5" s="85"/>
+      <c r="N5" s="85"/>
+      <c r="O5" s="78"/>
+      <c r="P5" s="89"/>
+      <c r="Q5" s="78"/>
+      <c r="R5" s="78"/>
+      <c r="S5" s="90"/>
       <c r="T5" s="27"/>
-      <c r="U5" s="82"/>
-      <c r="V5" s="82"/>
+      <c r="U5" s="78"/>
+      <c r="V5" s="78"/>
       <c r="W5" s="48"/>
     </row>
     <row r="6" spans="1:23" s="12" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -10327,7 +10342,7 @@
       <c r="R6" s="38"/>
       <c r="S6" s="4"/>
       <c r="T6" s="71"/>
-      <c r="U6" s="78" t="s">
+      <c r="U6" s="86" t="s">
         <v>18</v>
       </c>
       <c r="V6" s="4" t="s">
@@ -10366,7 +10381,7 @@
       <c r="R7" s="38"/>
       <c r="S7" s="4"/>
       <c r="T7" s="71"/>
-      <c r="U7" s="79"/>
+      <c r="U7" s="87"/>
       <c r="V7" s="4" t="s">
         <v>35</v>
       </c>
@@ -10405,7 +10420,7 @@
       <c r="R8" s="38"/>
       <c r="S8" s="4"/>
       <c r="T8" s="71"/>
-      <c r="U8" s="79"/>
+      <c r="U8" s="87"/>
       <c r="V8" s="4" t="s">
         <v>21</v>
       </c>
@@ -10440,7 +10455,7 @@
       <c r="R9" s="38"/>
       <c r="S9" s="4"/>
       <c r="T9" s="71"/>
-      <c r="U9" s="79"/>
+      <c r="U9" s="87"/>
       <c r="V9" s="4" t="s">
         <v>51</v>
       </c>
@@ -10477,7 +10492,7 @@
       <c r="R10" s="38"/>
       <c r="S10" s="4"/>
       <c r="T10" s="71"/>
-      <c r="U10" s="79"/>
+      <c r="U10" s="87"/>
       <c r="V10" s="4" t="s">
         <v>31</v>
       </c>
@@ -10512,7 +10527,7 @@
       <c r="R11" s="38"/>
       <c r="S11" s="4"/>
       <c r="T11" s="71"/>
-      <c r="U11" s="79"/>
+      <c r="U11" s="87"/>
       <c r="V11" s="4" t="s">
         <v>30</v>
       </c>
@@ -10549,7 +10564,7 @@
       <c r="R12" s="38"/>
       <c r="S12" s="4"/>
       <c r="T12" s="71"/>
-      <c r="U12" s="78" t="s">
+      <c r="U12" s="86" t="s">
         <v>19</v>
       </c>
       <c r="V12" s="4" t="s">
@@ -10580,7 +10595,7 @@
       <c r="R13" s="10"/>
       <c r="S13" s="4"/>
       <c r="T13" s="71"/>
-      <c r="U13" s="79"/>
+      <c r="U13" s="87"/>
       <c r="V13" s="4" t="s">
         <v>37</v>
       </c>
@@ -10609,7 +10624,7 @@
       <c r="R14" s="38"/>
       <c r="S14" s="4"/>
       <c r="T14" s="71"/>
-      <c r="U14" s="79"/>
+      <c r="U14" s="87"/>
       <c r="V14" s="4" t="s">
         <v>36</v>
       </c>
@@ -10638,7 +10653,7 @@
       <c r="R15" s="38"/>
       <c r="S15" s="4"/>
       <c r="T15" s="14"/>
-      <c r="U15" s="79"/>
+      <c r="U15" s="87"/>
       <c r="V15" s="4" t="s">
         <v>24</v>
       </c>
@@ -10667,7 +10682,7 @@
       <c r="R16" s="38"/>
       <c r="S16" s="4"/>
       <c r="T16" s="14"/>
-      <c r="U16" s="80"/>
+      <c r="U16" s="88"/>
       <c r="V16" s="4" t="s">
         <v>25</v>
       </c>
@@ -11959,41 +11974,41 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="84" t="s">
+      <c r="A1" s="79" t="s">
         <v>62</v>
       </c>
-      <c r="B1" s="84"/>
-      <c r="C1" s="84"/>
-      <c r="D1" s="84"/>
-      <c r="E1" s="84"/>
-      <c r="F1" s="84"/>
-      <c r="G1" s="84"/>
-      <c r="H1" s="84"/>
-      <c r="I1" s="84"/>
-      <c r="J1" s="84"/>
-      <c r="K1" s="84"/>
-      <c r="L1" s="84"/>
-      <c r="M1" s="84"/>
-      <c r="N1" s="84"/>
-      <c r="O1" s="84"/>
-      <c r="P1" s="84"/>
-      <c r="Q1" s="84"/>
-      <c r="R1" s="84"/>
-      <c r="S1" s="84"/>
-      <c r="T1" s="84"/>
-      <c r="U1" s="84"/>
-      <c r="V1" s="84"/>
+      <c r="B1" s="79"/>
+      <c r="C1" s="79"/>
+      <c r="D1" s="79"/>
+      <c r="E1" s="79"/>
+      <c r="F1" s="79"/>
+      <c r="G1" s="79"/>
+      <c r="H1" s="79"/>
+      <c r="I1" s="79"/>
+      <c r="J1" s="79"/>
+      <c r="K1" s="79"/>
+      <c r="L1" s="79"/>
+      <c r="M1" s="79"/>
+      <c r="N1" s="79"/>
+      <c r="O1" s="79"/>
+      <c r="P1" s="79"/>
+      <c r="Q1" s="79"/>
+      <c r="R1" s="79"/>
+      <c r="S1" s="79"/>
+      <c r="T1" s="79"/>
+      <c r="U1" s="79"/>
+      <c r="V1" s="79"/>
       <c r="W1" s="47"/>
     </row>
     <row r="2" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="85" t="s">
+      <c r="A2" s="80" t="s">
         <v>9</v>
       </c>
-      <c r="B2" s="86"/>
-      <c r="C2" s="86"/>
-      <c r="D2" s="86"/>
-      <c r="E2" s="87"/>
-      <c r="F2" s="87"/>
+      <c r="B2" s="81"/>
+      <c r="C2" s="81"/>
+      <c r="D2" s="81"/>
+      <c r="E2" s="82"/>
+      <c r="F2" s="82"/>
       <c r="G2" s="5"/>
       <c r="H2" s="21"/>
       <c r="I2" s="21"/>
@@ -12038,58 +12053,58 @@
       <c r="W3" s="27"/>
     </row>
     <row r="4" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="88" t="s">
-        <v>0</v>
-      </c>
-      <c r="B4" s="82" t="s">
+      <c r="A4" s="83" t="s">
+        <v>0</v>
+      </c>
+      <c r="B4" s="78" t="s">
         <v>8</v>
       </c>
-      <c r="C4" s="82"/>
-      <c r="D4" s="82"/>
-      <c r="E4" s="82"/>
-      <c r="F4" s="82"/>
-      <c r="G4" s="82"/>
-      <c r="H4" s="82"/>
-      <c r="I4" s="82"/>
-      <c r="J4" s="82" t="s">
+      <c r="C4" s="78"/>
+      <c r="D4" s="78"/>
+      <c r="E4" s="78"/>
+      <c r="F4" s="78"/>
+      <c r="G4" s="78"/>
+      <c r="H4" s="78"/>
+      <c r="I4" s="78"/>
+      <c r="J4" s="78" t="s">
         <v>6</v>
       </c>
-      <c r="K4" s="82" t="s">
+      <c r="K4" s="78" t="s">
         <v>11</v>
       </c>
-      <c r="L4" s="82"/>
-      <c r="M4" s="89" t="s">
+      <c r="L4" s="78"/>
+      <c r="M4" s="84" t="s">
         <v>42</v>
       </c>
-      <c r="N4" s="89" t="s">
+      <c r="N4" s="84" t="s">
         <v>10</v>
       </c>
-      <c r="O4" s="82" t="s">
+      <c r="O4" s="78" t="s">
         <v>7</v>
       </c>
-      <c r="P4" s="81" t="s">
+      <c r="P4" s="89" t="s">
         <v>14</v>
       </c>
-      <c r="Q4" s="82" t="s">
+      <c r="Q4" s="78" t="s">
         <v>39</v>
       </c>
-      <c r="R4" s="82" t="s">
+      <c r="R4" s="78" t="s">
         <v>53</v>
       </c>
-      <c r="S4" s="83" t="s">
+      <c r="S4" s="90" t="s">
         <v>54</v>
       </c>
       <c r="T4" s="27"/>
-      <c r="U4" s="82" t="s">
+      <c r="U4" s="78" t="s">
         <v>39</v>
       </c>
-      <c r="V4" s="82" t="s">
+      <c r="V4" s="78" t="s">
         <v>53</v>
       </c>
       <c r="W4" s="48"/>
     </row>
     <row r="5" spans="1:23" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="88"/>
+      <c r="A5" s="83"/>
       <c r="B5" s="44" t="s">
         <v>1</v>
       </c>
@@ -12114,23 +12129,23 @@
       <c r="I5" s="44" t="s">
         <v>15</v>
       </c>
-      <c r="J5" s="82"/>
+      <c r="J5" s="78"/>
       <c r="K5" s="44" t="s">
         <v>12</v>
       </c>
       <c r="L5" s="44" t="s">
         <v>13</v>
       </c>
-      <c r="M5" s="90"/>
-      <c r="N5" s="90"/>
-      <c r="O5" s="82"/>
-      <c r="P5" s="81"/>
-      <c r="Q5" s="82"/>
-      <c r="R5" s="82"/>
-      <c r="S5" s="83"/>
+      <c r="M5" s="85"/>
+      <c r="N5" s="85"/>
+      <c r="O5" s="78"/>
+      <c r="P5" s="89"/>
+      <c r="Q5" s="78"/>
+      <c r="R5" s="78"/>
+      <c r="S5" s="90"/>
       <c r="T5" s="27"/>
-      <c r="U5" s="82"/>
-      <c r="V5" s="82"/>
+      <c r="U5" s="78"/>
+      <c r="V5" s="78"/>
       <c r="W5" s="48"/>
     </row>
     <row r="6" spans="1:23" s="12" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -12156,7 +12171,7 @@
       <c r="R6" s="38"/>
       <c r="S6" s="4"/>
       <c r="T6" s="43"/>
-      <c r="U6" s="78" t="s">
+      <c r="U6" s="86" t="s">
         <v>18</v>
       </c>
       <c r="V6" s="4" t="s">
@@ -12187,7 +12202,7 @@
       <c r="R7" s="38"/>
       <c r="S7" s="4"/>
       <c r="T7" s="43"/>
-      <c r="U7" s="79"/>
+      <c r="U7" s="87"/>
       <c r="V7" s="4" t="s">
         <v>35</v>
       </c>
@@ -12216,7 +12231,7 @@
       <c r="R8" s="38"/>
       <c r="S8" s="4"/>
       <c r="T8" s="43"/>
-      <c r="U8" s="79"/>
+      <c r="U8" s="87"/>
       <c r="V8" s="4" t="s">
         <v>21</v>
       </c>
@@ -12245,7 +12260,7 @@
       <c r="R9" s="38"/>
       <c r="S9" s="4"/>
       <c r="T9" s="43"/>
-      <c r="U9" s="79"/>
+      <c r="U9" s="87"/>
       <c r="V9" s="4" t="s">
         <v>51</v>
       </c>
@@ -12274,7 +12289,7 @@
       <c r="R10" s="38"/>
       <c r="S10" s="4"/>
       <c r="T10" s="43"/>
-      <c r="U10" s="79"/>
+      <c r="U10" s="87"/>
       <c r="V10" s="4" t="s">
         <v>31</v>
       </c>
@@ -12303,7 +12318,7 @@
       <c r="R11" s="38"/>
       <c r="S11" s="4"/>
       <c r="T11" s="43"/>
-      <c r="U11" s="79"/>
+      <c r="U11" s="87"/>
       <c r="V11" s="4" t="s">
         <v>30</v>
       </c>
@@ -12332,7 +12347,7 @@
       <c r="R12" s="38"/>
       <c r="S12" s="4"/>
       <c r="T12" s="43"/>
-      <c r="U12" s="78" t="s">
+      <c r="U12" s="86" t="s">
         <v>19</v>
       </c>
       <c r="V12" s="4" t="s">
@@ -12363,7 +12378,7 @@
       <c r="R13" s="10"/>
       <c r="S13" s="4"/>
       <c r="T13" s="43"/>
-      <c r="U13" s="79"/>
+      <c r="U13" s="87"/>
       <c r="V13" s="4" t="s">
         <v>37</v>
       </c>
@@ -12392,7 +12407,7 @@
       <c r="R14" s="38"/>
       <c r="S14" s="4"/>
       <c r="T14" s="43"/>
-      <c r="U14" s="79"/>
+      <c r="U14" s="87"/>
       <c r="V14" s="4" t="s">
         <v>36</v>
       </c>
@@ -12421,7 +12436,7 @@
       <c r="R15" s="38"/>
       <c r="S15" s="4"/>
       <c r="T15" s="14"/>
-      <c r="U15" s="79"/>
+      <c r="U15" s="87"/>
       <c r="V15" s="4" t="s">
         <v>24</v>
       </c>
@@ -12450,7 +12465,7 @@
       <c r="R16" s="38"/>
       <c r="S16" s="4"/>
       <c r="T16" s="14"/>
-      <c r="U16" s="80"/>
+      <c r="U16" s="88"/>
       <c r="V16" s="4" t="s">
         <v>25</v>
       </c>

--- a/5. WS/1. Bộ phận bảo hành/1. Thực hiện sửa chữa bảo hành/nam2021/Thang6/02.XuLyBH/XLBH2106_AnhTuanNB.xlsx
+++ b/5. WS/1. Bộ phận bảo hành/1. Thực hiện sửa chữa bảo hành/nam2021/Thang6/02.XuLyBH/XLBH2106_AnhTuanNB.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="-15" yWindow="4035" windowWidth="10320" windowHeight="4065"/>
+    <workbookView xWindow="-15" yWindow="4035" windowWidth="10320" windowHeight="4065" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="TOP-1" sheetId="36" r:id="rId1"/>
@@ -41,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="519" uniqueCount="72">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="569" uniqueCount="92">
   <si>
     <t>STT</t>
   </si>
@@ -261,7 +261,67 @@
     <t>125.212.203.114,16969</t>
   </si>
   <si>
-    <t>Thiết bị không chốt GSM</t>
+    <t>Thiết bị không chốt GPS</t>
+  </si>
+  <si>
+    <t>Xử lý lại anten GPS</t>
+  </si>
+  <si>
+    <t>BT</t>
+  </si>
+  <si>
+    <t>Tùng</t>
+  </si>
+  <si>
+    <t>LE.1.00.---06.191010</t>
+  </si>
+  <si>
+    <t>Lock: 125.212.203.114,16363</t>
+  </si>
+  <si>
+    <t>Connector nguồn lỗi</t>
+  </si>
+  <si>
+    <t>Hàn lại connector nguồn, nâng cấp FW</t>
+  </si>
+  <si>
+    <t>125.212.203.114,16060</t>
+  </si>
+  <si>
+    <t>LE4.1.00.---06.200724</t>
+  </si>
+  <si>
+    <t>Thiết bị thường xuyên mất tín hiệu GSM</t>
+  </si>
+  <si>
+    <t>E.2.00.---24.200624.CAR01A10</t>
+  </si>
+  <si>
+    <t>125.212.203.114/16060</t>
+  </si>
+  <si>
+    <t>Test lại thiết bị</t>
+  </si>
+  <si>
+    <t>Thiết bị hoạt động bình thường</t>
+  </si>
+  <si>
+    <t>LE.2.00.---27.200414</t>
+  </si>
+  <si>
+    <t>Lcok: 125.212.203.114,16565</t>
+  </si>
+  <si>
+    <t>Thiết bị chập nguồn</t>
+  </si>
+  <si>
+    <t>Thay tụ lọc nguồn, nâng cấp FW</t>
+  </si>
+  <si>
+    <t>PC+PM</t>
+  </si>
+  <si>
+    <t>NG,NCFW</t>
   </si>
 </sst>
 </file>
@@ -1039,8 +1099,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:X57"/>
   <sheetViews>
-    <sheetView showZeros="0" tabSelected="1" topLeftCell="D1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="H13" sqref="H13"/>
+    <sheetView showZeros="0" topLeftCell="D1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="G6" sqref="G6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -1261,7 +1321,9 @@
         <v>868183037838435</v>
       </c>
       <c r="F6" s="38"/>
-      <c r="G6" s="38"/>
+      <c r="G6" s="38" t="s">
+        <v>64</v>
+      </c>
       <c r="H6" s="38"/>
       <c r="I6" s="50" t="s">
         <v>70</v>
@@ -1273,12 +1335,22 @@
         <v>69</v>
       </c>
       <c r="L6" s="40"/>
-      <c r="M6" s="40"/>
+      <c r="M6" s="40" t="s">
+        <v>72</v>
+      </c>
       <c r="N6" s="41"/>
-      <c r="O6" s="40"/>
-      <c r="P6" s="40"/>
-      <c r="Q6" s="3"/>
-      <c r="R6" s="38"/>
+      <c r="O6" s="40" t="s">
+        <v>73</v>
+      </c>
+      <c r="P6" s="40" t="s">
+        <v>74</v>
+      </c>
+      <c r="Q6" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="R6" s="38" t="s">
+        <v>21</v>
+      </c>
       <c r="S6" s="4"/>
       <c r="T6" s="77"/>
       <c r="U6" s="86" t="s">
@@ -1308,16 +1380,32 @@
         <v>64</v>
       </c>
       <c r="H7" s="38"/>
-      <c r="I7" s="50"/>
-      <c r="J7" s="40"/>
-      <c r="K7" s="61"/>
+      <c r="I7" s="50" t="s">
+        <v>76</v>
+      </c>
+      <c r="J7" s="40" t="s">
+        <v>77</v>
+      </c>
+      <c r="K7" s="61" t="s">
+        <v>75</v>
+      </c>
       <c r="L7" s="40"/>
-      <c r="M7" s="40"/>
+      <c r="M7" s="40" t="s">
+        <v>78</v>
+      </c>
       <c r="N7" s="41"/>
-      <c r="O7" s="40"/>
-      <c r="P7" s="40"/>
-      <c r="Q7" s="3"/>
-      <c r="R7" s="38"/>
+      <c r="O7" s="40" t="s">
+        <v>73</v>
+      </c>
+      <c r="P7" s="40" t="s">
+        <v>74</v>
+      </c>
+      <c r="Q7" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="R7" s="38" t="s">
+        <v>31</v>
+      </c>
       <c r="S7" s="4"/>
       <c r="T7" s="77"/>
       <c r="U7" s="87"/>
@@ -1734,7 +1822,7 @@
       </c>
       <c r="V21" s="10">
         <f>COUNTIF($Q$6:$Q$51,"PC")</f>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="W21" s="14"/>
     </row>
@@ -1947,7 +2035,7 @@
       </c>
       <c r="V28" s="10">
         <f>COUNTIF($R$6:$R$51,"*GPS*")</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="W28" s="14"/>
     </row>
@@ -1979,7 +2067,7 @@
       </c>
       <c r="V29" s="10">
         <f>COUNTIF($R$6:$R$51,"*NG*")</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="W29" s="14"/>
     </row>
@@ -2235,7 +2323,7 @@
       </c>
       <c r="V37" s="10">
         <f>SUM(V26:V36)</f>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="W37" s="14"/>
     </row>
@@ -2842,8 +2930,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:X57"/>
   <sheetViews>
-    <sheetView showZeros="0" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B6" sqref="B6"/>
+    <sheetView showZeros="0" topLeftCell="K1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="N8" sqref="N8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -3064,18 +3152,32 @@
         <v>861881051089283</v>
       </c>
       <c r="F6" s="38"/>
-      <c r="G6" s="38"/>
+      <c r="G6" s="38" t="s">
+        <v>5</v>
+      </c>
       <c r="H6" s="38"/>
-      <c r="I6" s="50"/>
-      <c r="J6" s="1"/>
-      <c r="K6" s="61"/>
+      <c r="I6" s="50" t="s">
+        <v>79</v>
+      </c>
+      <c r="J6" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="K6" s="61" t="s">
+        <v>80</v>
+      </c>
       <c r="L6" s="40"/>
       <c r="M6" s="40"/>
       <c r="N6" s="41"/>
       <c r="O6" s="40"/>
-      <c r="P6" s="40"/>
-      <c r="Q6" s="3"/>
-      <c r="R6" s="38"/>
+      <c r="P6" s="40" t="s">
+        <v>74</v>
+      </c>
+      <c r="Q6" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="R6" s="38" t="s">
+        <v>35</v>
+      </c>
       <c r="S6" s="4"/>
       <c r="T6" s="75"/>
       <c r="U6" s="86" t="s">
@@ -3523,7 +3625,7 @@
       </c>
       <c r="V21" s="10">
         <f>COUNTIF($Q$6:$Q$51,"PC")</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="W21" s="14"/>
     </row>
@@ -3704,7 +3806,7 @@
       </c>
       <c r="V27" s="10">
         <f>COUNTIF($R$6:$R$51,"*GSM*")</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="W27" s="14"/>
     </row>
@@ -4024,7 +4126,7 @@
       </c>
       <c r="V37" s="10">
         <f>SUM(V26:V36)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="W37" s="14"/>
     </row>
@@ -4631,8 +4733,1839 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:X57"/>
   <sheetViews>
-    <sheetView showZeros="0" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B7" sqref="B7"/>
+    <sheetView showZeros="0" topLeftCell="K1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="M7" sqref="M7"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="18" customHeight="1" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="9.42578125" style="20" customWidth="1"/>
+    <col min="2" max="2" width="19.28515625" style="69" customWidth="1"/>
+    <col min="3" max="3" width="18.28515625" style="69" customWidth="1"/>
+    <col min="4" max="4" width="21.85546875" style="20" customWidth="1"/>
+    <col min="5" max="5" width="32.42578125" style="20" customWidth="1"/>
+    <col min="6" max="6" width="15.85546875" style="20" customWidth="1"/>
+    <col min="7" max="7" width="17" style="20" customWidth="1"/>
+    <col min="8" max="8" width="35.42578125" style="20" customWidth="1"/>
+    <col min="9" max="9" width="45.28515625" style="59" customWidth="1"/>
+    <col min="10" max="10" width="53" style="20" customWidth="1"/>
+    <col min="11" max="11" width="35" style="20" customWidth="1"/>
+    <col min="12" max="12" width="30.7109375" style="26" customWidth="1"/>
+    <col min="13" max="13" width="58" style="20" customWidth="1"/>
+    <col min="14" max="14" width="21.85546875" style="20" customWidth="1"/>
+    <col min="15" max="15" width="14.28515625" style="20" customWidth="1"/>
+    <col min="16" max="16" width="37.7109375" style="20" customWidth="1"/>
+    <col min="17" max="17" width="23.42578125" style="20" customWidth="1"/>
+    <col min="18" max="18" width="21.140625" style="20" customWidth="1"/>
+    <col min="19" max="19" width="26.85546875" style="20" customWidth="1"/>
+    <col min="20" max="20" width="9.140625" style="20"/>
+    <col min="21" max="21" width="30.5703125" style="20" customWidth="1"/>
+    <col min="22" max="23" width="21.42578125" style="20" customWidth="1"/>
+    <col min="24" max="24" width="21.7109375" style="20" customWidth="1"/>
+    <col min="25" max="16384" width="9.140625" style="20"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="79" t="s">
+        <v>61</v>
+      </c>
+      <c r="B1" s="79"/>
+      <c r="C1" s="79"/>
+      <c r="D1" s="79"/>
+      <c r="E1" s="79"/>
+      <c r="F1" s="79"/>
+      <c r="G1" s="79"/>
+      <c r="H1" s="79"/>
+      <c r="I1" s="79"/>
+      <c r="J1" s="79"/>
+      <c r="K1" s="79"/>
+      <c r="L1" s="79"/>
+      <c r="M1" s="79"/>
+      <c r="N1" s="79"/>
+      <c r="O1" s="79"/>
+      <c r="P1" s="79"/>
+      <c r="Q1" s="79"/>
+      <c r="R1" s="79"/>
+      <c r="S1" s="79"/>
+      <c r="T1" s="79"/>
+      <c r="U1" s="79"/>
+      <c r="V1" s="79"/>
+      <c r="W1" s="47"/>
+    </row>
+    <row r="2" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="80" t="s">
+        <v>9</v>
+      </c>
+      <c r="B2" s="81"/>
+      <c r="C2" s="81"/>
+      <c r="D2" s="81"/>
+      <c r="E2" s="82"/>
+      <c r="F2" s="82"/>
+      <c r="G2" s="5"/>
+      <c r="H2" s="21"/>
+      <c r="I2" s="53"/>
+      <c r="J2" s="21"/>
+      <c r="K2" s="21"/>
+      <c r="L2" s="22"/>
+      <c r="M2" s="21"/>
+      <c r="N2" s="21"/>
+      <c r="O2" s="23"/>
+      <c r="P2" s="23"/>
+      <c r="Q2" s="23"/>
+      <c r="R2" s="23"/>
+      <c r="S2" s="27"/>
+      <c r="T2" s="27"/>
+      <c r="U2" s="27"/>
+      <c r="V2" s="28"/>
+      <c r="W2" s="27"/>
+    </row>
+    <row r="3" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="6"/>
+      <c r="B3" s="63"/>
+      <c r="C3" s="63"/>
+      <c r="D3" s="7"/>
+      <c r="E3" s="7"/>
+      <c r="F3" s="7"/>
+      <c r="G3" s="7"/>
+      <c r="H3" s="7"/>
+      <c r="I3" s="54"/>
+      <c r="J3" s="7"/>
+      <c r="K3" s="7"/>
+      <c r="L3" s="8"/>
+      <c r="M3" s="7"/>
+      <c r="N3" s="7"/>
+      <c r="O3" s="7"/>
+      <c r="P3" s="7"/>
+      <c r="Q3" s="24"/>
+      <c r="R3" s="24"/>
+      <c r="S3" s="27"/>
+      <c r="T3" s="27"/>
+      <c r="U3" s="27"/>
+      <c r="V3" s="28"/>
+      <c r="W3" s="27"/>
+    </row>
+    <row r="4" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="83" t="s">
+        <v>0</v>
+      </c>
+      <c r="B4" s="78" t="s">
+        <v>8</v>
+      </c>
+      <c r="C4" s="78"/>
+      <c r="D4" s="78"/>
+      <c r="E4" s="78"/>
+      <c r="F4" s="78"/>
+      <c r="G4" s="78"/>
+      <c r="H4" s="78"/>
+      <c r="I4" s="78"/>
+      <c r="J4" s="78" t="s">
+        <v>6</v>
+      </c>
+      <c r="K4" s="78" t="s">
+        <v>11</v>
+      </c>
+      <c r="L4" s="78"/>
+      <c r="M4" s="84" t="s">
+        <v>42</v>
+      </c>
+      <c r="N4" s="84" t="s">
+        <v>10</v>
+      </c>
+      <c r="O4" s="78" t="s">
+        <v>7</v>
+      </c>
+      <c r="P4" s="89" t="s">
+        <v>14</v>
+      </c>
+      <c r="Q4" s="78" t="s">
+        <v>39</v>
+      </c>
+      <c r="R4" s="78" t="s">
+        <v>53</v>
+      </c>
+      <c r="S4" s="90" t="s">
+        <v>54</v>
+      </c>
+      <c r="T4" s="27"/>
+      <c r="U4" s="78" t="s">
+        <v>39</v>
+      </c>
+      <c r="V4" s="78" t="s">
+        <v>53</v>
+      </c>
+      <c r="W4" s="48"/>
+    </row>
+    <row r="5" spans="1:23" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="83"/>
+      <c r="B5" s="64" t="s">
+        <v>1</v>
+      </c>
+      <c r="C5" s="64" t="s">
+        <v>2</v>
+      </c>
+      <c r="D5" s="74" t="s">
+        <v>3</v>
+      </c>
+      <c r="E5" s="74" t="s">
+        <v>43</v>
+      </c>
+      <c r="F5" s="74" t="s">
+        <v>4</v>
+      </c>
+      <c r="G5" s="74" t="s">
+        <v>5</v>
+      </c>
+      <c r="H5" s="74" t="s">
+        <v>55</v>
+      </c>
+      <c r="I5" s="55" t="s">
+        <v>15</v>
+      </c>
+      <c r="J5" s="78"/>
+      <c r="K5" s="74" t="s">
+        <v>12</v>
+      </c>
+      <c r="L5" s="74" t="s">
+        <v>13</v>
+      </c>
+      <c r="M5" s="85"/>
+      <c r="N5" s="85"/>
+      <c r="O5" s="78"/>
+      <c r="P5" s="89"/>
+      <c r="Q5" s="78"/>
+      <c r="R5" s="78"/>
+      <c r="S5" s="90"/>
+      <c r="T5" s="27"/>
+      <c r="U5" s="78"/>
+      <c r="V5" s="78"/>
+      <c r="W5" s="48"/>
+    </row>
+    <row r="6" spans="1:23" s="12" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="4">
+        <v>1</v>
+      </c>
+      <c r="B6" s="37">
+        <v>44364</v>
+      </c>
+      <c r="C6" s="37"/>
+      <c r="D6" s="38" t="s">
+        <v>45</v>
+      </c>
+      <c r="E6" s="39">
+        <v>860906041213981</v>
+      </c>
+      <c r="F6" s="38"/>
+      <c r="G6" s="38" t="s">
+        <v>64</v>
+      </c>
+      <c r="H6" s="38"/>
+      <c r="I6" s="50" t="s">
+        <v>83</v>
+      </c>
+      <c r="J6" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="K6" s="61" t="s">
+        <v>82</v>
+      </c>
+      <c r="L6" s="40"/>
+      <c r="M6" s="40" t="s">
+        <v>84</v>
+      </c>
+      <c r="N6" s="41"/>
+      <c r="O6" s="40" t="s">
+        <v>73</v>
+      </c>
+      <c r="P6" s="40" t="s">
+        <v>74</v>
+      </c>
+      <c r="Q6" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="R6" s="38" t="s">
+        <v>25</v>
+      </c>
+      <c r="S6" s="4"/>
+      <c r="T6" s="75"/>
+      <c r="U6" s="86" t="s">
+        <v>18</v>
+      </c>
+      <c r="V6" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="W6" s="75"/>
+    </row>
+    <row r="7" spans="1:23" s="12" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="4">
+        <v>2</v>
+      </c>
+      <c r="B7" s="37">
+        <v>44364</v>
+      </c>
+      <c r="C7" s="37"/>
+      <c r="D7" s="38" t="s">
+        <v>45</v>
+      </c>
+      <c r="E7" s="39">
+        <v>861359036776050</v>
+      </c>
+      <c r="F7" s="38"/>
+      <c r="G7" s="38" t="s">
+        <v>63</v>
+      </c>
+      <c r="H7" s="38"/>
+      <c r="I7" s="50" t="s">
+        <v>83</v>
+      </c>
+      <c r="J7" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="K7" s="61" t="s">
+        <v>82</v>
+      </c>
+      <c r="L7" s="40"/>
+      <c r="M7" s="40" t="s">
+        <v>84</v>
+      </c>
+      <c r="N7" s="41"/>
+      <c r="O7" s="40" t="s">
+        <v>73</v>
+      </c>
+      <c r="P7" s="40" t="s">
+        <v>74</v>
+      </c>
+      <c r="Q7" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="R7" s="38" t="s">
+        <v>25</v>
+      </c>
+      <c r="S7" s="4"/>
+      <c r="T7" s="75"/>
+      <c r="U7" s="87"/>
+      <c r="V7" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="W7" s="75"/>
+    </row>
+    <row r="8" spans="1:23" s="12" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="4">
+        <v>3</v>
+      </c>
+      <c r="B8" s="37"/>
+      <c r="C8" s="37"/>
+      <c r="D8" s="38"/>
+      <c r="E8" s="39"/>
+      <c r="F8" s="38"/>
+      <c r="G8" s="38"/>
+      <c r="H8" s="52"/>
+      <c r="I8" s="50"/>
+      <c r="J8" s="40"/>
+      <c r="K8" s="60"/>
+      <c r="L8" s="40"/>
+      <c r="M8" s="40"/>
+      <c r="N8" s="41"/>
+      <c r="O8" s="40"/>
+      <c r="P8" s="40"/>
+      <c r="Q8" s="3"/>
+      <c r="R8" s="38"/>
+      <c r="S8" s="4"/>
+      <c r="T8" s="75"/>
+      <c r="U8" s="87"/>
+      <c r="V8" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="W8" s="75"/>
+    </row>
+    <row r="9" spans="1:23" s="12" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="4">
+        <v>4</v>
+      </c>
+      <c r="B9" s="37"/>
+      <c r="C9" s="37"/>
+      <c r="D9" s="38"/>
+      <c r="E9" s="39"/>
+      <c r="F9" s="38"/>
+      <c r="G9" s="38"/>
+      <c r="H9" s="2"/>
+      <c r="I9" s="50"/>
+      <c r="J9" s="40"/>
+      <c r="K9" s="40"/>
+      <c r="L9" s="40"/>
+      <c r="M9" s="40"/>
+      <c r="N9" s="1"/>
+      <c r="O9" s="40"/>
+      <c r="P9" s="1"/>
+      <c r="Q9" s="3"/>
+      <c r="R9" s="38"/>
+      <c r="S9" s="4"/>
+      <c r="T9" s="75"/>
+      <c r="U9" s="87"/>
+      <c r="V9" s="4" t="s">
+        <v>51</v>
+      </c>
+      <c r="W9" s="75"/>
+    </row>
+    <row r="10" spans="1:23" s="12" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="4">
+        <v>5</v>
+      </c>
+      <c r="B10" s="37"/>
+      <c r="C10" s="65"/>
+      <c r="D10" s="38"/>
+      <c r="E10" s="39"/>
+      <c r="F10" s="38"/>
+      <c r="G10" s="38"/>
+      <c r="H10" s="2"/>
+      <c r="I10" s="50"/>
+      <c r="J10" s="40"/>
+      <c r="K10" s="1"/>
+      <c r="L10" s="40"/>
+      <c r="M10" s="40"/>
+      <c r="N10" s="1"/>
+      <c r="O10" s="40"/>
+      <c r="P10" s="1"/>
+      <c r="Q10" s="3"/>
+      <c r="R10" s="38"/>
+      <c r="S10" s="4"/>
+      <c r="T10" s="75"/>
+      <c r="U10" s="87"/>
+      <c r="V10" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="W10" s="75"/>
+    </row>
+    <row r="11" spans="1:23" s="12" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="4">
+        <v>6</v>
+      </c>
+      <c r="B11" s="65"/>
+      <c r="C11" s="65"/>
+      <c r="D11" s="38"/>
+      <c r="E11" s="39"/>
+      <c r="F11" s="38"/>
+      <c r="G11" s="38"/>
+      <c r="H11" s="2"/>
+      <c r="I11" s="50"/>
+      <c r="J11" s="40"/>
+      <c r="K11" s="1"/>
+      <c r="L11" s="40"/>
+      <c r="M11" s="40"/>
+      <c r="N11" s="1"/>
+      <c r="O11" s="40"/>
+      <c r="P11" s="1"/>
+      <c r="Q11" s="3"/>
+      <c r="R11" s="38"/>
+      <c r="S11" s="4"/>
+      <c r="T11" s="75"/>
+      <c r="U11" s="87"/>
+      <c r="V11" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="W11" s="75"/>
+    </row>
+    <row r="12" spans="1:23" s="12" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="4">
+        <v>7</v>
+      </c>
+      <c r="B12" s="65"/>
+      <c r="C12" s="65"/>
+      <c r="D12" s="38"/>
+      <c r="E12" s="39"/>
+      <c r="F12" s="38"/>
+      <c r="G12" s="38"/>
+      <c r="H12" s="1"/>
+      <c r="I12" s="56"/>
+      <c r="J12" s="40"/>
+      <c r="K12" s="1"/>
+      <c r="L12" s="40"/>
+      <c r="M12" s="40"/>
+      <c r="N12" s="1"/>
+      <c r="O12" s="40"/>
+      <c r="P12" s="1"/>
+      <c r="Q12" s="4"/>
+      <c r="R12" s="38"/>
+      <c r="S12" s="4"/>
+      <c r="T12" s="75"/>
+      <c r="U12" s="86" t="s">
+        <v>19</v>
+      </c>
+      <c r="V12" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="W12" s="75"/>
+    </row>
+    <row r="13" spans="1:23" s="12" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="4">
+        <v>8</v>
+      </c>
+      <c r="B13" s="65"/>
+      <c r="C13" s="65"/>
+      <c r="D13" s="38"/>
+      <c r="E13" s="39"/>
+      <c r="F13" s="38"/>
+      <c r="G13" s="38"/>
+      <c r="H13" s="13"/>
+      <c r="I13" s="50"/>
+      <c r="J13" s="1"/>
+      <c r="K13" s="1"/>
+      <c r="L13" s="40"/>
+      <c r="M13" s="1"/>
+      <c r="N13" s="1"/>
+      <c r="O13" s="40"/>
+      <c r="P13" s="1"/>
+      <c r="Q13" s="3"/>
+      <c r="R13" s="10"/>
+      <c r="S13" s="4"/>
+      <c r="T13" s="75"/>
+      <c r="U13" s="87"/>
+      <c r="V13" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="W13" s="75"/>
+    </row>
+    <row r="14" spans="1:23" s="12" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A14" s="4">
+        <v>9</v>
+      </c>
+      <c r="B14" s="65"/>
+      <c r="C14" s="65"/>
+      <c r="D14" s="38"/>
+      <c r="E14" s="39"/>
+      <c r="F14" s="38"/>
+      <c r="G14" s="38"/>
+      <c r="H14" s="1"/>
+      <c r="I14" s="50"/>
+      <c r="J14" s="40"/>
+      <c r="K14" s="1"/>
+      <c r="L14" s="40"/>
+      <c r="M14" s="40"/>
+      <c r="N14" s="1"/>
+      <c r="O14" s="40"/>
+      <c r="P14" s="1"/>
+      <c r="Q14" s="4"/>
+      <c r="R14" s="38"/>
+      <c r="S14" s="4"/>
+      <c r="T14" s="75"/>
+      <c r="U14" s="87"/>
+      <c r="V14" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="W14" s="75"/>
+    </row>
+    <row r="15" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A15" s="4">
+        <v>10</v>
+      </c>
+      <c r="B15" s="65"/>
+      <c r="C15" s="65"/>
+      <c r="D15" s="38"/>
+      <c r="E15" s="39"/>
+      <c r="F15" s="38"/>
+      <c r="G15" s="38"/>
+      <c r="H15" s="1"/>
+      <c r="I15" s="56"/>
+      <c r="J15" s="40"/>
+      <c r="K15" s="1"/>
+      <c r="L15" s="40"/>
+      <c r="M15" s="40"/>
+      <c r="N15" s="1"/>
+      <c r="O15" s="40"/>
+      <c r="P15" s="1"/>
+      <c r="Q15" s="4"/>
+      <c r="R15" s="38"/>
+      <c r="S15" s="4"/>
+      <c r="T15" s="14"/>
+      <c r="U15" s="87"/>
+      <c r="V15" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="W15" s="75"/>
+    </row>
+    <row r="16" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A16" s="4">
+        <v>11</v>
+      </c>
+      <c r="B16" s="65"/>
+      <c r="C16" s="65"/>
+      <c r="D16" s="38"/>
+      <c r="E16" s="39"/>
+      <c r="F16" s="62"/>
+      <c r="G16" s="38"/>
+      <c r="H16" s="1"/>
+      <c r="I16" s="56"/>
+      <c r="J16" s="1"/>
+      <c r="K16" s="1"/>
+      <c r="L16" s="40"/>
+      <c r="M16" s="40"/>
+      <c r="N16" s="1"/>
+      <c r="O16" s="40"/>
+      <c r="P16" s="1"/>
+      <c r="Q16" s="4"/>
+      <c r="R16" s="38"/>
+      <c r="S16" s="4"/>
+      <c r="T16" s="14"/>
+      <c r="U16" s="88"/>
+      <c r="V16" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="W16" s="75"/>
+    </row>
+    <row r="17" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A17" s="4">
+        <v>12</v>
+      </c>
+      <c r="B17" s="65"/>
+      <c r="C17" s="65"/>
+      <c r="D17" s="38"/>
+      <c r="E17" s="39"/>
+      <c r="F17" s="38"/>
+      <c r="G17" s="38"/>
+      <c r="H17" s="1"/>
+      <c r="I17" s="50"/>
+      <c r="J17" s="40"/>
+      <c r="K17" s="1"/>
+      <c r="L17" s="1"/>
+      <c r="M17" s="40"/>
+      <c r="N17" s="1"/>
+      <c r="O17" s="40"/>
+      <c r="P17" s="1"/>
+      <c r="Q17" s="4"/>
+      <c r="R17" s="38"/>
+      <c r="S17" s="4"/>
+      <c r="T17" s="14"/>
+      <c r="U17" s="75"/>
+      <c r="V17" s="15"/>
+      <c r="W17" s="75"/>
+    </row>
+    <row r="18" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A18" s="4">
+        <v>13</v>
+      </c>
+      <c r="B18" s="66"/>
+      <c r="C18" s="66"/>
+      <c r="D18" s="38"/>
+      <c r="E18" s="39"/>
+      <c r="F18" s="38"/>
+      <c r="G18" s="38"/>
+      <c r="H18" s="1"/>
+      <c r="I18" s="56"/>
+      <c r="J18" s="1"/>
+      <c r="K18" s="1"/>
+      <c r="L18" s="1"/>
+      <c r="M18" s="10"/>
+      <c r="N18" s="1"/>
+      <c r="O18" s="40"/>
+      <c r="P18" s="1"/>
+      <c r="Q18" s="4"/>
+      <c r="R18" s="10"/>
+      <c r="S18" s="4"/>
+      <c r="T18" s="14"/>
+      <c r="U18" s="14"/>
+      <c r="V18" s="16"/>
+      <c r="W18" s="14"/>
+    </row>
+    <row r="19" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A19" s="4">
+        <v>14</v>
+      </c>
+      <c r="B19" s="66"/>
+      <c r="C19" s="66"/>
+      <c r="D19" s="38"/>
+      <c r="E19" s="39"/>
+      <c r="F19" s="38"/>
+      <c r="G19" s="38"/>
+      <c r="H19" s="1"/>
+      <c r="I19" s="56"/>
+      <c r="J19" s="1"/>
+      <c r="K19" s="1"/>
+      <c r="L19" s="1"/>
+      <c r="M19" s="1"/>
+      <c r="N19" s="1"/>
+      <c r="O19" s="40"/>
+      <c r="P19" s="1"/>
+      <c r="Q19" s="4"/>
+      <c r="R19" s="10"/>
+      <c r="S19" s="4"/>
+      <c r="T19" s="14"/>
+      <c r="U19" s="74" t="s">
+        <v>39</v>
+      </c>
+      <c r="V19" s="17" t="s">
+        <v>16</v>
+      </c>
+      <c r="W19" s="49"/>
+    </row>
+    <row r="20" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A20" s="4">
+        <v>15</v>
+      </c>
+      <c r="B20" s="66"/>
+      <c r="C20" s="66"/>
+      <c r="D20" s="38"/>
+      <c r="E20" s="39"/>
+      <c r="F20" s="38"/>
+      <c r="G20" s="38"/>
+      <c r="H20" s="1"/>
+      <c r="I20" s="56"/>
+      <c r="J20" s="1"/>
+      <c r="K20" s="1"/>
+      <c r="L20" s="1"/>
+      <c r="M20" s="1"/>
+      <c r="N20" s="1"/>
+      <c r="O20" s="40"/>
+      <c r="P20" s="1"/>
+      <c r="Q20" s="4"/>
+      <c r="R20" s="10"/>
+      <c r="S20" s="4"/>
+      <c r="T20" s="14"/>
+      <c r="U20" s="10" t="s">
+        <v>17</v>
+      </c>
+      <c r="V20" s="10">
+        <f>COUNTIF($Q$6:$Q$51,"PM")</f>
+        <v>2</v>
+      </c>
+      <c r="W20" s="14"/>
+    </row>
+    <row r="21" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A21" s="4">
+        <v>16</v>
+      </c>
+      <c r="B21" s="66"/>
+      <c r="C21" s="66"/>
+      <c r="D21" s="38"/>
+      <c r="E21" s="39"/>
+      <c r="F21" s="38"/>
+      <c r="G21" s="38"/>
+      <c r="H21" s="1"/>
+      <c r="I21" s="56"/>
+      <c r="J21" s="1"/>
+      <c r="K21" s="1"/>
+      <c r="L21" s="1"/>
+      <c r="M21" s="1"/>
+      <c r="N21" s="1"/>
+      <c r="O21" s="40"/>
+      <c r="P21" s="1"/>
+      <c r="Q21" s="4"/>
+      <c r="R21" s="10"/>
+      <c r="S21" s="4"/>
+      <c r="T21" s="14"/>
+      <c r="U21" s="10" t="s">
+        <v>49</v>
+      </c>
+      <c r="V21" s="10">
+        <f>COUNTIF($Q$6:$Q$51,"PC")</f>
+        <v>0</v>
+      </c>
+      <c r="W21" s="14"/>
+    </row>
+    <row r="22" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A22" s="4">
+        <v>17</v>
+      </c>
+      <c r="B22" s="66"/>
+      <c r="C22" s="66"/>
+      <c r="D22" s="38"/>
+      <c r="E22" s="39"/>
+      <c r="F22" s="38"/>
+      <c r="G22" s="38"/>
+      <c r="H22" s="10"/>
+      <c r="I22" s="56"/>
+      <c r="J22" s="10"/>
+      <c r="K22" s="10"/>
+      <c r="L22" s="1"/>
+      <c r="M22" s="10"/>
+      <c r="N22" s="10"/>
+      <c r="O22" s="40"/>
+      <c r="P22" s="10"/>
+      <c r="Q22" s="4"/>
+      <c r="R22" s="10"/>
+      <c r="S22" s="4"/>
+      <c r="T22" s="14"/>
+      <c r="U22" s="10" t="s">
+        <v>50</v>
+      </c>
+      <c r="V22" s="10">
+        <f>COUNTIF($Q$6:$Q$51,"PC+PM")</f>
+        <v>0</v>
+      </c>
+      <c r="W22" s="14"/>
+    </row>
+    <row r="23" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A23" s="4">
+        <v>18</v>
+      </c>
+      <c r="B23" s="66"/>
+      <c r="C23" s="66"/>
+      <c r="D23" s="38"/>
+      <c r="E23" s="39"/>
+      <c r="F23" s="38"/>
+      <c r="G23" s="38"/>
+      <c r="H23" s="10"/>
+      <c r="I23" s="56"/>
+      <c r="J23" s="1"/>
+      <c r="K23" s="10"/>
+      <c r="L23" s="10"/>
+      <c r="M23" s="10"/>
+      <c r="N23" s="10"/>
+      <c r="O23" s="40"/>
+      <c r="P23" s="10"/>
+      <c r="Q23" s="4"/>
+      <c r="R23" s="10"/>
+      <c r="S23" s="4"/>
+      <c r="T23" s="14"/>
+      <c r="U23" s="14"/>
+      <c r="V23" s="16"/>
+      <c r="W23" s="14"/>
+    </row>
+    <row r="24" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A24" s="4">
+        <v>19</v>
+      </c>
+      <c r="B24" s="66"/>
+      <c r="C24" s="66"/>
+      <c r="D24" s="38"/>
+      <c r="E24" s="39"/>
+      <c r="F24" s="38"/>
+      <c r="G24" s="38"/>
+      <c r="H24" s="10"/>
+      <c r="I24" s="56"/>
+      <c r="J24" s="1"/>
+      <c r="K24" s="10"/>
+      <c r="L24" s="10"/>
+      <c r="M24" s="10"/>
+      <c r="N24" s="10"/>
+      <c r="O24" s="40"/>
+      <c r="P24" s="10"/>
+      <c r="Q24" s="4"/>
+      <c r="R24" s="10"/>
+      <c r="S24" s="4"/>
+      <c r="T24" s="14"/>
+      <c r="U24" s="14"/>
+      <c r="V24" s="16"/>
+      <c r="W24" s="14"/>
+    </row>
+    <row r="25" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A25" s="4">
+        <v>20</v>
+      </c>
+      <c r="B25" s="66"/>
+      <c r="C25" s="66"/>
+      <c r="D25" s="38"/>
+      <c r="E25" s="39"/>
+      <c r="F25" s="38"/>
+      <c r="G25" s="38"/>
+      <c r="H25" s="10"/>
+      <c r="I25" s="56"/>
+      <c r="J25" s="1"/>
+      <c r="K25" s="10"/>
+      <c r="L25" s="10"/>
+      <c r="M25" s="10"/>
+      <c r="N25" s="10"/>
+      <c r="O25" s="40"/>
+      <c r="P25" s="10"/>
+      <c r="Q25" s="4"/>
+      <c r="R25" s="10"/>
+      <c r="S25" s="4"/>
+      <c r="T25" s="14"/>
+      <c r="U25" s="74" t="s">
+        <v>46</v>
+      </c>
+      <c r="V25" s="17" t="s">
+        <v>16</v>
+      </c>
+      <c r="W25" s="49"/>
+    </row>
+    <row r="26" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A26" s="4">
+        <v>21</v>
+      </c>
+      <c r="B26" s="66"/>
+      <c r="C26" s="66"/>
+      <c r="D26" s="38"/>
+      <c r="E26" s="39"/>
+      <c r="F26" s="38"/>
+      <c r="G26" s="38"/>
+      <c r="H26" s="10"/>
+      <c r="I26" s="56"/>
+      <c r="J26" s="1"/>
+      <c r="K26" s="10"/>
+      <c r="L26" s="10"/>
+      <c r="M26" s="10"/>
+      <c r="N26" s="10"/>
+      <c r="O26" s="40"/>
+      <c r="P26" s="10"/>
+      <c r="Q26" s="4"/>
+      <c r="R26" s="10"/>
+      <c r="S26" s="4"/>
+      <c r="T26" s="14"/>
+      <c r="U26" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="V26" s="10">
+        <f>COUNTIF($R$6:$R$51,"*MCU*")</f>
+        <v>0</v>
+      </c>
+      <c r="W26" s="14"/>
+    </row>
+    <row r="27" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A27" s="4">
+        <v>22</v>
+      </c>
+      <c r="B27" s="66"/>
+      <c r="C27" s="66"/>
+      <c r="D27" s="38"/>
+      <c r="E27" s="39"/>
+      <c r="F27" s="38"/>
+      <c r="G27" s="38"/>
+      <c r="H27" s="10"/>
+      <c r="I27" s="56"/>
+      <c r="J27" s="1"/>
+      <c r="K27" s="10"/>
+      <c r="L27" s="10"/>
+      <c r="M27" s="10"/>
+      <c r="N27" s="10"/>
+      <c r="O27" s="40"/>
+      <c r="P27" s="10"/>
+      <c r="Q27" s="4"/>
+      <c r="R27" s="10"/>
+      <c r="S27" s="4"/>
+      <c r="T27" s="14"/>
+      <c r="U27" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="V27" s="10">
+        <f>COUNTIF($R$6:$R$51,"*GSM*")</f>
+        <v>0</v>
+      </c>
+      <c r="W27" s="14"/>
+    </row>
+    <row r="28" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A28" s="4">
+        <v>23</v>
+      </c>
+      <c r="B28" s="66"/>
+      <c r="C28" s="66"/>
+      <c r="D28" s="38"/>
+      <c r="E28" s="39"/>
+      <c r="F28" s="38"/>
+      <c r="G28" s="38"/>
+      <c r="H28" s="1"/>
+      <c r="I28" s="56"/>
+      <c r="J28" s="1"/>
+      <c r="K28" s="1"/>
+      <c r="L28" s="10"/>
+      <c r="M28" s="10"/>
+      <c r="N28" s="1"/>
+      <c r="O28" s="40"/>
+      <c r="P28" s="10"/>
+      <c r="Q28" s="4"/>
+      <c r="R28" s="10"/>
+      <c r="S28" s="4"/>
+      <c r="T28" s="14"/>
+      <c r="U28" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="V28" s="10">
+        <f>COUNTIF($R$6:$R$51,"*GPS*")</f>
+        <v>0</v>
+      </c>
+      <c r="W28" s="14"/>
+    </row>
+    <row r="29" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A29" s="4">
+        <v>24</v>
+      </c>
+      <c r="B29" s="66"/>
+      <c r="C29" s="66"/>
+      <c r="D29" s="38"/>
+      <c r="E29" s="39"/>
+      <c r="F29" s="38"/>
+      <c r="G29" s="38"/>
+      <c r="H29" s="1"/>
+      <c r="I29" s="56"/>
+      <c r="J29" s="1"/>
+      <c r="K29" s="1"/>
+      <c r="L29" s="10"/>
+      <c r="M29" s="10"/>
+      <c r="N29" s="1"/>
+      <c r="O29" s="40"/>
+      <c r="P29" s="10"/>
+      <c r="Q29" s="4"/>
+      <c r="R29" s="10"/>
+      <c r="S29" s="4"/>
+      <c r="T29" s="14"/>
+      <c r="U29" s="4" t="s">
+        <v>52</v>
+      </c>
+      <c r="V29" s="10">
+        <f>COUNTIF($R$6:$R$51,"*NG*")</f>
+        <v>0</v>
+      </c>
+      <c r="W29" s="14"/>
+    </row>
+    <row r="30" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A30" s="4">
+        <v>25</v>
+      </c>
+      <c r="B30" s="66"/>
+      <c r="C30" s="66"/>
+      <c r="D30" s="10"/>
+      <c r="E30" s="11"/>
+      <c r="F30" s="10"/>
+      <c r="G30" s="10"/>
+      <c r="H30" s="1"/>
+      <c r="I30" s="56"/>
+      <c r="J30" s="1"/>
+      <c r="K30" s="1"/>
+      <c r="L30" s="1"/>
+      <c r="M30" s="1"/>
+      <c r="N30" s="1"/>
+      <c r="O30" s="1"/>
+      <c r="P30" s="1"/>
+      <c r="Q30" s="4"/>
+      <c r="R30" s="10"/>
+      <c r="S30" s="4"/>
+      <c r="T30" s="14"/>
+      <c r="U30" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="V30" s="10">
+        <f>COUNTIF($R$6:$R$51,"*I/O*")</f>
+        <v>0</v>
+      </c>
+      <c r="W30" s="14"/>
+    </row>
+    <row r="31" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A31" s="4">
+        <v>26</v>
+      </c>
+      <c r="B31" s="66"/>
+      <c r="C31" s="66"/>
+      <c r="D31" s="10"/>
+      <c r="E31" s="11"/>
+      <c r="F31" s="10"/>
+      <c r="G31" s="10"/>
+      <c r="H31" s="1"/>
+      <c r="I31" s="56"/>
+      <c r="J31" s="1"/>
+      <c r="K31" s="1"/>
+      <c r="L31" s="1"/>
+      <c r="M31" s="1"/>
+      <c r="N31" s="1"/>
+      <c r="O31" s="1"/>
+      <c r="P31" s="1"/>
+      <c r="Q31" s="4"/>
+      <c r="R31" s="10"/>
+      <c r="S31" s="4"/>
+      <c r="T31" s="14"/>
+      <c r="U31" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="V31" s="10">
+        <f>COUNTIF($R$6:$R$51,"*LK*")</f>
+        <v>0</v>
+      </c>
+      <c r="W31" s="14"/>
+    </row>
+    <row r="32" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A32" s="4">
+        <v>27</v>
+      </c>
+      <c r="B32" s="66"/>
+      <c r="C32" s="66"/>
+      <c r="D32" s="10"/>
+      <c r="E32" s="11"/>
+      <c r="F32" s="10"/>
+      <c r="G32" s="10"/>
+      <c r="H32" s="1"/>
+      <c r="I32" s="56"/>
+      <c r="J32" s="1"/>
+      <c r="K32" s="1"/>
+      <c r="L32" s="1"/>
+      <c r="M32" s="1"/>
+      <c r="N32" s="1"/>
+      <c r="O32" s="1"/>
+      <c r="P32" s="1"/>
+      <c r="Q32" s="4"/>
+      <c r="R32" s="10"/>
+      <c r="S32" s="4"/>
+      <c r="T32" s="14"/>
+      <c r="U32" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="V32" s="10">
+        <f>COUNTIF($R$6:$R$51,"*MCH*")</f>
+        <v>0</v>
+      </c>
+      <c r="W32" s="14"/>
+    </row>
+    <row r="33" spans="1:24" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A33" s="4">
+        <v>28</v>
+      </c>
+      <c r="B33" s="66"/>
+      <c r="C33" s="66"/>
+      <c r="D33" s="10"/>
+      <c r="E33" s="11"/>
+      <c r="F33" s="10"/>
+      <c r="G33" s="10"/>
+      <c r="H33" s="1"/>
+      <c r="I33" s="56"/>
+      <c r="J33" s="1"/>
+      <c r="K33" s="1"/>
+      <c r="L33" s="1"/>
+      <c r="M33" s="1"/>
+      <c r="N33" s="1"/>
+      <c r="O33" s="1"/>
+      <c r="P33" s="1"/>
+      <c r="Q33" s="4"/>
+      <c r="R33" s="10"/>
+      <c r="S33" s="4"/>
+      <c r="T33" s="14"/>
+      <c r="U33" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="V33" s="10">
+        <f>COUNTIF($R$6:$R$51,"*SF*")</f>
+        <v>0</v>
+      </c>
+      <c r="W33" s="14"/>
+    </row>
+    <row r="34" spans="1:24" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A34" s="4">
+        <v>29</v>
+      </c>
+      <c r="B34" s="66"/>
+      <c r="C34" s="66"/>
+      <c r="D34" s="10"/>
+      <c r="E34" s="11"/>
+      <c r="F34" s="10"/>
+      <c r="G34" s="10"/>
+      <c r="H34" s="1"/>
+      <c r="I34" s="56"/>
+      <c r="J34" s="1"/>
+      <c r="K34" s="1"/>
+      <c r="L34" s="1"/>
+      <c r="M34" s="1"/>
+      <c r="N34" s="1"/>
+      <c r="O34" s="1"/>
+      <c r="P34" s="1"/>
+      <c r="Q34" s="4"/>
+      <c r="R34" s="10"/>
+      <c r="S34" s="4"/>
+      <c r="T34" s="14"/>
+      <c r="U34" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="V34" s="10">
+        <f>COUNTIF($R$6:$R$51,"*RTB*")</f>
+        <v>0</v>
+      </c>
+      <c r="W34" s="14"/>
+    </row>
+    <row r="35" spans="1:24" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A35" s="4">
+        <v>30</v>
+      </c>
+      <c r="B35" s="66"/>
+      <c r="C35" s="66"/>
+      <c r="D35" s="10"/>
+      <c r="E35" s="11"/>
+      <c r="F35" s="10"/>
+      <c r="G35" s="10"/>
+      <c r="H35" s="1"/>
+      <c r="I35" s="56"/>
+      <c r="J35" s="1"/>
+      <c r="K35" s="1"/>
+      <c r="L35" s="1"/>
+      <c r="M35" s="1"/>
+      <c r="N35" s="1"/>
+      <c r="O35" s="1"/>
+      <c r="P35" s="1"/>
+      <c r="Q35" s="4"/>
+      <c r="R35" s="10"/>
+      <c r="S35" s="4"/>
+      <c r="T35" s="14"/>
+      <c r="U35" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="V35" s="10">
+        <f>COUNTIF($R$6:$R$51,"*NCFW*")</f>
+        <v>0</v>
+      </c>
+      <c r="W35" s="14"/>
+    </row>
+    <row r="36" spans="1:24" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A36" s="4">
+        <v>31</v>
+      </c>
+      <c r="B36" s="66"/>
+      <c r="C36" s="66"/>
+      <c r="D36" s="10"/>
+      <c r="E36" s="11"/>
+      <c r="F36" s="10"/>
+      <c r="G36" s="10"/>
+      <c r="H36" s="1"/>
+      <c r="I36" s="56"/>
+      <c r="J36" s="1"/>
+      <c r="K36" s="1"/>
+      <c r="L36" s="1"/>
+      <c r="M36" s="1"/>
+      <c r="N36" s="1"/>
+      <c r="O36" s="1"/>
+      <c r="P36" s="1"/>
+      <c r="Q36" s="4"/>
+      <c r="R36" s="10"/>
+      <c r="S36" s="4"/>
+      <c r="T36" s="14"/>
+      <c r="U36" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="V36" s="10">
+        <f>COUNTIF($R$6:$R$51,"*KL*")</f>
+        <v>2</v>
+      </c>
+      <c r="W36" s="14"/>
+    </row>
+    <row r="37" spans="1:24" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A37" s="4">
+        <v>32</v>
+      </c>
+      <c r="B37" s="66"/>
+      <c r="C37" s="66"/>
+      <c r="D37" s="10"/>
+      <c r="E37" s="11"/>
+      <c r="F37" s="10"/>
+      <c r="G37" s="10"/>
+      <c r="H37" s="1"/>
+      <c r="I37" s="56"/>
+      <c r="J37" s="1"/>
+      <c r="K37" s="1"/>
+      <c r="L37" s="1"/>
+      <c r="M37" s="1"/>
+      <c r="N37" s="1"/>
+      <c r="O37" s="1"/>
+      <c r="P37" s="1"/>
+      <c r="Q37" s="4"/>
+      <c r="R37" s="10"/>
+      <c r="S37" s="4"/>
+      <c r="T37" s="14"/>
+      <c r="U37" s="18" t="s">
+        <v>33</v>
+      </c>
+      <c r="V37" s="10">
+        <f>SUM(V26:V36)</f>
+        <v>2</v>
+      </c>
+      <c r="W37" s="14"/>
+    </row>
+    <row r="38" spans="1:24" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A38" s="4">
+        <v>33</v>
+      </c>
+      <c r="B38" s="66"/>
+      <c r="C38" s="66"/>
+      <c r="D38" s="10"/>
+      <c r="E38" s="11"/>
+      <c r="F38" s="10"/>
+      <c r="G38" s="10"/>
+      <c r="H38" s="1"/>
+      <c r="I38" s="56"/>
+      <c r="J38" s="1"/>
+      <c r="K38" s="1"/>
+      <c r="L38" s="1"/>
+      <c r="M38" s="1"/>
+      <c r="N38" s="1"/>
+      <c r="O38" s="1"/>
+      <c r="P38" s="1"/>
+      <c r="Q38" s="4"/>
+      <c r="R38" s="10"/>
+      <c r="S38" s="4"/>
+      <c r="T38" s="14"/>
+      <c r="U38" s="14"/>
+      <c r="V38" s="16"/>
+      <c r="W38" s="14"/>
+    </row>
+    <row r="39" spans="1:24" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A39" s="4">
+        <v>34</v>
+      </c>
+      <c r="B39" s="66"/>
+      <c r="C39" s="66"/>
+      <c r="D39" s="10"/>
+      <c r="E39" s="11"/>
+      <c r="F39" s="10"/>
+      <c r="G39" s="10"/>
+      <c r="H39" s="1"/>
+      <c r="I39" s="56"/>
+      <c r="J39" s="1"/>
+      <c r="K39" s="1"/>
+      <c r="L39" s="1"/>
+      <c r="M39" s="1"/>
+      <c r="N39" s="1"/>
+      <c r="O39" s="1"/>
+      <c r="P39" s="1"/>
+      <c r="Q39" s="4"/>
+      <c r="R39" s="10"/>
+      <c r="S39" s="4"/>
+      <c r="T39" s="14"/>
+      <c r="U39" s="14"/>
+      <c r="V39" s="16"/>
+      <c r="W39" s="14"/>
+    </row>
+    <row r="40" spans="1:24" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A40" s="4">
+        <v>35</v>
+      </c>
+      <c r="B40" s="66"/>
+      <c r="C40" s="66"/>
+      <c r="D40" s="10"/>
+      <c r="E40" s="11"/>
+      <c r="F40" s="10"/>
+      <c r="G40" s="10"/>
+      <c r="H40" s="1"/>
+      <c r="I40" s="56"/>
+      <c r="J40" s="1"/>
+      <c r="K40" s="1"/>
+      <c r="L40" s="1"/>
+      <c r="M40" s="1"/>
+      <c r="N40" s="1"/>
+      <c r="O40" s="1"/>
+      <c r="P40" s="1"/>
+      <c r="Q40" s="4"/>
+      <c r="R40" s="10"/>
+      <c r="S40" s="4"/>
+      <c r="T40" s="14"/>
+      <c r="U40" s="18" t="s">
+        <v>40</v>
+      </c>
+      <c r="V40" s="10">
+        <f>COUNTIF($O$6:$O$51,"*DM*")</f>
+        <v>0</v>
+      </c>
+      <c r="W40" s="14"/>
+    </row>
+    <row r="41" spans="1:24" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A41" s="4">
+        <v>36</v>
+      </c>
+      <c r="B41" s="66"/>
+      <c r="C41" s="66"/>
+      <c r="D41" s="10"/>
+      <c r="E41" s="11"/>
+      <c r="F41" s="10"/>
+      <c r="G41" s="10"/>
+      <c r="H41" s="1"/>
+      <c r="I41" s="56"/>
+      <c r="J41" s="1"/>
+      <c r="K41" s="1"/>
+      <c r="L41" s="1"/>
+      <c r="M41" s="1"/>
+      <c r="N41" s="1"/>
+      <c r="O41" s="1"/>
+      <c r="P41" s="1"/>
+      <c r="Q41" s="4"/>
+      <c r="R41" s="10"/>
+      <c r="S41" s="4"/>
+      <c r="T41" s="14"/>
+      <c r="U41" s="18" t="s">
+        <v>41</v>
+      </c>
+      <c r="V41" s="10">
+        <f>COUNTIF($O$6:$O$51,"*KS*")</f>
+        <v>0</v>
+      </c>
+      <c r="W41" s="14"/>
+    </row>
+    <row r="42" spans="1:24" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A42" s="4">
+        <v>37</v>
+      </c>
+      <c r="B42" s="66"/>
+      <c r="C42" s="66"/>
+      <c r="D42" s="10"/>
+      <c r="E42" s="11"/>
+      <c r="F42" s="10"/>
+      <c r="G42" s="10"/>
+      <c r="H42" s="1"/>
+      <c r="I42" s="56"/>
+      <c r="J42" s="1"/>
+      <c r="K42" s="1"/>
+      <c r="L42" s="1"/>
+      <c r="M42" s="1"/>
+      <c r="N42" s="1"/>
+      <c r="O42" s="1"/>
+      <c r="P42" s="1"/>
+      <c r="Q42" s="4"/>
+      <c r="R42" s="10"/>
+      <c r="S42" s="4"/>
+      <c r="T42" s="14"/>
+      <c r="U42" s="14"/>
+      <c r="V42" s="16"/>
+      <c r="W42" s="14"/>
+    </row>
+    <row r="43" spans="1:24" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A43" s="4">
+        <v>38</v>
+      </c>
+      <c r="B43" s="66"/>
+      <c r="C43" s="66"/>
+      <c r="D43" s="10"/>
+      <c r="E43" s="11"/>
+      <c r="F43" s="10"/>
+      <c r="G43" s="10"/>
+      <c r="H43" s="1"/>
+      <c r="I43" s="56"/>
+      <c r="J43" s="1"/>
+      <c r="K43" s="1"/>
+      <c r="L43" s="1"/>
+      <c r="M43" s="1"/>
+      <c r="N43" s="1"/>
+      <c r="O43" s="1"/>
+      <c r="P43" s="1"/>
+      <c r="Q43" s="4"/>
+      <c r="R43" s="10"/>
+      <c r="S43" s="4"/>
+      <c r="T43" s="14"/>
+      <c r="U43" s="14"/>
+      <c r="V43" s="16"/>
+      <c r="W43" s="14"/>
+    </row>
+    <row r="44" spans="1:24" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A44" s="4">
+        <v>39</v>
+      </c>
+      <c r="B44" s="66"/>
+      <c r="C44" s="66"/>
+      <c r="D44" s="10"/>
+      <c r="E44" s="11"/>
+      <c r="F44" s="10"/>
+      <c r="G44" s="10"/>
+      <c r="H44" s="1"/>
+      <c r="I44" s="56"/>
+      <c r="J44" s="1"/>
+      <c r="K44" s="1"/>
+      <c r="L44" s="1"/>
+      <c r="M44" s="1"/>
+      <c r="N44" s="1"/>
+      <c r="O44" s="1"/>
+      <c r="P44" s="1"/>
+      <c r="Q44" s="4"/>
+      <c r="R44" s="10"/>
+      <c r="S44" s="4"/>
+      <c r="T44" s="14"/>
+      <c r="U44" s="10" t="s">
+        <v>3</v>
+      </c>
+      <c r="V44" s="10" t="s">
+        <v>58</v>
+      </c>
+      <c r="W44" s="10" t="s">
+        <v>59</v>
+      </c>
+      <c r="X44" s="10" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="45" spans="1:24" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A45" s="4">
+        <v>40</v>
+      </c>
+      <c r="B45" s="66"/>
+      <c r="C45" s="66"/>
+      <c r="D45" s="10"/>
+      <c r="E45" s="11"/>
+      <c r="F45" s="10"/>
+      <c r="G45" s="10"/>
+      <c r="H45" s="1"/>
+      <c r="I45" s="56"/>
+      <c r="J45" s="1"/>
+      <c r="K45" s="1"/>
+      <c r="L45" s="1"/>
+      <c r="M45" s="1"/>
+      <c r="N45" s="1"/>
+      <c r="O45" s="1"/>
+      <c r="P45" s="1"/>
+      <c r="Q45" s="4"/>
+      <c r="R45" s="10"/>
+      <c r="S45" s="4"/>
+      <c r="T45" s="14"/>
+      <c r="U45" s="10" t="s">
+        <v>44</v>
+      </c>
+      <c r="V45" s="10">
+        <f>COUNTIFS($D$6:$D$300,"TG102LE",$H$6:$H$300,"*Lô 3-20*")</f>
+        <v>0</v>
+      </c>
+      <c r="W45" s="10">
+        <f>COUNTIFS($D$6:$D$300,"TG102LE",$H$6:$H$300,"*Lô 1-21*")</f>
+        <v>0</v>
+      </c>
+      <c r="X45" s="10">
+        <f>COUNTIFS($D$6:$D$300,"TG102LE",$H$6:$H$300,"*Lô 2-21*")</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="1:24" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A46" s="4">
+        <v>41</v>
+      </c>
+      <c r="B46" s="66"/>
+      <c r="C46" s="66"/>
+      <c r="D46" s="10"/>
+      <c r="E46" s="11"/>
+      <c r="F46" s="10"/>
+      <c r="G46" s="10"/>
+      <c r="H46" s="1"/>
+      <c r="I46" s="56"/>
+      <c r="J46" s="1"/>
+      <c r="K46" s="1"/>
+      <c r="L46" s="1"/>
+      <c r="M46" s="1"/>
+      <c r="N46" s="1"/>
+      <c r="O46" s="1"/>
+      <c r="P46" s="1"/>
+      <c r="Q46" s="4"/>
+      <c r="R46" s="10"/>
+      <c r="S46" s="4"/>
+      <c r="T46" s="14"/>
+      <c r="U46" s="10" t="s">
+        <v>56</v>
+      </c>
+      <c r="V46" s="10">
+        <f>COUNTIFS($D$6:$D$300,"TG102LE-4G",$H$6:$H$300,"*Lô 3-20*")</f>
+        <v>0</v>
+      </c>
+      <c r="W46" s="10">
+        <f>COUNTIFS($D$6:$D$300,"TG102LE-4G",$H$6:$H$300,"*Lô 1-21*")</f>
+        <v>0</v>
+      </c>
+      <c r="X46" s="10">
+        <f>COUNTIFS($D$6:$D$300,"TG102LE-4G",$H$6:$H$300,"*Lô 2-21*")</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="1:24" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A47" s="4">
+        <v>42</v>
+      </c>
+      <c r="B47" s="66"/>
+      <c r="C47" s="66"/>
+      <c r="D47" s="10"/>
+      <c r="E47" s="11"/>
+      <c r="F47" s="10"/>
+      <c r="G47" s="10"/>
+      <c r="H47" s="1"/>
+      <c r="I47" s="56"/>
+      <c r="J47" s="1"/>
+      <c r="K47" s="1"/>
+      <c r="L47" s="1"/>
+      <c r="M47" s="1"/>
+      <c r="N47" s="1"/>
+      <c r="O47" s="1"/>
+      <c r="P47" s="1"/>
+      <c r="Q47" s="4"/>
+      <c r="R47" s="10"/>
+      <c r="S47" s="4"/>
+      <c r="T47" s="14"/>
+      <c r="U47" s="10" t="s">
+        <v>45</v>
+      </c>
+      <c r="V47" s="10">
+        <f>COUNTIFS($D$6:$D$300,"TG102E",$H$6:$H$300,"*Lô 3-20*")</f>
+        <v>0</v>
+      </c>
+      <c r="W47" s="10">
+        <f>COUNTIFS($D$6:$D$300,"TG102E",$H$6:$H$300,"*Lô 1-21*")</f>
+        <v>0</v>
+      </c>
+      <c r="X47" s="10">
+        <f>COUNTIFS($D$6:$D$300,"TG102E",$H$6:$H$300,"*Lô 2-21*")</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="1:24" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A48" s="4">
+        <v>43</v>
+      </c>
+      <c r="B48" s="66"/>
+      <c r="C48" s="66"/>
+      <c r="D48" s="10"/>
+      <c r="E48" s="11"/>
+      <c r="F48" s="10"/>
+      <c r="G48" s="10"/>
+      <c r="H48" s="1"/>
+      <c r="I48" s="56"/>
+      <c r="J48" s="1"/>
+      <c r="K48" s="1"/>
+      <c r="L48" s="1"/>
+      <c r="M48" s="1"/>
+      <c r="N48" s="1"/>
+      <c r="O48" s="1"/>
+      <c r="P48" s="1"/>
+      <c r="Q48" s="4"/>
+      <c r="R48" s="10"/>
+      <c r="S48" s="4"/>
+      <c r="T48" s="35">
+        <f>COUNTIF(J9:J20,"*GSM*")</f>
+        <v>0</v>
+      </c>
+      <c r="U48" s="10" t="s">
+        <v>57</v>
+      </c>
+      <c r="V48" s="10">
+        <f>COUNTIFS($D$6:$D$300,"ACT-01",$H$6:$H$300,"*Lô 3-20*")</f>
+        <v>0</v>
+      </c>
+      <c r="W48" s="10">
+        <f>COUNTIFS($D$6:$D$300,"ACT-01",$H$6:$H$300,"*Lô 1-21*")</f>
+        <v>0</v>
+      </c>
+      <c r="X48" s="10">
+        <f>COUNTIFS($D$6:$D$300,"ACT-01",$H$6:$H$300,"*Lô 2-21*")</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="1:24" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A49" s="4">
+        <v>44</v>
+      </c>
+      <c r="B49" s="66"/>
+      <c r="C49" s="66"/>
+      <c r="D49" s="10"/>
+      <c r="E49" s="11"/>
+      <c r="F49" s="10"/>
+      <c r="G49" s="10"/>
+      <c r="H49" s="1"/>
+      <c r="I49" s="56"/>
+      <c r="J49" s="1"/>
+      <c r="K49" s="1"/>
+      <c r="L49" s="1"/>
+      <c r="M49" s="1"/>
+      <c r="N49" s="1"/>
+      <c r="O49" s="1"/>
+      <c r="P49" s="1"/>
+      <c r="Q49" s="4"/>
+      <c r="R49" s="10"/>
+      <c r="S49" s="4"/>
+      <c r="T49" s="35"/>
+      <c r="U49" s="46"/>
+      <c r="V49" s="46"/>
+      <c r="W49" s="46"/>
+      <c r="X49" s="33"/>
+    </row>
+    <row r="50" spans="1:24" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A50" s="29">
+        <v>45</v>
+      </c>
+      <c r="B50" s="67"/>
+      <c r="C50" s="67"/>
+      <c r="D50" s="45"/>
+      <c r="E50" s="31"/>
+      <c r="F50" s="45"/>
+      <c r="G50" s="45"/>
+      <c r="H50" s="32"/>
+      <c r="I50" s="57"/>
+      <c r="J50" s="32"/>
+      <c r="K50" s="32"/>
+      <c r="L50" s="32"/>
+      <c r="M50" s="32"/>
+      <c r="N50" s="32"/>
+      <c r="O50" s="32"/>
+      <c r="P50" s="32"/>
+      <c r="Q50" s="29"/>
+      <c r="R50" s="45"/>
+      <c r="S50" s="29"/>
+      <c r="T50" s="35"/>
+      <c r="U50" s="46"/>
+      <c r="V50" s="46"/>
+      <c r="W50" s="46"/>
+      <c r="X50" s="33"/>
+    </row>
+    <row r="51" spans="1:24" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A51" s="4">
+        <v>46</v>
+      </c>
+      <c r="B51" s="66"/>
+      <c r="C51" s="66"/>
+      <c r="D51" s="10"/>
+      <c r="E51" s="11"/>
+      <c r="F51" s="10"/>
+      <c r="G51" s="10"/>
+      <c r="H51" s="1"/>
+      <c r="I51" s="56"/>
+      <c r="J51" s="1"/>
+      <c r="K51" s="1"/>
+      <c r="L51" s="1"/>
+      <c r="M51" s="1"/>
+      <c r="N51" s="1"/>
+      <c r="O51" s="1"/>
+      <c r="P51" s="1"/>
+      <c r="Q51" s="4"/>
+      <c r="R51" s="10"/>
+      <c r="S51" s="10"/>
+      <c r="T51" s="35"/>
+      <c r="U51" s="46"/>
+      <c r="V51" s="46"/>
+      <c r="W51" s="46"/>
+      <c r="X51" s="33"/>
+    </row>
+    <row r="52" spans="1:24" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A52" s="4">
+        <v>47</v>
+      </c>
+      <c r="B52" s="68"/>
+      <c r="C52" s="68"/>
+      <c r="D52" s="33"/>
+      <c r="E52" s="33"/>
+      <c r="F52" s="33"/>
+      <c r="G52" s="33"/>
+      <c r="H52" s="33"/>
+      <c r="I52" s="58"/>
+      <c r="J52" s="33"/>
+      <c r="K52" s="33"/>
+      <c r="L52" s="34"/>
+      <c r="M52" s="33"/>
+      <c r="N52" s="33"/>
+      <c r="O52" s="33"/>
+      <c r="P52" s="33"/>
+      <c r="Q52" s="33"/>
+      <c r="R52" s="33"/>
+      <c r="S52" s="33"/>
+      <c r="T52" s="35"/>
+      <c r="U52" s="46"/>
+      <c r="V52" s="46"/>
+      <c r="W52" s="46"/>
+      <c r="X52" s="33"/>
+    </row>
+    <row r="53" spans="1:24" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A53" s="4">
+        <v>48</v>
+      </c>
+      <c r="B53" s="68"/>
+      <c r="C53" s="68"/>
+      <c r="D53" s="33"/>
+      <c r="E53" s="33"/>
+      <c r="F53" s="33"/>
+      <c r="G53" s="33"/>
+      <c r="H53" s="33"/>
+      <c r="I53" s="58"/>
+      <c r="J53" s="33"/>
+      <c r="K53" s="33"/>
+      <c r="L53" s="34"/>
+      <c r="M53" s="33"/>
+      <c r="N53" s="19"/>
+      <c r="O53" s="19"/>
+      <c r="P53" s="33"/>
+      <c r="Q53" s="33"/>
+      <c r="R53" s="33"/>
+      <c r="S53" s="33"/>
+      <c r="T53" s="35"/>
+      <c r="U53" s="46"/>
+      <c r="V53" s="46"/>
+      <c r="W53" s="46"/>
+      <c r="X53" s="33"/>
+    </row>
+    <row r="54" spans="1:24" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A54" s="4">
+        <v>49</v>
+      </c>
+      <c r="B54" s="68"/>
+      <c r="C54" s="68"/>
+      <c r="D54" s="33"/>
+      <c r="E54" s="33"/>
+      <c r="F54" s="33"/>
+      <c r="G54" s="33"/>
+      <c r="H54" s="33"/>
+      <c r="I54" s="58"/>
+      <c r="J54" s="33"/>
+      <c r="K54" s="33"/>
+      <c r="L54" s="34"/>
+      <c r="M54" s="33"/>
+      <c r="N54" s="19"/>
+      <c r="O54" s="19"/>
+      <c r="P54" s="33"/>
+      <c r="Q54" s="33"/>
+      <c r="R54" s="33"/>
+      <c r="S54" s="33"/>
+      <c r="T54" s="35"/>
+      <c r="U54" s="46"/>
+      <c r="V54" s="46"/>
+      <c r="W54" s="46"/>
+      <c r="X54" s="33"/>
+    </row>
+    <row r="55" spans="1:24" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A55" s="4">
+        <v>50</v>
+      </c>
+      <c r="B55" s="68"/>
+      <c r="C55" s="68"/>
+      <c r="D55" s="33"/>
+      <c r="E55" s="33"/>
+      <c r="F55" s="33"/>
+      <c r="G55" s="33"/>
+      <c r="H55" s="33"/>
+      <c r="I55" s="58"/>
+      <c r="J55" s="33"/>
+      <c r="K55" s="33"/>
+      <c r="L55" s="34"/>
+      <c r="M55" s="33"/>
+      <c r="N55" s="19"/>
+      <c r="O55" s="19"/>
+      <c r="P55" s="33"/>
+      <c r="Q55" s="33"/>
+      <c r="R55" s="33"/>
+      <c r="S55" s="33"/>
+      <c r="T55" s="36"/>
+      <c r="U55" s="46"/>
+      <c r="V55" s="46"/>
+      <c r="W55" s="46"/>
+      <c r="X55" s="33"/>
+    </row>
+    <row r="56" spans="1:24" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="U56" s="25"/>
+      <c r="V56" s="25"/>
+      <c r="W56" s="25"/>
+    </row>
+    <row r="57" spans="1:24" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="U57" s="25"/>
+      <c r="V57" s="25"/>
+      <c r="W57" s="25"/>
+    </row>
+  </sheetData>
+  <mergeCells count="18">
+    <mergeCell ref="V4:V5"/>
+    <mergeCell ref="A1:V1"/>
+    <mergeCell ref="A2:D2"/>
+    <mergeCell ref="E2:F2"/>
+    <mergeCell ref="A4:A5"/>
+    <mergeCell ref="B4:I4"/>
+    <mergeCell ref="J4:J5"/>
+    <mergeCell ref="K4:L4"/>
+    <mergeCell ref="M4:M5"/>
+    <mergeCell ref="N4:N5"/>
+    <mergeCell ref="O4:O5"/>
+    <mergeCell ref="U6:U11"/>
+    <mergeCell ref="U12:U16"/>
+    <mergeCell ref="P4:P5"/>
+    <mergeCell ref="Q4:Q5"/>
+    <mergeCell ref="R4:R5"/>
+    <mergeCell ref="S4:S5"/>
+    <mergeCell ref="U4:U5"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:X57"/>
+  <sheetViews>
+    <sheetView showZeros="0" tabSelected="1" topLeftCell="K1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="P11" sqref="P11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -4801,29 +6734,29 @@
       <c r="C5" s="64" t="s">
         <v>2</v>
       </c>
-      <c r="D5" s="74" t="s">
+      <c r="D5" s="73" t="s">
         <v>3</v>
       </c>
-      <c r="E5" s="74" t="s">
+      <c r="E5" s="73" t="s">
         <v>43</v>
       </c>
-      <c r="F5" s="74" t="s">
+      <c r="F5" s="73" t="s">
         <v>4</v>
       </c>
-      <c r="G5" s="74" t="s">
+      <c r="G5" s="73" t="s">
         <v>5</v>
       </c>
-      <c r="H5" s="74" t="s">
+      <c r="H5" s="73" t="s">
         <v>55</v>
       </c>
       <c r="I5" s="55" t="s">
         <v>15</v>
       </c>
       <c r="J5" s="78"/>
-      <c r="K5" s="74" t="s">
+      <c r="K5" s="73" t="s">
         <v>12</v>
       </c>
-      <c r="L5" s="74" t="s">
+      <c r="L5" s="73" t="s">
         <v>13</v>
       </c>
       <c r="M5" s="85"/>
@@ -4847,35 +6780,51 @@
       </c>
       <c r="C6" s="37"/>
       <c r="D6" s="38" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="E6" s="39">
-        <v>860906041213981</v>
+        <v>868183034539291</v>
       </c>
       <c r="F6" s="38"/>
       <c r="G6" s="38" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="H6" s="38"/>
-      <c r="I6" s="50"/>
-      <c r="J6" s="1"/>
-      <c r="K6" s="61"/>
+      <c r="I6" s="50" t="s">
+        <v>87</v>
+      </c>
+      <c r="J6" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="K6" s="61" t="s">
+        <v>86</v>
+      </c>
       <c r="L6" s="40"/>
-      <c r="M6" s="40"/>
+      <c r="M6" s="40" t="s">
+        <v>89</v>
+      </c>
       <c r="N6" s="41"/>
-      <c r="O6" s="40"/>
-      <c r="P6" s="40"/>
-      <c r="Q6" s="3"/>
-      <c r="R6" s="38"/>
+      <c r="O6" s="40" t="s">
+        <v>73</v>
+      </c>
+      <c r="P6" s="40" t="s">
+        <v>74</v>
+      </c>
+      <c r="Q6" s="3" t="s">
+        <v>90</v>
+      </c>
+      <c r="R6" s="38" t="s">
+        <v>91</v>
+      </c>
       <c r="S6" s="4"/>
-      <c r="T6" s="75"/>
+      <c r="T6" s="72"/>
       <c r="U6" s="86" t="s">
         <v>18</v>
       </c>
       <c r="V6" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="W6" s="75"/>
+      <c r="W6" s="72"/>
     </row>
     <row r="7" spans="1:23" s="12" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="4">
@@ -4886,14 +6835,14 @@
       </c>
       <c r="C7" s="37"/>
       <c r="D7" s="38" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="E7" s="39">
-        <v>861359036776050</v>
+        <v>868183037812083</v>
       </c>
       <c r="F7" s="38"/>
       <c r="G7" s="38" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="H7" s="38"/>
       <c r="I7" s="50"/>
@@ -4907,23 +6856,31 @@
       <c r="Q7" s="3"/>
       <c r="R7" s="38"/>
       <c r="S7" s="4"/>
-      <c r="T7" s="75"/>
+      <c r="T7" s="72"/>
       <c r="U7" s="87"/>
       <c r="V7" s="4" t="s">
         <v>35</v>
       </c>
-      <c r="W7" s="75"/>
+      <c r="W7" s="72"/>
     </row>
     <row r="8" spans="1:23" s="12" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="4">
         <v>3</v>
       </c>
-      <c r="B8" s="37"/>
+      <c r="B8" s="37">
+        <v>44364</v>
+      </c>
       <c r="C8" s="37"/>
-      <c r="D8" s="38"/>
-      <c r="E8" s="39"/>
+      <c r="D8" s="38" t="s">
+        <v>44</v>
+      </c>
+      <c r="E8" s="39">
+        <v>868183038490038</v>
+      </c>
       <c r="F8" s="38"/>
-      <c r="G8" s="38"/>
+      <c r="G8" s="38" t="s">
+        <v>63</v>
+      </c>
       <c r="H8" s="52"/>
       <c r="I8" s="50"/>
       <c r="J8" s="40"/>
@@ -4936,23 +6893,31 @@
       <c r="Q8" s="3"/>
       <c r="R8" s="38"/>
       <c r="S8" s="4"/>
-      <c r="T8" s="75"/>
+      <c r="T8" s="72"/>
       <c r="U8" s="87"/>
       <c r="V8" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="W8" s="75"/>
+      <c r="W8" s="72"/>
     </row>
     <row r="9" spans="1:23" s="12" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="4">
         <v>4</v>
       </c>
-      <c r="B9" s="37"/>
+      <c r="B9" s="37">
+        <v>44364</v>
+      </c>
       <c r="C9" s="37"/>
-      <c r="D9" s="38"/>
-      <c r="E9" s="39"/>
+      <c r="D9" s="38" t="s">
+        <v>44</v>
+      </c>
+      <c r="E9" s="39">
+        <v>868183038600743</v>
+      </c>
       <c r="F9" s="38"/>
-      <c r="G9" s="38"/>
+      <c r="G9" s="38" t="s">
+        <v>64</v>
+      </c>
       <c r="H9" s="2"/>
       <c r="I9" s="50"/>
       <c r="J9" s="40"/>
@@ -4965,23 +6930,31 @@
       <c r="Q9" s="3"/>
       <c r="R9" s="38"/>
       <c r="S9" s="4"/>
-      <c r="T9" s="75"/>
+      <c r="T9" s="72"/>
       <c r="U9" s="87"/>
       <c r="V9" s="4" t="s">
         <v>51</v>
       </c>
-      <c r="W9" s="75"/>
+      <c r="W9" s="72"/>
     </row>
     <row r="10" spans="1:23" s="12" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="4">
         <v>5</v>
       </c>
-      <c r="B10" s="37"/>
-      <c r="C10" s="65"/>
-      <c r="D10" s="38"/>
-      <c r="E10" s="39"/>
+      <c r="B10" s="37">
+        <v>44364</v>
+      </c>
+      <c r="C10" s="37"/>
+      <c r="D10" s="38" t="s">
+        <v>44</v>
+      </c>
+      <c r="E10" s="39">
+        <v>868183038522277</v>
+      </c>
       <c r="F10" s="38"/>
-      <c r="G10" s="38"/>
+      <c r="G10" s="38" t="s">
+        <v>64</v>
+      </c>
       <c r="H10" s="2"/>
       <c r="I10" s="50"/>
       <c r="J10" s="40"/>
@@ -4994,23 +6967,31 @@
       <c r="Q10" s="3"/>
       <c r="R10" s="38"/>
       <c r="S10" s="4"/>
-      <c r="T10" s="75"/>
+      <c r="T10" s="72"/>
       <c r="U10" s="87"/>
       <c r="V10" s="4" t="s">
         <v>31</v>
       </c>
-      <c r="W10" s="75"/>
+      <c r="W10" s="72"/>
     </row>
     <row r="11" spans="1:23" s="12" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="4">
         <v>6</v>
       </c>
-      <c r="B11" s="65"/>
+      <c r="B11" s="37">
+        <v>44364</v>
+      </c>
       <c r="C11" s="65"/>
-      <c r="D11" s="38"/>
-      <c r="E11" s="39"/>
+      <c r="D11" s="38" t="s">
+        <v>44</v>
+      </c>
+      <c r="E11" s="39">
+        <v>867717030417415</v>
+      </c>
       <c r="F11" s="38"/>
-      <c r="G11" s="38"/>
+      <c r="G11" s="38" t="s">
+        <v>63</v>
+      </c>
       <c r="H11" s="2"/>
       <c r="I11" s="50"/>
       <c r="J11" s="40"/>
@@ -5023,23 +7004,31 @@
       <c r="Q11" s="3"/>
       <c r="R11" s="38"/>
       <c r="S11" s="4"/>
-      <c r="T11" s="75"/>
+      <c r="T11" s="72"/>
       <c r="U11" s="87"/>
       <c r="V11" s="4" t="s">
         <v>30</v>
       </c>
-      <c r="W11" s="75"/>
+      <c r="W11" s="72"/>
     </row>
     <row r="12" spans="1:23" s="12" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="4">
         <v>7</v>
       </c>
-      <c r="B12" s="65"/>
+      <c r="B12" s="37">
+        <v>44364</v>
+      </c>
       <c r="C12" s="65"/>
-      <c r="D12" s="38"/>
-      <c r="E12" s="39"/>
+      <c r="D12" s="38" t="s">
+        <v>44</v>
+      </c>
+      <c r="E12" s="39">
+        <v>868183033882809</v>
+      </c>
       <c r="F12" s="38"/>
-      <c r="G12" s="38"/>
+      <c r="G12" s="38" t="s">
+        <v>63</v>
+      </c>
       <c r="H12" s="1"/>
       <c r="I12" s="56"/>
       <c r="J12" s="40"/>
@@ -5052,25 +7041,33 @@
       <c r="Q12" s="4"/>
       <c r="R12" s="38"/>
       <c r="S12" s="4"/>
-      <c r="T12" s="75"/>
+      <c r="T12" s="72"/>
       <c r="U12" s="86" t="s">
         <v>19</v>
       </c>
       <c r="V12" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="W12" s="75"/>
+      <c r="W12" s="72"/>
     </row>
     <row r="13" spans="1:23" s="12" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="4">
         <v>8</v>
       </c>
-      <c r="B13" s="65"/>
+      <c r="B13" s="37">
+        <v>44364</v>
+      </c>
       <c r="C13" s="65"/>
-      <c r="D13" s="38"/>
-      <c r="E13" s="39"/>
+      <c r="D13" s="38" t="s">
+        <v>44</v>
+      </c>
+      <c r="E13" s="39">
+        <v>868183034599543</v>
+      </c>
       <c r="F13" s="38"/>
-      <c r="G13" s="38"/>
+      <c r="G13" s="38" t="s">
+        <v>63</v>
+      </c>
       <c r="H13" s="13"/>
       <c r="I13" s="50"/>
       <c r="J13" s="1"/>
@@ -5083,23 +7080,31 @@
       <c r="Q13" s="3"/>
       <c r="R13" s="10"/>
       <c r="S13" s="4"/>
-      <c r="T13" s="75"/>
+      <c r="T13" s="72"/>
       <c r="U13" s="87"/>
       <c r="V13" s="4" t="s">
         <v>37</v>
       </c>
-      <c r="W13" s="75"/>
+      <c r="W13" s="72"/>
     </row>
     <row r="14" spans="1:23" s="12" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="4">
         <v>9</v>
       </c>
-      <c r="B14" s="65"/>
+      <c r="B14" s="37">
+        <v>44364</v>
+      </c>
       <c r="C14" s="65"/>
-      <c r="D14" s="38"/>
-      <c r="E14" s="39"/>
+      <c r="D14" s="38" t="s">
+        <v>44</v>
+      </c>
+      <c r="E14" s="39">
+        <v>868183035852958</v>
+      </c>
       <c r="F14" s="38"/>
-      <c r="G14" s="38"/>
+      <c r="G14" s="38" t="s">
+        <v>63</v>
+      </c>
       <c r="H14" s="1"/>
       <c r="I14" s="50"/>
       <c r="J14" s="40"/>
@@ -5112,23 +7117,31 @@
       <c r="Q14" s="4"/>
       <c r="R14" s="38"/>
       <c r="S14" s="4"/>
-      <c r="T14" s="75"/>
+      <c r="T14" s="72"/>
       <c r="U14" s="87"/>
       <c r="V14" s="4" t="s">
         <v>36</v>
       </c>
-      <c r="W14" s="75"/>
+      <c r="W14" s="72"/>
     </row>
     <row r="15" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="4">
         <v>10</v>
       </c>
-      <c r="B15" s="65"/>
+      <c r="B15" s="37">
+        <v>44364</v>
+      </c>
       <c r="C15" s="65"/>
-      <c r="D15" s="38"/>
-      <c r="E15" s="39"/>
+      <c r="D15" s="38" t="s">
+        <v>44</v>
+      </c>
+      <c r="E15" s="39">
+        <v>867857039894956</v>
+      </c>
       <c r="F15" s="38"/>
-      <c r="G15" s="38"/>
+      <c r="G15" s="38" t="s">
+        <v>63</v>
+      </c>
       <c r="H15" s="1"/>
       <c r="I15" s="56"/>
       <c r="J15" s="40"/>
@@ -5146,7 +7159,7 @@
       <c r="V15" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="W15" s="75"/>
+      <c r="W15" s="72"/>
     </row>
     <row r="16" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="4">
@@ -5175,7 +7188,7 @@
       <c r="V16" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="W16" s="75"/>
+      <c r="W16" s="72"/>
     </row>
     <row r="17" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="4">
@@ -5200,9 +7213,9 @@
       <c r="R17" s="38"/>
       <c r="S17" s="4"/>
       <c r="T17" s="14"/>
-      <c r="U17" s="75"/>
+      <c r="U17" s="72"/>
       <c r="V17" s="15"/>
-      <c r="W17" s="75"/>
+      <c r="W17" s="72"/>
     </row>
     <row r="18" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="4">
@@ -5254,7 +7267,7 @@
       <c r="R19" s="10"/>
       <c r="S19" s="4"/>
       <c r="T19" s="14"/>
-      <c r="U19" s="74" t="s">
+      <c r="U19" s="73" t="s">
         <v>39</v>
       </c>
       <c r="V19" s="17" t="s">
@@ -5354,7 +7367,7 @@
       </c>
       <c r="V22" s="10">
         <f>COUNTIF($Q$6:$Q$51,"PC+PM")</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="W22" s="14"/>
     </row>
@@ -5435,7 +7448,7 @@
       <c r="R25" s="10"/>
       <c r="S25" s="4"/>
       <c r="T25" s="14"/>
-      <c r="U25" s="74" t="s">
+      <c r="U25" s="73" t="s">
         <v>46</v>
       </c>
       <c r="V25" s="17" t="s">
@@ -5567,7 +7580,7 @@
       </c>
       <c r="V29" s="10">
         <f>COUNTIF($R$6:$R$51,"*NG*")</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="W29" s="14"/>
     </row>
@@ -5759,7 +7772,7 @@
       </c>
       <c r="V35" s="10">
         <f>COUNTIF($R$6:$R$51,"*NCFW*")</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="W35" s="14"/>
     </row>
@@ -5823,7 +7836,7 @@
       </c>
       <c r="V37" s="10">
         <f>SUM(V26:V36)</f>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="W37" s="14"/>
     </row>
@@ -6402,6 +8415,13 @@
     </row>
   </sheetData>
   <mergeCells count="18">
+    <mergeCell ref="U6:U11"/>
+    <mergeCell ref="U12:U16"/>
+    <mergeCell ref="P4:P5"/>
+    <mergeCell ref="Q4:Q5"/>
+    <mergeCell ref="R4:R5"/>
+    <mergeCell ref="S4:S5"/>
+    <mergeCell ref="U4:U5"/>
     <mergeCell ref="V4:V5"/>
     <mergeCell ref="A1:V1"/>
     <mergeCell ref="A2:D2"/>
@@ -6413,25 +8433,18 @@
     <mergeCell ref="M4:M5"/>
     <mergeCell ref="N4:N5"/>
     <mergeCell ref="O4:O5"/>
-    <mergeCell ref="U6:U11"/>
-    <mergeCell ref="U12:U16"/>
-    <mergeCell ref="P4:P5"/>
-    <mergeCell ref="Q4:Q5"/>
-    <mergeCell ref="R4:R5"/>
-    <mergeCell ref="S4:S5"/>
-    <mergeCell ref="U4:U5"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:X57"/>
   <sheetViews>
     <sheetView showZeros="0" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D32" sqref="D32"/>
+      <selection activeCell="G12" sqref="G12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -6600,29 +8613,29 @@
       <c r="C5" s="64" t="s">
         <v>2</v>
       </c>
-      <c r="D5" s="73" t="s">
+      <c r="D5" s="74" t="s">
         <v>3</v>
       </c>
-      <c r="E5" s="73" t="s">
+      <c r="E5" s="74" t="s">
         <v>43</v>
       </c>
-      <c r="F5" s="73" t="s">
+      <c r="F5" s="74" t="s">
         <v>4</v>
       </c>
-      <c r="G5" s="73" t="s">
+      <c r="G5" s="74" t="s">
         <v>5</v>
       </c>
-      <c r="H5" s="73" t="s">
+      <c r="H5" s="74" t="s">
         <v>55</v>
       </c>
       <c r="I5" s="55" t="s">
         <v>15</v>
       </c>
       <c r="J5" s="78"/>
-      <c r="K5" s="73" t="s">
+      <c r="K5" s="74" t="s">
         <v>12</v>
       </c>
-      <c r="L5" s="73" t="s">
+      <c r="L5" s="74" t="s">
         <v>13</v>
       </c>
       <c r="M5" s="85"/>
@@ -6646,10 +8659,10 @@
       </c>
       <c r="C6" s="37"/>
       <c r="D6" s="38" t="s">
-        <v>44</v>
+        <v>66</v>
       </c>
       <c r="E6" s="39">
-        <v>868183034539291</v>
+        <v>866192037814389</v>
       </c>
       <c r="F6" s="38"/>
       <c r="G6" s="38" t="s">
@@ -6667,14 +8680,14 @@
       <c r="Q6" s="3"/>
       <c r="R6" s="38"/>
       <c r="S6" s="4"/>
-      <c r="T6" s="72"/>
+      <c r="T6" s="75"/>
       <c r="U6" s="86" t="s">
         <v>18</v>
       </c>
       <c r="V6" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="W6" s="72"/>
+      <c r="W6" s="75"/>
     </row>
     <row r="7" spans="1:23" s="12" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="4">
@@ -6685,13 +8698,15 @@
       </c>
       <c r="C7" s="37"/>
       <c r="D7" s="38" t="s">
-        <v>44</v>
+        <v>66</v>
       </c>
       <c r="E7" s="39">
-        <v>868183037812083</v>
+        <v>868926033917714</v>
       </c>
       <c r="F7" s="38"/>
-      <c r="G7" s="38"/>
+      <c r="G7" s="38" t="s">
+        <v>63</v>
+      </c>
       <c r="H7" s="38"/>
       <c r="I7" s="50"/>
       <c r="J7" s="40"/>
@@ -6704,12 +8719,12 @@
       <c r="Q7" s="3"/>
       <c r="R7" s="38"/>
       <c r="S7" s="4"/>
-      <c r="T7" s="72"/>
+      <c r="T7" s="75"/>
       <c r="U7" s="87"/>
       <c r="V7" s="4" t="s">
         <v>35</v>
       </c>
-      <c r="W7" s="72"/>
+      <c r="W7" s="75"/>
     </row>
     <row r="8" spans="1:23" s="12" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="4">
@@ -6720,16 +8735,18 @@
       </c>
       <c r="C8" s="37"/>
       <c r="D8" s="38" t="s">
-        <v>44</v>
+        <v>66</v>
       </c>
       <c r="E8" s="39">
-        <v>868183038490038</v>
+        <v>868926033936078</v>
       </c>
       <c r="F8" s="38"/>
       <c r="G8" s="38" t="s">
-        <v>63</v>
-      </c>
-      <c r="H8" s="52"/>
+        <v>64</v>
+      </c>
+      <c r="H8" s="38" t="s">
+        <v>67</v>
+      </c>
       <c r="I8" s="50"/>
       <c r="J8" s="40"/>
       <c r="K8" s="60"/>
@@ -6741,12 +8758,12 @@
       <c r="Q8" s="3"/>
       <c r="R8" s="38"/>
       <c r="S8" s="4"/>
-      <c r="T8" s="72"/>
+      <c r="T8" s="75"/>
       <c r="U8" s="87"/>
       <c r="V8" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="W8" s="72"/>
+      <c r="W8" s="75"/>
     </row>
     <row r="9" spans="1:23" s="12" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="4">
@@ -6757,14 +8774,16 @@
       </c>
       <c r="C9" s="37"/>
       <c r="D9" s="38" t="s">
-        <v>44</v>
+        <v>66</v>
       </c>
       <c r="E9" s="39">
-        <v>868183038600743</v>
+        <v>866192037784913</v>
       </c>
       <c r="F9" s="38"/>
-      <c r="G9" s="38"/>
-      <c r="H9" s="2"/>
+      <c r="G9" s="38" t="s">
+        <v>63</v>
+      </c>
+      <c r="H9" s="38"/>
       <c r="I9" s="50"/>
       <c r="J9" s="40"/>
       <c r="K9" s="40"/>
@@ -6776,31 +8795,23 @@
       <c r="Q9" s="3"/>
       <c r="R9" s="38"/>
       <c r="S9" s="4"/>
-      <c r="T9" s="72"/>
+      <c r="T9" s="75"/>
       <c r="U9" s="87"/>
       <c r="V9" s="4" t="s">
         <v>51</v>
       </c>
-      <c r="W9" s="72"/>
+      <c r="W9" s="75"/>
     </row>
     <row r="10" spans="1:23" s="12" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="4">
         <v>5</v>
       </c>
-      <c r="B10" s="37">
-        <v>44364</v>
-      </c>
-      <c r="C10" s="37"/>
-      <c r="D10" s="38" t="s">
-        <v>44</v>
-      </c>
-      <c r="E10" s="39">
-        <v>868183038522277</v>
-      </c>
+      <c r="B10" s="37"/>
+      <c r="C10" s="65"/>
+      <c r="D10" s="38"/>
+      <c r="E10" s="39"/>
       <c r="F10" s="38"/>
-      <c r="G10" s="38" t="s">
-        <v>64</v>
-      </c>
+      <c r="G10" s="38"/>
       <c r="H10" s="2"/>
       <c r="I10" s="50"/>
       <c r="J10" s="40"/>
@@ -6813,31 +8824,23 @@
       <c r="Q10" s="3"/>
       <c r="R10" s="38"/>
       <c r="S10" s="4"/>
-      <c r="T10" s="72"/>
+      <c r="T10" s="75"/>
       <c r="U10" s="87"/>
       <c r="V10" s="4" t="s">
         <v>31</v>
       </c>
-      <c r="W10" s="72"/>
+      <c r="W10" s="75"/>
     </row>
     <row r="11" spans="1:23" s="12" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="4">
         <v>6</v>
       </c>
-      <c r="B11" s="37">
-        <v>44364</v>
-      </c>
+      <c r="B11" s="65"/>
       <c r="C11" s="65"/>
-      <c r="D11" s="38" t="s">
-        <v>44</v>
-      </c>
-      <c r="E11" s="39">
-        <v>867717030417415</v>
-      </c>
+      <c r="D11" s="38"/>
+      <c r="E11" s="39"/>
       <c r="F11" s="38"/>
-      <c r="G11" s="38" t="s">
-        <v>63</v>
-      </c>
+      <c r="G11" s="38"/>
       <c r="H11" s="2"/>
       <c r="I11" s="50"/>
       <c r="J11" s="40"/>
@@ -6850,31 +8853,23 @@
       <c r="Q11" s="3"/>
       <c r="R11" s="38"/>
       <c r="S11" s="4"/>
-      <c r="T11" s="72"/>
+      <c r="T11" s="75"/>
       <c r="U11" s="87"/>
       <c r="V11" s="4" t="s">
         <v>30</v>
       </c>
-      <c r="W11" s="72"/>
+      <c r="W11" s="75"/>
     </row>
     <row r="12" spans="1:23" s="12" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="4">
         <v>7</v>
       </c>
-      <c r="B12" s="37">
-        <v>44364</v>
-      </c>
+      <c r="B12" s="65"/>
       <c r="C12" s="65"/>
-      <c r="D12" s="38" t="s">
-        <v>44</v>
-      </c>
-      <c r="E12" s="39">
-        <v>868183033882809</v>
-      </c>
+      <c r="D12" s="38"/>
+      <c r="E12" s="39"/>
       <c r="F12" s="38"/>
-      <c r="G12" s="38" t="s">
-        <v>63</v>
-      </c>
+      <c r="G12" s="38"/>
       <c r="H12" s="1"/>
       <c r="I12" s="56"/>
       <c r="J12" s="40"/>
@@ -6887,33 +8882,25 @@
       <c r="Q12" s="4"/>
       <c r="R12" s="38"/>
       <c r="S12" s="4"/>
-      <c r="T12" s="72"/>
+      <c r="T12" s="75"/>
       <c r="U12" s="86" t="s">
         <v>19</v>
       </c>
       <c r="V12" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="W12" s="72"/>
+      <c r="W12" s="75"/>
     </row>
     <row r="13" spans="1:23" s="12" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="4">
         <v>8</v>
       </c>
-      <c r="B13" s="37">
-        <v>44364</v>
-      </c>
+      <c r="B13" s="65"/>
       <c r="C13" s="65"/>
-      <c r="D13" s="38" t="s">
-        <v>44</v>
-      </c>
-      <c r="E13" s="39">
-        <v>868183034599543</v>
-      </c>
+      <c r="D13" s="38"/>
+      <c r="E13" s="39"/>
       <c r="F13" s="38"/>
-      <c r="G13" s="38" t="s">
-        <v>63</v>
-      </c>
+      <c r="G13" s="38"/>
       <c r="H13" s="13"/>
       <c r="I13" s="50"/>
       <c r="J13" s="1"/>
@@ -6926,27 +8913,21 @@
       <c r="Q13" s="3"/>
       <c r="R13" s="10"/>
       <c r="S13" s="4"/>
-      <c r="T13" s="72"/>
+      <c r="T13" s="75"/>
       <c r="U13" s="87"/>
       <c r="V13" s="4" t="s">
         <v>37</v>
       </c>
-      <c r="W13" s="72"/>
+      <c r="W13" s="75"/>
     </row>
     <row r="14" spans="1:23" s="12" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="4">
         <v>9</v>
       </c>
-      <c r="B14" s="37">
-        <v>44364</v>
-      </c>
+      <c r="B14" s="65"/>
       <c r="C14" s="65"/>
-      <c r="D14" s="38" t="s">
-        <v>44</v>
-      </c>
-      <c r="E14" s="39">
-        <v>868183035852958</v>
-      </c>
+      <c r="D14" s="38"/>
+      <c r="E14" s="39"/>
       <c r="F14" s="38"/>
       <c r="G14" s="38"/>
       <c r="H14" s="1"/>
@@ -6961,31 +8942,23 @@
       <c r="Q14" s="4"/>
       <c r="R14" s="38"/>
       <c r="S14" s="4"/>
-      <c r="T14" s="72"/>
+      <c r="T14" s="75"/>
       <c r="U14" s="87"/>
       <c r="V14" s="4" t="s">
         <v>36</v>
       </c>
-      <c r="W14" s="72"/>
+      <c r="W14" s="75"/>
     </row>
     <row r="15" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="4">
         <v>10</v>
       </c>
-      <c r="B15" s="37">
-        <v>44364</v>
-      </c>
+      <c r="B15" s="65"/>
       <c r="C15" s="65"/>
-      <c r="D15" s="38" t="s">
-        <v>44</v>
-      </c>
-      <c r="E15" s="39">
-        <v>867857039894956</v>
-      </c>
+      <c r="D15" s="38"/>
+      <c r="E15" s="39"/>
       <c r="F15" s="38"/>
-      <c r="G15" s="38" t="s">
-        <v>63</v>
-      </c>
+      <c r="G15" s="38"/>
       <c r="H15" s="1"/>
       <c r="I15" s="56"/>
       <c r="J15" s="40"/>
@@ -7003,7 +8976,7 @@
       <c r="V15" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="W15" s="72"/>
+      <c r="W15" s="75"/>
     </row>
     <row r="16" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="4">
@@ -7032,7 +9005,7 @@
       <c r="V16" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="W16" s="72"/>
+      <c r="W16" s="75"/>
     </row>
     <row r="17" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="4">
@@ -7057,9 +9030,9 @@
       <c r="R17" s="38"/>
       <c r="S17" s="4"/>
       <c r="T17" s="14"/>
-      <c r="U17" s="72"/>
+      <c r="U17" s="75"/>
       <c r="V17" s="15"/>
-      <c r="W17" s="72"/>
+      <c r="W17" s="75"/>
     </row>
     <row r="18" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="4">
@@ -7111,7 +9084,7 @@
       <c r="R19" s="10"/>
       <c r="S19" s="4"/>
       <c r="T19" s="14"/>
-      <c r="U19" s="73" t="s">
+      <c r="U19" s="74" t="s">
         <v>39</v>
       </c>
       <c r="V19" s="17" t="s">
@@ -7292,7 +9265,7 @@
       <c r="R25" s="10"/>
       <c r="S25" s="4"/>
       <c r="T25" s="14"/>
-      <c r="U25" s="73" t="s">
+      <c r="U25" s="74" t="s">
         <v>46</v>
       </c>
       <c r="V25" s="17" t="s">
@@ -8259,13 +10232,6 @@
     </row>
   </sheetData>
   <mergeCells count="18">
-    <mergeCell ref="U6:U11"/>
-    <mergeCell ref="U12:U16"/>
-    <mergeCell ref="P4:P5"/>
-    <mergeCell ref="Q4:Q5"/>
-    <mergeCell ref="R4:R5"/>
-    <mergeCell ref="S4:S5"/>
-    <mergeCell ref="U4:U5"/>
     <mergeCell ref="V4:V5"/>
     <mergeCell ref="A1:V1"/>
     <mergeCell ref="A2:D2"/>
@@ -8277,18 +10243,25 @@
     <mergeCell ref="M4:M5"/>
     <mergeCell ref="N4:N5"/>
     <mergeCell ref="O4:O5"/>
+    <mergeCell ref="U6:U11"/>
+    <mergeCell ref="U12:U16"/>
+    <mergeCell ref="P4:P5"/>
+    <mergeCell ref="Q4:Q5"/>
+    <mergeCell ref="R4:R5"/>
+    <mergeCell ref="S4:S5"/>
+    <mergeCell ref="U4:U5"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:X57"/>
   <sheetViews>
-    <sheetView showZeros="0" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B6" sqref="B6:H9"/>
+    <sheetView showZeros="0" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="H11" sqref="H11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -8457,1823 +10430,6 @@
       <c r="C5" s="64" t="s">
         <v>2</v>
       </c>
-      <c r="D5" s="74" t="s">
-        <v>3</v>
-      </c>
-      <c r="E5" s="74" t="s">
-        <v>43</v>
-      </c>
-      <c r="F5" s="74" t="s">
-        <v>4</v>
-      </c>
-      <c r="G5" s="74" t="s">
-        <v>5</v>
-      </c>
-      <c r="H5" s="74" t="s">
-        <v>55</v>
-      </c>
-      <c r="I5" s="55" t="s">
-        <v>15</v>
-      </c>
-      <c r="J5" s="78"/>
-      <c r="K5" s="74" t="s">
-        <v>12</v>
-      </c>
-      <c r="L5" s="74" t="s">
-        <v>13</v>
-      </c>
-      <c r="M5" s="85"/>
-      <c r="N5" s="85"/>
-      <c r="O5" s="78"/>
-      <c r="P5" s="89"/>
-      <c r="Q5" s="78"/>
-      <c r="R5" s="78"/>
-      <c r="S5" s="90"/>
-      <c r="T5" s="27"/>
-      <c r="U5" s="78"/>
-      <c r="V5" s="78"/>
-      <c r="W5" s="48"/>
-    </row>
-    <row r="6" spans="1:23" s="12" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="4">
-        <v>1</v>
-      </c>
-      <c r="B6" s="37">
-        <v>44364</v>
-      </c>
-      <c r="C6" s="37"/>
-      <c r="D6" s="38" t="s">
-        <v>66</v>
-      </c>
-      <c r="E6" s="39">
-        <v>866192037814389</v>
-      </c>
-      <c r="F6" s="38"/>
-      <c r="G6" s="38" t="s">
-        <v>63</v>
-      </c>
-      <c r="H6" s="38"/>
-      <c r="I6" s="50"/>
-      <c r="J6" s="1"/>
-      <c r="K6" s="61"/>
-      <c r="L6" s="40"/>
-      <c r="M6" s="40"/>
-      <c r="N6" s="41"/>
-      <c r="O6" s="40"/>
-      <c r="P6" s="40"/>
-      <c r="Q6" s="3"/>
-      <c r="R6" s="38"/>
-      <c r="S6" s="4"/>
-      <c r="T6" s="75"/>
-      <c r="U6" s="86" t="s">
-        <v>18</v>
-      </c>
-      <c r="V6" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="W6" s="75"/>
-    </row>
-    <row r="7" spans="1:23" s="12" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="4">
-        <v>2</v>
-      </c>
-      <c r="B7" s="37">
-        <v>44364</v>
-      </c>
-      <c r="C7" s="37"/>
-      <c r="D7" s="38" t="s">
-        <v>66</v>
-      </c>
-      <c r="E7" s="39">
-        <v>868926033917714</v>
-      </c>
-      <c r="F7" s="38"/>
-      <c r="G7" s="38" t="s">
-        <v>63</v>
-      </c>
-      <c r="H7" s="38"/>
-      <c r="I7" s="50"/>
-      <c r="J7" s="40"/>
-      <c r="K7" s="61"/>
-      <c r="L7" s="40"/>
-      <c r="M7" s="40"/>
-      <c r="N7" s="41"/>
-      <c r="O7" s="40"/>
-      <c r="P7" s="40"/>
-      <c r="Q7" s="3"/>
-      <c r="R7" s="38"/>
-      <c r="S7" s="4"/>
-      <c r="T7" s="75"/>
-      <c r="U7" s="87"/>
-      <c r="V7" s="4" t="s">
-        <v>35</v>
-      </c>
-      <c r="W7" s="75"/>
-    </row>
-    <row r="8" spans="1:23" s="12" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="4">
-        <v>3</v>
-      </c>
-      <c r="B8" s="37">
-        <v>44364</v>
-      </c>
-      <c r="C8" s="37"/>
-      <c r="D8" s="38" t="s">
-        <v>66</v>
-      </c>
-      <c r="E8" s="39">
-        <v>868926033936078</v>
-      </c>
-      <c r="F8" s="38"/>
-      <c r="G8" s="38" t="s">
-        <v>64</v>
-      </c>
-      <c r="H8" s="38" t="s">
-        <v>67</v>
-      </c>
-      <c r="I8" s="50"/>
-      <c r="J8" s="40"/>
-      <c r="K8" s="60"/>
-      <c r="L8" s="40"/>
-      <c r="M8" s="40"/>
-      <c r="N8" s="41"/>
-      <c r="O8" s="40"/>
-      <c r="P8" s="40"/>
-      <c r="Q8" s="3"/>
-      <c r="R8" s="38"/>
-      <c r="S8" s="4"/>
-      <c r="T8" s="75"/>
-      <c r="U8" s="87"/>
-      <c r="V8" s="4" t="s">
-        <v>21</v>
-      </c>
-      <c r="W8" s="75"/>
-    </row>
-    <row r="9" spans="1:23" s="12" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="4">
-        <v>4</v>
-      </c>
-      <c r="B9" s="37">
-        <v>44364</v>
-      </c>
-      <c r="C9" s="37"/>
-      <c r="D9" s="38" t="s">
-        <v>66</v>
-      </c>
-      <c r="E9" s="39">
-        <v>866192037784913</v>
-      </c>
-      <c r="F9" s="38"/>
-      <c r="G9" s="38" t="s">
-        <v>63</v>
-      </c>
-      <c r="H9" s="38"/>
-      <c r="I9" s="50"/>
-      <c r="J9" s="40"/>
-      <c r="K9" s="40"/>
-      <c r="L9" s="40"/>
-      <c r="M9" s="40"/>
-      <c r="N9" s="1"/>
-      <c r="O9" s="40"/>
-      <c r="P9" s="1"/>
-      <c r="Q9" s="3"/>
-      <c r="R9" s="38"/>
-      <c r="S9" s="4"/>
-      <c r="T9" s="75"/>
-      <c r="U9" s="87"/>
-      <c r="V9" s="4" t="s">
-        <v>51</v>
-      </c>
-      <c r="W9" s="75"/>
-    </row>
-    <row r="10" spans="1:23" s="12" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="4">
-        <v>5</v>
-      </c>
-      <c r="B10" s="37"/>
-      <c r="C10" s="65"/>
-      <c r="D10" s="38"/>
-      <c r="E10" s="39"/>
-      <c r="F10" s="38"/>
-      <c r="G10" s="38"/>
-      <c r="H10" s="2"/>
-      <c r="I10" s="50"/>
-      <c r="J10" s="40"/>
-      <c r="K10" s="1"/>
-      <c r="L10" s="40"/>
-      <c r="M10" s="40"/>
-      <c r="N10" s="1"/>
-      <c r="O10" s="40"/>
-      <c r="P10" s="1"/>
-      <c r="Q10" s="3"/>
-      <c r="R10" s="38"/>
-      <c r="S10" s="4"/>
-      <c r="T10" s="75"/>
-      <c r="U10" s="87"/>
-      <c r="V10" s="4" t="s">
-        <v>31</v>
-      </c>
-      <c r="W10" s="75"/>
-    </row>
-    <row r="11" spans="1:23" s="12" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="4">
-        <v>6</v>
-      </c>
-      <c r="B11" s="65"/>
-      <c r="C11" s="65"/>
-      <c r="D11" s="38"/>
-      <c r="E11" s="39"/>
-      <c r="F11" s="38"/>
-      <c r="G11" s="38"/>
-      <c r="H11" s="2"/>
-      <c r="I11" s="50"/>
-      <c r="J11" s="40"/>
-      <c r="K11" s="1"/>
-      <c r="L11" s="40"/>
-      <c r="M11" s="40"/>
-      <c r="N11" s="1"/>
-      <c r="O11" s="40"/>
-      <c r="P11" s="1"/>
-      <c r="Q11" s="3"/>
-      <c r="R11" s="38"/>
-      <c r="S11" s="4"/>
-      <c r="T11" s="75"/>
-      <c r="U11" s="87"/>
-      <c r="V11" s="4" t="s">
-        <v>30</v>
-      </c>
-      <c r="W11" s="75"/>
-    </row>
-    <row r="12" spans="1:23" s="12" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="4">
-        <v>7</v>
-      </c>
-      <c r="B12" s="65"/>
-      <c r="C12" s="65"/>
-      <c r="D12" s="38"/>
-      <c r="E12" s="39"/>
-      <c r="F12" s="38"/>
-      <c r="G12" s="38"/>
-      <c r="H12" s="1"/>
-      <c r="I12" s="56"/>
-      <c r="J12" s="40"/>
-      <c r="K12" s="1"/>
-      <c r="L12" s="40"/>
-      <c r="M12" s="40"/>
-      <c r="N12" s="1"/>
-      <c r="O12" s="40"/>
-      <c r="P12" s="1"/>
-      <c r="Q12" s="4"/>
-      <c r="R12" s="38"/>
-      <c r="S12" s="4"/>
-      <c r="T12" s="75"/>
-      <c r="U12" s="86" t="s">
-        <v>19</v>
-      </c>
-      <c r="V12" s="4" t="s">
-        <v>23</v>
-      </c>
-      <c r="W12" s="75"/>
-    </row>
-    <row r="13" spans="1:23" s="12" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="4">
-        <v>8</v>
-      </c>
-      <c r="B13" s="65"/>
-      <c r="C13" s="65"/>
-      <c r="D13" s="38"/>
-      <c r="E13" s="39"/>
-      <c r="F13" s="38"/>
-      <c r="G13" s="38"/>
-      <c r="H13" s="13"/>
-      <c r="I13" s="50"/>
-      <c r="J13" s="1"/>
-      <c r="K13" s="1"/>
-      <c r="L13" s="40"/>
-      <c r="M13" s="1"/>
-      <c r="N13" s="1"/>
-      <c r="O13" s="40"/>
-      <c r="P13" s="1"/>
-      <c r="Q13" s="3"/>
-      <c r="R13" s="10"/>
-      <c r="S13" s="4"/>
-      <c r="T13" s="75"/>
-      <c r="U13" s="87"/>
-      <c r="V13" s="4" t="s">
-        <v>37</v>
-      </c>
-      <c r="W13" s="75"/>
-    </row>
-    <row r="14" spans="1:23" s="12" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="4">
-        <v>9</v>
-      </c>
-      <c r="B14" s="65"/>
-      <c r="C14" s="65"/>
-      <c r="D14" s="38"/>
-      <c r="E14" s="39"/>
-      <c r="F14" s="38"/>
-      <c r="G14" s="38"/>
-      <c r="H14" s="1"/>
-      <c r="I14" s="50"/>
-      <c r="J14" s="40"/>
-      <c r="K14" s="1"/>
-      <c r="L14" s="40"/>
-      <c r="M14" s="40"/>
-      <c r="N14" s="1"/>
-      <c r="O14" s="40"/>
-      <c r="P14" s="1"/>
-      <c r="Q14" s="4"/>
-      <c r="R14" s="38"/>
-      <c r="S14" s="4"/>
-      <c r="T14" s="75"/>
-      <c r="U14" s="87"/>
-      <c r="V14" s="4" t="s">
-        <v>36</v>
-      </c>
-      <c r="W14" s="75"/>
-    </row>
-    <row r="15" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="4">
-        <v>10</v>
-      </c>
-      <c r="B15" s="65"/>
-      <c r="C15" s="65"/>
-      <c r="D15" s="38"/>
-      <c r="E15" s="39"/>
-      <c r="F15" s="38"/>
-      <c r="G15" s="38"/>
-      <c r="H15" s="1"/>
-      <c r="I15" s="56"/>
-      <c r="J15" s="40"/>
-      <c r="K15" s="1"/>
-      <c r="L15" s="40"/>
-      <c r="M15" s="40"/>
-      <c r="N15" s="1"/>
-      <c r="O15" s="40"/>
-      <c r="P15" s="1"/>
-      <c r="Q15" s="4"/>
-      <c r="R15" s="38"/>
-      <c r="S15" s="4"/>
-      <c r="T15" s="14"/>
-      <c r="U15" s="87"/>
-      <c r="V15" s="4" t="s">
-        <v>24</v>
-      </c>
-      <c r="W15" s="75"/>
-    </row>
-    <row r="16" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="4">
-        <v>11</v>
-      </c>
-      <c r="B16" s="65"/>
-      <c r="C16" s="65"/>
-      <c r="D16" s="38"/>
-      <c r="E16" s="39"/>
-      <c r="F16" s="62"/>
-      <c r="G16" s="38"/>
-      <c r="H16" s="1"/>
-      <c r="I16" s="56"/>
-      <c r="J16" s="1"/>
-      <c r="K16" s="1"/>
-      <c r="L16" s="40"/>
-      <c r="M16" s="40"/>
-      <c r="N16" s="1"/>
-      <c r="O16" s="40"/>
-      <c r="P16" s="1"/>
-      <c r="Q16" s="4"/>
-      <c r="R16" s="38"/>
-      <c r="S16" s="4"/>
-      <c r="T16" s="14"/>
-      <c r="U16" s="88"/>
-      <c r="V16" s="4" t="s">
-        <v>25</v>
-      </c>
-      <c r="W16" s="75"/>
-    </row>
-    <row r="17" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="4">
-        <v>12</v>
-      </c>
-      <c r="B17" s="65"/>
-      <c r="C17" s="65"/>
-      <c r="D17" s="38"/>
-      <c r="E17" s="39"/>
-      <c r="F17" s="38"/>
-      <c r="G17" s="38"/>
-      <c r="H17" s="1"/>
-      <c r="I17" s="50"/>
-      <c r="J17" s="40"/>
-      <c r="K17" s="1"/>
-      <c r="L17" s="1"/>
-      <c r="M17" s="40"/>
-      <c r="N17" s="1"/>
-      <c r="O17" s="40"/>
-      <c r="P17" s="1"/>
-      <c r="Q17" s="4"/>
-      <c r="R17" s="38"/>
-      <c r="S17" s="4"/>
-      <c r="T17" s="14"/>
-      <c r="U17" s="75"/>
-      <c r="V17" s="15"/>
-      <c r="W17" s="75"/>
-    </row>
-    <row r="18" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="4">
-        <v>13</v>
-      </c>
-      <c r="B18" s="66"/>
-      <c r="C18" s="66"/>
-      <c r="D18" s="38"/>
-      <c r="E18" s="39"/>
-      <c r="F18" s="38"/>
-      <c r="G18" s="38"/>
-      <c r="H18" s="1"/>
-      <c r="I18" s="56"/>
-      <c r="J18" s="1"/>
-      <c r="K18" s="1"/>
-      <c r="L18" s="1"/>
-      <c r="M18" s="10"/>
-      <c r="N18" s="1"/>
-      <c r="O18" s="40"/>
-      <c r="P18" s="1"/>
-      <c r="Q18" s="4"/>
-      <c r="R18" s="10"/>
-      <c r="S18" s="4"/>
-      <c r="T18" s="14"/>
-      <c r="U18" s="14"/>
-      <c r="V18" s="16"/>
-      <c r="W18" s="14"/>
-    </row>
-    <row r="19" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="4">
-        <v>14</v>
-      </c>
-      <c r="B19" s="66"/>
-      <c r="C19" s="66"/>
-      <c r="D19" s="38"/>
-      <c r="E19" s="39"/>
-      <c r="F19" s="38"/>
-      <c r="G19" s="38"/>
-      <c r="H19" s="1"/>
-      <c r="I19" s="56"/>
-      <c r="J19" s="1"/>
-      <c r="K19" s="1"/>
-      <c r="L19" s="1"/>
-      <c r="M19" s="1"/>
-      <c r="N19" s="1"/>
-      <c r="O19" s="40"/>
-      <c r="P19" s="1"/>
-      <c r="Q19" s="4"/>
-      <c r="R19" s="10"/>
-      <c r="S19" s="4"/>
-      <c r="T19" s="14"/>
-      <c r="U19" s="74" t="s">
-        <v>39</v>
-      </c>
-      <c r="V19" s="17" t="s">
-        <v>16</v>
-      </c>
-      <c r="W19" s="49"/>
-    </row>
-    <row r="20" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="4">
-        <v>15</v>
-      </c>
-      <c r="B20" s="66"/>
-      <c r="C20" s="66"/>
-      <c r="D20" s="38"/>
-      <c r="E20" s="39"/>
-      <c r="F20" s="38"/>
-      <c r="G20" s="38"/>
-      <c r="H20" s="1"/>
-      <c r="I20" s="56"/>
-      <c r="J20" s="1"/>
-      <c r="K20" s="1"/>
-      <c r="L20" s="1"/>
-      <c r="M20" s="1"/>
-      <c r="N20" s="1"/>
-      <c r="O20" s="40"/>
-      <c r="P20" s="1"/>
-      <c r="Q20" s="4"/>
-      <c r="R20" s="10"/>
-      <c r="S20" s="4"/>
-      <c r="T20" s="14"/>
-      <c r="U20" s="10" t="s">
-        <v>17</v>
-      </c>
-      <c r="V20" s="10">
-        <f>COUNTIF($Q$6:$Q$51,"PM")</f>
-        <v>0</v>
-      </c>
-      <c r="W20" s="14"/>
-    </row>
-    <row r="21" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="4">
-        <v>16</v>
-      </c>
-      <c r="B21" s="66"/>
-      <c r="C21" s="66"/>
-      <c r="D21" s="38"/>
-      <c r="E21" s="39"/>
-      <c r="F21" s="38"/>
-      <c r="G21" s="38"/>
-      <c r="H21" s="1"/>
-      <c r="I21" s="56"/>
-      <c r="J21" s="1"/>
-      <c r="K21" s="1"/>
-      <c r="L21" s="1"/>
-      <c r="M21" s="1"/>
-      <c r="N21" s="1"/>
-      <c r="O21" s="40"/>
-      <c r="P21" s="1"/>
-      <c r="Q21" s="4"/>
-      <c r="R21" s="10"/>
-      <c r="S21" s="4"/>
-      <c r="T21" s="14"/>
-      <c r="U21" s="10" t="s">
-        <v>49</v>
-      </c>
-      <c r="V21" s="10">
-        <f>COUNTIF($Q$6:$Q$51,"PC")</f>
-        <v>0</v>
-      </c>
-      <c r="W21" s="14"/>
-    </row>
-    <row r="22" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="4">
-        <v>17</v>
-      </c>
-      <c r="B22" s="66"/>
-      <c r="C22" s="66"/>
-      <c r="D22" s="38"/>
-      <c r="E22" s="39"/>
-      <c r="F22" s="38"/>
-      <c r="G22" s="38"/>
-      <c r="H22" s="10"/>
-      <c r="I22" s="56"/>
-      <c r="J22" s="10"/>
-      <c r="K22" s="10"/>
-      <c r="L22" s="1"/>
-      <c r="M22" s="10"/>
-      <c r="N22" s="10"/>
-      <c r="O22" s="40"/>
-      <c r="P22" s="10"/>
-      <c r="Q22" s="4"/>
-      <c r="R22" s="10"/>
-      <c r="S22" s="4"/>
-      <c r="T22" s="14"/>
-      <c r="U22" s="10" t="s">
-        <v>50</v>
-      </c>
-      <c r="V22" s="10">
-        <f>COUNTIF($Q$6:$Q$51,"PC+PM")</f>
-        <v>0</v>
-      </c>
-      <c r="W22" s="14"/>
-    </row>
-    <row r="23" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="4">
-        <v>18</v>
-      </c>
-      <c r="B23" s="66"/>
-      <c r="C23" s="66"/>
-      <c r="D23" s="38"/>
-      <c r="E23" s="39"/>
-      <c r="F23" s="38"/>
-      <c r="G23" s="38"/>
-      <c r="H23" s="10"/>
-      <c r="I23" s="56"/>
-      <c r="J23" s="1"/>
-      <c r="K23" s="10"/>
-      <c r="L23" s="10"/>
-      <c r="M23" s="10"/>
-      <c r="N23" s="10"/>
-      <c r="O23" s="40"/>
-      <c r="P23" s="10"/>
-      <c r="Q23" s="4"/>
-      <c r="R23" s="10"/>
-      <c r="S23" s="4"/>
-      <c r="T23" s="14"/>
-      <c r="U23" s="14"/>
-      <c r="V23" s="16"/>
-      <c r="W23" s="14"/>
-    </row>
-    <row r="24" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="4">
-        <v>19</v>
-      </c>
-      <c r="B24" s="66"/>
-      <c r="C24" s="66"/>
-      <c r="D24" s="38"/>
-      <c r="E24" s="39"/>
-      <c r="F24" s="38"/>
-      <c r="G24" s="38"/>
-      <c r="H24" s="10"/>
-      <c r="I24" s="56"/>
-      <c r="J24" s="1"/>
-      <c r="K24" s="10"/>
-      <c r="L24" s="10"/>
-      <c r="M24" s="10"/>
-      <c r="N24" s="10"/>
-      <c r="O24" s="40"/>
-      <c r="P24" s="10"/>
-      <c r="Q24" s="4"/>
-      <c r="R24" s="10"/>
-      <c r="S24" s="4"/>
-      <c r="T24" s="14"/>
-      <c r="U24" s="14"/>
-      <c r="V24" s="16"/>
-      <c r="W24" s="14"/>
-    </row>
-    <row r="25" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A25" s="4">
-        <v>20</v>
-      </c>
-      <c r="B25" s="66"/>
-      <c r="C25" s="66"/>
-      <c r="D25" s="38"/>
-      <c r="E25" s="39"/>
-      <c r="F25" s="38"/>
-      <c r="G25" s="38"/>
-      <c r="H25" s="10"/>
-      <c r="I25" s="56"/>
-      <c r="J25" s="1"/>
-      <c r="K25" s="10"/>
-      <c r="L25" s="10"/>
-      <c r="M25" s="10"/>
-      <c r="N25" s="10"/>
-      <c r="O25" s="40"/>
-      <c r="P25" s="10"/>
-      <c r="Q25" s="4"/>
-      <c r="R25" s="10"/>
-      <c r="S25" s="4"/>
-      <c r="T25" s="14"/>
-      <c r="U25" s="74" t="s">
-        <v>46</v>
-      </c>
-      <c r="V25" s="17" t="s">
-        <v>16</v>
-      </c>
-      <c r="W25" s="49"/>
-    </row>
-    <row r="26" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A26" s="4">
-        <v>21</v>
-      </c>
-      <c r="B26" s="66"/>
-      <c r="C26" s="66"/>
-      <c r="D26" s="38"/>
-      <c r="E26" s="39"/>
-      <c r="F26" s="38"/>
-      <c r="G26" s="38"/>
-      <c r="H26" s="10"/>
-      <c r="I26" s="56"/>
-      <c r="J26" s="1"/>
-      <c r="K26" s="10"/>
-      <c r="L26" s="10"/>
-      <c r="M26" s="10"/>
-      <c r="N26" s="10"/>
-      <c r="O26" s="40"/>
-      <c r="P26" s="10"/>
-      <c r="Q26" s="4"/>
-      <c r="R26" s="10"/>
-      <c r="S26" s="4"/>
-      <c r="T26" s="14"/>
-      <c r="U26" s="4" t="s">
-        <v>26</v>
-      </c>
-      <c r="V26" s="10">
-        <f>COUNTIF($R$6:$R$51,"*MCU*")</f>
-        <v>0</v>
-      </c>
-      <c r="W26" s="14"/>
-    </row>
-    <row r="27" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A27" s="4">
-        <v>22</v>
-      </c>
-      <c r="B27" s="66"/>
-      <c r="C27" s="66"/>
-      <c r="D27" s="38"/>
-      <c r="E27" s="39"/>
-      <c r="F27" s="38"/>
-      <c r="G27" s="38"/>
-      <c r="H27" s="10"/>
-      <c r="I27" s="56"/>
-      <c r="J27" s="1"/>
-      <c r="K27" s="10"/>
-      <c r="L27" s="10"/>
-      <c r="M27" s="10"/>
-      <c r="N27" s="10"/>
-      <c r="O27" s="40"/>
-      <c r="P27" s="10"/>
-      <c r="Q27" s="4"/>
-      <c r="R27" s="10"/>
-      <c r="S27" s="4"/>
-      <c r="T27" s="14"/>
-      <c r="U27" s="4" t="s">
-        <v>34</v>
-      </c>
-      <c r="V27" s="10">
-        <f>COUNTIF($R$6:$R$51,"*GSM*")</f>
-        <v>0</v>
-      </c>
-      <c r="W27" s="14"/>
-    </row>
-    <row r="28" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A28" s="4">
-        <v>23</v>
-      </c>
-      <c r="B28" s="66"/>
-      <c r="C28" s="66"/>
-      <c r="D28" s="38"/>
-      <c r="E28" s="39"/>
-      <c r="F28" s="38"/>
-      <c r="G28" s="38"/>
-      <c r="H28" s="1"/>
-      <c r="I28" s="56"/>
-      <c r="J28" s="1"/>
-      <c r="K28" s="1"/>
-      <c r="L28" s="10"/>
-      <c r="M28" s="10"/>
-      <c r="N28" s="1"/>
-      <c r="O28" s="40"/>
-      <c r="P28" s="10"/>
-      <c r="Q28" s="4"/>
-      <c r="R28" s="10"/>
-      <c r="S28" s="4"/>
-      <c r="T28" s="14"/>
-      <c r="U28" s="4" t="s">
-        <v>27</v>
-      </c>
-      <c r="V28" s="10">
-        <f>COUNTIF($R$6:$R$51,"*GPS*")</f>
-        <v>0</v>
-      </c>
-      <c r="W28" s="14"/>
-    </row>
-    <row r="29" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A29" s="4">
-        <v>24</v>
-      </c>
-      <c r="B29" s="66"/>
-      <c r="C29" s="66"/>
-      <c r="D29" s="38"/>
-      <c r="E29" s="39"/>
-      <c r="F29" s="38"/>
-      <c r="G29" s="38"/>
-      <c r="H29" s="1"/>
-      <c r="I29" s="56"/>
-      <c r="J29" s="1"/>
-      <c r="K29" s="1"/>
-      <c r="L29" s="10"/>
-      <c r="M29" s="10"/>
-      <c r="N29" s="1"/>
-      <c r="O29" s="40"/>
-      <c r="P29" s="10"/>
-      <c r="Q29" s="4"/>
-      <c r="R29" s="10"/>
-      <c r="S29" s="4"/>
-      <c r="T29" s="14"/>
-      <c r="U29" s="4" t="s">
-        <v>52</v>
-      </c>
-      <c r="V29" s="10">
-        <f>COUNTIF($R$6:$R$51,"*NG*")</f>
-        <v>0</v>
-      </c>
-      <c r="W29" s="14"/>
-    </row>
-    <row r="30" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A30" s="4">
-        <v>25</v>
-      </c>
-      <c r="B30" s="66"/>
-      <c r="C30" s="66"/>
-      <c r="D30" s="10"/>
-      <c r="E30" s="11"/>
-      <c r="F30" s="10"/>
-      <c r="G30" s="10"/>
-      <c r="H30" s="1"/>
-      <c r="I30" s="56"/>
-      <c r="J30" s="1"/>
-      <c r="K30" s="1"/>
-      <c r="L30" s="1"/>
-      <c r="M30" s="1"/>
-      <c r="N30" s="1"/>
-      <c r="O30" s="1"/>
-      <c r="P30" s="1"/>
-      <c r="Q30" s="4"/>
-      <c r="R30" s="10"/>
-      <c r="S30" s="4"/>
-      <c r="T30" s="14"/>
-      <c r="U30" s="4" t="s">
-        <v>32</v>
-      </c>
-      <c r="V30" s="10">
-        <f>COUNTIF($R$6:$R$51,"*I/O*")</f>
-        <v>0</v>
-      </c>
-      <c r="W30" s="14"/>
-    </row>
-    <row r="31" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A31" s="4">
-        <v>26</v>
-      </c>
-      <c r="B31" s="66"/>
-      <c r="C31" s="66"/>
-      <c r="D31" s="10"/>
-      <c r="E31" s="11"/>
-      <c r="F31" s="10"/>
-      <c r="G31" s="10"/>
-      <c r="H31" s="1"/>
-      <c r="I31" s="56"/>
-      <c r="J31" s="1"/>
-      <c r="K31" s="1"/>
-      <c r="L31" s="1"/>
-      <c r="M31" s="1"/>
-      <c r="N31" s="1"/>
-      <c r="O31" s="1"/>
-      <c r="P31" s="1"/>
-      <c r="Q31" s="4"/>
-      <c r="R31" s="10"/>
-      <c r="S31" s="4"/>
-      <c r="T31" s="14"/>
-      <c r="U31" s="4" t="s">
-        <v>22</v>
-      </c>
-      <c r="V31" s="10">
-        <f>COUNTIF($R$6:$R$51,"*LK*")</f>
-        <v>0</v>
-      </c>
-      <c r="W31" s="14"/>
-    </row>
-    <row r="32" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A32" s="4">
-        <v>27</v>
-      </c>
-      <c r="B32" s="66"/>
-      <c r="C32" s="66"/>
-      <c r="D32" s="10"/>
-      <c r="E32" s="11"/>
-      <c r="F32" s="10"/>
-      <c r="G32" s="10"/>
-      <c r="H32" s="1"/>
-      <c r="I32" s="56"/>
-      <c r="J32" s="1"/>
-      <c r="K32" s="1"/>
-      <c r="L32" s="1"/>
-      <c r="M32" s="1"/>
-      <c r="N32" s="1"/>
-      <c r="O32" s="1"/>
-      <c r="P32" s="1"/>
-      <c r="Q32" s="4"/>
-      <c r="R32" s="10"/>
-      <c r="S32" s="4"/>
-      <c r="T32" s="14"/>
-      <c r="U32" s="4" t="s">
-        <v>28</v>
-      </c>
-      <c r="V32" s="10">
-        <f>COUNTIF($R$6:$R$51,"*MCH*")</f>
-        <v>0</v>
-      </c>
-      <c r="W32" s="14"/>
-    </row>
-    <row r="33" spans="1:24" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A33" s="4">
-        <v>28</v>
-      </c>
-      <c r="B33" s="66"/>
-      <c r="C33" s="66"/>
-      <c r="D33" s="10"/>
-      <c r="E33" s="11"/>
-      <c r="F33" s="10"/>
-      <c r="G33" s="10"/>
-      <c r="H33" s="1"/>
-      <c r="I33" s="56"/>
-      <c r="J33" s="1"/>
-      <c r="K33" s="1"/>
-      <c r="L33" s="1"/>
-      <c r="M33" s="1"/>
-      <c r="N33" s="1"/>
-      <c r="O33" s="1"/>
-      <c r="P33" s="1"/>
-      <c r="Q33" s="4"/>
-      <c r="R33" s="10"/>
-      <c r="S33" s="4"/>
-      <c r="T33" s="14"/>
-      <c r="U33" s="4" t="s">
-        <v>47</v>
-      </c>
-      <c r="V33" s="10">
-        <f>COUNTIF($R$6:$R$51,"*SF*")</f>
-        <v>0</v>
-      </c>
-      <c r="W33" s="14"/>
-    </row>
-    <row r="34" spans="1:24" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A34" s="4">
-        <v>29</v>
-      </c>
-      <c r="B34" s="66"/>
-      <c r="C34" s="66"/>
-      <c r="D34" s="10"/>
-      <c r="E34" s="11"/>
-      <c r="F34" s="10"/>
-      <c r="G34" s="10"/>
-      <c r="H34" s="1"/>
-      <c r="I34" s="56"/>
-      <c r="J34" s="1"/>
-      <c r="K34" s="1"/>
-      <c r="L34" s="1"/>
-      <c r="M34" s="1"/>
-      <c r="N34" s="1"/>
-      <c r="O34" s="1"/>
-      <c r="P34" s="1"/>
-      <c r="Q34" s="4"/>
-      <c r="R34" s="10"/>
-      <c r="S34" s="4"/>
-      <c r="T34" s="14"/>
-      <c r="U34" s="4" t="s">
-        <v>48</v>
-      </c>
-      <c r="V34" s="10">
-        <f>COUNTIF($R$6:$R$51,"*RTB*")</f>
-        <v>0</v>
-      </c>
-      <c r="W34" s="14"/>
-    </row>
-    <row r="35" spans="1:24" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A35" s="4">
-        <v>30</v>
-      </c>
-      <c r="B35" s="66"/>
-      <c r="C35" s="66"/>
-      <c r="D35" s="10"/>
-      <c r="E35" s="11"/>
-      <c r="F35" s="10"/>
-      <c r="G35" s="10"/>
-      <c r="H35" s="1"/>
-      <c r="I35" s="56"/>
-      <c r="J35" s="1"/>
-      <c r="K35" s="1"/>
-      <c r="L35" s="1"/>
-      <c r="M35" s="1"/>
-      <c r="N35" s="1"/>
-      <c r="O35" s="1"/>
-      <c r="P35" s="1"/>
-      <c r="Q35" s="4"/>
-      <c r="R35" s="10"/>
-      <c r="S35" s="4"/>
-      <c r="T35" s="14"/>
-      <c r="U35" s="4" t="s">
-        <v>38</v>
-      </c>
-      <c r="V35" s="10">
-        <f>COUNTIF($R$6:$R$51,"*NCFW*")</f>
-        <v>0</v>
-      </c>
-      <c r="W35" s="14"/>
-    </row>
-    <row r="36" spans="1:24" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A36" s="4">
-        <v>31</v>
-      </c>
-      <c r="B36" s="66"/>
-      <c r="C36" s="66"/>
-      <c r="D36" s="10"/>
-      <c r="E36" s="11"/>
-      <c r="F36" s="10"/>
-      <c r="G36" s="10"/>
-      <c r="H36" s="1"/>
-      <c r="I36" s="56"/>
-      <c r="J36" s="1"/>
-      <c r="K36" s="1"/>
-      <c r="L36" s="1"/>
-      <c r="M36" s="1"/>
-      <c r="N36" s="1"/>
-      <c r="O36" s="1"/>
-      <c r="P36" s="1"/>
-      <c r="Q36" s="4"/>
-      <c r="R36" s="10"/>
-      <c r="S36" s="4"/>
-      <c r="T36" s="14"/>
-      <c r="U36" s="4" t="s">
-        <v>29</v>
-      </c>
-      <c r="V36" s="10">
-        <f>COUNTIF($R$6:$R$51,"*KL*")</f>
-        <v>0</v>
-      </c>
-      <c r="W36" s="14"/>
-    </row>
-    <row r="37" spans="1:24" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A37" s="4">
-        <v>32</v>
-      </c>
-      <c r="B37" s="66"/>
-      <c r="C37" s="66"/>
-      <c r="D37" s="10"/>
-      <c r="E37" s="11"/>
-      <c r="F37" s="10"/>
-      <c r="G37" s="10"/>
-      <c r="H37" s="1"/>
-      <c r="I37" s="56"/>
-      <c r="J37" s="1"/>
-      <c r="K37" s="1"/>
-      <c r="L37" s="1"/>
-      <c r="M37" s="1"/>
-      <c r="N37" s="1"/>
-      <c r="O37" s="1"/>
-      <c r="P37" s="1"/>
-      <c r="Q37" s="4"/>
-      <c r="R37" s="10"/>
-      <c r="S37" s="4"/>
-      <c r="T37" s="14"/>
-      <c r="U37" s="18" t="s">
-        <v>33</v>
-      </c>
-      <c r="V37" s="10">
-        <f>SUM(V26:V36)</f>
-        <v>0</v>
-      </c>
-      <c r="W37" s="14"/>
-    </row>
-    <row r="38" spans="1:24" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A38" s="4">
-        <v>33</v>
-      </c>
-      <c r="B38" s="66"/>
-      <c r="C38" s="66"/>
-      <c r="D38" s="10"/>
-      <c r="E38" s="11"/>
-      <c r="F38" s="10"/>
-      <c r="G38" s="10"/>
-      <c r="H38" s="1"/>
-      <c r="I38" s="56"/>
-      <c r="J38" s="1"/>
-      <c r="K38" s="1"/>
-      <c r="L38" s="1"/>
-      <c r="M38" s="1"/>
-      <c r="N38" s="1"/>
-      <c r="O38" s="1"/>
-      <c r="P38" s="1"/>
-      <c r="Q38" s="4"/>
-      <c r="R38" s="10"/>
-      <c r="S38" s="4"/>
-      <c r="T38" s="14"/>
-      <c r="U38" s="14"/>
-      <c r="V38" s="16"/>
-      <c r="W38" s="14"/>
-    </row>
-    <row r="39" spans="1:24" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A39" s="4">
-        <v>34</v>
-      </c>
-      <c r="B39" s="66"/>
-      <c r="C39" s="66"/>
-      <c r="D39" s="10"/>
-      <c r="E39" s="11"/>
-      <c r="F39" s="10"/>
-      <c r="G39" s="10"/>
-      <c r="H39" s="1"/>
-      <c r="I39" s="56"/>
-      <c r="J39" s="1"/>
-      <c r="K39" s="1"/>
-      <c r="L39" s="1"/>
-      <c r="M39" s="1"/>
-      <c r="N39" s="1"/>
-      <c r="O39" s="1"/>
-      <c r="P39" s="1"/>
-      <c r="Q39" s="4"/>
-      <c r="R39" s="10"/>
-      <c r="S39" s="4"/>
-      <c r="T39" s="14"/>
-      <c r="U39" s="14"/>
-      <c r="V39" s="16"/>
-      <c r="W39" s="14"/>
-    </row>
-    <row r="40" spans="1:24" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A40" s="4">
-        <v>35</v>
-      </c>
-      <c r="B40" s="66"/>
-      <c r="C40" s="66"/>
-      <c r="D40" s="10"/>
-      <c r="E40" s="11"/>
-      <c r="F40" s="10"/>
-      <c r="G40" s="10"/>
-      <c r="H40" s="1"/>
-      <c r="I40" s="56"/>
-      <c r="J40" s="1"/>
-      <c r="K40" s="1"/>
-      <c r="L40" s="1"/>
-      <c r="M40" s="1"/>
-      <c r="N40" s="1"/>
-      <c r="O40" s="1"/>
-      <c r="P40" s="1"/>
-      <c r="Q40" s="4"/>
-      <c r="R40" s="10"/>
-      <c r="S40" s="4"/>
-      <c r="T40" s="14"/>
-      <c r="U40" s="18" t="s">
-        <v>40</v>
-      </c>
-      <c r="V40" s="10">
-        <f>COUNTIF($O$6:$O$51,"*DM*")</f>
-        <v>0</v>
-      </c>
-      <c r="W40" s="14"/>
-    </row>
-    <row r="41" spans="1:24" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A41" s="4">
-        <v>36</v>
-      </c>
-      <c r="B41" s="66"/>
-      <c r="C41" s="66"/>
-      <c r="D41" s="10"/>
-      <c r="E41" s="11"/>
-      <c r="F41" s="10"/>
-      <c r="G41" s="10"/>
-      <c r="H41" s="1"/>
-      <c r="I41" s="56"/>
-      <c r="J41" s="1"/>
-      <c r="K41" s="1"/>
-      <c r="L41" s="1"/>
-      <c r="M41" s="1"/>
-      <c r="N41" s="1"/>
-      <c r="O41" s="1"/>
-      <c r="P41" s="1"/>
-      <c r="Q41" s="4"/>
-      <c r="R41" s="10"/>
-      <c r="S41" s="4"/>
-      <c r="T41" s="14"/>
-      <c r="U41" s="18" t="s">
-        <v>41</v>
-      </c>
-      <c r="V41" s="10">
-        <f>COUNTIF($O$6:$O$51,"*KS*")</f>
-        <v>0</v>
-      </c>
-      <c r="W41" s="14"/>
-    </row>
-    <row r="42" spans="1:24" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A42" s="4">
-        <v>37</v>
-      </c>
-      <c r="B42" s="66"/>
-      <c r="C42" s="66"/>
-      <c r="D42" s="10"/>
-      <c r="E42" s="11"/>
-      <c r="F42" s="10"/>
-      <c r="G42" s="10"/>
-      <c r="H42" s="1"/>
-      <c r="I42" s="56"/>
-      <c r="J42" s="1"/>
-      <c r="K42" s="1"/>
-      <c r="L42" s="1"/>
-      <c r="M42" s="1"/>
-      <c r="N42" s="1"/>
-      <c r="O42" s="1"/>
-      <c r="P42" s="1"/>
-      <c r="Q42" s="4"/>
-      <c r="R42" s="10"/>
-      <c r="S42" s="4"/>
-      <c r="T42" s="14"/>
-      <c r="U42" s="14"/>
-      <c r="V42" s="16"/>
-      <c r="W42" s="14"/>
-    </row>
-    <row r="43" spans="1:24" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A43" s="4">
-        <v>38</v>
-      </c>
-      <c r="B43" s="66"/>
-      <c r="C43" s="66"/>
-      <c r="D43" s="10"/>
-      <c r="E43" s="11"/>
-      <c r="F43" s="10"/>
-      <c r="G43" s="10"/>
-      <c r="H43" s="1"/>
-      <c r="I43" s="56"/>
-      <c r="J43" s="1"/>
-      <c r="K43" s="1"/>
-      <c r="L43" s="1"/>
-      <c r="M43" s="1"/>
-      <c r="N43" s="1"/>
-      <c r="O43" s="1"/>
-      <c r="P43" s="1"/>
-      <c r="Q43" s="4"/>
-      <c r="R43" s="10"/>
-      <c r="S43" s="4"/>
-      <c r="T43" s="14"/>
-      <c r="U43" s="14"/>
-      <c r="V43" s="16"/>
-      <c r="W43" s="14"/>
-    </row>
-    <row r="44" spans="1:24" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A44" s="4">
-        <v>39</v>
-      </c>
-      <c r="B44" s="66"/>
-      <c r="C44" s="66"/>
-      <c r="D44" s="10"/>
-      <c r="E44" s="11"/>
-      <c r="F44" s="10"/>
-      <c r="G44" s="10"/>
-      <c r="H44" s="1"/>
-      <c r="I44" s="56"/>
-      <c r="J44" s="1"/>
-      <c r="K44" s="1"/>
-      <c r="L44" s="1"/>
-      <c r="M44" s="1"/>
-      <c r="N44" s="1"/>
-      <c r="O44" s="1"/>
-      <c r="P44" s="1"/>
-      <c r="Q44" s="4"/>
-      <c r="R44" s="10"/>
-      <c r="S44" s="4"/>
-      <c r="T44" s="14"/>
-      <c r="U44" s="10" t="s">
-        <v>3</v>
-      </c>
-      <c r="V44" s="10" t="s">
-        <v>58</v>
-      </c>
-      <c r="W44" s="10" t="s">
-        <v>59</v>
-      </c>
-      <c r="X44" s="10" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="45" spans="1:24" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A45" s="4">
-        <v>40</v>
-      </c>
-      <c r="B45" s="66"/>
-      <c r="C45" s="66"/>
-      <c r="D45" s="10"/>
-      <c r="E45" s="11"/>
-      <c r="F45" s="10"/>
-      <c r="G45" s="10"/>
-      <c r="H45" s="1"/>
-      <c r="I45" s="56"/>
-      <c r="J45" s="1"/>
-      <c r="K45" s="1"/>
-      <c r="L45" s="1"/>
-      <c r="M45" s="1"/>
-      <c r="N45" s="1"/>
-      <c r="O45" s="1"/>
-      <c r="P45" s="1"/>
-      <c r="Q45" s="4"/>
-      <c r="R45" s="10"/>
-      <c r="S45" s="4"/>
-      <c r="T45" s="14"/>
-      <c r="U45" s="10" t="s">
-        <v>44</v>
-      </c>
-      <c r="V45" s="10">
-        <f>COUNTIFS($D$6:$D$300,"TG102LE",$H$6:$H$300,"*Lô 3-20*")</f>
-        <v>0</v>
-      </c>
-      <c r="W45" s="10">
-        <f>COUNTIFS($D$6:$D$300,"TG102LE",$H$6:$H$300,"*Lô 1-21*")</f>
-        <v>0</v>
-      </c>
-      <c r="X45" s="10">
-        <f>COUNTIFS($D$6:$D$300,"TG102LE",$H$6:$H$300,"*Lô 2-21*")</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="46" spans="1:24" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A46" s="4">
-        <v>41</v>
-      </c>
-      <c r="B46" s="66"/>
-      <c r="C46" s="66"/>
-      <c r="D46" s="10"/>
-      <c r="E46" s="11"/>
-      <c r="F46" s="10"/>
-      <c r="G46" s="10"/>
-      <c r="H46" s="1"/>
-      <c r="I46" s="56"/>
-      <c r="J46" s="1"/>
-      <c r="K46" s="1"/>
-      <c r="L46" s="1"/>
-      <c r="M46" s="1"/>
-      <c r="N46" s="1"/>
-      <c r="O46" s="1"/>
-      <c r="P46" s="1"/>
-      <c r="Q46" s="4"/>
-      <c r="R46" s="10"/>
-      <c r="S46" s="4"/>
-      <c r="T46" s="14"/>
-      <c r="U46" s="10" t="s">
-        <v>56</v>
-      </c>
-      <c r="V46" s="10">
-        <f>COUNTIFS($D$6:$D$300,"TG102LE-4G",$H$6:$H$300,"*Lô 3-20*")</f>
-        <v>0</v>
-      </c>
-      <c r="W46" s="10">
-        <f>COUNTIFS($D$6:$D$300,"TG102LE-4G",$H$6:$H$300,"*Lô 1-21*")</f>
-        <v>0</v>
-      </c>
-      <c r="X46" s="10">
-        <f>COUNTIFS($D$6:$D$300,"TG102LE-4G",$H$6:$H$300,"*Lô 2-21*")</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="47" spans="1:24" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A47" s="4">
-        <v>42</v>
-      </c>
-      <c r="B47" s="66"/>
-      <c r="C47" s="66"/>
-      <c r="D47" s="10"/>
-      <c r="E47" s="11"/>
-      <c r="F47" s="10"/>
-      <c r="G47" s="10"/>
-      <c r="H47" s="1"/>
-      <c r="I47" s="56"/>
-      <c r="J47" s="1"/>
-      <c r="K47" s="1"/>
-      <c r="L47" s="1"/>
-      <c r="M47" s="1"/>
-      <c r="N47" s="1"/>
-      <c r="O47" s="1"/>
-      <c r="P47" s="1"/>
-      <c r="Q47" s="4"/>
-      <c r="R47" s="10"/>
-      <c r="S47" s="4"/>
-      <c r="T47" s="14"/>
-      <c r="U47" s="10" t="s">
-        <v>45</v>
-      </c>
-      <c r="V47" s="10">
-        <f>COUNTIFS($D$6:$D$300,"TG102E",$H$6:$H$300,"*Lô 3-20*")</f>
-        <v>0</v>
-      </c>
-      <c r="W47" s="10">
-        <f>COUNTIFS($D$6:$D$300,"TG102E",$H$6:$H$300,"*Lô 1-21*")</f>
-        <v>0</v>
-      </c>
-      <c r="X47" s="10">
-        <f>COUNTIFS($D$6:$D$300,"TG102E",$H$6:$H$300,"*Lô 2-21*")</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="48" spans="1:24" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A48" s="4">
-        <v>43</v>
-      </c>
-      <c r="B48" s="66"/>
-      <c r="C48" s="66"/>
-      <c r="D48" s="10"/>
-      <c r="E48" s="11"/>
-      <c r="F48" s="10"/>
-      <c r="G48" s="10"/>
-      <c r="H48" s="1"/>
-      <c r="I48" s="56"/>
-      <c r="J48" s="1"/>
-      <c r="K48" s="1"/>
-      <c r="L48" s="1"/>
-      <c r="M48" s="1"/>
-      <c r="N48" s="1"/>
-      <c r="O48" s="1"/>
-      <c r="P48" s="1"/>
-      <c r="Q48" s="4"/>
-      <c r="R48" s="10"/>
-      <c r="S48" s="4"/>
-      <c r="T48" s="35">
-        <f>COUNTIF(J9:J20,"*GSM*")</f>
-        <v>0</v>
-      </c>
-      <c r="U48" s="10" t="s">
-        <v>57</v>
-      </c>
-      <c r="V48" s="10">
-        <f>COUNTIFS($D$6:$D$300,"ACT-01",$H$6:$H$300,"*Lô 3-20*")</f>
-        <v>0</v>
-      </c>
-      <c r="W48" s="10">
-        <f>COUNTIFS($D$6:$D$300,"ACT-01",$H$6:$H$300,"*Lô 1-21*")</f>
-        <v>0</v>
-      </c>
-      <c r="X48" s="10">
-        <f>COUNTIFS($D$6:$D$300,"ACT-01",$H$6:$H$300,"*Lô 2-21*")</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="49" spans="1:24" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A49" s="4">
-        <v>44</v>
-      </c>
-      <c r="B49" s="66"/>
-      <c r="C49" s="66"/>
-      <c r="D49" s="10"/>
-      <c r="E49" s="11"/>
-      <c r="F49" s="10"/>
-      <c r="G49" s="10"/>
-      <c r="H49" s="1"/>
-      <c r="I49" s="56"/>
-      <c r="J49" s="1"/>
-      <c r="K49" s="1"/>
-      <c r="L49" s="1"/>
-      <c r="M49" s="1"/>
-      <c r="N49" s="1"/>
-      <c r="O49" s="1"/>
-      <c r="P49" s="1"/>
-      <c r="Q49" s="4"/>
-      <c r="R49" s="10"/>
-      <c r="S49" s="4"/>
-      <c r="T49" s="35"/>
-      <c r="U49" s="46"/>
-      <c r="V49" s="46"/>
-      <c r="W49" s="46"/>
-      <c r="X49" s="33"/>
-    </row>
-    <row r="50" spans="1:24" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A50" s="29">
-        <v>45</v>
-      </c>
-      <c r="B50" s="67"/>
-      <c r="C50" s="67"/>
-      <c r="D50" s="45"/>
-      <c r="E50" s="31"/>
-      <c r="F50" s="45"/>
-      <c r="G50" s="45"/>
-      <c r="H50" s="32"/>
-      <c r="I50" s="57"/>
-      <c r="J50" s="32"/>
-      <c r="K50" s="32"/>
-      <c r="L50" s="32"/>
-      <c r="M50" s="32"/>
-      <c r="N50" s="32"/>
-      <c r="O50" s="32"/>
-      <c r="P50" s="32"/>
-      <c r="Q50" s="29"/>
-      <c r="R50" s="45"/>
-      <c r="S50" s="29"/>
-      <c r="T50" s="35"/>
-      <c r="U50" s="46"/>
-      <c r="V50" s="46"/>
-      <c r="W50" s="46"/>
-      <c r="X50" s="33"/>
-    </row>
-    <row r="51" spans="1:24" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A51" s="4">
-        <v>46</v>
-      </c>
-      <c r="B51" s="66"/>
-      <c r="C51" s="66"/>
-      <c r="D51" s="10"/>
-      <c r="E51" s="11"/>
-      <c r="F51" s="10"/>
-      <c r="G51" s="10"/>
-      <c r="H51" s="1"/>
-      <c r="I51" s="56"/>
-      <c r="J51" s="1"/>
-      <c r="K51" s="1"/>
-      <c r="L51" s="1"/>
-      <c r="M51" s="1"/>
-      <c r="N51" s="1"/>
-      <c r="O51" s="1"/>
-      <c r="P51" s="1"/>
-      <c r="Q51" s="4"/>
-      <c r="R51" s="10"/>
-      <c r="S51" s="10"/>
-      <c r="T51" s="35"/>
-      <c r="U51" s="46"/>
-      <c r="V51" s="46"/>
-      <c r="W51" s="46"/>
-      <c r="X51" s="33"/>
-    </row>
-    <row r="52" spans="1:24" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A52" s="4">
-        <v>47</v>
-      </c>
-      <c r="B52" s="68"/>
-      <c r="C52" s="68"/>
-      <c r="D52" s="33"/>
-      <c r="E52" s="33"/>
-      <c r="F52" s="33"/>
-      <c r="G52" s="33"/>
-      <c r="H52" s="33"/>
-      <c r="I52" s="58"/>
-      <c r="J52" s="33"/>
-      <c r="K52" s="33"/>
-      <c r="L52" s="34"/>
-      <c r="M52" s="33"/>
-      <c r="N52" s="33"/>
-      <c r="O52" s="33"/>
-      <c r="P52" s="33"/>
-      <c r="Q52" s="33"/>
-      <c r="R52" s="33"/>
-      <c r="S52" s="33"/>
-      <c r="T52" s="35"/>
-      <c r="U52" s="46"/>
-      <c r="V52" s="46"/>
-      <c r="W52" s="46"/>
-      <c r="X52" s="33"/>
-    </row>
-    <row r="53" spans="1:24" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A53" s="4">
-        <v>48</v>
-      </c>
-      <c r="B53" s="68"/>
-      <c r="C53" s="68"/>
-      <c r="D53" s="33"/>
-      <c r="E53" s="33"/>
-      <c r="F53" s="33"/>
-      <c r="G53" s="33"/>
-      <c r="H53" s="33"/>
-      <c r="I53" s="58"/>
-      <c r="J53" s="33"/>
-      <c r="K53" s="33"/>
-      <c r="L53" s="34"/>
-      <c r="M53" s="33"/>
-      <c r="N53" s="19"/>
-      <c r="O53" s="19"/>
-      <c r="P53" s="33"/>
-      <c r="Q53" s="33"/>
-      <c r="R53" s="33"/>
-      <c r="S53" s="33"/>
-      <c r="T53" s="35"/>
-      <c r="U53" s="46"/>
-      <c r="V53" s="46"/>
-      <c r="W53" s="46"/>
-      <c r="X53" s="33"/>
-    </row>
-    <row r="54" spans="1:24" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A54" s="4">
-        <v>49</v>
-      </c>
-      <c r="B54" s="68"/>
-      <c r="C54" s="68"/>
-      <c r="D54" s="33"/>
-      <c r="E54" s="33"/>
-      <c r="F54" s="33"/>
-      <c r="G54" s="33"/>
-      <c r="H54" s="33"/>
-      <c r="I54" s="58"/>
-      <c r="J54" s="33"/>
-      <c r="K54" s="33"/>
-      <c r="L54" s="34"/>
-      <c r="M54" s="33"/>
-      <c r="N54" s="19"/>
-      <c r="O54" s="19"/>
-      <c r="P54" s="33"/>
-      <c r="Q54" s="33"/>
-      <c r="R54" s="33"/>
-      <c r="S54" s="33"/>
-      <c r="T54" s="35"/>
-      <c r="U54" s="46"/>
-      <c r="V54" s="46"/>
-      <c r="W54" s="46"/>
-      <c r="X54" s="33"/>
-    </row>
-    <row r="55" spans="1:24" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A55" s="4">
-        <v>50</v>
-      </c>
-      <c r="B55" s="68"/>
-      <c r="C55" s="68"/>
-      <c r="D55" s="33"/>
-      <c r="E55" s="33"/>
-      <c r="F55" s="33"/>
-      <c r="G55" s="33"/>
-      <c r="H55" s="33"/>
-      <c r="I55" s="58"/>
-      <c r="J55" s="33"/>
-      <c r="K55" s="33"/>
-      <c r="L55" s="34"/>
-      <c r="M55" s="33"/>
-      <c r="N55" s="19"/>
-      <c r="O55" s="19"/>
-      <c r="P55" s="33"/>
-      <c r="Q55" s="33"/>
-      <c r="R55" s="33"/>
-      <c r="S55" s="33"/>
-      <c r="T55" s="36"/>
-      <c r="U55" s="46"/>
-      <c r="V55" s="46"/>
-      <c r="W55" s="46"/>
-      <c r="X55" s="33"/>
-    </row>
-    <row r="56" spans="1:24" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="U56" s="25"/>
-      <c r="V56" s="25"/>
-      <c r="W56" s="25"/>
-    </row>
-    <row r="57" spans="1:24" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="U57" s="25"/>
-      <c r="V57" s="25"/>
-      <c r="W57" s="25"/>
-    </row>
-  </sheetData>
-  <mergeCells count="18">
-    <mergeCell ref="V4:V5"/>
-    <mergeCell ref="A1:V1"/>
-    <mergeCell ref="A2:D2"/>
-    <mergeCell ref="E2:F2"/>
-    <mergeCell ref="A4:A5"/>
-    <mergeCell ref="B4:I4"/>
-    <mergeCell ref="J4:J5"/>
-    <mergeCell ref="K4:L4"/>
-    <mergeCell ref="M4:M5"/>
-    <mergeCell ref="N4:N5"/>
-    <mergeCell ref="O4:O5"/>
-    <mergeCell ref="U6:U11"/>
-    <mergeCell ref="U12:U16"/>
-    <mergeCell ref="P4:P5"/>
-    <mergeCell ref="Q4:Q5"/>
-    <mergeCell ref="R4:R5"/>
-    <mergeCell ref="S4:S5"/>
-    <mergeCell ref="U4:U5"/>
-  </mergeCells>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:X57"/>
-  <sheetViews>
-    <sheetView showZeros="0" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="J13" sqref="J13"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="18" customHeight="1" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="9.42578125" style="20" customWidth="1"/>
-    <col min="2" max="2" width="19.28515625" style="69" customWidth="1"/>
-    <col min="3" max="3" width="18.28515625" style="69" customWidth="1"/>
-    <col min="4" max="4" width="21.85546875" style="20" customWidth="1"/>
-    <col min="5" max="5" width="32.42578125" style="20" customWidth="1"/>
-    <col min="6" max="6" width="15.85546875" style="20" customWidth="1"/>
-    <col min="7" max="7" width="17" style="20" customWidth="1"/>
-    <col min="8" max="8" width="35.42578125" style="20" customWidth="1"/>
-    <col min="9" max="9" width="45.28515625" style="59" customWidth="1"/>
-    <col min="10" max="10" width="53" style="20" customWidth="1"/>
-    <col min="11" max="11" width="33.42578125" style="20" customWidth="1"/>
-    <col min="12" max="12" width="30.7109375" style="26" customWidth="1"/>
-    <col min="13" max="13" width="58" style="20" customWidth="1"/>
-    <col min="14" max="14" width="21.85546875" style="20" customWidth="1"/>
-    <col min="15" max="15" width="14.28515625" style="20" customWidth="1"/>
-    <col min="16" max="16" width="37.7109375" style="20" customWidth="1"/>
-    <col min="17" max="17" width="23.42578125" style="20" customWidth="1"/>
-    <col min="18" max="18" width="21.140625" style="20" customWidth="1"/>
-    <col min="19" max="19" width="26.85546875" style="20" customWidth="1"/>
-    <col min="20" max="20" width="9.140625" style="20"/>
-    <col min="21" max="21" width="30.5703125" style="20" customWidth="1"/>
-    <col min="22" max="23" width="21.42578125" style="20" customWidth="1"/>
-    <col min="24" max="24" width="21.7109375" style="20" customWidth="1"/>
-    <col min="25" max="16384" width="9.140625" style="20"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="79" t="s">
-        <v>61</v>
-      </c>
-      <c r="B1" s="79"/>
-      <c r="C1" s="79"/>
-      <c r="D1" s="79"/>
-      <c r="E1" s="79"/>
-      <c r="F1" s="79"/>
-      <c r="G1" s="79"/>
-      <c r="H1" s="79"/>
-      <c r="I1" s="79"/>
-      <c r="J1" s="79"/>
-      <c r="K1" s="79"/>
-      <c r="L1" s="79"/>
-      <c r="M1" s="79"/>
-      <c r="N1" s="79"/>
-      <c r="O1" s="79"/>
-      <c r="P1" s="79"/>
-      <c r="Q1" s="79"/>
-      <c r="R1" s="79"/>
-      <c r="S1" s="79"/>
-      <c r="T1" s="79"/>
-      <c r="U1" s="79"/>
-      <c r="V1" s="79"/>
-      <c r="W1" s="47"/>
-    </row>
-    <row r="2" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="80" t="s">
-        <v>9</v>
-      </c>
-      <c r="B2" s="81"/>
-      <c r="C2" s="81"/>
-      <c r="D2" s="81"/>
-      <c r="E2" s="82"/>
-      <c r="F2" s="82"/>
-      <c r="G2" s="5"/>
-      <c r="H2" s="21"/>
-      <c r="I2" s="53"/>
-      <c r="J2" s="21"/>
-      <c r="K2" s="21"/>
-      <c r="L2" s="22"/>
-      <c r="M2" s="21"/>
-      <c r="N2" s="21"/>
-      <c r="O2" s="23"/>
-      <c r="P2" s="23"/>
-      <c r="Q2" s="23"/>
-      <c r="R2" s="23"/>
-      <c r="S2" s="27"/>
-      <c r="T2" s="27"/>
-      <c r="U2" s="27"/>
-      <c r="V2" s="28"/>
-      <c r="W2" s="27"/>
-    </row>
-    <row r="3" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="6"/>
-      <c r="B3" s="63"/>
-      <c r="C3" s="63"/>
-      <c r="D3" s="7"/>
-      <c r="E3" s="7"/>
-      <c r="F3" s="7"/>
-      <c r="G3" s="7"/>
-      <c r="H3" s="7"/>
-      <c r="I3" s="54"/>
-      <c r="J3" s="7"/>
-      <c r="K3" s="7"/>
-      <c r="L3" s="8"/>
-      <c r="M3" s="7"/>
-      <c r="N3" s="7"/>
-      <c r="O3" s="7"/>
-      <c r="P3" s="7"/>
-      <c r="Q3" s="24"/>
-      <c r="R3" s="24"/>
-      <c r="S3" s="27"/>
-      <c r="T3" s="27"/>
-      <c r="U3" s="27"/>
-      <c r="V3" s="28"/>
-      <c r="W3" s="27"/>
-    </row>
-    <row r="4" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="83" t="s">
-        <v>0</v>
-      </c>
-      <c r="B4" s="78" t="s">
-        <v>8</v>
-      </c>
-      <c r="C4" s="78"/>
-      <c r="D4" s="78"/>
-      <c r="E4" s="78"/>
-      <c r="F4" s="78"/>
-      <c r="G4" s="78"/>
-      <c r="H4" s="78"/>
-      <c r="I4" s="78"/>
-      <c r="J4" s="78" t="s">
-        <v>6</v>
-      </c>
-      <c r="K4" s="78" t="s">
-        <v>11</v>
-      </c>
-      <c r="L4" s="78"/>
-      <c r="M4" s="84" t="s">
-        <v>42</v>
-      </c>
-      <c r="N4" s="84" t="s">
-        <v>10</v>
-      </c>
-      <c r="O4" s="78" t="s">
-        <v>7</v>
-      </c>
-      <c r="P4" s="89" t="s">
-        <v>14</v>
-      </c>
-      <c r="Q4" s="78" t="s">
-        <v>39</v>
-      </c>
-      <c r="R4" s="78" t="s">
-        <v>53</v>
-      </c>
-      <c r="S4" s="90" t="s">
-        <v>54</v>
-      </c>
-      <c r="T4" s="27"/>
-      <c r="U4" s="78" t="s">
-        <v>39</v>
-      </c>
-      <c r="V4" s="78" t="s">
-        <v>53</v>
-      </c>
-      <c r="W4" s="48"/>
-    </row>
-    <row r="5" spans="1:23" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="83"/>
-      <c r="B5" s="64" t="s">
-        <v>1</v>
-      </c>
-      <c r="C5" s="64" t="s">
-        <v>2</v>
-      </c>
       <c r="D5" s="70" t="s">
         <v>3</v>
       </c>
@@ -10441,7 +10597,9 @@
         <v>863586032920583</v>
       </c>
       <c r="F9" s="38"/>
-      <c r="G9" s="38"/>
+      <c r="G9" s="38" t="s">
+        <v>63</v>
+      </c>
       <c r="H9" s="38"/>
       <c r="I9" s="50"/>
       <c r="J9" s="40"/>
@@ -10513,7 +10671,9 @@
         <v>861694030927311</v>
       </c>
       <c r="F11" s="38"/>
-      <c r="G11" s="38"/>
+      <c r="G11" s="38" t="s">
+        <v>63</v>
+      </c>
       <c r="H11" s="2"/>
       <c r="I11" s="50"/>
       <c r="J11" s="40"/>

--- a/5. WS/1. Bộ phận bảo hành/1. Thực hiện sửa chữa bảo hành/nam2021/Thang6/02.XuLyBH/XLBH2106_AnhTuanNB.xlsx
+++ b/5. WS/1. Bộ phận bảo hành/1. Thực hiện sửa chữa bảo hành/nam2021/Thang6/02.XuLyBH/XLBH2106_AnhTuanNB.xlsx
@@ -41,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="569" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="604" uniqueCount="98">
   <si>
     <t>STT</t>
   </si>
@@ -322,6 +322,24 @@
   </si>
   <si>
     <t>NG,NCFW</t>
+  </si>
+  <si>
+    <t>Lock: 125.212.203.114,16767</t>
+  </si>
+  <si>
+    <t>Sim</t>
+  </si>
+  <si>
+    <t>Sim lỗi</t>
+  </si>
+  <si>
+    <t>Lock:  125.212.203.114,16363</t>
+  </si>
+  <si>
+    <t>Thiết bị mất nguồn</t>
+  </si>
+  <si>
+    <t>Hàn lại connector nguồn</t>
   </si>
 </sst>
 </file>
@@ -754,7 +772,22 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="7" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -776,21 +809,6 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1099,8 +1117,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:X57"/>
   <sheetViews>
-    <sheetView showZeros="0" topLeftCell="D1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="G6" sqref="G6"/>
+    <sheetView showZeros="0" topLeftCell="K1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="R8" sqref="R8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -1132,41 +1150,41 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="79" t="s">
+      <c r="A1" s="84" t="s">
         <v>61</v>
       </c>
-      <c r="B1" s="79"/>
-      <c r="C1" s="79"/>
-      <c r="D1" s="79"/>
-      <c r="E1" s="79"/>
-      <c r="F1" s="79"/>
-      <c r="G1" s="79"/>
-      <c r="H1" s="79"/>
-      <c r="I1" s="79"/>
-      <c r="J1" s="79"/>
-      <c r="K1" s="79"/>
-      <c r="L1" s="79"/>
-      <c r="M1" s="79"/>
-      <c r="N1" s="79"/>
-      <c r="O1" s="79"/>
-      <c r="P1" s="79"/>
-      <c r="Q1" s="79"/>
-      <c r="R1" s="79"/>
-      <c r="S1" s="79"/>
-      <c r="T1" s="79"/>
-      <c r="U1" s="79"/>
-      <c r="V1" s="79"/>
+      <c r="B1" s="84"/>
+      <c r="C1" s="84"/>
+      <c r="D1" s="84"/>
+      <c r="E1" s="84"/>
+      <c r="F1" s="84"/>
+      <c r="G1" s="84"/>
+      <c r="H1" s="84"/>
+      <c r="I1" s="84"/>
+      <c r="J1" s="84"/>
+      <c r="K1" s="84"/>
+      <c r="L1" s="84"/>
+      <c r="M1" s="84"/>
+      <c r="N1" s="84"/>
+      <c r="O1" s="84"/>
+      <c r="P1" s="84"/>
+      <c r="Q1" s="84"/>
+      <c r="R1" s="84"/>
+      <c r="S1" s="84"/>
+      <c r="T1" s="84"/>
+      <c r="U1" s="84"/>
+      <c r="V1" s="84"/>
       <c r="W1" s="47"/>
     </row>
     <row r="2" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="80" t="s">
+      <c r="A2" s="85" t="s">
         <v>9</v>
       </c>
-      <c r="B2" s="81"/>
-      <c r="C2" s="81"/>
-      <c r="D2" s="81"/>
-      <c r="E2" s="82"/>
-      <c r="F2" s="82"/>
+      <c r="B2" s="86"/>
+      <c r="C2" s="86"/>
+      <c r="D2" s="86"/>
+      <c r="E2" s="87"/>
+      <c r="F2" s="87"/>
       <c r="G2" s="5"/>
       <c r="H2" s="21"/>
       <c r="I2" s="53"/>
@@ -1211,58 +1229,58 @@
       <c r="W3" s="27"/>
     </row>
     <row r="4" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="83" t="s">
-        <v>0</v>
-      </c>
-      <c r="B4" s="78" t="s">
+      <c r="A4" s="88" t="s">
+        <v>0</v>
+      </c>
+      <c r="B4" s="82" t="s">
         <v>8</v>
       </c>
-      <c r="C4" s="78"/>
-      <c r="D4" s="78"/>
-      <c r="E4" s="78"/>
-      <c r="F4" s="78"/>
-      <c r="G4" s="78"/>
-      <c r="H4" s="78"/>
-      <c r="I4" s="78"/>
-      <c r="J4" s="78" t="s">
+      <c r="C4" s="82"/>
+      <c r="D4" s="82"/>
+      <c r="E4" s="82"/>
+      <c r="F4" s="82"/>
+      <c r="G4" s="82"/>
+      <c r="H4" s="82"/>
+      <c r="I4" s="82"/>
+      <c r="J4" s="82" t="s">
         <v>6</v>
       </c>
-      <c r="K4" s="78" t="s">
+      <c r="K4" s="82" t="s">
         <v>11</v>
       </c>
-      <c r="L4" s="78"/>
-      <c r="M4" s="84" t="s">
+      <c r="L4" s="82"/>
+      <c r="M4" s="89" t="s">
         <v>42</v>
       </c>
-      <c r="N4" s="84" t="s">
+      <c r="N4" s="89" t="s">
         <v>10</v>
       </c>
-      <c r="O4" s="78" t="s">
+      <c r="O4" s="82" t="s">
         <v>7</v>
       </c>
-      <c r="P4" s="89" t="s">
+      <c r="P4" s="81" t="s">
         <v>14</v>
       </c>
-      <c r="Q4" s="78" t="s">
+      <c r="Q4" s="82" t="s">
         <v>39</v>
       </c>
-      <c r="R4" s="78" t="s">
+      <c r="R4" s="82" t="s">
         <v>53</v>
       </c>
-      <c r="S4" s="90" t="s">
+      <c r="S4" s="83" t="s">
         <v>54</v>
       </c>
       <c r="T4" s="27"/>
-      <c r="U4" s="78" t="s">
+      <c r="U4" s="82" t="s">
         <v>39</v>
       </c>
-      <c r="V4" s="78" t="s">
+      <c r="V4" s="82" t="s">
         <v>53</v>
       </c>
       <c r="W4" s="48"/>
     </row>
     <row r="5" spans="1:23" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="83"/>
+      <c r="A5" s="88"/>
       <c r="B5" s="64" t="s">
         <v>1</v>
       </c>
@@ -1287,23 +1305,23 @@
       <c r="I5" s="55" t="s">
         <v>15</v>
       </c>
-      <c r="J5" s="78"/>
+      <c r="J5" s="82"/>
       <c r="K5" s="76" t="s">
         <v>12</v>
       </c>
       <c r="L5" s="76" t="s">
         <v>13</v>
       </c>
-      <c r="M5" s="85"/>
-      <c r="N5" s="85"/>
-      <c r="O5" s="78"/>
-      <c r="P5" s="89"/>
-      <c r="Q5" s="78"/>
-      <c r="R5" s="78"/>
-      <c r="S5" s="90"/>
+      <c r="M5" s="90"/>
+      <c r="N5" s="90"/>
+      <c r="O5" s="82"/>
+      <c r="P5" s="81"/>
+      <c r="Q5" s="82"/>
+      <c r="R5" s="82"/>
+      <c r="S5" s="83"/>
       <c r="T5" s="27"/>
-      <c r="U5" s="78"/>
-      <c r="V5" s="78"/>
+      <c r="U5" s="82"/>
+      <c r="V5" s="82"/>
       <c r="W5" s="48"/>
     </row>
     <row r="6" spans="1:23" s="12" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -1353,7 +1371,7 @@
       </c>
       <c r="S6" s="4"/>
       <c r="T6" s="77"/>
-      <c r="U6" s="86" t="s">
+      <c r="U6" s="78" t="s">
         <v>18</v>
       </c>
       <c r="V6" s="4" t="s">
@@ -1389,7 +1407,9 @@
       <c r="K7" s="61" t="s">
         <v>75</v>
       </c>
-      <c r="L7" s="40"/>
+      <c r="L7" s="61" t="s">
+        <v>69</v>
+      </c>
       <c r="M7" s="40" t="s">
         <v>78</v>
       </c>
@@ -1408,7 +1428,7 @@
       </c>
       <c r="S7" s="4"/>
       <c r="T7" s="77"/>
-      <c r="U7" s="87"/>
+      <c r="U7" s="79"/>
       <c r="V7" s="4" t="s">
         <v>35</v>
       </c>
@@ -1418,26 +1438,50 @@
       <c r="A8" s="4">
         <v>3</v>
       </c>
-      <c r="B8" s="37"/>
+      <c r="B8" s="37">
+        <v>44364</v>
+      </c>
       <c r="C8" s="37"/>
-      <c r="D8" s="38"/>
-      <c r="E8" s="39"/>
+      <c r="D8" s="38" t="s">
+        <v>65</v>
+      </c>
+      <c r="E8" s="39">
+        <v>868183037812083</v>
+      </c>
       <c r="F8" s="38"/>
-      <c r="G8" s="38"/>
+      <c r="G8" s="38" t="s">
+        <v>64</v>
+      </c>
       <c r="H8" s="52"/>
-      <c r="I8" s="50"/>
-      <c r="J8" s="40"/>
-      <c r="K8" s="60"/>
+      <c r="I8" s="50" t="s">
+        <v>70</v>
+      </c>
+      <c r="J8" s="40" t="s">
+        <v>85</v>
+      </c>
+      <c r="K8" s="60" t="s">
+        <v>69</v>
+      </c>
       <c r="L8" s="40"/>
-      <c r="M8" s="40"/>
+      <c r="M8" s="40" t="s">
+        <v>84</v>
+      </c>
       <c r="N8" s="41"/>
-      <c r="O8" s="40"/>
-      <c r="P8" s="40"/>
-      <c r="Q8" s="3"/>
-      <c r="R8" s="38"/>
+      <c r="O8" s="40" t="s">
+        <v>73</v>
+      </c>
+      <c r="P8" s="40" t="s">
+        <v>74</v>
+      </c>
+      <c r="Q8" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="R8" s="38" t="s">
+        <v>25</v>
+      </c>
       <c r="S8" s="4"/>
       <c r="T8" s="77"/>
-      <c r="U8" s="87"/>
+      <c r="U8" s="79"/>
       <c r="V8" s="4" t="s">
         <v>21</v>
       </c>
@@ -1466,7 +1510,7 @@
       <c r="R9" s="38"/>
       <c r="S9" s="4"/>
       <c r="T9" s="77"/>
-      <c r="U9" s="87"/>
+      <c r="U9" s="79"/>
       <c r="V9" s="4" t="s">
         <v>51</v>
       </c>
@@ -1495,7 +1539,7 @@
       <c r="R10" s="38"/>
       <c r="S10" s="4"/>
       <c r="T10" s="77"/>
-      <c r="U10" s="87"/>
+      <c r="U10" s="79"/>
       <c r="V10" s="4" t="s">
         <v>31</v>
       </c>
@@ -1524,7 +1568,7 @@
       <c r="R11" s="38"/>
       <c r="S11" s="4"/>
       <c r="T11" s="77"/>
-      <c r="U11" s="87"/>
+      <c r="U11" s="79"/>
       <c r="V11" s="4" t="s">
         <v>30</v>
       </c>
@@ -1553,7 +1597,7 @@
       <c r="R12" s="38"/>
       <c r="S12" s="4"/>
       <c r="T12" s="77"/>
-      <c r="U12" s="86" t="s">
+      <c r="U12" s="78" t="s">
         <v>19</v>
       </c>
       <c r="V12" s="4" t="s">
@@ -1584,7 +1628,7 @@
       <c r="R13" s="10"/>
       <c r="S13" s="4"/>
       <c r="T13" s="77"/>
-      <c r="U13" s="87"/>
+      <c r="U13" s="79"/>
       <c r="V13" s="4" t="s">
         <v>37</v>
       </c>
@@ -1613,7 +1657,7 @@
       <c r="R14" s="38"/>
       <c r="S14" s="4"/>
       <c r="T14" s="77"/>
-      <c r="U14" s="87"/>
+      <c r="U14" s="79"/>
       <c r="V14" s="4" t="s">
         <v>36</v>
       </c>
@@ -1642,7 +1686,7 @@
       <c r="R15" s="38"/>
       <c r="S15" s="4"/>
       <c r="T15" s="14"/>
-      <c r="U15" s="87"/>
+      <c r="U15" s="79"/>
       <c r="V15" s="4" t="s">
         <v>24</v>
       </c>
@@ -1671,7 +1715,7 @@
       <c r="R16" s="38"/>
       <c r="S16" s="4"/>
       <c r="T16" s="14"/>
-      <c r="U16" s="88"/>
+      <c r="U16" s="80"/>
       <c r="V16" s="4" t="s">
         <v>25</v>
       </c>
@@ -1790,7 +1834,7 @@
       </c>
       <c r="V20" s="10">
         <f>COUNTIF($Q$6:$Q$51,"PM")</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="W20" s="14"/>
     </row>
@@ -2291,7 +2335,7 @@
       </c>
       <c r="V36" s="10">
         <f>COUNTIF($R$6:$R$51,"*KL*")</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="W36" s="14"/>
     </row>
@@ -2323,7 +2367,7 @@
       </c>
       <c r="V37" s="10">
         <f>SUM(V26:V36)</f>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="W37" s="14"/>
     </row>
@@ -2902,13 +2946,6 @@
     </row>
   </sheetData>
   <mergeCells count="18">
-    <mergeCell ref="U6:U11"/>
-    <mergeCell ref="U12:U16"/>
-    <mergeCell ref="P4:P5"/>
-    <mergeCell ref="Q4:Q5"/>
-    <mergeCell ref="R4:R5"/>
-    <mergeCell ref="S4:S5"/>
-    <mergeCell ref="U4:U5"/>
     <mergeCell ref="V4:V5"/>
     <mergeCell ref="A1:V1"/>
     <mergeCell ref="A2:D2"/>
@@ -2920,6 +2957,13 @@
     <mergeCell ref="M4:M5"/>
     <mergeCell ref="N4:N5"/>
     <mergeCell ref="O4:O5"/>
+    <mergeCell ref="U6:U11"/>
+    <mergeCell ref="U12:U16"/>
+    <mergeCell ref="P4:P5"/>
+    <mergeCell ref="Q4:Q5"/>
+    <mergeCell ref="R4:R5"/>
+    <mergeCell ref="S4:S5"/>
+    <mergeCell ref="U4:U5"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -2963,41 +3007,41 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="79" t="s">
+      <c r="A1" s="84" t="s">
         <v>61</v>
       </c>
-      <c r="B1" s="79"/>
-      <c r="C1" s="79"/>
-      <c r="D1" s="79"/>
-      <c r="E1" s="79"/>
-      <c r="F1" s="79"/>
-      <c r="G1" s="79"/>
-      <c r="H1" s="79"/>
-      <c r="I1" s="79"/>
-      <c r="J1" s="79"/>
-      <c r="K1" s="79"/>
-      <c r="L1" s="79"/>
-      <c r="M1" s="79"/>
-      <c r="N1" s="79"/>
-      <c r="O1" s="79"/>
-      <c r="P1" s="79"/>
-      <c r="Q1" s="79"/>
-      <c r="R1" s="79"/>
-      <c r="S1" s="79"/>
-      <c r="T1" s="79"/>
-      <c r="U1" s="79"/>
-      <c r="V1" s="79"/>
+      <c r="B1" s="84"/>
+      <c r="C1" s="84"/>
+      <c r="D1" s="84"/>
+      <c r="E1" s="84"/>
+      <c r="F1" s="84"/>
+      <c r="G1" s="84"/>
+      <c r="H1" s="84"/>
+      <c r="I1" s="84"/>
+      <c r="J1" s="84"/>
+      <c r="K1" s="84"/>
+      <c r="L1" s="84"/>
+      <c r="M1" s="84"/>
+      <c r="N1" s="84"/>
+      <c r="O1" s="84"/>
+      <c r="P1" s="84"/>
+      <c r="Q1" s="84"/>
+      <c r="R1" s="84"/>
+      <c r="S1" s="84"/>
+      <c r="T1" s="84"/>
+      <c r="U1" s="84"/>
+      <c r="V1" s="84"/>
       <c r="W1" s="47"/>
     </row>
     <row r="2" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="80" t="s">
+      <c r="A2" s="85" t="s">
         <v>9</v>
       </c>
-      <c r="B2" s="81"/>
-      <c r="C2" s="81"/>
-      <c r="D2" s="81"/>
-      <c r="E2" s="82"/>
-      <c r="F2" s="82"/>
+      <c r="B2" s="86"/>
+      <c r="C2" s="86"/>
+      <c r="D2" s="86"/>
+      <c r="E2" s="87"/>
+      <c r="F2" s="87"/>
       <c r="G2" s="5"/>
       <c r="H2" s="21"/>
       <c r="I2" s="53"/>
@@ -3042,58 +3086,58 @@
       <c r="W3" s="27"/>
     </row>
     <row r="4" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="83" t="s">
-        <v>0</v>
-      </c>
-      <c r="B4" s="78" t="s">
+      <c r="A4" s="88" t="s">
+        <v>0</v>
+      </c>
+      <c r="B4" s="82" t="s">
         <v>8</v>
       </c>
-      <c r="C4" s="78"/>
-      <c r="D4" s="78"/>
-      <c r="E4" s="78"/>
-      <c r="F4" s="78"/>
-      <c r="G4" s="78"/>
-      <c r="H4" s="78"/>
-      <c r="I4" s="78"/>
-      <c r="J4" s="78" t="s">
+      <c r="C4" s="82"/>
+      <c r="D4" s="82"/>
+      <c r="E4" s="82"/>
+      <c r="F4" s="82"/>
+      <c r="G4" s="82"/>
+      <c r="H4" s="82"/>
+      <c r="I4" s="82"/>
+      <c r="J4" s="82" t="s">
         <v>6</v>
       </c>
-      <c r="K4" s="78" t="s">
+      <c r="K4" s="82" t="s">
         <v>11</v>
       </c>
-      <c r="L4" s="78"/>
-      <c r="M4" s="84" t="s">
+      <c r="L4" s="82"/>
+      <c r="M4" s="89" t="s">
         <v>42</v>
       </c>
-      <c r="N4" s="84" t="s">
+      <c r="N4" s="89" t="s">
         <v>10</v>
       </c>
-      <c r="O4" s="78" t="s">
+      <c r="O4" s="82" t="s">
         <v>7</v>
       </c>
-      <c r="P4" s="89" t="s">
+      <c r="P4" s="81" t="s">
         <v>14</v>
       </c>
-      <c r="Q4" s="78" t="s">
+      <c r="Q4" s="82" t="s">
         <v>39</v>
       </c>
-      <c r="R4" s="78" t="s">
+      <c r="R4" s="82" t="s">
         <v>53</v>
       </c>
-      <c r="S4" s="90" t="s">
+      <c r="S4" s="83" t="s">
         <v>54</v>
       </c>
       <c r="T4" s="27"/>
-      <c r="U4" s="78" t="s">
+      <c r="U4" s="82" t="s">
         <v>39</v>
       </c>
-      <c r="V4" s="78" t="s">
+      <c r="V4" s="82" t="s">
         <v>53</v>
       </c>
       <c r="W4" s="48"/>
     </row>
     <row r="5" spans="1:23" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="83"/>
+      <c r="A5" s="88"/>
       <c r="B5" s="64" t="s">
         <v>1</v>
       </c>
@@ -3118,23 +3162,23 @@
       <c r="I5" s="55" t="s">
         <v>15</v>
       </c>
-      <c r="J5" s="78"/>
+      <c r="J5" s="82"/>
       <c r="K5" s="74" t="s">
         <v>12</v>
       </c>
       <c r="L5" s="74" t="s">
         <v>13</v>
       </c>
-      <c r="M5" s="85"/>
-      <c r="N5" s="85"/>
-      <c r="O5" s="78"/>
-      <c r="P5" s="89"/>
-      <c r="Q5" s="78"/>
-      <c r="R5" s="78"/>
-      <c r="S5" s="90"/>
+      <c r="M5" s="90"/>
+      <c r="N5" s="90"/>
+      <c r="O5" s="82"/>
+      <c r="P5" s="81"/>
+      <c r="Q5" s="82"/>
+      <c r="R5" s="82"/>
+      <c r="S5" s="83"/>
       <c r="T5" s="27"/>
-      <c r="U5" s="78"/>
-      <c r="V5" s="78"/>
+      <c r="U5" s="82"/>
+      <c r="V5" s="82"/>
       <c r="W5" s="48"/>
     </row>
     <row r="6" spans="1:23" s="12" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -3180,7 +3224,7 @@
       </c>
       <c r="S6" s="4"/>
       <c r="T6" s="75"/>
-      <c r="U6" s="86" t="s">
+      <c r="U6" s="78" t="s">
         <v>18</v>
       </c>
       <c r="V6" s="4" t="s">
@@ -3211,7 +3255,7 @@
       <c r="R7" s="38"/>
       <c r="S7" s="4"/>
       <c r="T7" s="75"/>
-      <c r="U7" s="87"/>
+      <c r="U7" s="79"/>
       <c r="V7" s="4" t="s">
         <v>35</v>
       </c>
@@ -3240,7 +3284,7 @@
       <c r="R8" s="38"/>
       <c r="S8" s="4"/>
       <c r="T8" s="75"/>
-      <c r="U8" s="87"/>
+      <c r="U8" s="79"/>
       <c r="V8" s="4" t="s">
         <v>21</v>
       </c>
@@ -3269,7 +3313,7 @@
       <c r="R9" s="38"/>
       <c r="S9" s="4"/>
       <c r="T9" s="75"/>
-      <c r="U9" s="87"/>
+      <c r="U9" s="79"/>
       <c r="V9" s="4" t="s">
         <v>51</v>
       </c>
@@ -3298,7 +3342,7 @@
       <c r="R10" s="38"/>
       <c r="S10" s="4"/>
       <c r="T10" s="75"/>
-      <c r="U10" s="87"/>
+      <c r="U10" s="79"/>
       <c r="V10" s="4" t="s">
         <v>31</v>
       </c>
@@ -3327,7 +3371,7 @@
       <c r="R11" s="38"/>
       <c r="S11" s="4"/>
       <c r="T11" s="75"/>
-      <c r="U11" s="87"/>
+      <c r="U11" s="79"/>
       <c r="V11" s="4" t="s">
         <v>30</v>
       </c>
@@ -3356,7 +3400,7 @@
       <c r="R12" s="38"/>
       <c r="S12" s="4"/>
       <c r="T12" s="75"/>
-      <c r="U12" s="86" t="s">
+      <c r="U12" s="78" t="s">
         <v>19</v>
       </c>
       <c r="V12" s="4" t="s">
@@ -3387,7 +3431,7 @@
       <c r="R13" s="10"/>
       <c r="S13" s="4"/>
       <c r="T13" s="75"/>
-      <c r="U13" s="87"/>
+      <c r="U13" s="79"/>
       <c r="V13" s="4" t="s">
         <v>37</v>
       </c>
@@ -3416,7 +3460,7 @@
       <c r="R14" s="38"/>
       <c r="S14" s="4"/>
       <c r="T14" s="75"/>
-      <c r="U14" s="87"/>
+      <c r="U14" s="79"/>
       <c r="V14" s="4" t="s">
         <v>36</v>
       </c>
@@ -3445,7 +3489,7 @@
       <c r="R15" s="38"/>
       <c r="S15" s="4"/>
       <c r="T15" s="14"/>
-      <c r="U15" s="87"/>
+      <c r="U15" s="79"/>
       <c r="V15" s="4" t="s">
         <v>24</v>
       </c>
@@ -3474,7 +3518,7 @@
       <c r="R16" s="38"/>
       <c r="S16" s="4"/>
       <c r="T16" s="14"/>
-      <c r="U16" s="88"/>
+      <c r="U16" s="80"/>
       <c r="V16" s="4" t="s">
         <v>25</v>
       </c>
@@ -4705,6 +4749,13 @@
     </row>
   </sheetData>
   <mergeCells count="18">
+    <mergeCell ref="U6:U11"/>
+    <mergeCell ref="U12:U16"/>
+    <mergeCell ref="P4:P5"/>
+    <mergeCell ref="Q4:Q5"/>
+    <mergeCell ref="R4:R5"/>
+    <mergeCell ref="S4:S5"/>
+    <mergeCell ref="U4:U5"/>
     <mergeCell ref="V4:V5"/>
     <mergeCell ref="A1:V1"/>
     <mergeCell ref="A2:D2"/>
@@ -4716,13 +4767,6 @@
     <mergeCell ref="M4:M5"/>
     <mergeCell ref="N4:N5"/>
     <mergeCell ref="O4:O5"/>
-    <mergeCell ref="U6:U11"/>
-    <mergeCell ref="U12:U16"/>
-    <mergeCell ref="P4:P5"/>
-    <mergeCell ref="Q4:Q5"/>
-    <mergeCell ref="R4:R5"/>
-    <mergeCell ref="S4:S5"/>
-    <mergeCell ref="U4:U5"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -4733,7 +4777,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:X57"/>
   <sheetViews>
-    <sheetView showZeros="0" topLeftCell="K1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView showZeros="0" topLeftCell="D1" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="M7" sqref="M7"/>
     </sheetView>
   </sheetViews>
@@ -4766,41 +4810,41 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="79" t="s">
+      <c r="A1" s="84" t="s">
         <v>61</v>
       </c>
-      <c r="B1" s="79"/>
-      <c r="C1" s="79"/>
-      <c r="D1" s="79"/>
-      <c r="E1" s="79"/>
-      <c r="F1" s="79"/>
-      <c r="G1" s="79"/>
-      <c r="H1" s="79"/>
-      <c r="I1" s="79"/>
-      <c r="J1" s="79"/>
-      <c r="K1" s="79"/>
-      <c r="L1" s="79"/>
-      <c r="M1" s="79"/>
-      <c r="N1" s="79"/>
-      <c r="O1" s="79"/>
-      <c r="P1" s="79"/>
-      <c r="Q1" s="79"/>
-      <c r="R1" s="79"/>
-      <c r="S1" s="79"/>
-      <c r="T1" s="79"/>
-      <c r="U1" s="79"/>
-      <c r="V1" s="79"/>
+      <c r="B1" s="84"/>
+      <c r="C1" s="84"/>
+      <c r="D1" s="84"/>
+      <c r="E1" s="84"/>
+      <c r="F1" s="84"/>
+      <c r="G1" s="84"/>
+      <c r="H1" s="84"/>
+      <c r="I1" s="84"/>
+      <c r="J1" s="84"/>
+      <c r="K1" s="84"/>
+      <c r="L1" s="84"/>
+      <c r="M1" s="84"/>
+      <c r="N1" s="84"/>
+      <c r="O1" s="84"/>
+      <c r="P1" s="84"/>
+      <c r="Q1" s="84"/>
+      <c r="R1" s="84"/>
+      <c r="S1" s="84"/>
+      <c r="T1" s="84"/>
+      <c r="U1" s="84"/>
+      <c r="V1" s="84"/>
       <c r="W1" s="47"/>
     </row>
     <row r="2" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="80" t="s">
+      <c r="A2" s="85" t="s">
         <v>9</v>
       </c>
-      <c r="B2" s="81"/>
-      <c r="C2" s="81"/>
-      <c r="D2" s="81"/>
-      <c r="E2" s="82"/>
-      <c r="F2" s="82"/>
+      <c r="B2" s="86"/>
+      <c r="C2" s="86"/>
+      <c r="D2" s="86"/>
+      <c r="E2" s="87"/>
+      <c r="F2" s="87"/>
       <c r="G2" s="5"/>
       <c r="H2" s="21"/>
       <c r="I2" s="53"/>
@@ -4845,58 +4889,58 @@
       <c r="W3" s="27"/>
     </row>
     <row r="4" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="83" t="s">
-        <v>0</v>
-      </c>
-      <c r="B4" s="78" t="s">
+      <c r="A4" s="88" t="s">
+        <v>0</v>
+      </c>
+      <c r="B4" s="82" t="s">
         <v>8</v>
       </c>
-      <c r="C4" s="78"/>
-      <c r="D4" s="78"/>
-      <c r="E4" s="78"/>
-      <c r="F4" s="78"/>
-      <c r="G4" s="78"/>
-      <c r="H4" s="78"/>
-      <c r="I4" s="78"/>
-      <c r="J4" s="78" t="s">
+      <c r="C4" s="82"/>
+      <c r="D4" s="82"/>
+      <c r="E4" s="82"/>
+      <c r="F4" s="82"/>
+      <c r="G4" s="82"/>
+      <c r="H4" s="82"/>
+      <c r="I4" s="82"/>
+      <c r="J4" s="82" t="s">
         <v>6</v>
       </c>
-      <c r="K4" s="78" t="s">
+      <c r="K4" s="82" t="s">
         <v>11</v>
       </c>
-      <c r="L4" s="78"/>
-      <c r="M4" s="84" t="s">
+      <c r="L4" s="82"/>
+      <c r="M4" s="89" t="s">
         <v>42</v>
       </c>
-      <c r="N4" s="84" t="s">
+      <c r="N4" s="89" t="s">
         <v>10</v>
       </c>
-      <c r="O4" s="78" t="s">
+      <c r="O4" s="82" t="s">
         <v>7</v>
       </c>
-      <c r="P4" s="89" t="s">
+      <c r="P4" s="81" t="s">
         <v>14</v>
       </c>
-      <c r="Q4" s="78" t="s">
+      <c r="Q4" s="82" t="s">
         <v>39</v>
       </c>
-      <c r="R4" s="78" t="s">
+      <c r="R4" s="82" t="s">
         <v>53</v>
       </c>
-      <c r="S4" s="90" t="s">
+      <c r="S4" s="83" t="s">
         <v>54</v>
       </c>
       <c r="T4" s="27"/>
-      <c r="U4" s="78" t="s">
+      <c r="U4" s="82" t="s">
         <v>39</v>
       </c>
-      <c r="V4" s="78" t="s">
+      <c r="V4" s="82" t="s">
         <v>53</v>
       </c>
       <c r="W4" s="48"/>
     </row>
     <row r="5" spans="1:23" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="83"/>
+      <c r="A5" s="88"/>
       <c r="B5" s="64" t="s">
         <v>1</v>
       </c>
@@ -4921,23 +4965,23 @@
       <c r="I5" s="55" t="s">
         <v>15</v>
       </c>
-      <c r="J5" s="78"/>
+      <c r="J5" s="82"/>
       <c r="K5" s="74" t="s">
         <v>12</v>
       </c>
       <c r="L5" s="74" t="s">
         <v>13</v>
       </c>
-      <c r="M5" s="85"/>
-      <c r="N5" s="85"/>
-      <c r="O5" s="78"/>
-      <c r="P5" s="89"/>
-      <c r="Q5" s="78"/>
-      <c r="R5" s="78"/>
-      <c r="S5" s="90"/>
+      <c r="M5" s="90"/>
+      <c r="N5" s="90"/>
+      <c r="O5" s="82"/>
+      <c r="P5" s="81"/>
+      <c r="Q5" s="82"/>
+      <c r="R5" s="82"/>
+      <c r="S5" s="83"/>
       <c r="T5" s="27"/>
-      <c r="U5" s="78"/>
-      <c r="V5" s="78"/>
+      <c r="U5" s="82"/>
+      <c r="V5" s="82"/>
       <c r="W5" s="48"/>
     </row>
     <row r="6" spans="1:23" s="12" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -4987,7 +5031,7 @@
       </c>
       <c r="S6" s="4"/>
       <c r="T6" s="75"/>
-      <c r="U6" s="86" t="s">
+      <c r="U6" s="78" t="s">
         <v>18</v>
       </c>
       <c r="V6" s="4" t="s">
@@ -5042,7 +5086,7 @@
       </c>
       <c r="S7" s="4"/>
       <c r="T7" s="75"/>
-      <c r="U7" s="87"/>
+      <c r="U7" s="79"/>
       <c r="V7" s="4" t="s">
         <v>35</v>
       </c>
@@ -5071,7 +5115,7 @@
       <c r="R8" s="38"/>
       <c r="S8" s="4"/>
       <c r="T8" s="75"/>
-      <c r="U8" s="87"/>
+      <c r="U8" s="79"/>
       <c r="V8" s="4" t="s">
         <v>21</v>
       </c>
@@ -5100,7 +5144,7 @@
       <c r="R9" s="38"/>
       <c r="S9" s="4"/>
       <c r="T9" s="75"/>
-      <c r="U9" s="87"/>
+      <c r="U9" s="79"/>
       <c r="V9" s="4" t="s">
         <v>51</v>
       </c>
@@ -5129,7 +5173,7 @@
       <c r="R10" s="38"/>
       <c r="S10" s="4"/>
       <c r="T10" s="75"/>
-      <c r="U10" s="87"/>
+      <c r="U10" s="79"/>
       <c r="V10" s="4" t="s">
         <v>31</v>
       </c>
@@ -5158,7 +5202,7 @@
       <c r="R11" s="38"/>
       <c r="S11" s="4"/>
       <c r="T11" s="75"/>
-      <c r="U11" s="87"/>
+      <c r="U11" s="79"/>
       <c r="V11" s="4" t="s">
         <v>30</v>
       </c>
@@ -5187,7 +5231,7 @@
       <c r="R12" s="38"/>
       <c r="S12" s="4"/>
       <c r="T12" s="75"/>
-      <c r="U12" s="86" t="s">
+      <c r="U12" s="78" t="s">
         <v>19</v>
       </c>
       <c r="V12" s="4" t="s">
@@ -5218,7 +5262,7 @@
       <c r="R13" s="10"/>
       <c r="S13" s="4"/>
       <c r="T13" s="75"/>
-      <c r="U13" s="87"/>
+      <c r="U13" s="79"/>
       <c r="V13" s="4" t="s">
         <v>37</v>
       </c>
@@ -5247,7 +5291,7 @@
       <c r="R14" s="38"/>
       <c r="S14" s="4"/>
       <c r="T14" s="75"/>
-      <c r="U14" s="87"/>
+      <c r="U14" s="79"/>
       <c r="V14" s="4" t="s">
         <v>36</v>
       </c>
@@ -5276,7 +5320,7 @@
       <c r="R15" s="38"/>
       <c r="S15" s="4"/>
       <c r="T15" s="14"/>
-      <c r="U15" s="87"/>
+      <c r="U15" s="79"/>
       <c r="V15" s="4" t="s">
         <v>24</v>
       </c>
@@ -5305,7 +5349,7 @@
       <c r="R16" s="38"/>
       <c r="S16" s="4"/>
       <c r="T16" s="14"/>
-      <c r="U16" s="88"/>
+      <c r="U16" s="80"/>
       <c r="V16" s="4" t="s">
         <v>25</v>
       </c>
@@ -6536,6 +6580,13 @@
     </row>
   </sheetData>
   <mergeCells count="18">
+    <mergeCell ref="U6:U11"/>
+    <mergeCell ref="U12:U16"/>
+    <mergeCell ref="P4:P5"/>
+    <mergeCell ref="Q4:Q5"/>
+    <mergeCell ref="R4:R5"/>
+    <mergeCell ref="S4:S5"/>
+    <mergeCell ref="U4:U5"/>
     <mergeCell ref="V4:V5"/>
     <mergeCell ref="A1:V1"/>
     <mergeCell ref="A2:D2"/>
@@ -6547,13 +6598,6 @@
     <mergeCell ref="M4:M5"/>
     <mergeCell ref="N4:N5"/>
     <mergeCell ref="O4:O5"/>
-    <mergeCell ref="U6:U11"/>
-    <mergeCell ref="U12:U16"/>
-    <mergeCell ref="P4:P5"/>
-    <mergeCell ref="Q4:Q5"/>
-    <mergeCell ref="R4:R5"/>
-    <mergeCell ref="S4:S5"/>
-    <mergeCell ref="U4:U5"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -6564,8 +6608,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:X57"/>
   <sheetViews>
-    <sheetView showZeros="0" tabSelected="1" topLeftCell="K1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="P11" sqref="P11"/>
+    <sheetView showZeros="0" tabSelected="1" topLeftCell="B1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="I21" sqref="I21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -6597,41 +6641,41 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="79" t="s">
+      <c r="A1" s="84" t="s">
         <v>61</v>
       </c>
-      <c r="B1" s="79"/>
-      <c r="C1" s="79"/>
-      <c r="D1" s="79"/>
-      <c r="E1" s="79"/>
-      <c r="F1" s="79"/>
-      <c r="G1" s="79"/>
-      <c r="H1" s="79"/>
-      <c r="I1" s="79"/>
-      <c r="J1" s="79"/>
-      <c r="K1" s="79"/>
-      <c r="L1" s="79"/>
-      <c r="M1" s="79"/>
-      <c r="N1" s="79"/>
-      <c r="O1" s="79"/>
-      <c r="P1" s="79"/>
-      <c r="Q1" s="79"/>
-      <c r="R1" s="79"/>
-      <c r="S1" s="79"/>
-      <c r="T1" s="79"/>
-      <c r="U1" s="79"/>
-      <c r="V1" s="79"/>
+      <c r="B1" s="84"/>
+      <c r="C1" s="84"/>
+      <c r="D1" s="84"/>
+      <c r="E1" s="84"/>
+      <c r="F1" s="84"/>
+      <c r="G1" s="84"/>
+      <c r="H1" s="84"/>
+      <c r="I1" s="84"/>
+      <c r="J1" s="84"/>
+      <c r="K1" s="84"/>
+      <c r="L1" s="84"/>
+      <c r="M1" s="84"/>
+      <c r="N1" s="84"/>
+      <c r="O1" s="84"/>
+      <c r="P1" s="84"/>
+      <c r="Q1" s="84"/>
+      <c r="R1" s="84"/>
+      <c r="S1" s="84"/>
+      <c r="T1" s="84"/>
+      <c r="U1" s="84"/>
+      <c r="V1" s="84"/>
       <c r="W1" s="47"/>
     </row>
     <row r="2" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="80" t="s">
+      <c r="A2" s="85" t="s">
         <v>9</v>
       </c>
-      <c r="B2" s="81"/>
-      <c r="C2" s="81"/>
-      <c r="D2" s="81"/>
-      <c r="E2" s="82"/>
-      <c r="F2" s="82"/>
+      <c r="B2" s="86"/>
+      <c r="C2" s="86"/>
+      <c r="D2" s="86"/>
+      <c r="E2" s="87"/>
+      <c r="F2" s="87"/>
       <c r="G2" s="5"/>
       <c r="H2" s="21"/>
       <c r="I2" s="53"/>
@@ -6676,58 +6720,58 @@
       <c r="W3" s="27"/>
     </row>
     <row r="4" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="83" t="s">
-        <v>0</v>
-      </c>
-      <c r="B4" s="78" t="s">
+      <c r="A4" s="88" t="s">
+        <v>0</v>
+      </c>
+      <c r="B4" s="82" t="s">
         <v>8</v>
       </c>
-      <c r="C4" s="78"/>
-      <c r="D4" s="78"/>
-      <c r="E4" s="78"/>
-      <c r="F4" s="78"/>
-      <c r="G4" s="78"/>
-      <c r="H4" s="78"/>
-      <c r="I4" s="78"/>
-      <c r="J4" s="78" t="s">
+      <c r="C4" s="82"/>
+      <c r="D4" s="82"/>
+      <c r="E4" s="82"/>
+      <c r="F4" s="82"/>
+      <c r="G4" s="82"/>
+      <c r="H4" s="82"/>
+      <c r="I4" s="82"/>
+      <c r="J4" s="82" t="s">
         <v>6</v>
       </c>
-      <c r="K4" s="78" t="s">
+      <c r="K4" s="82" t="s">
         <v>11</v>
       </c>
-      <c r="L4" s="78"/>
-      <c r="M4" s="84" t="s">
+      <c r="L4" s="82"/>
+      <c r="M4" s="89" t="s">
         <v>42</v>
       </c>
-      <c r="N4" s="84" t="s">
+      <c r="N4" s="89" t="s">
         <v>10</v>
       </c>
-      <c r="O4" s="78" t="s">
+      <c r="O4" s="82" t="s">
         <v>7</v>
       </c>
-      <c r="P4" s="89" t="s">
+      <c r="P4" s="81" t="s">
         <v>14</v>
       </c>
-      <c r="Q4" s="78" t="s">
+      <c r="Q4" s="82" t="s">
         <v>39</v>
       </c>
-      <c r="R4" s="78" t="s">
+      <c r="R4" s="82" t="s">
         <v>53</v>
       </c>
-      <c r="S4" s="90" t="s">
+      <c r="S4" s="83" t="s">
         <v>54</v>
       </c>
       <c r="T4" s="27"/>
-      <c r="U4" s="78" t="s">
+      <c r="U4" s="82" t="s">
         <v>39</v>
       </c>
-      <c r="V4" s="78" t="s">
+      <c r="V4" s="82" t="s">
         <v>53</v>
       </c>
       <c r="W4" s="48"/>
     </row>
     <row r="5" spans="1:23" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="83"/>
+      <c r="A5" s="88"/>
       <c r="B5" s="64" t="s">
         <v>1</v>
       </c>
@@ -6752,23 +6796,23 @@
       <c r="I5" s="55" t="s">
         <v>15</v>
       </c>
-      <c r="J5" s="78"/>
+      <c r="J5" s="82"/>
       <c r="K5" s="73" t="s">
         <v>12</v>
       </c>
       <c r="L5" s="73" t="s">
         <v>13</v>
       </c>
-      <c r="M5" s="85"/>
-      <c r="N5" s="85"/>
-      <c r="O5" s="78"/>
-      <c r="P5" s="89"/>
-      <c r="Q5" s="78"/>
-      <c r="R5" s="78"/>
-      <c r="S5" s="90"/>
+      <c r="M5" s="90"/>
+      <c r="N5" s="90"/>
+      <c r="O5" s="82"/>
+      <c r="P5" s="81"/>
+      <c r="Q5" s="82"/>
+      <c r="R5" s="82"/>
+      <c r="S5" s="83"/>
       <c r="T5" s="27"/>
-      <c r="U5" s="78"/>
-      <c r="V5" s="78"/>
+      <c r="U5" s="82"/>
+      <c r="V5" s="82"/>
       <c r="W5" s="48"/>
     </row>
     <row r="6" spans="1:23" s="12" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -6818,7 +6862,7 @@
       </c>
       <c r="S6" s="4"/>
       <c r="T6" s="72"/>
-      <c r="U6" s="86" t="s">
+      <c r="U6" s="78" t="s">
         <v>18</v>
       </c>
       <c r="V6" s="4" t="s">
@@ -6838,26 +6882,46 @@
         <v>44</v>
       </c>
       <c r="E7" s="39">
-        <v>868183037812083</v>
-      </c>
-      <c r="F7" s="38"/>
+        <v>868183038490038</v>
+      </c>
+      <c r="F7" s="38" t="s">
+        <v>93</v>
+      </c>
       <c r="G7" s="38" t="s">
-        <v>64</v>
-      </c>
-      <c r="H7" s="38"/>
-      <c r="I7" s="50"/>
-      <c r="J7" s="40"/>
-      <c r="K7" s="61"/>
+        <v>63</v>
+      </c>
+      <c r="H7" s="38" t="s">
+        <v>94</v>
+      </c>
+      <c r="I7" s="50" t="s">
+        <v>92</v>
+      </c>
+      <c r="J7" s="40" t="s">
+        <v>85</v>
+      </c>
+      <c r="K7" s="61" t="s">
+        <v>69</v>
+      </c>
       <c r="L7" s="40"/>
-      <c r="M7" s="40"/>
+      <c r="M7" s="40" t="s">
+        <v>84</v>
+      </c>
       <c r="N7" s="41"/>
-      <c r="O7" s="40"/>
-      <c r="P7" s="40"/>
-      <c r="Q7" s="3"/>
-      <c r="R7" s="38"/>
+      <c r="O7" s="40" t="s">
+        <v>73</v>
+      </c>
+      <c r="P7" s="40" t="s">
+        <v>74</v>
+      </c>
+      <c r="Q7" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="R7" s="38" t="s">
+        <v>25</v>
+      </c>
       <c r="S7" s="4"/>
       <c r="T7" s="72"/>
-      <c r="U7" s="87"/>
+      <c r="U7" s="79"/>
       <c r="V7" s="4" t="s">
         <v>35</v>
       </c>
@@ -6875,11 +6939,11 @@
         <v>44</v>
       </c>
       <c r="E8" s="39">
-        <v>868183038490038</v>
+        <v>868183038600743</v>
       </c>
       <c r="F8" s="38"/>
       <c r="G8" s="38" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="H8" s="52"/>
       <c r="I8" s="50"/>
@@ -6894,7 +6958,7 @@
       <c r="R8" s="38"/>
       <c r="S8" s="4"/>
       <c r="T8" s="72"/>
-      <c r="U8" s="87"/>
+      <c r="U8" s="79"/>
       <c r="V8" s="4" t="s">
         <v>21</v>
       </c>
@@ -6912,26 +6976,42 @@
         <v>44</v>
       </c>
       <c r="E9" s="39">
-        <v>868183038600743</v>
+        <v>868183038522277</v>
       </c>
       <c r="F9" s="38"/>
       <c r="G9" s="38" t="s">
         <v>64</v>
       </c>
       <c r="H9" s="2"/>
-      <c r="I9" s="50"/>
-      <c r="J9" s="40"/>
-      <c r="K9" s="40"/>
+      <c r="I9" s="50" t="s">
+        <v>95</v>
+      </c>
+      <c r="J9" s="40" t="s">
+        <v>85</v>
+      </c>
+      <c r="K9" s="40" t="s">
+        <v>69</v>
+      </c>
       <c r="L9" s="40"/>
-      <c r="M9" s="40"/>
+      <c r="M9" s="40" t="s">
+        <v>84</v>
+      </c>
       <c r="N9" s="1"/>
-      <c r="O9" s="40"/>
-      <c r="P9" s="1"/>
-      <c r="Q9" s="3"/>
-      <c r="R9" s="38"/>
+      <c r="O9" s="40" t="s">
+        <v>73</v>
+      </c>
+      <c r="P9" s="40" t="s">
+        <v>74</v>
+      </c>
+      <c r="Q9" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="R9" s="38" t="s">
+        <v>25</v>
+      </c>
       <c r="S9" s="4"/>
       <c r="T9" s="72"/>
-      <c r="U9" s="87"/>
+      <c r="U9" s="79"/>
       <c r="V9" s="4" t="s">
         <v>51</v>
       </c>
@@ -6944,31 +7024,47 @@
       <c r="B10" s="37">
         <v>44364</v>
       </c>
-      <c r="C10" s="37"/>
+      <c r="C10" s="65"/>
       <c r="D10" s="38" t="s">
         <v>44</v>
       </c>
       <c r="E10" s="39">
-        <v>868183038522277</v>
+        <v>867717030417415</v>
       </c>
       <c r="F10" s="38"/>
       <c r="G10" s="38" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="H10" s="2"/>
-      <c r="I10" s="50"/>
-      <c r="J10" s="40"/>
-      <c r="K10" s="1"/>
+      <c r="I10" s="50" t="s">
+        <v>92</v>
+      </c>
+      <c r="J10" s="40" t="s">
+        <v>96</v>
+      </c>
+      <c r="K10" s="1" t="s">
+        <v>69</v>
+      </c>
       <c r="L10" s="40"/>
-      <c r="M10" s="40"/>
+      <c r="M10" s="40" t="s">
+        <v>97</v>
+      </c>
       <c r="N10" s="1"/>
-      <c r="O10" s="40"/>
-      <c r="P10" s="1"/>
-      <c r="Q10" s="3"/>
-      <c r="R10" s="38"/>
+      <c r="O10" s="40" t="s">
+        <v>73</v>
+      </c>
+      <c r="P10" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="Q10" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="R10" s="38" t="s">
+        <v>31</v>
+      </c>
       <c r="S10" s="4"/>
       <c r="T10" s="72"/>
-      <c r="U10" s="87"/>
+      <c r="U10" s="79"/>
       <c r="V10" s="4" t="s">
         <v>31</v>
       </c>
@@ -6986,7 +7082,7 @@
         <v>44</v>
       </c>
       <c r="E11" s="39">
-        <v>867717030417415</v>
+        <v>868183033882809</v>
       </c>
       <c r="F11" s="38"/>
       <c r="G11" s="38" t="s">
@@ -7005,7 +7101,7 @@
       <c r="R11" s="38"/>
       <c r="S11" s="4"/>
       <c r="T11" s="72"/>
-      <c r="U11" s="87"/>
+      <c r="U11" s="79"/>
       <c r="V11" s="4" t="s">
         <v>30</v>
       </c>
@@ -7023,7 +7119,7 @@
         <v>44</v>
       </c>
       <c r="E12" s="39">
-        <v>868183033882809</v>
+        <v>868183034599543</v>
       </c>
       <c r="F12" s="38"/>
       <c r="G12" s="38" t="s">
@@ -7042,7 +7138,7 @@
       <c r="R12" s="38"/>
       <c r="S12" s="4"/>
       <c r="T12" s="72"/>
-      <c r="U12" s="86" t="s">
+      <c r="U12" s="78" t="s">
         <v>19</v>
       </c>
       <c r="V12" s="4" t="s">
@@ -7062,7 +7158,7 @@
         <v>44</v>
       </c>
       <c r="E13" s="39">
-        <v>868183034599543</v>
+        <v>868183035852958</v>
       </c>
       <c r="F13" s="38"/>
       <c r="G13" s="38" t="s">
@@ -7081,7 +7177,7 @@
       <c r="R13" s="10"/>
       <c r="S13" s="4"/>
       <c r="T13" s="72"/>
-      <c r="U13" s="87"/>
+      <c r="U13" s="79"/>
       <c r="V13" s="4" t="s">
         <v>37</v>
       </c>
@@ -7099,7 +7195,7 @@
         <v>44</v>
       </c>
       <c r="E14" s="39">
-        <v>868183035852958</v>
+        <v>867857039894956</v>
       </c>
       <c r="F14" s="38"/>
       <c r="G14" s="38" t="s">
@@ -7118,7 +7214,7 @@
       <c r="R14" s="38"/>
       <c r="S14" s="4"/>
       <c r="T14" s="72"/>
-      <c r="U14" s="87"/>
+      <c r="U14" s="79"/>
       <c r="V14" s="4" t="s">
         <v>36</v>
       </c>
@@ -7128,20 +7224,12 @@
       <c r="A15" s="4">
         <v>10</v>
       </c>
-      <c r="B15" s="37">
-        <v>44364</v>
-      </c>
+      <c r="B15" s="37"/>
       <c r="C15" s="65"/>
-      <c r="D15" s="38" t="s">
-        <v>44</v>
-      </c>
-      <c r="E15" s="39">
-        <v>867857039894956</v>
-      </c>
+      <c r="D15" s="38"/>
+      <c r="E15" s="39"/>
       <c r="F15" s="38"/>
-      <c r="G15" s="38" t="s">
-        <v>63</v>
-      </c>
+      <c r="G15" s="38"/>
       <c r="H15" s="1"/>
       <c r="I15" s="56"/>
       <c r="J15" s="40"/>
@@ -7155,7 +7243,7 @@
       <c r="R15" s="38"/>
       <c r="S15" s="4"/>
       <c r="T15" s="14"/>
-      <c r="U15" s="87"/>
+      <c r="U15" s="79"/>
       <c r="V15" s="4" t="s">
         <v>24</v>
       </c>
@@ -7184,7 +7272,7 @@
       <c r="R16" s="38"/>
       <c r="S16" s="4"/>
       <c r="T16" s="14"/>
-      <c r="U16" s="88"/>
+      <c r="U16" s="80"/>
       <c r="V16" s="4" t="s">
         <v>25</v>
       </c>
@@ -7303,7 +7391,7 @@
       </c>
       <c r="V20" s="10">
         <f>COUNTIF($Q$6:$Q$51,"PM")</f>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="W20" s="14"/>
     </row>
@@ -7335,7 +7423,7 @@
       </c>
       <c r="V21" s="10">
         <f>COUNTIF($Q$6:$Q$51,"PC")</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="W21" s="14"/>
     </row>
@@ -7580,7 +7668,7 @@
       </c>
       <c r="V29" s="10">
         <f>COUNTIF($R$6:$R$51,"*NG*")</f>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="W29" s="14"/>
     </row>
@@ -7804,7 +7892,7 @@
       </c>
       <c r="V36" s="10">
         <f>COUNTIF($R$6:$R$51,"*KL*")</f>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="W36" s="14"/>
     </row>
@@ -7836,7 +7924,7 @@
       </c>
       <c r="V37" s="10">
         <f>SUM(V26:V36)</f>
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="W37" s="14"/>
     </row>
@@ -8415,13 +8503,6 @@
     </row>
   </sheetData>
   <mergeCells count="18">
-    <mergeCell ref="U6:U11"/>
-    <mergeCell ref="U12:U16"/>
-    <mergeCell ref="P4:P5"/>
-    <mergeCell ref="Q4:Q5"/>
-    <mergeCell ref="R4:R5"/>
-    <mergeCell ref="S4:S5"/>
-    <mergeCell ref="U4:U5"/>
     <mergeCell ref="V4:V5"/>
     <mergeCell ref="A1:V1"/>
     <mergeCell ref="A2:D2"/>
@@ -8433,6 +8514,13 @@
     <mergeCell ref="M4:M5"/>
     <mergeCell ref="N4:N5"/>
     <mergeCell ref="O4:O5"/>
+    <mergeCell ref="U6:U11"/>
+    <mergeCell ref="U12:U16"/>
+    <mergeCell ref="P4:P5"/>
+    <mergeCell ref="Q4:Q5"/>
+    <mergeCell ref="R4:R5"/>
+    <mergeCell ref="S4:S5"/>
+    <mergeCell ref="U4:U5"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -8476,41 +8564,41 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="79" t="s">
+      <c r="A1" s="84" t="s">
         <v>61</v>
       </c>
-      <c r="B1" s="79"/>
-      <c r="C1" s="79"/>
-      <c r="D1" s="79"/>
-      <c r="E1" s="79"/>
-      <c r="F1" s="79"/>
-      <c r="G1" s="79"/>
-      <c r="H1" s="79"/>
-      <c r="I1" s="79"/>
-      <c r="J1" s="79"/>
-      <c r="K1" s="79"/>
-      <c r="L1" s="79"/>
-      <c r="M1" s="79"/>
-      <c r="N1" s="79"/>
-      <c r="O1" s="79"/>
-      <c r="P1" s="79"/>
-      <c r="Q1" s="79"/>
-      <c r="R1" s="79"/>
-      <c r="S1" s="79"/>
-      <c r="T1" s="79"/>
-      <c r="U1" s="79"/>
-      <c r="V1" s="79"/>
+      <c r="B1" s="84"/>
+      <c r="C1" s="84"/>
+      <c r="D1" s="84"/>
+      <c r="E1" s="84"/>
+      <c r="F1" s="84"/>
+      <c r="G1" s="84"/>
+      <c r="H1" s="84"/>
+      <c r="I1" s="84"/>
+      <c r="J1" s="84"/>
+      <c r="K1" s="84"/>
+      <c r="L1" s="84"/>
+      <c r="M1" s="84"/>
+      <c r="N1" s="84"/>
+      <c r="O1" s="84"/>
+      <c r="P1" s="84"/>
+      <c r="Q1" s="84"/>
+      <c r="R1" s="84"/>
+      <c r="S1" s="84"/>
+      <c r="T1" s="84"/>
+      <c r="U1" s="84"/>
+      <c r="V1" s="84"/>
       <c r="W1" s="47"/>
     </row>
     <row r="2" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="80" t="s">
+      <c r="A2" s="85" t="s">
         <v>9</v>
       </c>
-      <c r="B2" s="81"/>
-      <c r="C2" s="81"/>
-      <c r="D2" s="81"/>
-      <c r="E2" s="82"/>
-      <c r="F2" s="82"/>
+      <c r="B2" s="86"/>
+      <c r="C2" s="86"/>
+      <c r="D2" s="86"/>
+      <c r="E2" s="87"/>
+      <c r="F2" s="87"/>
       <c r="G2" s="5"/>
       <c r="H2" s="21"/>
       <c r="I2" s="53"/>
@@ -8555,58 +8643,58 @@
       <c r="W3" s="27"/>
     </row>
     <row r="4" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="83" t="s">
-        <v>0</v>
-      </c>
-      <c r="B4" s="78" t="s">
+      <c r="A4" s="88" t="s">
+        <v>0</v>
+      </c>
+      <c r="B4" s="82" t="s">
         <v>8</v>
       </c>
-      <c r="C4" s="78"/>
-      <c r="D4" s="78"/>
-      <c r="E4" s="78"/>
-      <c r="F4" s="78"/>
-      <c r="G4" s="78"/>
-      <c r="H4" s="78"/>
-      <c r="I4" s="78"/>
-      <c r="J4" s="78" t="s">
+      <c r="C4" s="82"/>
+      <c r="D4" s="82"/>
+      <c r="E4" s="82"/>
+      <c r="F4" s="82"/>
+      <c r="G4" s="82"/>
+      <c r="H4" s="82"/>
+      <c r="I4" s="82"/>
+      <c r="J4" s="82" t="s">
         <v>6</v>
       </c>
-      <c r="K4" s="78" t="s">
+      <c r="K4" s="82" t="s">
         <v>11</v>
       </c>
-      <c r="L4" s="78"/>
-      <c r="M4" s="84" t="s">
+      <c r="L4" s="82"/>
+      <c r="M4" s="89" t="s">
         <v>42</v>
       </c>
-      <c r="N4" s="84" t="s">
+      <c r="N4" s="89" t="s">
         <v>10</v>
       </c>
-      <c r="O4" s="78" t="s">
+      <c r="O4" s="82" t="s">
         <v>7</v>
       </c>
-      <c r="P4" s="89" t="s">
+      <c r="P4" s="81" t="s">
         <v>14</v>
       </c>
-      <c r="Q4" s="78" t="s">
+      <c r="Q4" s="82" t="s">
         <v>39</v>
       </c>
-      <c r="R4" s="78" t="s">
+      <c r="R4" s="82" t="s">
         <v>53</v>
       </c>
-      <c r="S4" s="90" t="s">
+      <c r="S4" s="83" t="s">
         <v>54</v>
       </c>
       <c r="T4" s="27"/>
-      <c r="U4" s="78" t="s">
+      <c r="U4" s="82" t="s">
         <v>39</v>
       </c>
-      <c r="V4" s="78" t="s">
+      <c r="V4" s="82" t="s">
         <v>53</v>
       </c>
       <c r="W4" s="48"/>
     </row>
     <row r="5" spans="1:23" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="83"/>
+      <c r="A5" s="88"/>
       <c r="B5" s="64" t="s">
         <v>1</v>
       </c>
@@ -8631,23 +8719,23 @@
       <c r="I5" s="55" t="s">
         <v>15</v>
       </c>
-      <c r="J5" s="78"/>
+      <c r="J5" s="82"/>
       <c r="K5" s="74" t="s">
         <v>12</v>
       </c>
       <c r="L5" s="74" t="s">
         <v>13</v>
       </c>
-      <c r="M5" s="85"/>
-      <c r="N5" s="85"/>
-      <c r="O5" s="78"/>
-      <c r="P5" s="89"/>
-      <c r="Q5" s="78"/>
-      <c r="R5" s="78"/>
-      <c r="S5" s="90"/>
+      <c r="M5" s="90"/>
+      <c r="N5" s="90"/>
+      <c r="O5" s="82"/>
+      <c r="P5" s="81"/>
+      <c r="Q5" s="82"/>
+      <c r="R5" s="82"/>
+      <c r="S5" s="83"/>
       <c r="T5" s="27"/>
-      <c r="U5" s="78"/>
-      <c r="V5" s="78"/>
+      <c r="U5" s="82"/>
+      <c r="V5" s="82"/>
       <c r="W5" s="48"/>
     </row>
     <row r="6" spans="1:23" s="12" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -8681,7 +8769,7 @@
       <c r="R6" s="38"/>
       <c r="S6" s="4"/>
       <c r="T6" s="75"/>
-      <c r="U6" s="86" t="s">
+      <c r="U6" s="78" t="s">
         <v>18</v>
       </c>
       <c r="V6" s="4" t="s">
@@ -8720,7 +8808,7 @@
       <c r="R7" s="38"/>
       <c r="S7" s="4"/>
       <c r="T7" s="75"/>
-      <c r="U7" s="87"/>
+      <c r="U7" s="79"/>
       <c r="V7" s="4" t="s">
         <v>35</v>
       </c>
@@ -8759,7 +8847,7 @@
       <c r="R8" s="38"/>
       <c r="S8" s="4"/>
       <c r="T8" s="75"/>
-      <c r="U8" s="87"/>
+      <c r="U8" s="79"/>
       <c r="V8" s="4" t="s">
         <v>21</v>
       </c>
@@ -8796,7 +8884,7 @@
       <c r="R9" s="38"/>
       <c r="S9" s="4"/>
       <c r="T9" s="75"/>
-      <c r="U9" s="87"/>
+      <c r="U9" s="79"/>
       <c r="V9" s="4" t="s">
         <v>51</v>
       </c>
@@ -8825,7 +8913,7 @@
       <c r="R10" s="38"/>
       <c r="S10" s="4"/>
       <c r="T10" s="75"/>
-      <c r="U10" s="87"/>
+      <c r="U10" s="79"/>
       <c r="V10" s="4" t="s">
         <v>31</v>
       </c>
@@ -8854,7 +8942,7 @@
       <c r="R11" s="38"/>
       <c r="S11" s="4"/>
       <c r="T11" s="75"/>
-      <c r="U11" s="87"/>
+      <c r="U11" s="79"/>
       <c r="V11" s="4" t="s">
         <v>30</v>
       </c>
@@ -8883,7 +8971,7 @@
       <c r="R12" s="38"/>
       <c r="S12" s="4"/>
       <c r="T12" s="75"/>
-      <c r="U12" s="86" t="s">
+      <c r="U12" s="78" t="s">
         <v>19</v>
       </c>
       <c r="V12" s="4" t="s">
@@ -8914,7 +9002,7 @@
       <c r="R13" s="10"/>
       <c r="S13" s="4"/>
       <c r="T13" s="75"/>
-      <c r="U13" s="87"/>
+      <c r="U13" s="79"/>
       <c r="V13" s="4" t="s">
         <v>37</v>
       </c>
@@ -8943,7 +9031,7 @@
       <c r="R14" s="38"/>
       <c r="S14" s="4"/>
       <c r="T14" s="75"/>
-      <c r="U14" s="87"/>
+      <c r="U14" s="79"/>
       <c r="V14" s="4" t="s">
         <v>36</v>
       </c>
@@ -8972,7 +9060,7 @@
       <c r="R15" s="38"/>
       <c r="S15" s="4"/>
       <c r="T15" s="14"/>
-      <c r="U15" s="87"/>
+      <c r="U15" s="79"/>
       <c r="V15" s="4" t="s">
         <v>24</v>
       </c>
@@ -9001,7 +9089,7 @@
       <c r="R16" s="38"/>
       <c r="S16" s="4"/>
       <c r="T16" s="14"/>
-      <c r="U16" s="88"/>
+      <c r="U16" s="80"/>
       <c r="V16" s="4" t="s">
         <v>25</v>
       </c>
@@ -10232,6 +10320,13 @@
     </row>
   </sheetData>
   <mergeCells count="18">
+    <mergeCell ref="U6:U11"/>
+    <mergeCell ref="U12:U16"/>
+    <mergeCell ref="P4:P5"/>
+    <mergeCell ref="Q4:Q5"/>
+    <mergeCell ref="R4:R5"/>
+    <mergeCell ref="S4:S5"/>
+    <mergeCell ref="U4:U5"/>
     <mergeCell ref="V4:V5"/>
     <mergeCell ref="A1:V1"/>
     <mergeCell ref="A2:D2"/>
@@ -10243,13 +10338,6 @@
     <mergeCell ref="M4:M5"/>
     <mergeCell ref="N4:N5"/>
     <mergeCell ref="O4:O5"/>
-    <mergeCell ref="U6:U11"/>
-    <mergeCell ref="U12:U16"/>
-    <mergeCell ref="P4:P5"/>
-    <mergeCell ref="Q4:Q5"/>
-    <mergeCell ref="R4:R5"/>
-    <mergeCell ref="S4:S5"/>
-    <mergeCell ref="U4:U5"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -10293,41 +10381,41 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="79" t="s">
+      <c r="A1" s="84" t="s">
         <v>61</v>
       </c>
-      <c r="B1" s="79"/>
-      <c r="C1" s="79"/>
-      <c r="D1" s="79"/>
-      <c r="E1" s="79"/>
-      <c r="F1" s="79"/>
-      <c r="G1" s="79"/>
-      <c r="H1" s="79"/>
-      <c r="I1" s="79"/>
-      <c r="J1" s="79"/>
-      <c r="K1" s="79"/>
-      <c r="L1" s="79"/>
-      <c r="M1" s="79"/>
-      <c r="N1" s="79"/>
-      <c r="O1" s="79"/>
-      <c r="P1" s="79"/>
-      <c r="Q1" s="79"/>
-      <c r="R1" s="79"/>
-      <c r="S1" s="79"/>
-      <c r="T1" s="79"/>
-      <c r="U1" s="79"/>
-      <c r="V1" s="79"/>
+      <c r="B1" s="84"/>
+      <c r="C1" s="84"/>
+      <c r="D1" s="84"/>
+      <c r="E1" s="84"/>
+      <c r="F1" s="84"/>
+      <c r="G1" s="84"/>
+      <c r="H1" s="84"/>
+      <c r="I1" s="84"/>
+      <c r="J1" s="84"/>
+      <c r="K1" s="84"/>
+      <c r="L1" s="84"/>
+      <c r="M1" s="84"/>
+      <c r="N1" s="84"/>
+      <c r="O1" s="84"/>
+      <c r="P1" s="84"/>
+      <c r="Q1" s="84"/>
+      <c r="R1" s="84"/>
+      <c r="S1" s="84"/>
+      <c r="T1" s="84"/>
+      <c r="U1" s="84"/>
+      <c r="V1" s="84"/>
       <c r="W1" s="47"/>
     </row>
     <row r="2" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="80" t="s">
+      <c r="A2" s="85" t="s">
         <v>9</v>
       </c>
-      <c r="B2" s="81"/>
-      <c r="C2" s="81"/>
-      <c r="D2" s="81"/>
-      <c r="E2" s="82"/>
-      <c r="F2" s="82"/>
+      <c r="B2" s="86"/>
+      <c r="C2" s="86"/>
+      <c r="D2" s="86"/>
+      <c r="E2" s="87"/>
+      <c r="F2" s="87"/>
       <c r="G2" s="5"/>
       <c r="H2" s="21"/>
       <c r="I2" s="53"/>
@@ -10372,58 +10460,58 @@
       <c r="W3" s="27"/>
     </row>
     <row r="4" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="83" t="s">
-        <v>0</v>
-      </c>
-      <c r="B4" s="78" t="s">
+      <c r="A4" s="88" t="s">
+        <v>0</v>
+      </c>
+      <c r="B4" s="82" t="s">
         <v>8</v>
       </c>
-      <c r="C4" s="78"/>
-      <c r="D4" s="78"/>
-      <c r="E4" s="78"/>
-      <c r="F4" s="78"/>
-      <c r="G4" s="78"/>
-      <c r="H4" s="78"/>
-      <c r="I4" s="78"/>
-      <c r="J4" s="78" t="s">
+      <c r="C4" s="82"/>
+      <c r="D4" s="82"/>
+      <c r="E4" s="82"/>
+      <c r="F4" s="82"/>
+      <c r="G4" s="82"/>
+      <c r="H4" s="82"/>
+      <c r="I4" s="82"/>
+      <c r="J4" s="82" t="s">
         <v>6</v>
       </c>
-      <c r="K4" s="78" t="s">
+      <c r="K4" s="82" t="s">
         <v>11</v>
       </c>
-      <c r="L4" s="78"/>
-      <c r="M4" s="84" t="s">
+      <c r="L4" s="82"/>
+      <c r="M4" s="89" t="s">
         <v>42</v>
       </c>
-      <c r="N4" s="84" t="s">
+      <c r="N4" s="89" t="s">
         <v>10</v>
       </c>
-      <c r="O4" s="78" t="s">
+      <c r="O4" s="82" t="s">
         <v>7</v>
       </c>
-      <c r="P4" s="89" t="s">
+      <c r="P4" s="81" t="s">
         <v>14</v>
       </c>
-      <c r="Q4" s="78" t="s">
+      <c r="Q4" s="82" t="s">
         <v>39</v>
       </c>
-      <c r="R4" s="78" t="s">
+      <c r="R4" s="82" t="s">
         <v>53</v>
       </c>
-      <c r="S4" s="90" t="s">
+      <c r="S4" s="83" t="s">
         <v>54</v>
       </c>
       <c r="T4" s="27"/>
-      <c r="U4" s="78" t="s">
+      <c r="U4" s="82" t="s">
         <v>39</v>
       </c>
-      <c r="V4" s="78" t="s">
+      <c r="V4" s="82" t="s">
         <v>53</v>
       </c>
       <c r="W4" s="48"/>
     </row>
     <row r="5" spans="1:23" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="83"/>
+      <c r="A5" s="88"/>
       <c r="B5" s="64" t="s">
         <v>1</v>
       </c>
@@ -10448,23 +10536,23 @@
       <c r="I5" s="55" t="s">
         <v>15</v>
       </c>
-      <c r="J5" s="78"/>
+      <c r="J5" s="82"/>
       <c r="K5" s="70" t="s">
         <v>12</v>
       </c>
       <c r="L5" s="70" t="s">
         <v>13</v>
       </c>
-      <c r="M5" s="85"/>
-      <c r="N5" s="85"/>
-      <c r="O5" s="78"/>
-      <c r="P5" s="89"/>
-      <c r="Q5" s="78"/>
-      <c r="R5" s="78"/>
-      <c r="S5" s="90"/>
+      <c r="M5" s="90"/>
+      <c r="N5" s="90"/>
+      <c r="O5" s="82"/>
+      <c r="P5" s="81"/>
+      <c r="Q5" s="82"/>
+      <c r="R5" s="82"/>
+      <c r="S5" s="83"/>
       <c r="T5" s="27"/>
-      <c r="U5" s="78"/>
-      <c r="V5" s="78"/>
+      <c r="U5" s="82"/>
+      <c r="V5" s="82"/>
       <c r="W5" s="48"/>
     </row>
     <row r="6" spans="1:23" s="12" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -10498,7 +10586,7 @@
       <c r="R6" s="38"/>
       <c r="S6" s="4"/>
       <c r="T6" s="71"/>
-      <c r="U6" s="86" t="s">
+      <c r="U6" s="78" t="s">
         <v>18</v>
       </c>
       <c r="V6" s="4" t="s">
@@ -10537,7 +10625,7 @@
       <c r="R7" s="38"/>
       <c r="S7" s="4"/>
       <c r="T7" s="71"/>
-      <c r="U7" s="87"/>
+      <c r="U7" s="79"/>
       <c r="V7" s="4" t="s">
         <v>35</v>
       </c>
@@ -10576,7 +10664,7 @@
       <c r="R8" s="38"/>
       <c r="S8" s="4"/>
       <c r="T8" s="71"/>
-      <c r="U8" s="87"/>
+      <c r="U8" s="79"/>
       <c r="V8" s="4" t="s">
         <v>21</v>
       </c>
@@ -10613,7 +10701,7 @@
       <c r="R9" s="38"/>
       <c r="S9" s="4"/>
       <c r="T9" s="71"/>
-      <c r="U9" s="87"/>
+      <c r="U9" s="79"/>
       <c r="V9" s="4" t="s">
         <v>51</v>
       </c>
@@ -10650,7 +10738,7 @@
       <c r="R10" s="38"/>
       <c r="S10" s="4"/>
       <c r="T10" s="71"/>
-      <c r="U10" s="87"/>
+      <c r="U10" s="79"/>
       <c r="V10" s="4" t="s">
         <v>31</v>
       </c>
@@ -10687,7 +10775,7 @@
       <c r="R11" s="38"/>
       <c r="S11" s="4"/>
       <c r="T11" s="71"/>
-      <c r="U11" s="87"/>
+      <c r="U11" s="79"/>
       <c r="V11" s="4" t="s">
         <v>30</v>
       </c>
@@ -10724,7 +10812,7 @@
       <c r="R12" s="38"/>
       <c r="S12" s="4"/>
       <c r="T12" s="71"/>
-      <c r="U12" s="86" t="s">
+      <c r="U12" s="78" t="s">
         <v>19</v>
       </c>
       <c r="V12" s="4" t="s">
@@ -10755,7 +10843,7 @@
       <c r="R13" s="10"/>
       <c r="S13" s="4"/>
       <c r="T13" s="71"/>
-      <c r="U13" s="87"/>
+      <c r="U13" s="79"/>
       <c r="V13" s="4" t="s">
         <v>37</v>
       </c>
@@ -10784,7 +10872,7 @@
       <c r="R14" s="38"/>
       <c r="S14" s="4"/>
       <c r="T14" s="71"/>
-      <c r="U14" s="87"/>
+      <c r="U14" s="79"/>
       <c r="V14" s="4" t="s">
         <v>36</v>
       </c>
@@ -10813,7 +10901,7 @@
       <c r="R15" s="38"/>
       <c r="S15" s="4"/>
       <c r="T15" s="14"/>
-      <c r="U15" s="87"/>
+      <c r="U15" s="79"/>
       <c r="V15" s="4" t="s">
         <v>24</v>
       </c>
@@ -10842,7 +10930,7 @@
       <c r="R16" s="38"/>
       <c r="S16" s="4"/>
       <c r="T16" s="14"/>
-      <c r="U16" s="88"/>
+      <c r="U16" s="80"/>
       <c r="V16" s="4" t="s">
         <v>25</v>
       </c>
@@ -12073,6 +12161,13 @@
     </row>
   </sheetData>
   <mergeCells count="18">
+    <mergeCell ref="U6:U11"/>
+    <mergeCell ref="U12:U16"/>
+    <mergeCell ref="P4:P5"/>
+    <mergeCell ref="Q4:Q5"/>
+    <mergeCell ref="R4:R5"/>
+    <mergeCell ref="S4:S5"/>
+    <mergeCell ref="U4:U5"/>
     <mergeCell ref="V4:V5"/>
     <mergeCell ref="A1:V1"/>
     <mergeCell ref="A2:D2"/>
@@ -12084,13 +12179,6 @@
     <mergeCell ref="M4:M5"/>
     <mergeCell ref="N4:N5"/>
     <mergeCell ref="O4:O5"/>
-    <mergeCell ref="U6:U11"/>
-    <mergeCell ref="U12:U16"/>
-    <mergeCell ref="P4:P5"/>
-    <mergeCell ref="Q4:Q5"/>
-    <mergeCell ref="R4:R5"/>
-    <mergeCell ref="S4:S5"/>
-    <mergeCell ref="U4:U5"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -12134,41 +12222,41 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="79" t="s">
+      <c r="A1" s="84" t="s">
         <v>62</v>
       </c>
-      <c r="B1" s="79"/>
-      <c r="C1" s="79"/>
-      <c r="D1" s="79"/>
-      <c r="E1" s="79"/>
-      <c r="F1" s="79"/>
-      <c r="G1" s="79"/>
-      <c r="H1" s="79"/>
-      <c r="I1" s="79"/>
-      <c r="J1" s="79"/>
-      <c r="K1" s="79"/>
-      <c r="L1" s="79"/>
-      <c r="M1" s="79"/>
-      <c r="N1" s="79"/>
-      <c r="O1" s="79"/>
-      <c r="P1" s="79"/>
-      <c r="Q1" s="79"/>
-      <c r="R1" s="79"/>
-      <c r="S1" s="79"/>
-      <c r="T1" s="79"/>
-      <c r="U1" s="79"/>
-      <c r="V1" s="79"/>
+      <c r="B1" s="84"/>
+      <c r="C1" s="84"/>
+      <c r="D1" s="84"/>
+      <c r="E1" s="84"/>
+      <c r="F1" s="84"/>
+      <c r="G1" s="84"/>
+      <c r="H1" s="84"/>
+      <c r="I1" s="84"/>
+      <c r="J1" s="84"/>
+      <c r="K1" s="84"/>
+      <c r="L1" s="84"/>
+      <c r="M1" s="84"/>
+      <c r="N1" s="84"/>
+      <c r="O1" s="84"/>
+      <c r="P1" s="84"/>
+      <c r="Q1" s="84"/>
+      <c r="R1" s="84"/>
+      <c r="S1" s="84"/>
+      <c r="T1" s="84"/>
+      <c r="U1" s="84"/>
+      <c r="V1" s="84"/>
       <c r="W1" s="47"/>
     </row>
     <row r="2" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="80" t="s">
+      <c r="A2" s="85" t="s">
         <v>9</v>
       </c>
-      <c r="B2" s="81"/>
-      <c r="C2" s="81"/>
-      <c r="D2" s="81"/>
-      <c r="E2" s="82"/>
-      <c r="F2" s="82"/>
+      <c r="B2" s="86"/>
+      <c r="C2" s="86"/>
+      <c r="D2" s="86"/>
+      <c r="E2" s="87"/>
+      <c r="F2" s="87"/>
       <c r="G2" s="5"/>
       <c r="H2" s="21"/>
       <c r="I2" s="21"/>
@@ -12213,58 +12301,58 @@
       <c r="W3" s="27"/>
     </row>
     <row r="4" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="83" t="s">
-        <v>0</v>
-      </c>
-      <c r="B4" s="78" t="s">
+      <c r="A4" s="88" t="s">
+        <v>0</v>
+      </c>
+      <c r="B4" s="82" t="s">
         <v>8</v>
       </c>
-      <c r="C4" s="78"/>
-      <c r="D4" s="78"/>
-      <c r="E4" s="78"/>
-      <c r="F4" s="78"/>
-      <c r="G4" s="78"/>
-      <c r="H4" s="78"/>
-      <c r="I4" s="78"/>
-      <c r="J4" s="78" t="s">
+      <c r="C4" s="82"/>
+      <c r="D4" s="82"/>
+      <c r="E4" s="82"/>
+      <c r="F4" s="82"/>
+      <c r="G4" s="82"/>
+      <c r="H4" s="82"/>
+      <c r="I4" s="82"/>
+      <c r="J4" s="82" t="s">
         <v>6</v>
       </c>
-      <c r="K4" s="78" t="s">
+      <c r="K4" s="82" t="s">
         <v>11</v>
       </c>
-      <c r="L4" s="78"/>
-      <c r="M4" s="84" t="s">
+      <c r="L4" s="82"/>
+      <c r="M4" s="89" t="s">
         <v>42</v>
       </c>
-      <c r="N4" s="84" t="s">
+      <c r="N4" s="89" t="s">
         <v>10</v>
       </c>
-      <c r="O4" s="78" t="s">
+      <c r="O4" s="82" t="s">
         <v>7</v>
       </c>
-      <c r="P4" s="89" t="s">
+      <c r="P4" s="81" t="s">
         <v>14</v>
       </c>
-      <c r="Q4" s="78" t="s">
+      <c r="Q4" s="82" t="s">
         <v>39</v>
       </c>
-      <c r="R4" s="78" t="s">
+      <c r="R4" s="82" t="s">
         <v>53</v>
       </c>
-      <c r="S4" s="90" t="s">
+      <c r="S4" s="83" t="s">
         <v>54</v>
       </c>
       <c r="T4" s="27"/>
-      <c r="U4" s="78" t="s">
+      <c r="U4" s="82" t="s">
         <v>39</v>
       </c>
-      <c r="V4" s="78" t="s">
+      <c r="V4" s="82" t="s">
         <v>53</v>
       </c>
       <c r="W4" s="48"/>
     </row>
     <row r="5" spans="1:23" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="83"/>
+      <c r="A5" s="88"/>
       <c r="B5" s="44" t="s">
         <v>1</v>
       </c>
@@ -12289,23 +12377,23 @@
       <c r="I5" s="44" t="s">
         <v>15</v>
       </c>
-      <c r="J5" s="78"/>
+      <c r="J5" s="82"/>
       <c r="K5" s="44" t="s">
         <v>12</v>
       </c>
       <c r="L5" s="44" t="s">
         <v>13</v>
       </c>
-      <c r="M5" s="85"/>
-      <c r="N5" s="85"/>
-      <c r="O5" s="78"/>
-      <c r="P5" s="89"/>
-      <c r="Q5" s="78"/>
-      <c r="R5" s="78"/>
-      <c r="S5" s="90"/>
+      <c r="M5" s="90"/>
+      <c r="N5" s="90"/>
+      <c r="O5" s="82"/>
+      <c r="P5" s="81"/>
+      <c r="Q5" s="82"/>
+      <c r="R5" s="82"/>
+      <c r="S5" s="83"/>
       <c r="T5" s="27"/>
-      <c r="U5" s="78"/>
-      <c r="V5" s="78"/>
+      <c r="U5" s="82"/>
+      <c r="V5" s="82"/>
       <c r="W5" s="48"/>
     </row>
     <row r="6" spans="1:23" s="12" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -12331,7 +12419,7 @@
       <c r="R6" s="38"/>
       <c r="S6" s="4"/>
       <c r="T6" s="43"/>
-      <c r="U6" s="86" t="s">
+      <c r="U6" s="78" t="s">
         <v>18</v>
       </c>
       <c r="V6" s="4" t="s">
@@ -12362,7 +12450,7 @@
       <c r="R7" s="38"/>
       <c r="S7" s="4"/>
       <c r="T7" s="43"/>
-      <c r="U7" s="87"/>
+      <c r="U7" s="79"/>
       <c r="V7" s="4" t="s">
         <v>35</v>
       </c>
@@ -12391,7 +12479,7 @@
       <c r="R8" s="38"/>
       <c r="S8" s="4"/>
       <c r="T8" s="43"/>
-      <c r="U8" s="87"/>
+      <c r="U8" s="79"/>
       <c r="V8" s="4" t="s">
         <v>21</v>
       </c>
@@ -12420,7 +12508,7 @@
       <c r="R9" s="38"/>
       <c r="S9" s="4"/>
       <c r="T9" s="43"/>
-      <c r="U9" s="87"/>
+      <c r="U9" s="79"/>
       <c r="V9" s="4" t="s">
         <v>51</v>
       </c>
@@ -12449,7 +12537,7 @@
       <c r="R10" s="38"/>
       <c r="S10" s="4"/>
       <c r="T10" s="43"/>
-      <c r="U10" s="87"/>
+      <c r="U10" s="79"/>
       <c r="V10" s="4" t="s">
         <v>31</v>
       </c>
@@ -12478,7 +12566,7 @@
       <c r="R11" s="38"/>
       <c r="S11" s="4"/>
       <c r="T11" s="43"/>
-      <c r="U11" s="87"/>
+      <c r="U11" s="79"/>
       <c r="V11" s="4" t="s">
         <v>30</v>
       </c>
@@ -12507,7 +12595,7 @@
       <c r="R12" s="38"/>
       <c r="S12" s="4"/>
       <c r="T12" s="43"/>
-      <c r="U12" s="86" t="s">
+      <c r="U12" s="78" t="s">
         <v>19</v>
       </c>
       <c r="V12" s="4" t="s">
@@ -12538,7 +12626,7 @@
       <c r="R13" s="10"/>
       <c r="S13" s="4"/>
       <c r="T13" s="43"/>
-      <c r="U13" s="87"/>
+      <c r="U13" s="79"/>
       <c r="V13" s="4" t="s">
         <v>37</v>
       </c>
@@ -12567,7 +12655,7 @@
       <c r="R14" s="38"/>
       <c r="S14" s="4"/>
       <c r="T14" s="43"/>
-      <c r="U14" s="87"/>
+      <c r="U14" s="79"/>
       <c r="V14" s="4" t="s">
         <v>36</v>
       </c>
@@ -12596,7 +12684,7 @@
       <c r="R15" s="38"/>
       <c r="S15" s="4"/>
       <c r="T15" s="14"/>
-      <c r="U15" s="87"/>
+      <c r="U15" s="79"/>
       <c r="V15" s="4" t="s">
         <v>24</v>
       </c>
@@ -12625,7 +12713,7 @@
       <c r="R16" s="38"/>
       <c r="S16" s="4"/>
       <c r="T16" s="14"/>
-      <c r="U16" s="88"/>
+      <c r="U16" s="80"/>
       <c r="V16" s="4" t="s">
         <v>25</v>
       </c>
@@ -13856,13 +13944,6 @@
     </row>
   </sheetData>
   <mergeCells count="18">
-    <mergeCell ref="U6:U11"/>
-    <mergeCell ref="U12:U16"/>
-    <mergeCell ref="P4:P5"/>
-    <mergeCell ref="Q4:Q5"/>
-    <mergeCell ref="R4:R5"/>
-    <mergeCell ref="S4:S5"/>
-    <mergeCell ref="U4:U5"/>
     <mergeCell ref="V4:V5"/>
     <mergeCell ref="A1:V1"/>
     <mergeCell ref="A2:D2"/>
@@ -13874,6 +13955,13 @@
     <mergeCell ref="M4:M5"/>
     <mergeCell ref="N4:N5"/>
     <mergeCell ref="O4:O5"/>
+    <mergeCell ref="U6:U11"/>
+    <mergeCell ref="U12:U16"/>
+    <mergeCell ref="P4:P5"/>
+    <mergeCell ref="Q4:Q5"/>
+    <mergeCell ref="R4:R5"/>
+    <mergeCell ref="S4:S5"/>
+    <mergeCell ref="U4:U5"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>

--- a/5. WS/1. Bộ phận bảo hành/1. Thực hiện sửa chữa bảo hành/nam2021/Thang6/02.XuLyBH/XLBH2106_AnhTuanNB.xlsx
+++ b/5. WS/1. Bộ phận bảo hành/1. Thực hiện sửa chữa bảo hành/nam2021/Thang6/02.XuLyBH/XLBH2106_AnhTuanNB.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="-15" yWindow="4035" windowWidth="10320" windowHeight="4065" activeTab="3"/>
+    <workbookView xWindow="-15" yWindow="4035" windowWidth="10320" windowHeight="4065" activeTab="6"/>
   </bookViews>
   <sheets>
     <sheet name="TOP-1" sheetId="36" r:id="rId1"/>
@@ -18,22 +18,25 @@
     <sheet name="TG102LE" sheetId="32" r:id="rId4"/>
     <sheet name="TG102V" sheetId="34" r:id="rId5"/>
     <sheet name="TG102SE" sheetId="31" r:id="rId6"/>
-    <sheet name="TongThang" sheetId="25" r:id="rId7"/>
+    <sheet name="PhuKien" sheetId="38" r:id="rId7"/>
+    <sheet name="TongThang" sheetId="25" r:id="rId8"/>
   </sheets>
   <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="6" hidden="1">PhuKien!$S$4:$S$51</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">TG102E!$S$4:$S$51</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="3" hidden="1">TG102LE!$S$4:$S$51</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">'TG102LE-4G'!$S$4:$S$51</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="5" hidden="1">TG102SE!$S$4:$S$51</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="4" hidden="1">TG102V!$S$4:$S$51</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="6" hidden="1">TongThang!$S$4:$S$51</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="7" hidden="1">TongThang!$S$4:$S$51</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'TOP-1'!$S$4:$S$51</definedName>
+    <definedName name="_xlnm.Criteria" localSheetId="6">PhuKien!$S$4:$S$51</definedName>
     <definedName name="_xlnm.Criteria" localSheetId="2">TG102E!$S$4:$S$51</definedName>
     <definedName name="_xlnm.Criteria" localSheetId="3">TG102LE!$S$4:$S$51</definedName>
     <definedName name="_xlnm.Criteria" localSheetId="1">'TG102LE-4G'!$S$4:$S$51</definedName>
     <definedName name="_xlnm.Criteria" localSheetId="5">TG102SE!$S$4:$S$51</definedName>
     <definedName name="_xlnm.Criteria" localSheetId="4">TG102V!$S$4:$S$51</definedName>
-    <definedName name="_xlnm.Criteria" localSheetId="6">TongThang!$S$4:$S$51</definedName>
+    <definedName name="_xlnm.Criteria" localSheetId="7">TongThang!$S$4:$S$51</definedName>
     <definedName name="_xlnm.Criteria" localSheetId="0">'TOP-1'!$S$4:$S$51</definedName>
   </definedNames>
   <calcPr calcId="152511"/>
@@ -41,7 +44,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="604" uniqueCount="98">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="673" uniqueCount="100">
   <si>
     <t>STT</t>
   </si>
@@ -341,6 +344,12 @@
   <si>
     <t>Hàn lại connector nguồn</t>
   </si>
+  <si>
+    <t>Dây Nguồn</t>
+  </si>
+  <si>
+    <t>SL: 3</t>
+  </si>
 </sst>
 </file>
 
@@ -539,7 +548,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="91">
+  <cellXfs count="93">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -770,6 +779,12 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1117,8 +1132,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:X57"/>
   <sheetViews>
-    <sheetView showZeros="0" topLeftCell="K1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="R8" sqref="R8"/>
+    <sheetView showZeros="0" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B6" sqref="B6:S8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -1150,41 +1165,41 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="84" t="s">
+      <c r="A1" s="86" t="s">
         <v>61</v>
       </c>
-      <c r="B1" s="84"/>
-      <c r="C1" s="84"/>
-      <c r="D1" s="84"/>
-      <c r="E1" s="84"/>
-      <c r="F1" s="84"/>
-      <c r="G1" s="84"/>
-      <c r="H1" s="84"/>
-      <c r="I1" s="84"/>
-      <c r="J1" s="84"/>
-      <c r="K1" s="84"/>
-      <c r="L1" s="84"/>
-      <c r="M1" s="84"/>
-      <c r="N1" s="84"/>
-      <c r="O1" s="84"/>
-      <c r="P1" s="84"/>
-      <c r="Q1" s="84"/>
-      <c r="R1" s="84"/>
-      <c r="S1" s="84"/>
-      <c r="T1" s="84"/>
-      <c r="U1" s="84"/>
-      <c r="V1" s="84"/>
+      <c r="B1" s="86"/>
+      <c r="C1" s="86"/>
+      <c r="D1" s="86"/>
+      <c r="E1" s="86"/>
+      <c r="F1" s="86"/>
+      <c r="G1" s="86"/>
+      <c r="H1" s="86"/>
+      <c r="I1" s="86"/>
+      <c r="J1" s="86"/>
+      <c r="K1" s="86"/>
+      <c r="L1" s="86"/>
+      <c r="M1" s="86"/>
+      <c r="N1" s="86"/>
+      <c r="O1" s="86"/>
+      <c r="P1" s="86"/>
+      <c r="Q1" s="86"/>
+      <c r="R1" s="86"/>
+      <c r="S1" s="86"/>
+      <c r="T1" s="86"/>
+      <c r="U1" s="86"/>
+      <c r="V1" s="86"/>
       <c r="W1" s="47"/>
     </row>
     <row r="2" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="85" t="s">
+      <c r="A2" s="87" t="s">
         <v>9</v>
       </c>
-      <c r="B2" s="86"/>
-      <c r="C2" s="86"/>
-      <c r="D2" s="86"/>
-      <c r="E2" s="87"/>
-      <c r="F2" s="87"/>
+      <c r="B2" s="88"/>
+      <c r="C2" s="88"/>
+      <c r="D2" s="88"/>
+      <c r="E2" s="89"/>
+      <c r="F2" s="89"/>
       <c r="G2" s="5"/>
       <c r="H2" s="21"/>
       <c r="I2" s="53"/>
@@ -1229,58 +1244,58 @@
       <c r="W3" s="27"/>
     </row>
     <row r="4" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="88" t="s">
-        <v>0</v>
-      </c>
-      <c r="B4" s="82" t="s">
+      <c r="A4" s="90" t="s">
+        <v>0</v>
+      </c>
+      <c r="B4" s="84" t="s">
         <v>8</v>
       </c>
-      <c r="C4" s="82"/>
-      <c r="D4" s="82"/>
-      <c r="E4" s="82"/>
-      <c r="F4" s="82"/>
-      <c r="G4" s="82"/>
-      <c r="H4" s="82"/>
-      <c r="I4" s="82"/>
-      <c r="J4" s="82" t="s">
+      <c r="C4" s="84"/>
+      <c r="D4" s="84"/>
+      <c r="E4" s="84"/>
+      <c r="F4" s="84"/>
+      <c r="G4" s="84"/>
+      <c r="H4" s="84"/>
+      <c r="I4" s="84"/>
+      <c r="J4" s="84" t="s">
         <v>6</v>
       </c>
-      <c r="K4" s="82" t="s">
+      <c r="K4" s="84" t="s">
         <v>11</v>
       </c>
-      <c r="L4" s="82"/>
-      <c r="M4" s="89" t="s">
+      <c r="L4" s="84"/>
+      <c r="M4" s="91" t="s">
         <v>42</v>
       </c>
-      <c r="N4" s="89" t="s">
+      <c r="N4" s="91" t="s">
         <v>10</v>
       </c>
-      <c r="O4" s="82" t="s">
+      <c r="O4" s="84" t="s">
         <v>7</v>
       </c>
-      <c r="P4" s="81" t="s">
+      <c r="P4" s="83" t="s">
         <v>14</v>
       </c>
-      <c r="Q4" s="82" t="s">
+      <c r="Q4" s="84" t="s">
         <v>39</v>
       </c>
-      <c r="R4" s="82" t="s">
+      <c r="R4" s="84" t="s">
         <v>53</v>
       </c>
-      <c r="S4" s="83" t="s">
+      <c r="S4" s="85" t="s">
         <v>54</v>
       </c>
       <c r="T4" s="27"/>
-      <c r="U4" s="82" t="s">
+      <c r="U4" s="84" t="s">
         <v>39</v>
       </c>
-      <c r="V4" s="82" t="s">
+      <c r="V4" s="84" t="s">
         <v>53</v>
       </c>
       <c r="W4" s="48"/>
     </row>
     <row r="5" spans="1:23" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="88"/>
+      <c r="A5" s="90"/>
       <c r="B5" s="64" t="s">
         <v>1</v>
       </c>
@@ -1305,23 +1320,23 @@
       <c r="I5" s="55" t="s">
         <v>15</v>
       </c>
-      <c r="J5" s="82"/>
+      <c r="J5" s="84"/>
       <c r="K5" s="76" t="s">
         <v>12</v>
       </c>
       <c r="L5" s="76" t="s">
         <v>13</v>
       </c>
-      <c r="M5" s="90"/>
-      <c r="N5" s="90"/>
-      <c r="O5" s="82"/>
-      <c r="P5" s="81"/>
-      <c r="Q5" s="82"/>
-      <c r="R5" s="82"/>
-      <c r="S5" s="83"/>
+      <c r="M5" s="92"/>
+      <c r="N5" s="92"/>
+      <c r="O5" s="84"/>
+      <c r="P5" s="83"/>
+      <c r="Q5" s="84"/>
+      <c r="R5" s="84"/>
+      <c r="S5" s="85"/>
       <c r="T5" s="27"/>
-      <c r="U5" s="82"/>
-      <c r="V5" s="82"/>
+      <c r="U5" s="84"/>
+      <c r="V5" s="84"/>
       <c r="W5" s="48"/>
     </row>
     <row r="6" spans="1:23" s="12" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -1371,7 +1386,7 @@
       </c>
       <c r="S6" s="4"/>
       <c r="T6" s="77"/>
-      <c r="U6" s="78" t="s">
+      <c r="U6" s="80" t="s">
         <v>18</v>
       </c>
       <c r="V6" s="4" t="s">
@@ -1428,7 +1443,7 @@
       </c>
       <c r="S7" s="4"/>
       <c r="T7" s="77"/>
-      <c r="U7" s="79"/>
+      <c r="U7" s="81"/>
       <c r="V7" s="4" t="s">
         <v>35</v>
       </c>
@@ -1481,7 +1496,7 @@
       </c>
       <c r="S8" s="4"/>
       <c r="T8" s="77"/>
-      <c r="U8" s="79"/>
+      <c r="U8" s="81"/>
       <c r="V8" s="4" t="s">
         <v>21</v>
       </c>
@@ -1510,7 +1525,7 @@
       <c r="R9" s="38"/>
       <c r="S9" s="4"/>
       <c r="T9" s="77"/>
-      <c r="U9" s="79"/>
+      <c r="U9" s="81"/>
       <c r="V9" s="4" t="s">
         <v>51</v>
       </c>
@@ -1539,7 +1554,7 @@
       <c r="R10" s="38"/>
       <c r="S10" s="4"/>
       <c r="T10" s="77"/>
-      <c r="U10" s="79"/>
+      <c r="U10" s="81"/>
       <c r="V10" s="4" t="s">
         <v>31</v>
       </c>
@@ -1568,7 +1583,7 @@
       <c r="R11" s="38"/>
       <c r="S11" s="4"/>
       <c r="T11" s="77"/>
-      <c r="U11" s="79"/>
+      <c r="U11" s="81"/>
       <c r="V11" s="4" t="s">
         <v>30</v>
       </c>
@@ -1597,7 +1612,7 @@
       <c r="R12" s="38"/>
       <c r="S12" s="4"/>
       <c r="T12" s="77"/>
-      <c r="U12" s="78" t="s">
+      <c r="U12" s="80" t="s">
         <v>19</v>
       </c>
       <c r="V12" s="4" t="s">
@@ -1628,7 +1643,7 @@
       <c r="R13" s="10"/>
       <c r="S13" s="4"/>
       <c r="T13" s="77"/>
-      <c r="U13" s="79"/>
+      <c r="U13" s="81"/>
       <c r="V13" s="4" t="s">
         <v>37</v>
       </c>
@@ -1657,7 +1672,7 @@
       <c r="R14" s="38"/>
       <c r="S14" s="4"/>
       <c r="T14" s="77"/>
-      <c r="U14" s="79"/>
+      <c r="U14" s="81"/>
       <c r="V14" s="4" t="s">
         <v>36</v>
       </c>
@@ -1686,7 +1701,7 @@
       <c r="R15" s="38"/>
       <c r="S15" s="4"/>
       <c r="T15" s="14"/>
-      <c r="U15" s="79"/>
+      <c r="U15" s="81"/>
       <c r="V15" s="4" t="s">
         <v>24</v>
       </c>
@@ -1715,7 +1730,7 @@
       <c r="R16" s="38"/>
       <c r="S16" s="4"/>
       <c r="T16" s="14"/>
-      <c r="U16" s="80"/>
+      <c r="U16" s="82"/>
       <c r="V16" s="4" t="s">
         <v>25</v>
       </c>
@@ -2974,8 +2989,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:X57"/>
   <sheetViews>
-    <sheetView showZeros="0" topLeftCell="K1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="N8" sqref="N8"/>
+    <sheetView showZeros="0" topLeftCell="L1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B6" sqref="B6:S6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -3007,41 +3022,41 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="84" t="s">
+      <c r="A1" s="86" t="s">
         <v>61</v>
       </c>
-      <c r="B1" s="84"/>
-      <c r="C1" s="84"/>
-      <c r="D1" s="84"/>
-      <c r="E1" s="84"/>
-      <c r="F1" s="84"/>
-      <c r="G1" s="84"/>
-      <c r="H1" s="84"/>
-      <c r="I1" s="84"/>
-      <c r="J1" s="84"/>
-      <c r="K1" s="84"/>
-      <c r="L1" s="84"/>
-      <c r="M1" s="84"/>
-      <c r="N1" s="84"/>
-      <c r="O1" s="84"/>
-      <c r="P1" s="84"/>
-      <c r="Q1" s="84"/>
-      <c r="R1" s="84"/>
-      <c r="S1" s="84"/>
-      <c r="T1" s="84"/>
-      <c r="U1" s="84"/>
-      <c r="V1" s="84"/>
+      <c r="B1" s="86"/>
+      <c r="C1" s="86"/>
+      <c r="D1" s="86"/>
+      <c r="E1" s="86"/>
+      <c r="F1" s="86"/>
+      <c r="G1" s="86"/>
+      <c r="H1" s="86"/>
+      <c r="I1" s="86"/>
+      <c r="J1" s="86"/>
+      <c r="K1" s="86"/>
+      <c r="L1" s="86"/>
+      <c r="M1" s="86"/>
+      <c r="N1" s="86"/>
+      <c r="O1" s="86"/>
+      <c r="P1" s="86"/>
+      <c r="Q1" s="86"/>
+      <c r="R1" s="86"/>
+      <c r="S1" s="86"/>
+      <c r="T1" s="86"/>
+      <c r="U1" s="86"/>
+      <c r="V1" s="86"/>
       <c r="W1" s="47"/>
     </row>
     <row r="2" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="85" t="s">
+      <c r="A2" s="87" t="s">
         <v>9</v>
       </c>
-      <c r="B2" s="86"/>
-      <c r="C2" s="86"/>
-      <c r="D2" s="86"/>
-      <c r="E2" s="87"/>
-      <c r="F2" s="87"/>
+      <c r="B2" s="88"/>
+      <c r="C2" s="88"/>
+      <c r="D2" s="88"/>
+      <c r="E2" s="89"/>
+      <c r="F2" s="89"/>
       <c r="G2" s="5"/>
       <c r="H2" s="21"/>
       <c r="I2" s="53"/>
@@ -3086,58 +3101,58 @@
       <c r="W3" s="27"/>
     </row>
     <row r="4" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="88" t="s">
-        <v>0</v>
-      </c>
-      <c r="B4" s="82" t="s">
+      <c r="A4" s="90" t="s">
+        <v>0</v>
+      </c>
+      <c r="B4" s="84" t="s">
         <v>8</v>
       </c>
-      <c r="C4" s="82"/>
-      <c r="D4" s="82"/>
-      <c r="E4" s="82"/>
-      <c r="F4" s="82"/>
-      <c r="G4" s="82"/>
-      <c r="H4" s="82"/>
-      <c r="I4" s="82"/>
-      <c r="J4" s="82" t="s">
+      <c r="C4" s="84"/>
+      <c r="D4" s="84"/>
+      <c r="E4" s="84"/>
+      <c r="F4" s="84"/>
+      <c r="G4" s="84"/>
+      <c r="H4" s="84"/>
+      <c r="I4" s="84"/>
+      <c r="J4" s="84" t="s">
         <v>6</v>
       </c>
-      <c r="K4" s="82" t="s">
+      <c r="K4" s="84" t="s">
         <v>11</v>
       </c>
-      <c r="L4" s="82"/>
-      <c r="M4" s="89" t="s">
+      <c r="L4" s="84"/>
+      <c r="M4" s="91" t="s">
         <v>42</v>
       </c>
-      <c r="N4" s="89" t="s">
+      <c r="N4" s="91" t="s">
         <v>10</v>
       </c>
-      <c r="O4" s="82" t="s">
+      <c r="O4" s="84" t="s">
         <v>7</v>
       </c>
-      <c r="P4" s="81" t="s">
+      <c r="P4" s="83" t="s">
         <v>14</v>
       </c>
-      <c r="Q4" s="82" t="s">
+      <c r="Q4" s="84" t="s">
         <v>39</v>
       </c>
-      <c r="R4" s="82" t="s">
+      <c r="R4" s="84" t="s">
         <v>53</v>
       </c>
-      <c r="S4" s="83" t="s">
+      <c r="S4" s="85" t="s">
         <v>54</v>
       </c>
       <c r="T4" s="27"/>
-      <c r="U4" s="82" t="s">
+      <c r="U4" s="84" t="s">
         <v>39</v>
       </c>
-      <c r="V4" s="82" t="s">
+      <c r="V4" s="84" t="s">
         <v>53</v>
       </c>
       <c r="W4" s="48"/>
     </row>
     <row r="5" spans="1:23" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="88"/>
+      <c r="A5" s="90"/>
       <c r="B5" s="64" t="s">
         <v>1</v>
       </c>
@@ -3162,23 +3177,23 @@
       <c r="I5" s="55" t="s">
         <v>15</v>
       </c>
-      <c r="J5" s="82"/>
+      <c r="J5" s="84"/>
       <c r="K5" s="74" t="s">
         <v>12</v>
       </c>
       <c r="L5" s="74" t="s">
         <v>13</v>
       </c>
-      <c r="M5" s="90"/>
-      <c r="N5" s="90"/>
-      <c r="O5" s="82"/>
-      <c r="P5" s="81"/>
-      <c r="Q5" s="82"/>
-      <c r="R5" s="82"/>
-      <c r="S5" s="83"/>
+      <c r="M5" s="92"/>
+      <c r="N5" s="92"/>
+      <c r="O5" s="84"/>
+      <c r="P5" s="83"/>
+      <c r="Q5" s="84"/>
+      <c r="R5" s="84"/>
+      <c r="S5" s="85"/>
       <c r="T5" s="27"/>
-      <c r="U5" s="82"/>
-      <c r="V5" s="82"/>
+      <c r="U5" s="84"/>
+      <c r="V5" s="84"/>
       <c r="W5" s="48"/>
     </row>
     <row r="6" spans="1:23" s="12" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -3224,7 +3239,7 @@
       </c>
       <c r="S6" s="4"/>
       <c r="T6" s="75"/>
-      <c r="U6" s="78" t="s">
+      <c r="U6" s="80" t="s">
         <v>18</v>
       </c>
       <c r="V6" s="4" t="s">
@@ -3255,7 +3270,7 @@
       <c r="R7" s="38"/>
       <c r="S7" s="4"/>
       <c r="T7" s="75"/>
-      <c r="U7" s="79"/>
+      <c r="U7" s="81"/>
       <c r="V7" s="4" t="s">
         <v>35</v>
       </c>
@@ -3284,7 +3299,7 @@
       <c r="R8" s="38"/>
       <c r="S8" s="4"/>
       <c r="T8" s="75"/>
-      <c r="U8" s="79"/>
+      <c r="U8" s="81"/>
       <c r="V8" s="4" t="s">
         <v>21</v>
       </c>
@@ -3313,7 +3328,7 @@
       <c r="R9" s="38"/>
       <c r="S9" s="4"/>
       <c r="T9" s="75"/>
-      <c r="U9" s="79"/>
+      <c r="U9" s="81"/>
       <c r="V9" s="4" t="s">
         <v>51</v>
       </c>
@@ -3342,7 +3357,7 @@
       <c r="R10" s="38"/>
       <c r="S10" s="4"/>
       <c r="T10" s="75"/>
-      <c r="U10" s="79"/>
+      <c r="U10" s="81"/>
       <c r="V10" s="4" t="s">
         <v>31</v>
       </c>
@@ -3371,7 +3386,7 @@
       <c r="R11" s="38"/>
       <c r="S11" s="4"/>
       <c r="T11" s="75"/>
-      <c r="U11" s="79"/>
+      <c r="U11" s="81"/>
       <c r="V11" s="4" t="s">
         <v>30</v>
       </c>
@@ -3400,7 +3415,7 @@
       <c r="R12" s="38"/>
       <c r="S12" s="4"/>
       <c r="T12" s="75"/>
-      <c r="U12" s="78" t="s">
+      <c r="U12" s="80" t="s">
         <v>19</v>
       </c>
       <c r="V12" s="4" t="s">
@@ -3431,7 +3446,7 @@
       <c r="R13" s="10"/>
       <c r="S13" s="4"/>
       <c r="T13" s="75"/>
-      <c r="U13" s="79"/>
+      <c r="U13" s="81"/>
       <c r="V13" s="4" t="s">
         <v>37</v>
       </c>
@@ -3460,7 +3475,7 @@
       <c r="R14" s="38"/>
       <c r="S14" s="4"/>
       <c r="T14" s="75"/>
-      <c r="U14" s="79"/>
+      <c r="U14" s="81"/>
       <c r="V14" s="4" t="s">
         <v>36</v>
       </c>
@@ -3489,7 +3504,7 @@
       <c r="R15" s="38"/>
       <c r="S15" s="4"/>
       <c r="T15" s="14"/>
-      <c r="U15" s="79"/>
+      <c r="U15" s="81"/>
       <c r="V15" s="4" t="s">
         <v>24</v>
       </c>
@@ -3518,7 +3533,7 @@
       <c r="R16" s="38"/>
       <c r="S16" s="4"/>
       <c r="T16" s="14"/>
-      <c r="U16" s="80"/>
+      <c r="U16" s="82"/>
       <c r="V16" s="4" t="s">
         <v>25</v>
       </c>
@@ -4777,8 +4792,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:X57"/>
   <sheetViews>
-    <sheetView showZeros="0" topLeftCell="D1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="M7" sqref="M7"/>
+    <sheetView showZeros="0" topLeftCell="L1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B6" sqref="B6:S7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -4810,41 +4825,41 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="84" t="s">
+      <c r="A1" s="86" t="s">
         <v>61</v>
       </c>
-      <c r="B1" s="84"/>
-      <c r="C1" s="84"/>
-      <c r="D1" s="84"/>
-      <c r="E1" s="84"/>
-      <c r="F1" s="84"/>
-      <c r="G1" s="84"/>
-      <c r="H1" s="84"/>
-      <c r="I1" s="84"/>
-      <c r="J1" s="84"/>
-      <c r="K1" s="84"/>
-      <c r="L1" s="84"/>
-      <c r="M1" s="84"/>
-      <c r="N1" s="84"/>
-      <c r="O1" s="84"/>
-      <c r="P1" s="84"/>
-      <c r="Q1" s="84"/>
-      <c r="R1" s="84"/>
-      <c r="S1" s="84"/>
-      <c r="T1" s="84"/>
-      <c r="U1" s="84"/>
-      <c r="V1" s="84"/>
+      <c r="B1" s="86"/>
+      <c r="C1" s="86"/>
+      <c r="D1" s="86"/>
+      <c r="E1" s="86"/>
+      <c r="F1" s="86"/>
+      <c r="G1" s="86"/>
+      <c r="H1" s="86"/>
+      <c r="I1" s="86"/>
+      <c r="J1" s="86"/>
+      <c r="K1" s="86"/>
+      <c r="L1" s="86"/>
+      <c r="M1" s="86"/>
+      <c r="N1" s="86"/>
+      <c r="O1" s="86"/>
+      <c r="P1" s="86"/>
+      <c r="Q1" s="86"/>
+      <c r="R1" s="86"/>
+      <c r="S1" s="86"/>
+      <c r="T1" s="86"/>
+      <c r="U1" s="86"/>
+      <c r="V1" s="86"/>
       <c r="W1" s="47"/>
     </row>
     <row r="2" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="85" t="s">
+      <c r="A2" s="87" t="s">
         <v>9</v>
       </c>
-      <c r="B2" s="86"/>
-      <c r="C2" s="86"/>
-      <c r="D2" s="86"/>
-      <c r="E2" s="87"/>
-      <c r="F2" s="87"/>
+      <c r="B2" s="88"/>
+      <c r="C2" s="88"/>
+      <c r="D2" s="88"/>
+      <c r="E2" s="89"/>
+      <c r="F2" s="89"/>
       <c r="G2" s="5"/>
       <c r="H2" s="21"/>
       <c r="I2" s="53"/>
@@ -4889,58 +4904,58 @@
       <c r="W3" s="27"/>
     </row>
     <row r="4" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="88" t="s">
-        <v>0</v>
-      </c>
-      <c r="B4" s="82" t="s">
+      <c r="A4" s="90" t="s">
+        <v>0</v>
+      </c>
+      <c r="B4" s="84" t="s">
         <v>8</v>
       </c>
-      <c r="C4" s="82"/>
-      <c r="D4" s="82"/>
-      <c r="E4" s="82"/>
-      <c r="F4" s="82"/>
-      <c r="G4" s="82"/>
-      <c r="H4" s="82"/>
-      <c r="I4" s="82"/>
-      <c r="J4" s="82" t="s">
+      <c r="C4" s="84"/>
+      <c r="D4" s="84"/>
+      <c r="E4" s="84"/>
+      <c r="F4" s="84"/>
+      <c r="G4" s="84"/>
+      <c r="H4" s="84"/>
+      <c r="I4" s="84"/>
+      <c r="J4" s="84" t="s">
         <v>6</v>
       </c>
-      <c r="K4" s="82" t="s">
+      <c r="K4" s="84" t="s">
         <v>11</v>
       </c>
-      <c r="L4" s="82"/>
-      <c r="M4" s="89" t="s">
+      <c r="L4" s="84"/>
+      <c r="M4" s="91" t="s">
         <v>42</v>
       </c>
-      <c r="N4" s="89" t="s">
+      <c r="N4" s="91" t="s">
         <v>10</v>
       </c>
-      <c r="O4" s="82" t="s">
+      <c r="O4" s="84" t="s">
         <v>7</v>
       </c>
-      <c r="P4" s="81" t="s">
+      <c r="P4" s="83" t="s">
         <v>14</v>
       </c>
-      <c r="Q4" s="82" t="s">
+      <c r="Q4" s="84" t="s">
         <v>39</v>
       </c>
-      <c r="R4" s="82" t="s">
+      <c r="R4" s="84" t="s">
         <v>53</v>
       </c>
-      <c r="S4" s="83" t="s">
+      <c r="S4" s="85" t="s">
         <v>54</v>
       </c>
       <c r="T4" s="27"/>
-      <c r="U4" s="82" t="s">
+      <c r="U4" s="84" t="s">
         <v>39</v>
       </c>
-      <c r="V4" s="82" t="s">
+      <c r="V4" s="84" t="s">
         <v>53</v>
       </c>
       <c r="W4" s="48"/>
     </row>
     <row r="5" spans="1:23" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="88"/>
+      <c r="A5" s="90"/>
       <c r="B5" s="64" t="s">
         <v>1</v>
       </c>
@@ -4965,23 +4980,23 @@
       <c r="I5" s="55" t="s">
         <v>15</v>
       </c>
-      <c r="J5" s="82"/>
+      <c r="J5" s="84"/>
       <c r="K5" s="74" t="s">
         <v>12</v>
       </c>
       <c r="L5" s="74" t="s">
         <v>13</v>
       </c>
-      <c r="M5" s="90"/>
-      <c r="N5" s="90"/>
-      <c r="O5" s="82"/>
-      <c r="P5" s="81"/>
-      <c r="Q5" s="82"/>
-      <c r="R5" s="82"/>
-      <c r="S5" s="83"/>
+      <c r="M5" s="92"/>
+      <c r="N5" s="92"/>
+      <c r="O5" s="84"/>
+      <c r="P5" s="83"/>
+      <c r="Q5" s="84"/>
+      <c r="R5" s="84"/>
+      <c r="S5" s="85"/>
       <c r="T5" s="27"/>
-      <c r="U5" s="82"/>
-      <c r="V5" s="82"/>
+      <c r="U5" s="84"/>
+      <c r="V5" s="84"/>
       <c r="W5" s="48"/>
     </row>
     <row r="6" spans="1:23" s="12" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -5031,7 +5046,7 @@
       </c>
       <c r="S6" s="4"/>
       <c r="T6" s="75"/>
-      <c r="U6" s="78" t="s">
+      <c r="U6" s="80" t="s">
         <v>18</v>
       </c>
       <c r="V6" s="4" t="s">
@@ -5086,7 +5101,7 @@
       </c>
       <c r="S7" s="4"/>
       <c r="T7" s="75"/>
-      <c r="U7" s="79"/>
+      <c r="U7" s="81"/>
       <c r="V7" s="4" t="s">
         <v>35</v>
       </c>
@@ -5115,7 +5130,7 @@
       <c r="R8" s="38"/>
       <c r="S8" s="4"/>
       <c r="T8" s="75"/>
-      <c r="U8" s="79"/>
+      <c r="U8" s="81"/>
       <c r="V8" s="4" t="s">
         <v>21</v>
       </c>
@@ -5144,7 +5159,7 @@
       <c r="R9" s="38"/>
       <c r="S9" s="4"/>
       <c r="T9" s="75"/>
-      <c r="U9" s="79"/>
+      <c r="U9" s="81"/>
       <c r="V9" s="4" t="s">
         <v>51</v>
       </c>
@@ -5173,7 +5188,7 @@
       <c r="R10" s="38"/>
       <c r="S10" s="4"/>
       <c r="T10" s="75"/>
-      <c r="U10" s="79"/>
+      <c r="U10" s="81"/>
       <c r="V10" s="4" t="s">
         <v>31</v>
       </c>
@@ -5202,7 +5217,7 @@
       <c r="R11" s="38"/>
       <c r="S11" s="4"/>
       <c r="T11" s="75"/>
-      <c r="U11" s="79"/>
+      <c r="U11" s="81"/>
       <c r="V11" s="4" t="s">
         <v>30</v>
       </c>
@@ -5231,7 +5246,7 @@
       <c r="R12" s="38"/>
       <c r="S12" s="4"/>
       <c r="T12" s="75"/>
-      <c r="U12" s="78" t="s">
+      <c r="U12" s="80" t="s">
         <v>19</v>
       </c>
       <c r="V12" s="4" t="s">
@@ -5262,7 +5277,7 @@
       <c r="R13" s="10"/>
       <c r="S13" s="4"/>
       <c r="T13" s="75"/>
-      <c r="U13" s="79"/>
+      <c r="U13" s="81"/>
       <c r="V13" s="4" t="s">
         <v>37</v>
       </c>
@@ -5291,7 +5306,7 @@
       <c r="R14" s="38"/>
       <c r="S14" s="4"/>
       <c r="T14" s="75"/>
-      <c r="U14" s="79"/>
+      <c r="U14" s="81"/>
       <c r="V14" s="4" t="s">
         <v>36</v>
       </c>
@@ -5320,7 +5335,7 @@
       <c r="R15" s="38"/>
       <c r="S15" s="4"/>
       <c r="T15" s="14"/>
-      <c r="U15" s="79"/>
+      <c r="U15" s="81"/>
       <c r="V15" s="4" t="s">
         <v>24</v>
       </c>
@@ -5349,7 +5364,7 @@
       <c r="R16" s="38"/>
       <c r="S16" s="4"/>
       <c r="T16" s="14"/>
-      <c r="U16" s="80"/>
+      <c r="U16" s="82"/>
       <c r="V16" s="4" t="s">
         <v>25</v>
       </c>
@@ -6608,8 +6623,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:X57"/>
   <sheetViews>
-    <sheetView showZeros="0" tabSelected="1" topLeftCell="B1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="I21" sqref="I21"/>
+    <sheetView showZeros="0" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B6" sqref="B6:S14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -6641,41 +6656,41 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="84" t="s">
+      <c r="A1" s="86" t="s">
         <v>61</v>
       </c>
-      <c r="B1" s="84"/>
-      <c r="C1" s="84"/>
-      <c r="D1" s="84"/>
-      <c r="E1" s="84"/>
-      <c r="F1" s="84"/>
-      <c r="G1" s="84"/>
-      <c r="H1" s="84"/>
-      <c r="I1" s="84"/>
-      <c r="J1" s="84"/>
-      <c r="K1" s="84"/>
-      <c r="L1" s="84"/>
-      <c r="M1" s="84"/>
-      <c r="N1" s="84"/>
-      <c r="O1" s="84"/>
-      <c r="P1" s="84"/>
-      <c r="Q1" s="84"/>
-      <c r="R1" s="84"/>
-      <c r="S1" s="84"/>
-      <c r="T1" s="84"/>
-      <c r="U1" s="84"/>
-      <c r="V1" s="84"/>
+      <c r="B1" s="86"/>
+      <c r="C1" s="86"/>
+      <c r="D1" s="86"/>
+      <c r="E1" s="86"/>
+      <c r="F1" s="86"/>
+      <c r="G1" s="86"/>
+      <c r="H1" s="86"/>
+      <c r="I1" s="86"/>
+      <c r="J1" s="86"/>
+      <c r="K1" s="86"/>
+      <c r="L1" s="86"/>
+      <c r="M1" s="86"/>
+      <c r="N1" s="86"/>
+      <c r="O1" s="86"/>
+      <c r="P1" s="86"/>
+      <c r="Q1" s="86"/>
+      <c r="R1" s="86"/>
+      <c r="S1" s="86"/>
+      <c r="T1" s="86"/>
+      <c r="U1" s="86"/>
+      <c r="V1" s="86"/>
       <c r="W1" s="47"/>
     </row>
     <row r="2" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="85" t="s">
+      <c r="A2" s="87" t="s">
         <v>9</v>
       </c>
-      <c r="B2" s="86"/>
-      <c r="C2" s="86"/>
-      <c r="D2" s="86"/>
-      <c r="E2" s="87"/>
-      <c r="F2" s="87"/>
+      <c r="B2" s="88"/>
+      <c r="C2" s="88"/>
+      <c r="D2" s="88"/>
+      <c r="E2" s="89"/>
+      <c r="F2" s="89"/>
       <c r="G2" s="5"/>
       <c r="H2" s="21"/>
       <c r="I2" s="53"/>
@@ -6720,58 +6735,58 @@
       <c r="W3" s="27"/>
     </row>
     <row r="4" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="88" t="s">
-        <v>0</v>
-      </c>
-      <c r="B4" s="82" t="s">
+      <c r="A4" s="90" t="s">
+        <v>0</v>
+      </c>
+      <c r="B4" s="84" t="s">
         <v>8</v>
       </c>
-      <c r="C4" s="82"/>
-      <c r="D4" s="82"/>
-      <c r="E4" s="82"/>
-      <c r="F4" s="82"/>
-      <c r="G4" s="82"/>
-      <c r="H4" s="82"/>
-      <c r="I4" s="82"/>
-      <c r="J4" s="82" t="s">
+      <c r="C4" s="84"/>
+      <c r="D4" s="84"/>
+      <c r="E4" s="84"/>
+      <c r="F4" s="84"/>
+      <c r="G4" s="84"/>
+      <c r="H4" s="84"/>
+      <c r="I4" s="84"/>
+      <c r="J4" s="84" t="s">
         <v>6</v>
       </c>
-      <c r="K4" s="82" t="s">
+      <c r="K4" s="84" t="s">
         <v>11</v>
       </c>
-      <c r="L4" s="82"/>
-      <c r="M4" s="89" t="s">
+      <c r="L4" s="84"/>
+      <c r="M4" s="91" t="s">
         <v>42</v>
       </c>
-      <c r="N4" s="89" t="s">
+      <c r="N4" s="91" t="s">
         <v>10</v>
       </c>
-      <c r="O4" s="82" t="s">
+      <c r="O4" s="84" t="s">
         <v>7</v>
       </c>
-      <c r="P4" s="81" t="s">
+      <c r="P4" s="83" t="s">
         <v>14</v>
       </c>
-      <c r="Q4" s="82" t="s">
+      <c r="Q4" s="84" t="s">
         <v>39</v>
       </c>
-      <c r="R4" s="82" t="s">
+      <c r="R4" s="84" t="s">
         <v>53</v>
       </c>
-      <c r="S4" s="83" t="s">
+      <c r="S4" s="85" t="s">
         <v>54</v>
       </c>
       <c r="T4" s="27"/>
-      <c r="U4" s="82" t="s">
+      <c r="U4" s="84" t="s">
         <v>39</v>
       </c>
-      <c r="V4" s="82" t="s">
+      <c r="V4" s="84" t="s">
         <v>53</v>
       </c>
       <c r="W4" s="48"/>
     </row>
     <row r="5" spans="1:23" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="88"/>
+      <c r="A5" s="90"/>
       <c r="B5" s="64" t="s">
         <v>1</v>
       </c>
@@ -6796,23 +6811,23 @@
       <c r="I5" s="55" t="s">
         <v>15</v>
       </c>
-      <c r="J5" s="82"/>
+      <c r="J5" s="84"/>
       <c r="K5" s="73" t="s">
         <v>12</v>
       </c>
       <c r="L5" s="73" t="s">
         <v>13</v>
       </c>
-      <c r="M5" s="90"/>
-      <c r="N5" s="90"/>
-      <c r="O5" s="82"/>
-      <c r="P5" s="81"/>
-      <c r="Q5" s="82"/>
-      <c r="R5" s="82"/>
-      <c r="S5" s="83"/>
+      <c r="M5" s="92"/>
+      <c r="N5" s="92"/>
+      <c r="O5" s="84"/>
+      <c r="P5" s="83"/>
+      <c r="Q5" s="84"/>
+      <c r="R5" s="84"/>
+      <c r="S5" s="85"/>
       <c r="T5" s="27"/>
-      <c r="U5" s="82"/>
-      <c r="V5" s="82"/>
+      <c r="U5" s="84"/>
+      <c r="V5" s="84"/>
       <c r="W5" s="48"/>
     </row>
     <row r="6" spans="1:23" s="12" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -6862,7 +6877,7 @@
       </c>
       <c r="S6" s="4"/>
       <c r="T6" s="72"/>
-      <c r="U6" s="78" t="s">
+      <c r="U6" s="80" t="s">
         <v>18</v>
       </c>
       <c r="V6" s="4" t="s">
@@ -6921,7 +6936,7 @@
       </c>
       <c r="S7" s="4"/>
       <c r="T7" s="72"/>
-      <c r="U7" s="79"/>
+      <c r="U7" s="81"/>
       <c r="V7" s="4" t="s">
         <v>35</v>
       </c>
@@ -6958,7 +6973,7 @@
       <c r="R8" s="38"/>
       <c r="S8" s="4"/>
       <c r="T8" s="72"/>
-      <c r="U8" s="79"/>
+      <c r="U8" s="81"/>
       <c r="V8" s="4" t="s">
         <v>21</v>
       </c>
@@ -7011,7 +7026,7 @@
       </c>
       <c r="S9" s="4"/>
       <c r="T9" s="72"/>
-      <c r="U9" s="79"/>
+      <c r="U9" s="81"/>
       <c r="V9" s="4" t="s">
         <v>51</v>
       </c>
@@ -7064,7 +7079,7 @@
       </c>
       <c r="S10" s="4"/>
       <c r="T10" s="72"/>
-      <c r="U10" s="79"/>
+      <c r="U10" s="81"/>
       <c r="V10" s="4" t="s">
         <v>31</v>
       </c>
@@ -7101,7 +7116,7 @@
       <c r="R11" s="38"/>
       <c r="S11" s="4"/>
       <c r="T11" s="72"/>
-      <c r="U11" s="79"/>
+      <c r="U11" s="81"/>
       <c r="V11" s="4" t="s">
         <v>30</v>
       </c>
@@ -7138,7 +7153,7 @@
       <c r="R12" s="38"/>
       <c r="S12" s="4"/>
       <c r="T12" s="72"/>
-      <c r="U12" s="78" t="s">
+      <c r="U12" s="80" t="s">
         <v>19</v>
       </c>
       <c r="V12" s="4" t="s">
@@ -7177,7 +7192,7 @@
       <c r="R13" s="10"/>
       <c r="S13" s="4"/>
       <c r="T13" s="72"/>
-      <c r="U13" s="79"/>
+      <c r="U13" s="81"/>
       <c r="V13" s="4" t="s">
         <v>37</v>
       </c>
@@ -7214,7 +7229,7 @@
       <c r="R14" s="38"/>
       <c r="S14" s="4"/>
       <c r="T14" s="72"/>
-      <c r="U14" s="79"/>
+      <c r="U14" s="81"/>
       <c r="V14" s="4" t="s">
         <v>36</v>
       </c>
@@ -7243,7 +7258,7 @@
       <c r="R15" s="38"/>
       <c r="S15" s="4"/>
       <c r="T15" s="14"/>
-      <c r="U15" s="79"/>
+      <c r="U15" s="81"/>
       <c r="V15" s="4" t="s">
         <v>24</v>
       </c>
@@ -7272,7 +7287,7 @@
       <c r="R16" s="38"/>
       <c r="S16" s="4"/>
       <c r="T16" s="14"/>
-      <c r="U16" s="80"/>
+      <c r="U16" s="82"/>
       <c r="V16" s="4" t="s">
         <v>25</v>
       </c>
@@ -8531,8 +8546,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:X57"/>
   <sheetViews>
-    <sheetView showZeros="0" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="G12" sqref="G12"/>
+    <sheetView showZeros="0" topLeftCell="K1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B6" sqref="B6:S9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -8564,41 +8579,41 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="84" t="s">
+      <c r="A1" s="86" t="s">
         <v>61</v>
       </c>
-      <c r="B1" s="84"/>
-      <c r="C1" s="84"/>
-      <c r="D1" s="84"/>
-      <c r="E1" s="84"/>
-      <c r="F1" s="84"/>
-      <c r="G1" s="84"/>
-      <c r="H1" s="84"/>
-      <c r="I1" s="84"/>
-      <c r="J1" s="84"/>
-      <c r="K1" s="84"/>
-      <c r="L1" s="84"/>
-      <c r="M1" s="84"/>
-      <c r="N1" s="84"/>
-      <c r="O1" s="84"/>
-      <c r="P1" s="84"/>
-      <c r="Q1" s="84"/>
-      <c r="R1" s="84"/>
-      <c r="S1" s="84"/>
-      <c r="T1" s="84"/>
-      <c r="U1" s="84"/>
-      <c r="V1" s="84"/>
+      <c r="B1" s="86"/>
+      <c r="C1" s="86"/>
+      <c r="D1" s="86"/>
+      <c r="E1" s="86"/>
+      <c r="F1" s="86"/>
+      <c r="G1" s="86"/>
+      <c r="H1" s="86"/>
+      <c r="I1" s="86"/>
+      <c r="J1" s="86"/>
+      <c r="K1" s="86"/>
+      <c r="L1" s="86"/>
+      <c r="M1" s="86"/>
+      <c r="N1" s="86"/>
+      <c r="O1" s="86"/>
+      <c r="P1" s="86"/>
+      <c r="Q1" s="86"/>
+      <c r="R1" s="86"/>
+      <c r="S1" s="86"/>
+      <c r="T1" s="86"/>
+      <c r="U1" s="86"/>
+      <c r="V1" s="86"/>
       <c r="W1" s="47"/>
     </row>
     <row r="2" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="85" t="s">
+      <c r="A2" s="87" t="s">
         <v>9</v>
       </c>
-      <c r="B2" s="86"/>
-      <c r="C2" s="86"/>
-      <c r="D2" s="86"/>
-      <c r="E2" s="87"/>
-      <c r="F2" s="87"/>
+      <c r="B2" s="88"/>
+      <c r="C2" s="88"/>
+      <c r="D2" s="88"/>
+      <c r="E2" s="89"/>
+      <c r="F2" s="89"/>
       <c r="G2" s="5"/>
       <c r="H2" s="21"/>
       <c r="I2" s="53"/>
@@ -8643,58 +8658,58 @@
       <c r="W3" s="27"/>
     </row>
     <row r="4" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="88" t="s">
-        <v>0</v>
-      </c>
-      <c r="B4" s="82" t="s">
+      <c r="A4" s="90" t="s">
+        <v>0</v>
+      </c>
+      <c r="B4" s="84" t="s">
         <v>8</v>
       </c>
-      <c r="C4" s="82"/>
-      <c r="D4" s="82"/>
-      <c r="E4" s="82"/>
-      <c r="F4" s="82"/>
-      <c r="G4" s="82"/>
-      <c r="H4" s="82"/>
-      <c r="I4" s="82"/>
-      <c r="J4" s="82" t="s">
+      <c r="C4" s="84"/>
+      <c r="D4" s="84"/>
+      <c r="E4" s="84"/>
+      <c r="F4" s="84"/>
+      <c r="G4" s="84"/>
+      <c r="H4" s="84"/>
+      <c r="I4" s="84"/>
+      <c r="J4" s="84" t="s">
         <v>6</v>
       </c>
-      <c r="K4" s="82" t="s">
+      <c r="K4" s="84" t="s">
         <v>11</v>
       </c>
-      <c r="L4" s="82"/>
-      <c r="M4" s="89" t="s">
+      <c r="L4" s="84"/>
+      <c r="M4" s="91" t="s">
         <v>42</v>
       </c>
-      <c r="N4" s="89" t="s">
+      <c r="N4" s="91" t="s">
         <v>10</v>
       </c>
-      <c r="O4" s="82" t="s">
+      <c r="O4" s="84" t="s">
         <v>7</v>
       </c>
-      <c r="P4" s="81" t="s">
+      <c r="P4" s="83" t="s">
         <v>14</v>
       </c>
-      <c r="Q4" s="82" t="s">
+      <c r="Q4" s="84" t="s">
         <v>39</v>
       </c>
-      <c r="R4" s="82" t="s">
+      <c r="R4" s="84" t="s">
         <v>53</v>
       </c>
-      <c r="S4" s="83" t="s">
+      <c r="S4" s="85" t="s">
         <v>54</v>
       </c>
       <c r="T4" s="27"/>
-      <c r="U4" s="82" t="s">
+      <c r="U4" s="84" t="s">
         <v>39</v>
       </c>
-      <c r="V4" s="82" t="s">
+      <c r="V4" s="84" t="s">
         <v>53</v>
       </c>
       <c r="W4" s="48"/>
     </row>
     <row r="5" spans="1:23" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="88"/>
+      <c r="A5" s="90"/>
       <c r="B5" s="64" t="s">
         <v>1</v>
       </c>
@@ -8719,23 +8734,23 @@
       <c r="I5" s="55" t="s">
         <v>15</v>
       </c>
-      <c r="J5" s="82"/>
+      <c r="J5" s="84"/>
       <c r="K5" s="74" t="s">
         <v>12</v>
       </c>
       <c r="L5" s="74" t="s">
         <v>13</v>
       </c>
-      <c r="M5" s="90"/>
-      <c r="N5" s="90"/>
-      <c r="O5" s="82"/>
-      <c r="P5" s="81"/>
-      <c r="Q5" s="82"/>
-      <c r="R5" s="82"/>
-      <c r="S5" s="83"/>
+      <c r="M5" s="92"/>
+      <c r="N5" s="92"/>
+      <c r="O5" s="84"/>
+      <c r="P5" s="83"/>
+      <c r="Q5" s="84"/>
+      <c r="R5" s="84"/>
+      <c r="S5" s="85"/>
       <c r="T5" s="27"/>
-      <c r="U5" s="82"/>
-      <c r="V5" s="82"/>
+      <c r="U5" s="84"/>
+      <c r="V5" s="84"/>
       <c r="W5" s="48"/>
     </row>
     <row r="6" spans="1:23" s="12" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -8769,7 +8784,7 @@
       <c r="R6" s="38"/>
       <c r="S6" s="4"/>
       <c r="T6" s="75"/>
-      <c r="U6" s="78" t="s">
+      <c r="U6" s="80" t="s">
         <v>18</v>
       </c>
       <c r="V6" s="4" t="s">
@@ -8808,7 +8823,7 @@
       <c r="R7" s="38"/>
       <c r="S7" s="4"/>
       <c r="T7" s="75"/>
-      <c r="U7" s="79"/>
+      <c r="U7" s="81"/>
       <c r="V7" s="4" t="s">
         <v>35</v>
       </c>
@@ -8847,7 +8862,7 @@
       <c r="R8" s="38"/>
       <c r="S8" s="4"/>
       <c r="T8" s="75"/>
-      <c r="U8" s="79"/>
+      <c r="U8" s="81"/>
       <c r="V8" s="4" t="s">
         <v>21</v>
       </c>
@@ -8884,7 +8899,7 @@
       <c r="R9" s="38"/>
       <c r="S9" s="4"/>
       <c r="T9" s="75"/>
-      <c r="U9" s="79"/>
+      <c r="U9" s="81"/>
       <c r="V9" s="4" t="s">
         <v>51</v>
       </c>
@@ -8913,7 +8928,7 @@
       <c r="R10" s="38"/>
       <c r="S10" s="4"/>
       <c r="T10" s="75"/>
-      <c r="U10" s="79"/>
+      <c r="U10" s="81"/>
       <c r="V10" s="4" t="s">
         <v>31</v>
       </c>
@@ -8942,7 +8957,7 @@
       <c r="R11" s="38"/>
       <c r="S11" s="4"/>
       <c r="T11" s="75"/>
-      <c r="U11" s="79"/>
+      <c r="U11" s="81"/>
       <c r="V11" s="4" t="s">
         <v>30</v>
       </c>
@@ -8971,7 +8986,7 @@
       <c r="R12" s="38"/>
       <c r="S12" s="4"/>
       <c r="T12" s="75"/>
-      <c r="U12" s="78" t="s">
+      <c r="U12" s="80" t="s">
         <v>19</v>
       </c>
       <c r="V12" s="4" t="s">
@@ -9002,7 +9017,7 @@
       <c r="R13" s="10"/>
       <c r="S13" s="4"/>
       <c r="T13" s="75"/>
-      <c r="U13" s="79"/>
+      <c r="U13" s="81"/>
       <c r="V13" s="4" t="s">
         <v>37</v>
       </c>
@@ -9031,7 +9046,7 @@
       <c r="R14" s="38"/>
       <c r="S14" s="4"/>
       <c r="T14" s="75"/>
-      <c r="U14" s="79"/>
+      <c r="U14" s="81"/>
       <c r="V14" s="4" t="s">
         <v>36</v>
       </c>
@@ -9060,7 +9075,7 @@
       <c r="R15" s="38"/>
       <c r="S15" s="4"/>
       <c r="T15" s="14"/>
-      <c r="U15" s="79"/>
+      <c r="U15" s="81"/>
       <c r="V15" s="4" t="s">
         <v>24</v>
       </c>
@@ -9089,7 +9104,7 @@
       <c r="R16" s="38"/>
       <c r="S16" s="4"/>
       <c r="T16" s="14"/>
-      <c r="U16" s="80"/>
+      <c r="U16" s="82"/>
       <c r="V16" s="4" t="s">
         <v>25</v>
       </c>
@@ -10349,7 +10364,7 @@
   <dimension ref="A1:X57"/>
   <sheetViews>
     <sheetView showZeros="0" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="H11" sqref="H11"/>
+      <selection activeCell="I18" sqref="I18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -10381,41 +10396,41 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="84" t="s">
+      <c r="A1" s="86" t="s">
         <v>61</v>
       </c>
-      <c r="B1" s="84"/>
-      <c r="C1" s="84"/>
-      <c r="D1" s="84"/>
-      <c r="E1" s="84"/>
-      <c r="F1" s="84"/>
-      <c r="G1" s="84"/>
-      <c r="H1" s="84"/>
-      <c r="I1" s="84"/>
-      <c r="J1" s="84"/>
-      <c r="K1" s="84"/>
-      <c r="L1" s="84"/>
-      <c r="M1" s="84"/>
-      <c r="N1" s="84"/>
-      <c r="O1" s="84"/>
-      <c r="P1" s="84"/>
-      <c r="Q1" s="84"/>
-      <c r="R1" s="84"/>
-      <c r="S1" s="84"/>
-      <c r="T1" s="84"/>
-      <c r="U1" s="84"/>
-      <c r="V1" s="84"/>
+      <c r="B1" s="86"/>
+      <c r="C1" s="86"/>
+      <c r="D1" s="86"/>
+      <c r="E1" s="86"/>
+      <c r="F1" s="86"/>
+      <c r="G1" s="86"/>
+      <c r="H1" s="86"/>
+      <c r="I1" s="86"/>
+      <c r="J1" s="86"/>
+      <c r="K1" s="86"/>
+      <c r="L1" s="86"/>
+      <c r="M1" s="86"/>
+      <c r="N1" s="86"/>
+      <c r="O1" s="86"/>
+      <c r="P1" s="86"/>
+      <c r="Q1" s="86"/>
+      <c r="R1" s="86"/>
+      <c r="S1" s="86"/>
+      <c r="T1" s="86"/>
+      <c r="U1" s="86"/>
+      <c r="V1" s="86"/>
       <c r="W1" s="47"/>
     </row>
     <row r="2" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="85" t="s">
+      <c r="A2" s="87" t="s">
         <v>9</v>
       </c>
-      <c r="B2" s="86"/>
-      <c r="C2" s="86"/>
-      <c r="D2" s="86"/>
-      <c r="E2" s="87"/>
-      <c r="F2" s="87"/>
+      <c r="B2" s="88"/>
+      <c r="C2" s="88"/>
+      <c r="D2" s="88"/>
+      <c r="E2" s="89"/>
+      <c r="F2" s="89"/>
       <c r="G2" s="5"/>
       <c r="H2" s="21"/>
       <c r="I2" s="53"/>
@@ -10460,58 +10475,58 @@
       <c r="W3" s="27"/>
     </row>
     <row r="4" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="88" t="s">
-        <v>0</v>
-      </c>
-      <c r="B4" s="82" t="s">
+      <c r="A4" s="90" t="s">
+        <v>0</v>
+      </c>
+      <c r="B4" s="84" t="s">
         <v>8</v>
       </c>
-      <c r="C4" s="82"/>
-      <c r="D4" s="82"/>
-      <c r="E4" s="82"/>
-      <c r="F4" s="82"/>
-      <c r="G4" s="82"/>
-      <c r="H4" s="82"/>
-      <c r="I4" s="82"/>
-      <c r="J4" s="82" t="s">
+      <c r="C4" s="84"/>
+      <c r="D4" s="84"/>
+      <c r="E4" s="84"/>
+      <c r="F4" s="84"/>
+      <c r="G4" s="84"/>
+      <c r="H4" s="84"/>
+      <c r="I4" s="84"/>
+      <c r="J4" s="84" t="s">
         <v>6</v>
       </c>
-      <c r="K4" s="82" t="s">
+      <c r="K4" s="84" t="s">
         <v>11</v>
       </c>
-      <c r="L4" s="82"/>
-      <c r="M4" s="89" t="s">
+      <c r="L4" s="84"/>
+      <c r="M4" s="91" t="s">
         <v>42</v>
       </c>
-      <c r="N4" s="89" t="s">
+      <c r="N4" s="91" t="s">
         <v>10</v>
       </c>
-      <c r="O4" s="82" t="s">
+      <c r="O4" s="84" t="s">
         <v>7</v>
       </c>
-      <c r="P4" s="81" t="s">
+      <c r="P4" s="83" t="s">
         <v>14</v>
       </c>
-      <c r="Q4" s="82" t="s">
+      <c r="Q4" s="84" t="s">
         <v>39</v>
       </c>
-      <c r="R4" s="82" t="s">
+      <c r="R4" s="84" t="s">
         <v>53</v>
       </c>
-      <c r="S4" s="83" t="s">
+      <c r="S4" s="85" t="s">
         <v>54</v>
       </c>
       <c r="T4" s="27"/>
-      <c r="U4" s="82" t="s">
+      <c r="U4" s="84" t="s">
         <v>39</v>
       </c>
-      <c r="V4" s="82" t="s">
+      <c r="V4" s="84" t="s">
         <v>53</v>
       </c>
       <c r="W4" s="48"/>
     </row>
     <row r="5" spans="1:23" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="88"/>
+      <c r="A5" s="90"/>
       <c r="B5" s="64" t="s">
         <v>1</v>
       </c>
@@ -10536,23 +10551,23 @@
       <c r="I5" s="55" t="s">
         <v>15</v>
       </c>
-      <c r="J5" s="82"/>
+      <c r="J5" s="84"/>
       <c r="K5" s="70" t="s">
         <v>12</v>
       </c>
       <c r="L5" s="70" t="s">
         <v>13</v>
       </c>
-      <c r="M5" s="90"/>
-      <c r="N5" s="90"/>
-      <c r="O5" s="82"/>
-      <c r="P5" s="81"/>
-      <c r="Q5" s="82"/>
-      <c r="R5" s="82"/>
-      <c r="S5" s="83"/>
+      <c r="M5" s="92"/>
+      <c r="N5" s="92"/>
+      <c r="O5" s="84"/>
+      <c r="P5" s="83"/>
+      <c r="Q5" s="84"/>
+      <c r="R5" s="84"/>
+      <c r="S5" s="85"/>
       <c r="T5" s="27"/>
-      <c r="U5" s="82"/>
-      <c r="V5" s="82"/>
+      <c r="U5" s="84"/>
+      <c r="V5" s="84"/>
       <c r="W5" s="48"/>
     </row>
     <row r="6" spans="1:23" s="12" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -10586,7 +10601,7 @@
       <c r="R6" s="38"/>
       <c r="S6" s="4"/>
       <c r="T6" s="71"/>
-      <c r="U6" s="78" t="s">
+      <c r="U6" s="80" t="s">
         <v>18</v>
       </c>
       <c r="V6" s="4" t="s">
@@ -10625,7 +10640,7 @@
       <c r="R7" s="38"/>
       <c r="S7" s="4"/>
       <c r="T7" s="71"/>
-      <c r="U7" s="79"/>
+      <c r="U7" s="81"/>
       <c r="V7" s="4" t="s">
         <v>35</v>
       </c>
@@ -10664,7 +10679,7 @@
       <c r="R8" s="38"/>
       <c r="S8" s="4"/>
       <c r="T8" s="71"/>
-      <c r="U8" s="79"/>
+      <c r="U8" s="81"/>
       <c r="V8" s="4" t="s">
         <v>21</v>
       </c>
@@ -10701,7 +10716,7 @@
       <c r="R9" s="38"/>
       <c r="S9" s="4"/>
       <c r="T9" s="71"/>
-      <c r="U9" s="79"/>
+      <c r="U9" s="81"/>
       <c r="V9" s="4" t="s">
         <v>51</v>
       </c>
@@ -10738,7 +10753,7 @@
       <c r="R10" s="38"/>
       <c r="S10" s="4"/>
       <c r="T10" s="71"/>
-      <c r="U10" s="79"/>
+      <c r="U10" s="81"/>
       <c r="V10" s="4" t="s">
         <v>31</v>
       </c>
@@ -10775,7 +10790,7 @@
       <c r="R11" s="38"/>
       <c r="S11" s="4"/>
       <c r="T11" s="71"/>
-      <c r="U11" s="79"/>
+      <c r="U11" s="81"/>
       <c r="V11" s="4" t="s">
         <v>30</v>
       </c>
@@ -10812,7 +10827,7 @@
       <c r="R12" s="38"/>
       <c r="S12" s="4"/>
       <c r="T12" s="71"/>
-      <c r="U12" s="78" t="s">
+      <c r="U12" s="80" t="s">
         <v>19</v>
       </c>
       <c r="V12" s="4" t="s">
@@ -10843,7 +10858,7 @@
       <c r="R13" s="10"/>
       <c r="S13" s="4"/>
       <c r="T13" s="71"/>
-      <c r="U13" s="79"/>
+      <c r="U13" s="81"/>
       <c r="V13" s="4" t="s">
         <v>37</v>
       </c>
@@ -10872,7 +10887,7 @@
       <c r="R14" s="38"/>
       <c r="S14" s="4"/>
       <c r="T14" s="71"/>
-      <c r="U14" s="79"/>
+      <c r="U14" s="81"/>
       <c r="V14" s="4" t="s">
         <v>36</v>
       </c>
@@ -10901,7 +10916,7 @@
       <c r="R15" s="38"/>
       <c r="S15" s="4"/>
       <c r="T15" s="14"/>
-      <c r="U15" s="79"/>
+      <c r="U15" s="81"/>
       <c r="V15" s="4" t="s">
         <v>24</v>
       </c>
@@ -10930,7 +10945,7 @@
       <c r="R16" s="38"/>
       <c r="S16" s="4"/>
       <c r="T16" s="14"/>
-      <c r="U16" s="80"/>
+      <c r="U16" s="82"/>
       <c r="V16" s="4" t="s">
         <v>25</v>
       </c>
@@ -12186,6 +12201,1795 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:X57"/>
+  <sheetViews>
+    <sheetView showZeros="0" tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="E7" sqref="E7"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="18" customHeight="1" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="9.42578125" style="20" customWidth="1"/>
+    <col min="2" max="2" width="19.28515625" style="69" customWidth="1"/>
+    <col min="3" max="3" width="18.28515625" style="69" customWidth="1"/>
+    <col min="4" max="4" width="21.85546875" style="20" customWidth="1"/>
+    <col min="5" max="5" width="32.42578125" style="20" customWidth="1"/>
+    <col min="6" max="6" width="15.85546875" style="20" customWidth="1"/>
+    <col min="7" max="7" width="17" style="20" customWidth="1"/>
+    <col min="8" max="8" width="35.42578125" style="20" customWidth="1"/>
+    <col min="9" max="9" width="45.28515625" style="59" customWidth="1"/>
+    <col min="10" max="10" width="53" style="20" customWidth="1"/>
+    <col min="11" max="11" width="33.42578125" style="20" customWidth="1"/>
+    <col min="12" max="12" width="30.7109375" style="26" customWidth="1"/>
+    <col min="13" max="13" width="58" style="20" customWidth="1"/>
+    <col min="14" max="14" width="21.85546875" style="20" customWidth="1"/>
+    <col min="15" max="15" width="14.28515625" style="20" customWidth="1"/>
+    <col min="16" max="16" width="37.7109375" style="20" customWidth="1"/>
+    <col min="17" max="17" width="23.42578125" style="20" customWidth="1"/>
+    <col min="18" max="18" width="21.140625" style="20" customWidth="1"/>
+    <col min="19" max="19" width="26.85546875" style="20" customWidth="1"/>
+    <col min="20" max="20" width="9.140625" style="20"/>
+    <col min="21" max="21" width="30.5703125" style="20" customWidth="1"/>
+    <col min="22" max="23" width="21.42578125" style="20" customWidth="1"/>
+    <col min="24" max="24" width="21.7109375" style="20" customWidth="1"/>
+    <col min="25" max="16384" width="9.140625" style="20"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="86" t="s">
+        <v>61</v>
+      </c>
+      <c r="B1" s="86"/>
+      <c r="C1" s="86"/>
+      <c r="D1" s="86"/>
+      <c r="E1" s="86"/>
+      <c r="F1" s="86"/>
+      <c r="G1" s="86"/>
+      <c r="H1" s="86"/>
+      <c r="I1" s="86"/>
+      <c r="J1" s="86"/>
+      <c r="K1" s="86"/>
+      <c r="L1" s="86"/>
+      <c r="M1" s="86"/>
+      <c r="N1" s="86"/>
+      <c r="O1" s="86"/>
+      <c r="P1" s="86"/>
+      <c r="Q1" s="86"/>
+      <c r="R1" s="86"/>
+      <c r="S1" s="86"/>
+      <c r="T1" s="86"/>
+      <c r="U1" s="86"/>
+      <c r="V1" s="86"/>
+      <c r="W1" s="47"/>
+    </row>
+    <row r="2" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="87" t="s">
+        <v>9</v>
+      </c>
+      <c r="B2" s="88"/>
+      <c r="C2" s="88"/>
+      <c r="D2" s="88"/>
+      <c r="E2" s="89"/>
+      <c r="F2" s="89"/>
+      <c r="G2" s="5"/>
+      <c r="H2" s="21"/>
+      <c r="I2" s="53"/>
+      <c r="J2" s="21"/>
+      <c r="K2" s="21"/>
+      <c r="L2" s="22"/>
+      <c r="M2" s="21"/>
+      <c r="N2" s="21"/>
+      <c r="O2" s="23"/>
+      <c r="P2" s="23"/>
+      <c r="Q2" s="23"/>
+      <c r="R2" s="23"/>
+      <c r="S2" s="27"/>
+      <c r="T2" s="27"/>
+      <c r="U2" s="27"/>
+      <c r="V2" s="28"/>
+      <c r="W2" s="27"/>
+    </row>
+    <row r="3" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="6"/>
+      <c r="B3" s="63"/>
+      <c r="C3" s="63"/>
+      <c r="D3" s="7"/>
+      <c r="E3" s="7"/>
+      <c r="F3" s="7"/>
+      <c r="G3" s="7"/>
+      <c r="H3" s="7"/>
+      <c r="I3" s="54"/>
+      <c r="J3" s="7"/>
+      <c r="K3" s="7"/>
+      <c r="L3" s="8"/>
+      <c r="M3" s="7"/>
+      <c r="N3" s="7"/>
+      <c r="O3" s="7"/>
+      <c r="P3" s="7"/>
+      <c r="Q3" s="24"/>
+      <c r="R3" s="24"/>
+      <c r="S3" s="27"/>
+      <c r="T3" s="27"/>
+      <c r="U3" s="27"/>
+      <c r="V3" s="28"/>
+      <c r="W3" s="27"/>
+    </row>
+    <row r="4" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="90" t="s">
+        <v>0</v>
+      </c>
+      <c r="B4" s="84" t="s">
+        <v>8</v>
+      </c>
+      <c r="C4" s="84"/>
+      <c r="D4" s="84"/>
+      <c r="E4" s="84"/>
+      <c r="F4" s="84"/>
+      <c r="G4" s="84"/>
+      <c r="H4" s="84"/>
+      <c r="I4" s="84"/>
+      <c r="J4" s="84" t="s">
+        <v>6</v>
+      </c>
+      <c r="K4" s="84" t="s">
+        <v>11</v>
+      </c>
+      <c r="L4" s="84"/>
+      <c r="M4" s="91" t="s">
+        <v>42</v>
+      </c>
+      <c r="N4" s="91" t="s">
+        <v>10</v>
+      </c>
+      <c r="O4" s="84" t="s">
+        <v>7</v>
+      </c>
+      <c r="P4" s="83" t="s">
+        <v>14</v>
+      </c>
+      <c r="Q4" s="84" t="s">
+        <v>39</v>
+      </c>
+      <c r="R4" s="84" t="s">
+        <v>53</v>
+      </c>
+      <c r="S4" s="85" t="s">
+        <v>54</v>
+      </c>
+      <c r="T4" s="27"/>
+      <c r="U4" s="84" t="s">
+        <v>39</v>
+      </c>
+      <c r="V4" s="84" t="s">
+        <v>53</v>
+      </c>
+      <c r="W4" s="48"/>
+    </row>
+    <row r="5" spans="1:23" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="90"/>
+      <c r="B5" s="64" t="s">
+        <v>1</v>
+      </c>
+      <c r="C5" s="64" t="s">
+        <v>2</v>
+      </c>
+      <c r="D5" s="79" t="s">
+        <v>3</v>
+      </c>
+      <c r="E5" s="79" t="s">
+        <v>43</v>
+      </c>
+      <c r="F5" s="79" t="s">
+        <v>4</v>
+      </c>
+      <c r="G5" s="79" t="s">
+        <v>5</v>
+      </c>
+      <c r="H5" s="79" t="s">
+        <v>55</v>
+      </c>
+      <c r="I5" s="55" t="s">
+        <v>15</v>
+      </c>
+      <c r="J5" s="84"/>
+      <c r="K5" s="79" t="s">
+        <v>12</v>
+      </c>
+      <c r="L5" s="79" t="s">
+        <v>13</v>
+      </c>
+      <c r="M5" s="92"/>
+      <c r="N5" s="92"/>
+      <c r="O5" s="84"/>
+      <c r="P5" s="83"/>
+      <c r="Q5" s="84"/>
+      <c r="R5" s="84"/>
+      <c r="S5" s="85"/>
+      <c r="T5" s="27"/>
+      <c r="U5" s="84"/>
+      <c r="V5" s="84"/>
+      <c r="W5" s="48"/>
+    </row>
+    <row r="6" spans="1:23" s="12" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="4">
+        <v>1</v>
+      </c>
+      <c r="B6" s="37">
+        <v>44364</v>
+      </c>
+      <c r="C6" s="37"/>
+      <c r="D6" s="38" t="s">
+        <v>98</v>
+      </c>
+      <c r="E6" s="39" t="s">
+        <v>99</v>
+      </c>
+      <c r="F6" s="38"/>
+      <c r="G6" s="38"/>
+      <c r="H6" s="38"/>
+      <c r="I6" s="50"/>
+      <c r="J6" s="1"/>
+      <c r="K6" s="61"/>
+      <c r="L6" s="40"/>
+      <c r="M6" s="40"/>
+      <c r="N6" s="41"/>
+      <c r="O6" s="40"/>
+      <c r="P6" s="40"/>
+      <c r="Q6" s="3"/>
+      <c r="R6" s="38"/>
+      <c r="S6" s="4"/>
+      <c r="T6" s="78"/>
+      <c r="U6" s="80" t="s">
+        <v>18</v>
+      </c>
+      <c r="V6" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="W6" s="78"/>
+    </row>
+    <row r="7" spans="1:23" s="12" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="4">
+        <v>2</v>
+      </c>
+      <c r="B7" s="37"/>
+      <c r="C7" s="37"/>
+      <c r="D7" s="38"/>
+      <c r="E7" s="39"/>
+      <c r="F7" s="38"/>
+      <c r="G7" s="38"/>
+      <c r="H7" s="38"/>
+      <c r="I7" s="50"/>
+      <c r="J7" s="40"/>
+      <c r="K7" s="61"/>
+      <c r="L7" s="40"/>
+      <c r="M7" s="40"/>
+      <c r="N7" s="41"/>
+      <c r="O7" s="40"/>
+      <c r="P7" s="40"/>
+      <c r="Q7" s="3"/>
+      <c r="R7" s="38"/>
+      <c r="S7" s="4"/>
+      <c r="T7" s="78"/>
+      <c r="U7" s="81"/>
+      <c r="V7" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="W7" s="78"/>
+    </row>
+    <row r="8" spans="1:23" s="12" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="4">
+        <v>3</v>
+      </c>
+      <c r="B8" s="37"/>
+      <c r="C8" s="37"/>
+      <c r="D8" s="38"/>
+      <c r="E8" s="39"/>
+      <c r="F8" s="38"/>
+      <c r="G8" s="38"/>
+      <c r="H8" s="38"/>
+      <c r="I8" s="50"/>
+      <c r="J8" s="40"/>
+      <c r="K8" s="60"/>
+      <c r="L8" s="40"/>
+      <c r="M8" s="40"/>
+      <c r="N8" s="41"/>
+      <c r="O8" s="40"/>
+      <c r="P8" s="40"/>
+      <c r="Q8" s="3"/>
+      <c r="R8" s="38"/>
+      <c r="S8" s="4"/>
+      <c r="T8" s="78"/>
+      <c r="U8" s="81"/>
+      <c r="V8" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="W8" s="78"/>
+    </row>
+    <row r="9" spans="1:23" s="12" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="4">
+        <v>4</v>
+      </c>
+      <c r="B9" s="37"/>
+      <c r="C9" s="37"/>
+      <c r="D9" s="38"/>
+      <c r="E9" s="39"/>
+      <c r="F9" s="38"/>
+      <c r="G9" s="38"/>
+      <c r="H9" s="38"/>
+      <c r="I9" s="50"/>
+      <c r="J9" s="40"/>
+      <c r="K9" s="40"/>
+      <c r="L9" s="40"/>
+      <c r="M9" s="40"/>
+      <c r="N9" s="1"/>
+      <c r="O9" s="40"/>
+      <c r="P9" s="1"/>
+      <c r="Q9" s="3"/>
+      <c r="R9" s="38"/>
+      <c r="S9" s="4"/>
+      <c r="T9" s="78"/>
+      <c r="U9" s="81"/>
+      <c r="V9" s="4" t="s">
+        <v>51</v>
+      </c>
+      <c r="W9" s="78"/>
+    </row>
+    <row r="10" spans="1:23" s="12" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="4">
+        <v>5</v>
+      </c>
+      <c r="B10" s="37"/>
+      <c r="C10" s="65"/>
+      <c r="D10" s="38"/>
+      <c r="E10" s="39"/>
+      <c r="F10" s="38"/>
+      <c r="G10" s="38"/>
+      <c r="H10" s="2"/>
+      <c r="I10" s="50"/>
+      <c r="J10" s="40"/>
+      <c r="K10" s="1"/>
+      <c r="L10" s="40"/>
+      <c r="M10" s="40"/>
+      <c r="N10" s="1"/>
+      <c r="O10" s="40"/>
+      <c r="P10" s="1"/>
+      <c r="Q10" s="3"/>
+      <c r="R10" s="38"/>
+      <c r="S10" s="4"/>
+      <c r="T10" s="78"/>
+      <c r="U10" s="81"/>
+      <c r="V10" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="W10" s="78"/>
+    </row>
+    <row r="11" spans="1:23" s="12" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="4">
+        <v>6</v>
+      </c>
+      <c r="B11" s="37"/>
+      <c r="C11" s="65"/>
+      <c r="D11" s="38"/>
+      <c r="E11" s="39"/>
+      <c r="F11" s="38"/>
+      <c r="G11" s="38"/>
+      <c r="H11" s="2"/>
+      <c r="I11" s="50"/>
+      <c r="J11" s="40"/>
+      <c r="K11" s="1"/>
+      <c r="L11" s="40"/>
+      <c r="M11" s="40"/>
+      <c r="N11" s="1"/>
+      <c r="O11" s="40"/>
+      <c r="P11" s="1"/>
+      <c r="Q11" s="3"/>
+      <c r="R11" s="38"/>
+      <c r="S11" s="4"/>
+      <c r="T11" s="78"/>
+      <c r="U11" s="81"/>
+      <c r="V11" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="W11" s="78"/>
+    </row>
+    <row r="12" spans="1:23" s="12" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="4">
+        <v>7</v>
+      </c>
+      <c r="B12" s="37"/>
+      <c r="C12" s="65"/>
+      <c r="D12" s="38"/>
+      <c r="E12" s="39"/>
+      <c r="F12" s="38"/>
+      <c r="G12" s="38"/>
+      <c r="H12" s="1"/>
+      <c r="I12" s="56"/>
+      <c r="J12" s="40"/>
+      <c r="K12" s="1"/>
+      <c r="L12" s="40"/>
+      <c r="M12" s="40"/>
+      <c r="N12" s="1"/>
+      <c r="O12" s="40"/>
+      <c r="P12" s="1"/>
+      <c r="Q12" s="4"/>
+      <c r="R12" s="38"/>
+      <c r="S12" s="4"/>
+      <c r="T12" s="78"/>
+      <c r="U12" s="80" t="s">
+        <v>19</v>
+      </c>
+      <c r="V12" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="W12" s="78"/>
+    </row>
+    <row r="13" spans="1:23" s="12" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="4">
+        <v>8</v>
+      </c>
+      <c r="B13" s="65"/>
+      <c r="C13" s="65"/>
+      <c r="D13" s="38"/>
+      <c r="E13" s="39"/>
+      <c r="F13" s="38"/>
+      <c r="G13" s="38"/>
+      <c r="H13" s="13"/>
+      <c r="I13" s="50"/>
+      <c r="J13" s="1"/>
+      <c r="K13" s="1"/>
+      <c r="L13" s="40"/>
+      <c r="M13" s="1"/>
+      <c r="N13" s="1"/>
+      <c r="O13" s="40"/>
+      <c r="P13" s="1"/>
+      <c r="Q13" s="3"/>
+      <c r="R13" s="10"/>
+      <c r="S13" s="4"/>
+      <c r="T13" s="78"/>
+      <c r="U13" s="81"/>
+      <c r="V13" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="W13" s="78"/>
+    </row>
+    <row r="14" spans="1:23" s="12" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A14" s="4">
+        <v>9</v>
+      </c>
+      <c r="B14" s="65"/>
+      <c r="C14" s="65"/>
+      <c r="D14" s="38"/>
+      <c r="E14" s="39"/>
+      <c r="F14" s="38"/>
+      <c r="G14" s="38"/>
+      <c r="H14" s="1"/>
+      <c r="I14" s="50"/>
+      <c r="J14" s="40"/>
+      <c r="K14" s="1"/>
+      <c r="L14" s="40"/>
+      <c r="M14" s="40"/>
+      <c r="N14" s="1"/>
+      <c r="O14" s="40"/>
+      <c r="P14" s="1"/>
+      <c r="Q14" s="4"/>
+      <c r="R14" s="38"/>
+      <c r="S14" s="4"/>
+      <c r="T14" s="78"/>
+      <c r="U14" s="81"/>
+      <c r="V14" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="W14" s="78"/>
+    </row>
+    <row r="15" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A15" s="4">
+        <v>10</v>
+      </c>
+      <c r="B15" s="65"/>
+      <c r="C15" s="65"/>
+      <c r="D15" s="38"/>
+      <c r="E15" s="39"/>
+      <c r="F15" s="38"/>
+      <c r="G15" s="38"/>
+      <c r="H15" s="1"/>
+      <c r="I15" s="56"/>
+      <c r="J15" s="40"/>
+      <c r="K15" s="1"/>
+      <c r="L15" s="40"/>
+      <c r="M15" s="40"/>
+      <c r="N15" s="1"/>
+      <c r="O15" s="40"/>
+      <c r="P15" s="1"/>
+      <c r="Q15" s="4"/>
+      <c r="R15" s="38"/>
+      <c r="S15" s="4"/>
+      <c r="T15" s="14"/>
+      <c r="U15" s="81"/>
+      <c r="V15" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="W15" s="78"/>
+    </row>
+    <row r="16" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A16" s="4">
+        <v>11</v>
+      </c>
+      <c r="B16" s="65"/>
+      <c r="C16" s="65"/>
+      <c r="D16" s="38"/>
+      <c r="E16" s="39"/>
+      <c r="F16" s="62"/>
+      <c r="G16" s="38"/>
+      <c r="H16" s="1"/>
+      <c r="I16" s="56"/>
+      <c r="J16" s="1"/>
+      <c r="K16" s="1"/>
+      <c r="L16" s="40"/>
+      <c r="M16" s="40"/>
+      <c r="N16" s="1"/>
+      <c r="O16" s="40"/>
+      <c r="P16" s="1"/>
+      <c r="Q16" s="4"/>
+      <c r="R16" s="38"/>
+      <c r="S16" s="4"/>
+      <c r="T16" s="14"/>
+      <c r="U16" s="82"/>
+      <c r="V16" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="W16" s="78"/>
+    </row>
+    <row r="17" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A17" s="4">
+        <v>12</v>
+      </c>
+      <c r="B17" s="65"/>
+      <c r="C17" s="65"/>
+      <c r="D17" s="38"/>
+      <c r="E17" s="39"/>
+      <c r="F17" s="38"/>
+      <c r="G17" s="38"/>
+      <c r="H17" s="1"/>
+      <c r="I17" s="50"/>
+      <c r="J17" s="40"/>
+      <c r="K17" s="1"/>
+      <c r="L17" s="1"/>
+      <c r="M17" s="40"/>
+      <c r="N17" s="1"/>
+      <c r="O17" s="40"/>
+      <c r="P17" s="1"/>
+      <c r="Q17" s="4"/>
+      <c r="R17" s="38"/>
+      <c r="S17" s="4"/>
+      <c r="T17" s="14"/>
+      <c r="U17" s="78"/>
+      <c r="V17" s="15"/>
+      <c r="W17" s="78"/>
+    </row>
+    <row r="18" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A18" s="4">
+        <v>13</v>
+      </c>
+      <c r="B18" s="66"/>
+      <c r="C18" s="66"/>
+      <c r="D18" s="38"/>
+      <c r="E18" s="39"/>
+      <c r="F18" s="38"/>
+      <c r="G18" s="38"/>
+      <c r="H18" s="1"/>
+      <c r="I18" s="56"/>
+      <c r="J18" s="1"/>
+      <c r="K18" s="1"/>
+      <c r="L18" s="1"/>
+      <c r="M18" s="10"/>
+      <c r="N18" s="1"/>
+      <c r="O18" s="40"/>
+      <c r="P18" s="1"/>
+      <c r="Q18" s="4"/>
+      <c r="R18" s="10"/>
+      <c r="S18" s="4"/>
+      <c r="T18" s="14"/>
+      <c r="U18" s="14"/>
+      <c r="V18" s="16"/>
+      <c r="W18" s="14"/>
+    </row>
+    <row r="19" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A19" s="4">
+        <v>14</v>
+      </c>
+      <c r="B19" s="66"/>
+      <c r="C19" s="66"/>
+      <c r="D19" s="38"/>
+      <c r="E19" s="39"/>
+      <c r="F19" s="38"/>
+      <c r="G19" s="38"/>
+      <c r="H19" s="1"/>
+      <c r="I19" s="56"/>
+      <c r="J19" s="1"/>
+      <c r="K19" s="1"/>
+      <c r="L19" s="1"/>
+      <c r="M19" s="1"/>
+      <c r="N19" s="1"/>
+      <c r="O19" s="40"/>
+      <c r="P19" s="1"/>
+      <c r="Q19" s="4"/>
+      <c r="R19" s="10"/>
+      <c r="S19" s="4"/>
+      <c r="T19" s="14"/>
+      <c r="U19" s="79" t="s">
+        <v>39</v>
+      </c>
+      <c r="V19" s="17" t="s">
+        <v>16</v>
+      </c>
+      <c r="W19" s="49"/>
+    </row>
+    <row r="20" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A20" s="4">
+        <v>15</v>
+      </c>
+      <c r="B20" s="66"/>
+      <c r="C20" s="66"/>
+      <c r="D20" s="38"/>
+      <c r="E20" s="39"/>
+      <c r="F20" s="38"/>
+      <c r="G20" s="38"/>
+      <c r="H20" s="1"/>
+      <c r="I20" s="56"/>
+      <c r="J20" s="1"/>
+      <c r="K20" s="1"/>
+      <c r="L20" s="1"/>
+      <c r="M20" s="1"/>
+      <c r="N20" s="1"/>
+      <c r="O20" s="40"/>
+      <c r="P20" s="1"/>
+      <c r="Q20" s="4"/>
+      <c r="R20" s="10"/>
+      <c r="S20" s="4"/>
+      <c r="T20" s="14"/>
+      <c r="U20" s="10" t="s">
+        <v>17</v>
+      </c>
+      <c r="V20" s="10">
+        <f>COUNTIF($Q$6:$Q$51,"PM")</f>
+        <v>0</v>
+      </c>
+      <c r="W20" s="14"/>
+    </row>
+    <row r="21" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A21" s="4">
+        <v>16</v>
+      </c>
+      <c r="B21" s="66"/>
+      <c r="C21" s="66"/>
+      <c r="D21" s="38"/>
+      <c r="E21" s="39"/>
+      <c r="F21" s="38"/>
+      <c r="G21" s="38"/>
+      <c r="H21" s="1"/>
+      <c r="I21" s="56"/>
+      <c r="J21" s="1"/>
+      <c r="K21" s="1"/>
+      <c r="L21" s="1"/>
+      <c r="M21" s="1"/>
+      <c r="N21" s="1"/>
+      <c r="O21" s="40"/>
+      <c r="P21" s="1"/>
+      <c r="Q21" s="4"/>
+      <c r="R21" s="10"/>
+      <c r="S21" s="4"/>
+      <c r="T21" s="14"/>
+      <c r="U21" s="10" t="s">
+        <v>49</v>
+      </c>
+      <c r="V21" s="10">
+        <f>COUNTIF($Q$6:$Q$51,"PC")</f>
+        <v>0</v>
+      </c>
+      <c r="W21" s="14"/>
+    </row>
+    <row r="22" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A22" s="4">
+        <v>17</v>
+      </c>
+      <c r="B22" s="66"/>
+      <c r="C22" s="66"/>
+      <c r="D22" s="38"/>
+      <c r="E22" s="39"/>
+      <c r="F22" s="38"/>
+      <c r="G22" s="38"/>
+      <c r="H22" s="10"/>
+      <c r="I22" s="56"/>
+      <c r="J22" s="10"/>
+      <c r="K22" s="10"/>
+      <c r="L22" s="1"/>
+      <c r="M22" s="10"/>
+      <c r="N22" s="10"/>
+      <c r="O22" s="40"/>
+      <c r="P22" s="10"/>
+      <c r="Q22" s="4"/>
+      <c r="R22" s="10"/>
+      <c r="S22" s="4"/>
+      <c r="T22" s="14"/>
+      <c r="U22" s="10" t="s">
+        <v>50</v>
+      </c>
+      <c r="V22" s="10">
+        <f>COUNTIF($Q$6:$Q$51,"PC+PM")</f>
+        <v>0</v>
+      </c>
+      <c r="W22" s="14"/>
+    </row>
+    <row r="23" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A23" s="4">
+        <v>18</v>
+      </c>
+      <c r="B23" s="66"/>
+      <c r="C23" s="66"/>
+      <c r="D23" s="38"/>
+      <c r="E23" s="39"/>
+      <c r="F23" s="38"/>
+      <c r="G23" s="38"/>
+      <c r="H23" s="10"/>
+      <c r="I23" s="56"/>
+      <c r="J23" s="1"/>
+      <c r="K23" s="10"/>
+      <c r="L23" s="10"/>
+      <c r="M23" s="10"/>
+      <c r="N23" s="10"/>
+      <c r="O23" s="40"/>
+      <c r="P23" s="10"/>
+      <c r="Q23" s="4"/>
+      <c r="R23" s="10"/>
+      <c r="S23" s="4"/>
+      <c r="T23" s="14"/>
+      <c r="U23" s="14"/>
+      <c r="V23" s="16"/>
+      <c r="W23" s="14"/>
+    </row>
+    <row r="24" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A24" s="4">
+        <v>19</v>
+      </c>
+      <c r="B24" s="66"/>
+      <c r="C24" s="66"/>
+      <c r="D24" s="38"/>
+      <c r="E24" s="39"/>
+      <c r="F24" s="38"/>
+      <c r="G24" s="38"/>
+      <c r="H24" s="10"/>
+      <c r="I24" s="56"/>
+      <c r="J24" s="1"/>
+      <c r="K24" s="10"/>
+      <c r="L24" s="10"/>
+      <c r="M24" s="10"/>
+      <c r="N24" s="10"/>
+      <c r="O24" s="40"/>
+      <c r="P24" s="10"/>
+      <c r="Q24" s="4"/>
+      <c r="R24" s="10"/>
+      <c r="S24" s="4"/>
+      <c r="T24" s="14"/>
+      <c r="U24" s="14"/>
+      <c r="V24" s="16"/>
+      <c r="W24" s="14"/>
+    </row>
+    <row r="25" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A25" s="4">
+        <v>20</v>
+      </c>
+      <c r="B25" s="66"/>
+      <c r="C25" s="66"/>
+      <c r="D25" s="38"/>
+      <c r="E25" s="39"/>
+      <c r="F25" s="38"/>
+      <c r="G25" s="38"/>
+      <c r="H25" s="10"/>
+      <c r="I25" s="56"/>
+      <c r="J25" s="1"/>
+      <c r="K25" s="10"/>
+      <c r="L25" s="10"/>
+      <c r="M25" s="10"/>
+      <c r="N25" s="10"/>
+      <c r="O25" s="40"/>
+      <c r="P25" s="10"/>
+      <c r="Q25" s="4"/>
+      <c r="R25" s="10"/>
+      <c r="S25" s="4"/>
+      <c r="T25" s="14"/>
+      <c r="U25" s="79" t="s">
+        <v>46</v>
+      </c>
+      <c r="V25" s="17" t="s">
+        <v>16</v>
+      </c>
+      <c r="W25" s="49"/>
+    </row>
+    <row r="26" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A26" s="4">
+        <v>21</v>
+      </c>
+      <c r="B26" s="66"/>
+      <c r="C26" s="66"/>
+      <c r="D26" s="38"/>
+      <c r="E26" s="39"/>
+      <c r="F26" s="38"/>
+      <c r="G26" s="38"/>
+      <c r="H26" s="10"/>
+      <c r="I26" s="56"/>
+      <c r="J26" s="1"/>
+      <c r="K26" s="10"/>
+      <c r="L26" s="10"/>
+      <c r="M26" s="10"/>
+      <c r="N26" s="10"/>
+      <c r="O26" s="40"/>
+      <c r="P26" s="10"/>
+      <c r="Q26" s="4"/>
+      <c r="R26" s="10"/>
+      <c r="S26" s="4"/>
+      <c r="T26" s="14"/>
+      <c r="U26" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="V26" s="10">
+        <f>COUNTIF($R$6:$R$51,"*MCU*")</f>
+        <v>0</v>
+      </c>
+      <c r="W26" s="14"/>
+    </row>
+    <row r="27" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A27" s="4">
+        <v>22</v>
+      </c>
+      <c r="B27" s="66"/>
+      <c r="C27" s="66"/>
+      <c r="D27" s="38"/>
+      <c r="E27" s="39"/>
+      <c r="F27" s="38"/>
+      <c r="G27" s="38"/>
+      <c r="H27" s="10"/>
+      <c r="I27" s="56"/>
+      <c r="J27" s="1"/>
+      <c r="K27" s="10"/>
+      <c r="L27" s="10"/>
+      <c r="M27" s="10"/>
+      <c r="N27" s="10"/>
+      <c r="O27" s="40"/>
+      <c r="P27" s="10"/>
+      <c r="Q27" s="4"/>
+      <c r="R27" s="10"/>
+      <c r="S27" s="4"/>
+      <c r="T27" s="14"/>
+      <c r="U27" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="V27" s="10">
+        <f>COUNTIF($R$6:$R$51,"*GSM*")</f>
+        <v>0</v>
+      </c>
+      <c r="W27" s="14"/>
+    </row>
+    <row r="28" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A28" s="4">
+        <v>23</v>
+      </c>
+      <c r="B28" s="66"/>
+      <c r="C28" s="66"/>
+      <c r="D28" s="38"/>
+      <c r="E28" s="39"/>
+      <c r="F28" s="38"/>
+      <c r="G28" s="38"/>
+      <c r="H28" s="1"/>
+      <c r="I28" s="56"/>
+      <c r="J28" s="1"/>
+      <c r="K28" s="1"/>
+      <c r="L28" s="10"/>
+      <c r="M28" s="10"/>
+      <c r="N28" s="1"/>
+      <c r="O28" s="40"/>
+      <c r="P28" s="10"/>
+      <c r="Q28" s="4"/>
+      <c r="R28" s="10"/>
+      <c r="S28" s="4"/>
+      <c r="T28" s="14"/>
+      <c r="U28" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="V28" s="10">
+        <f>COUNTIF($R$6:$R$51,"*GPS*")</f>
+        <v>0</v>
+      </c>
+      <c r="W28" s="14"/>
+    </row>
+    <row r="29" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A29" s="4">
+        <v>24</v>
+      </c>
+      <c r="B29" s="66"/>
+      <c r="C29" s="66"/>
+      <c r="D29" s="38"/>
+      <c r="E29" s="39"/>
+      <c r="F29" s="38"/>
+      <c r="G29" s="38"/>
+      <c r="H29" s="1"/>
+      <c r="I29" s="56"/>
+      <c r="J29" s="1"/>
+      <c r="K29" s="1"/>
+      <c r="L29" s="10"/>
+      <c r="M29" s="10"/>
+      <c r="N29" s="1"/>
+      <c r="O29" s="40"/>
+      <c r="P29" s="10"/>
+      <c r="Q29" s="4"/>
+      <c r="R29" s="10"/>
+      <c r="S29" s="4"/>
+      <c r="T29" s="14"/>
+      <c r="U29" s="4" t="s">
+        <v>52</v>
+      </c>
+      <c r="V29" s="10">
+        <f>COUNTIF($R$6:$R$51,"*NG*")</f>
+        <v>0</v>
+      </c>
+      <c r="W29" s="14"/>
+    </row>
+    <row r="30" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A30" s="4">
+        <v>25</v>
+      </c>
+      <c r="B30" s="66"/>
+      <c r="C30" s="66"/>
+      <c r="D30" s="10"/>
+      <c r="E30" s="11"/>
+      <c r="F30" s="10"/>
+      <c r="G30" s="10"/>
+      <c r="H30" s="1"/>
+      <c r="I30" s="56"/>
+      <c r="J30" s="1"/>
+      <c r="K30" s="1"/>
+      <c r="L30" s="1"/>
+      <c r="M30" s="1"/>
+      <c r="N30" s="1"/>
+      <c r="O30" s="1"/>
+      <c r="P30" s="1"/>
+      <c r="Q30" s="4"/>
+      <c r="R30" s="10"/>
+      <c r="S30" s="4"/>
+      <c r="T30" s="14"/>
+      <c r="U30" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="V30" s="10">
+        <f>COUNTIF($R$6:$R$51,"*I/O*")</f>
+        <v>0</v>
+      </c>
+      <c r="W30" s="14"/>
+    </row>
+    <row r="31" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A31" s="4">
+        <v>26</v>
+      </c>
+      <c r="B31" s="66"/>
+      <c r="C31" s="66"/>
+      <c r="D31" s="10"/>
+      <c r="E31" s="11"/>
+      <c r="F31" s="10"/>
+      <c r="G31" s="10"/>
+      <c r="H31" s="1"/>
+      <c r="I31" s="56"/>
+      <c r="J31" s="1"/>
+      <c r="K31" s="1"/>
+      <c r="L31" s="1"/>
+      <c r="M31" s="1"/>
+      <c r="N31" s="1"/>
+      <c r="O31" s="1"/>
+      <c r="P31" s="1"/>
+      <c r="Q31" s="4"/>
+      <c r="R31" s="10"/>
+      <c r="S31" s="4"/>
+      <c r="T31" s="14"/>
+      <c r="U31" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="V31" s="10">
+        <f>COUNTIF($R$6:$R$51,"*LK*")</f>
+        <v>0</v>
+      </c>
+      <c r="W31" s="14"/>
+    </row>
+    <row r="32" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A32" s="4">
+        <v>27</v>
+      </c>
+      <c r="B32" s="66"/>
+      <c r="C32" s="66"/>
+      <c r="D32" s="10"/>
+      <c r="E32" s="11"/>
+      <c r="F32" s="10"/>
+      <c r="G32" s="10"/>
+      <c r="H32" s="1"/>
+      <c r="I32" s="56"/>
+      <c r="J32" s="1"/>
+      <c r="K32" s="1"/>
+      <c r="L32" s="1"/>
+      <c r="M32" s="1"/>
+      <c r="N32" s="1"/>
+      <c r="O32" s="1"/>
+      <c r="P32" s="1"/>
+      <c r="Q32" s="4"/>
+      <c r="R32" s="10"/>
+      <c r="S32" s="4"/>
+      <c r="T32" s="14"/>
+      <c r="U32" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="V32" s="10">
+        <f>COUNTIF($R$6:$R$51,"*MCH*")</f>
+        <v>0</v>
+      </c>
+      <c r="W32" s="14"/>
+    </row>
+    <row r="33" spans="1:24" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A33" s="4">
+        <v>28</v>
+      </c>
+      <c r="B33" s="66"/>
+      <c r="C33" s="66"/>
+      <c r="D33" s="10"/>
+      <c r="E33" s="11"/>
+      <c r="F33" s="10"/>
+      <c r="G33" s="10"/>
+      <c r="H33" s="1"/>
+      <c r="I33" s="56"/>
+      <c r="J33" s="1"/>
+      <c r="K33" s="1"/>
+      <c r="L33" s="1"/>
+      <c r="M33" s="1"/>
+      <c r="N33" s="1"/>
+      <c r="O33" s="1"/>
+      <c r="P33" s="1"/>
+      <c r="Q33" s="4"/>
+      <c r="R33" s="10"/>
+      <c r="S33" s="4"/>
+      <c r="T33" s="14"/>
+      <c r="U33" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="V33" s="10">
+        <f>COUNTIF($R$6:$R$51,"*SF*")</f>
+        <v>0</v>
+      </c>
+      <c r="W33" s="14"/>
+    </row>
+    <row r="34" spans="1:24" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A34" s="4">
+        <v>29</v>
+      </c>
+      <c r="B34" s="66"/>
+      <c r="C34" s="66"/>
+      <c r="D34" s="10"/>
+      <c r="E34" s="11"/>
+      <c r="F34" s="10"/>
+      <c r="G34" s="10"/>
+      <c r="H34" s="1"/>
+      <c r="I34" s="56"/>
+      <c r="J34" s="1"/>
+      <c r="K34" s="1"/>
+      <c r="L34" s="1"/>
+      <c r="M34" s="1"/>
+      <c r="N34" s="1"/>
+      <c r="O34" s="1"/>
+      <c r="P34" s="1"/>
+      <c r="Q34" s="4"/>
+      <c r="R34" s="10"/>
+      <c r="S34" s="4"/>
+      <c r="T34" s="14"/>
+      <c r="U34" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="V34" s="10">
+        <f>COUNTIF($R$6:$R$51,"*RTB*")</f>
+        <v>0</v>
+      </c>
+      <c r="W34" s="14"/>
+    </row>
+    <row r="35" spans="1:24" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A35" s="4">
+        <v>30</v>
+      </c>
+      <c r="B35" s="66"/>
+      <c r="C35" s="66"/>
+      <c r="D35" s="10"/>
+      <c r="E35" s="11"/>
+      <c r="F35" s="10"/>
+      <c r="G35" s="10"/>
+      <c r="H35" s="1"/>
+      <c r="I35" s="56"/>
+      <c r="J35" s="1"/>
+      <c r="K35" s="1"/>
+      <c r="L35" s="1"/>
+      <c r="M35" s="1"/>
+      <c r="N35" s="1"/>
+      <c r="O35" s="1"/>
+      <c r="P35" s="1"/>
+      <c r="Q35" s="4"/>
+      <c r="R35" s="10"/>
+      <c r="S35" s="4"/>
+      <c r="T35" s="14"/>
+      <c r="U35" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="V35" s="10">
+        <f>COUNTIF($R$6:$R$51,"*NCFW*")</f>
+        <v>0</v>
+      </c>
+      <c r="W35" s="14"/>
+    </row>
+    <row r="36" spans="1:24" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A36" s="4">
+        <v>31</v>
+      </c>
+      <c r="B36" s="66"/>
+      <c r="C36" s="66"/>
+      <c r="D36" s="10"/>
+      <c r="E36" s="11"/>
+      <c r="F36" s="10"/>
+      <c r="G36" s="10"/>
+      <c r="H36" s="1"/>
+      <c r="I36" s="56"/>
+      <c r="J36" s="1"/>
+      <c r="K36" s="1"/>
+      <c r="L36" s="1"/>
+      <c r="M36" s="1"/>
+      <c r="N36" s="1"/>
+      <c r="O36" s="1"/>
+      <c r="P36" s="1"/>
+      <c r="Q36" s="4"/>
+      <c r="R36" s="10"/>
+      <c r="S36" s="4"/>
+      <c r="T36" s="14"/>
+      <c r="U36" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="V36" s="10">
+        <f>COUNTIF($R$6:$R$51,"*KL*")</f>
+        <v>0</v>
+      </c>
+      <c r="W36" s="14"/>
+    </row>
+    <row r="37" spans="1:24" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A37" s="4">
+        <v>32</v>
+      </c>
+      <c r="B37" s="66"/>
+      <c r="C37" s="66"/>
+      <c r="D37" s="10"/>
+      <c r="E37" s="11"/>
+      <c r="F37" s="10"/>
+      <c r="G37" s="10"/>
+      <c r="H37" s="1"/>
+      <c r="I37" s="56"/>
+      <c r="J37" s="1"/>
+      <c r="K37" s="1"/>
+      <c r="L37" s="1"/>
+      <c r="M37" s="1"/>
+      <c r="N37" s="1"/>
+      <c r="O37" s="1"/>
+      <c r="P37" s="1"/>
+      <c r="Q37" s="4"/>
+      <c r="R37" s="10"/>
+      <c r="S37" s="4"/>
+      <c r="T37" s="14"/>
+      <c r="U37" s="18" t="s">
+        <v>33</v>
+      </c>
+      <c r="V37" s="10">
+        <f>SUM(V26:V36)</f>
+        <v>0</v>
+      </c>
+      <c r="W37" s="14"/>
+    </row>
+    <row r="38" spans="1:24" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A38" s="4">
+        <v>33</v>
+      </c>
+      <c r="B38" s="66"/>
+      <c r="C38" s="66"/>
+      <c r="D38" s="10"/>
+      <c r="E38" s="11"/>
+      <c r="F38" s="10"/>
+      <c r="G38" s="10"/>
+      <c r="H38" s="1"/>
+      <c r="I38" s="56"/>
+      <c r="J38" s="1"/>
+      <c r="K38" s="1"/>
+      <c r="L38" s="1"/>
+      <c r="M38" s="1"/>
+      <c r="N38" s="1"/>
+      <c r="O38" s="1"/>
+      <c r="P38" s="1"/>
+      <c r="Q38" s="4"/>
+      <c r="R38" s="10"/>
+      <c r="S38" s="4"/>
+      <c r="T38" s="14"/>
+      <c r="U38" s="14"/>
+      <c r="V38" s="16"/>
+      <c r="W38" s="14"/>
+    </row>
+    <row r="39" spans="1:24" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A39" s="4">
+        <v>34</v>
+      </c>
+      <c r="B39" s="66"/>
+      <c r="C39" s="66"/>
+      <c r="D39" s="10"/>
+      <c r="E39" s="11"/>
+      <c r="F39" s="10"/>
+      <c r="G39" s="10"/>
+      <c r="H39" s="1"/>
+      <c r="I39" s="56"/>
+      <c r="J39" s="1"/>
+      <c r="K39" s="1"/>
+      <c r="L39" s="1"/>
+      <c r="M39" s="1"/>
+      <c r="N39" s="1"/>
+      <c r="O39" s="1"/>
+      <c r="P39" s="1"/>
+      <c r="Q39" s="4"/>
+      <c r="R39" s="10"/>
+      <c r="S39" s="4"/>
+      <c r="T39" s="14"/>
+      <c r="U39" s="14"/>
+      <c r="V39" s="16"/>
+      <c r="W39" s="14"/>
+    </row>
+    <row r="40" spans="1:24" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A40" s="4">
+        <v>35</v>
+      </c>
+      <c r="B40" s="66"/>
+      <c r="C40" s="66"/>
+      <c r="D40" s="10"/>
+      <c r="E40" s="11"/>
+      <c r="F40" s="10"/>
+      <c r="G40" s="10"/>
+      <c r="H40" s="1"/>
+      <c r="I40" s="56"/>
+      <c r="J40" s="1"/>
+      <c r="K40" s="1"/>
+      <c r="L40" s="1"/>
+      <c r="M40" s="1"/>
+      <c r="N40" s="1"/>
+      <c r="O40" s="1"/>
+      <c r="P40" s="1"/>
+      <c r="Q40" s="4"/>
+      <c r="R40" s="10"/>
+      <c r="S40" s="4"/>
+      <c r="T40" s="14"/>
+      <c r="U40" s="18" t="s">
+        <v>40</v>
+      </c>
+      <c r="V40" s="10">
+        <f>COUNTIF($O$6:$O$51,"*DM*")</f>
+        <v>0</v>
+      </c>
+      <c r="W40" s="14"/>
+    </row>
+    <row r="41" spans="1:24" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A41" s="4">
+        <v>36</v>
+      </c>
+      <c r="B41" s="66"/>
+      <c r="C41" s="66"/>
+      <c r="D41" s="10"/>
+      <c r="E41" s="11"/>
+      <c r="F41" s="10"/>
+      <c r="G41" s="10"/>
+      <c r="H41" s="1"/>
+      <c r="I41" s="56"/>
+      <c r="J41" s="1"/>
+      <c r="K41" s="1"/>
+      <c r="L41" s="1"/>
+      <c r="M41" s="1"/>
+      <c r="N41" s="1"/>
+      <c r="O41" s="1"/>
+      <c r="P41" s="1"/>
+      <c r="Q41" s="4"/>
+      <c r="R41" s="10"/>
+      <c r="S41" s="4"/>
+      <c r="T41" s="14"/>
+      <c r="U41" s="18" t="s">
+        <v>41</v>
+      </c>
+      <c r="V41" s="10">
+        <f>COUNTIF($O$6:$O$51,"*KS*")</f>
+        <v>0</v>
+      </c>
+      <c r="W41" s="14"/>
+    </row>
+    <row r="42" spans="1:24" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A42" s="4">
+        <v>37</v>
+      </c>
+      <c r="B42" s="66"/>
+      <c r="C42" s="66"/>
+      <c r="D42" s="10"/>
+      <c r="E42" s="11"/>
+      <c r="F42" s="10"/>
+      <c r="G42" s="10"/>
+      <c r="H42" s="1"/>
+      <c r="I42" s="56"/>
+      <c r="J42" s="1"/>
+      <c r="K42" s="1"/>
+      <c r="L42" s="1"/>
+      <c r="M42" s="1"/>
+      <c r="N42" s="1"/>
+      <c r="O42" s="1"/>
+      <c r="P42" s="1"/>
+      <c r="Q42" s="4"/>
+      <c r="R42" s="10"/>
+      <c r="S42" s="4"/>
+      <c r="T42" s="14"/>
+      <c r="U42" s="14"/>
+      <c r="V42" s="16"/>
+      <c r="W42" s="14"/>
+    </row>
+    <row r="43" spans="1:24" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A43" s="4">
+        <v>38</v>
+      </c>
+      <c r="B43" s="66"/>
+      <c r="C43" s="66"/>
+      <c r="D43" s="10"/>
+      <c r="E43" s="11"/>
+      <c r="F43" s="10"/>
+      <c r="G43" s="10"/>
+      <c r="H43" s="1"/>
+      <c r="I43" s="56"/>
+      <c r="J43" s="1"/>
+      <c r="K43" s="1"/>
+      <c r="L43" s="1"/>
+      <c r="M43" s="1"/>
+      <c r="N43" s="1"/>
+      <c r="O43" s="1"/>
+      <c r="P43" s="1"/>
+      <c r="Q43" s="4"/>
+      <c r="R43" s="10"/>
+      <c r="S43" s="4"/>
+      <c r="T43" s="14"/>
+      <c r="U43" s="14"/>
+      <c r="V43" s="16"/>
+      <c r="W43" s="14"/>
+    </row>
+    <row r="44" spans="1:24" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A44" s="4">
+        <v>39</v>
+      </c>
+      <c r="B44" s="66"/>
+      <c r="C44" s="66"/>
+      <c r="D44" s="10"/>
+      <c r="E44" s="11"/>
+      <c r="F44" s="10"/>
+      <c r="G44" s="10"/>
+      <c r="H44" s="1"/>
+      <c r="I44" s="56"/>
+      <c r="J44" s="1"/>
+      <c r="K44" s="1"/>
+      <c r="L44" s="1"/>
+      <c r="M44" s="1"/>
+      <c r="N44" s="1"/>
+      <c r="O44" s="1"/>
+      <c r="P44" s="1"/>
+      <c r="Q44" s="4"/>
+      <c r="R44" s="10"/>
+      <c r="S44" s="4"/>
+      <c r="T44" s="14"/>
+      <c r="U44" s="10" t="s">
+        <v>3</v>
+      </c>
+      <c r="V44" s="10" t="s">
+        <v>58</v>
+      </c>
+      <c r="W44" s="10" t="s">
+        <v>59</v>
+      </c>
+      <c r="X44" s="10" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="45" spans="1:24" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A45" s="4">
+        <v>40</v>
+      </c>
+      <c r="B45" s="66"/>
+      <c r="C45" s="66"/>
+      <c r="D45" s="10"/>
+      <c r="E45" s="11"/>
+      <c r="F45" s="10"/>
+      <c r="G45" s="10"/>
+      <c r="H45" s="1"/>
+      <c r="I45" s="56"/>
+      <c r="J45" s="1"/>
+      <c r="K45" s="1"/>
+      <c r="L45" s="1"/>
+      <c r="M45" s="1"/>
+      <c r="N45" s="1"/>
+      <c r="O45" s="1"/>
+      <c r="P45" s="1"/>
+      <c r="Q45" s="4"/>
+      <c r="R45" s="10"/>
+      <c r="S45" s="4"/>
+      <c r="T45" s="14"/>
+      <c r="U45" s="10" t="s">
+        <v>44</v>
+      </c>
+      <c r="V45" s="10">
+        <f>COUNTIFS($D$6:$D$300,"TG102LE",$H$6:$H$300,"*Lô 3-20*")</f>
+        <v>0</v>
+      </c>
+      <c r="W45" s="10">
+        <f>COUNTIFS($D$6:$D$300,"TG102LE",$H$6:$H$300,"*Lô 1-21*")</f>
+        <v>0</v>
+      </c>
+      <c r="X45" s="10">
+        <f>COUNTIFS($D$6:$D$300,"TG102LE",$H$6:$H$300,"*Lô 2-21*")</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="1:24" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A46" s="4">
+        <v>41</v>
+      </c>
+      <c r="B46" s="66"/>
+      <c r="C46" s="66"/>
+      <c r="D46" s="10"/>
+      <c r="E46" s="11"/>
+      <c r="F46" s="10"/>
+      <c r="G46" s="10"/>
+      <c r="H46" s="1"/>
+      <c r="I46" s="56"/>
+      <c r="J46" s="1"/>
+      <c r="K46" s="1"/>
+      <c r="L46" s="1"/>
+      <c r="M46" s="1"/>
+      <c r="N46" s="1"/>
+      <c r="O46" s="1"/>
+      <c r="P46" s="1"/>
+      <c r="Q46" s="4"/>
+      <c r="R46" s="10"/>
+      <c r="S46" s="4"/>
+      <c r="T46" s="14"/>
+      <c r="U46" s="10" t="s">
+        <v>56</v>
+      </c>
+      <c r="V46" s="10">
+        <f>COUNTIFS($D$6:$D$300,"TG102LE-4G",$H$6:$H$300,"*Lô 3-20*")</f>
+        <v>0</v>
+      </c>
+      <c r="W46" s="10">
+        <f>COUNTIFS($D$6:$D$300,"TG102LE-4G",$H$6:$H$300,"*Lô 1-21*")</f>
+        <v>0</v>
+      </c>
+      <c r="X46" s="10">
+        <f>COUNTIFS($D$6:$D$300,"TG102LE-4G",$H$6:$H$300,"*Lô 2-21*")</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="1:24" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A47" s="4">
+        <v>42</v>
+      </c>
+      <c r="B47" s="66"/>
+      <c r="C47" s="66"/>
+      <c r="D47" s="10"/>
+      <c r="E47" s="11"/>
+      <c r="F47" s="10"/>
+      <c r="G47" s="10"/>
+      <c r="H47" s="1"/>
+      <c r="I47" s="56"/>
+      <c r="J47" s="1"/>
+      <c r="K47" s="1"/>
+      <c r="L47" s="1"/>
+      <c r="M47" s="1"/>
+      <c r="N47" s="1"/>
+      <c r="O47" s="1"/>
+      <c r="P47" s="1"/>
+      <c r="Q47" s="4"/>
+      <c r="R47" s="10"/>
+      <c r="S47" s="4"/>
+      <c r="T47" s="14"/>
+      <c r="U47" s="10" t="s">
+        <v>45</v>
+      </c>
+      <c r="V47" s="10">
+        <f>COUNTIFS($D$6:$D$300,"TG102E",$H$6:$H$300,"*Lô 3-20*")</f>
+        <v>0</v>
+      </c>
+      <c r="W47" s="10">
+        <f>COUNTIFS($D$6:$D$300,"TG102E",$H$6:$H$300,"*Lô 1-21*")</f>
+        <v>0</v>
+      </c>
+      <c r="X47" s="10">
+        <f>COUNTIFS($D$6:$D$300,"TG102E",$H$6:$H$300,"*Lô 2-21*")</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="1:24" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A48" s="4">
+        <v>43</v>
+      </c>
+      <c r="B48" s="66"/>
+      <c r="C48" s="66"/>
+      <c r="D48" s="10"/>
+      <c r="E48" s="11"/>
+      <c r="F48" s="10"/>
+      <c r="G48" s="10"/>
+      <c r="H48" s="1"/>
+      <c r="I48" s="56"/>
+      <c r="J48" s="1"/>
+      <c r="K48" s="1"/>
+      <c r="L48" s="1"/>
+      <c r="M48" s="1"/>
+      <c r="N48" s="1"/>
+      <c r="O48" s="1"/>
+      <c r="P48" s="1"/>
+      <c r="Q48" s="4"/>
+      <c r="R48" s="10"/>
+      <c r="S48" s="4"/>
+      <c r="T48" s="35">
+        <f>COUNTIF(J9:J20,"*GSM*")</f>
+        <v>0</v>
+      </c>
+      <c r="U48" s="10" t="s">
+        <v>57</v>
+      </c>
+      <c r="V48" s="10">
+        <f>COUNTIFS($D$6:$D$300,"ACT-01",$H$6:$H$300,"*Lô 3-20*")</f>
+        <v>0</v>
+      </c>
+      <c r="W48" s="10">
+        <f>COUNTIFS($D$6:$D$300,"ACT-01",$H$6:$H$300,"*Lô 1-21*")</f>
+        <v>0</v>
+      </c>
+      <c r="X48" s="10">
+        <f>COUNTIFS($D$6:$D$300,"ACT-01",$H$6:$H$300,"*Lô 2-21*")</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="1:24" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A49" s="4">
+        <v>44</v>
+      </c>
+      <c r="B49" s="66"/>
+      <c r="C49" s="66"/>
+      <c r="D49" s="10"/>
+      <c r="E49" s="11"/>
+      <c r="F49" s="10"/>
+      <c r="G49" s="10"/>
+      <c r="H49" s="1"/>
+      <c r="I49" s="56"/>
+      <c r="J49" s="1"/>
+      <c r="K49" s="1"/>
+      <c r="L49" s="1"/>
+      <c r="M49" s="1"/>
+      <c r="N49" s="1"/>
+      <c r="O49" s="1"/>
+      <c r="P49" s="1"/>
+      <c r="Q49" s="4"/>
+      <c r="R49" s="10"/>
+      <c r="S49" s="4"/>
+      <c r="T49" s="35"/>
+      <c r="U49" s="46"/>
+      <c r="V49" s="46"/>
+      <c r="W49" s="46"/>
+      <c r="X49" s="33"/>
+    </row>
+    <row r="50" spans="1:24" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A50" s="29">
+        <v>45</v>
+      </c>
+      <c r="B50" s="67"/>
+      <c r="C50" s="67"/>
+      <c r="D50" s="45"/>
+      <c r="E50" s="31"/>
+      <c r="F50" s="45"/>
+      <c r="G50" s="45"/>
+      <c r="H50" s="32"/>
+      <c r="I50" s="57"/>
+      <c r="J50" s="32"/>
+      <c r="K50" s="32"/>
+      <c r="L50" s="32"/>
+      <c r="M50" s="32"/>
+      <c r="N50" s="32"/>
+      <c r="O50" s="32"/>
+      <c r="P50" s="32"/>
+      <c r="Q50" s="29"/>
+      <c r="R50" s="45"/>
+      <c r="S50" s="29"/>
+      <c r="T50" s="35"/>
+      <c r="U50" s="46"/>
+      <c r="V50" s="46"/>
+      <c r="W50" s="46"/>
+      <c r="X50" s="33"/>
+    </row>
+    <row r="51" spans="1:24" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A51" s="4">
+        <v>46</v>
+      </c>
+      <c r="B51" s="66"/>
+      <c r="C51" s="66"/>
+      <c r="D51" s="10"/>
+      <c r="E51" s="11"/>
+      <c r="F51" s="10"/>
+      <c r="G51" s="10"/>
+      <c r="H51" s="1"/>
+      <c r="I51" s="56"/>
+      <c r="J51" s="1"/>
+      <c r="K51" s="1"/>
+      <c r="L51" s="1"/>
+      <c r="M51" s="1"/>
+      <c r="N51" s="1"/>
+      <c r="O51" s="1"/>
+      <c r="P51" s="1"/>
+      <c r="Q51" s="4"/>
+      <c r="R51" s="10"/>
+      <c r="S51" s="10"/>
+      <c r="T51" s="35"/>
+      <c r="U51" s="46"/>
+      <c r="V51" s="46"/>
+      <c r="W51" s="46"/>
+      <c r="X51" s="33"/>
+    </row>
+    <row r="52" spans="1:24" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A52" s="4">
+        <v>47</v>
+      </c>
+      <c r="B52" s="68"/>
+      <c r="C52" s="68"/>
+      <c r="D52" s="33"/>
+      <c r="E52" s="33"/>
+      <c r="F52" s="33"/>
+      <c r="G52" s="33"/>
+      <c r="H52" s="33"/>
+      <c r="I52" s="58"/>
+      <c r="J52" s="33"/>
+      <c r="K52" s="33"/>
+      <c r="L52" s="34"/>
+      <c r="M52" s="33"/>
+      <c r="N52" s="33"/>
+      <c r="O52" s="33"/>
+      <c r="P52" s="33"/>
+      <c r="Q52" s="33"/>
+      <c r="R52" s="33"/>
+      <c r="S52" s="33"/>
+      <c r="T52" s="35"/>
+      <c r="U52" s="46"/>
+      <c r="V52" s="46"/>
+      <c r="W52" s="46"/>
+      <c r="X52" s="33"/>
+    </row>
+    <row r="53" spans="1:24" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A53" s="4">
+        <v>48</v>
+      </c>
+      <c r="B53" s="68"/>
+      <c r="C53" s="68"/>
+      <c r="D53" s="33"/>
+      <c r="E53" s="33"/>
+      <c r="F53" s="33"/>
+      <c r="G53" s="33"/>
+      <c r="H53" s="33"/>
+      <c r="I53" s="58"/>
+      <c r="J53" s="33"/>
+      <c r="K53" s="33"/>
+      <c r="L53" s="34"/>
+      <c r="M53" s="33"/>
+      <c r="N53" s="19"/>
+      <c r="O53" s="19"/>
+      <c r="P53" s="33"/>
+      <c r="Q53" s="33"/>
+      <c r="R53" s="33"/>
+      <c r="S53" s="33"/>
+      <c r="T53" s="35"/>
+      <c r="U53" s="46"/>
+      <c r="V53" s="46"/>
+      <c r="W53" s="46"/>
+      <c r="X53" s="33"/>
+    </row>
+    <row r="54" spans="1:24" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A54" s="4">
+        <v>49</v>
+      </c>
+      <c r="B54" s="68"/>
+      <c r="C54" s="68"/>
+      <c r="D54" s="33"/>
+      <c r="E54" s="33"/>
+      <c r="F54" s="33"/>
+      <c r="G54" s="33"/>
+      <c r="H54" s="33"/>
+      <c r="I54" s="58"/>
+      <c r="J54" s="33"/>
+      <c r="K54" s="33"/>
+      <c r="L54" s="34"/>
+      <c r="M54" s="33"/>
+      <c r="N54" s="19"/>
+      <c r="O54" s="19"/>
+      <c r="P54" s="33"/>
+      <c r="Q54" s="33"/>
+      <c r="R54" s="33"/>
+      <c r="S54" s="33"/>
+      <c r="T54" s="35"/>
+      <c r="U54" s="46"/>
+      <c r="V54" s="46"/>
+      <c r="W54" s="46"/>
+      <c r="X54" s="33"/>
+    </row>
+    <row r="55" spans="1:24" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A55" s="4">
+        <v>50</v>
+      </c>
+      <c r="B55" s="68"/>
+      <c r="C55" s="68"/>
+      <c r="D55" s="33"/>
+      <c r="E55" s="33"/>
+      <c r="F55" s="33"/>
+      <c r="G55" s="33"/>
+      <c r="H55" s="33"/>
+      <c r="I55" s="58"/>
+      <c r="J55" s="33"/>
+      <c r="K55" s="33"/>
+      <c r="L55" s="34"/>
+      <c r="M55" s="33"/>
+      <c r="N55" s="19"/>
+      <c r="O55" s="19"/>
+      <c r="P55" s="33"/>
+      <c r="Q55" s="33"/>
+      <c r="R55" s="33"/>
+      <c r="S55" s="33"/>
+      <c r="T55" s="36"/>
+      <c r="U55" s="46"/>
+      <c r="V55" s="46"/>
+      <c r="W55" s="46"/>
+      <c r="X55" s="33"/>
+    </row>
+    <row r="56" spans="1:24" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="U56" s="25"/>
+      <c r="V56" s="25"/>
+      <c r="W56" s="25"/>
+    </row>
+    <row r="57" spans="1:24" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="U57" s="25"/>
+      <c r="V57" s="25"/>
+      <c r="W57" s="25"/>
+    </row>
+  </sheetData>
+  <mergeCells count="18">
+    <mergeCell ref="U6:U11"/>
+    <mergeCell ref="U12:U16"/>
+    <mergeCell ref="P4:P5"/>
+    <mergeCell ref="Q4:Q5"/>
+    <mergeCell ref="R4:R5"/>
+    <mergeCell ref="S4:S5"/>
+    <mergeCell ref="U4:U5"/>
+    <mergeCell ref="V4:V5"/>
+    <mergeCell ref="A1:V1"/>
+    <mergeCell ref="A2:D2"/>
+    <mergeCell ref="E2:F2"/>
+    <mergeCell ref="A4:A5"/>
+    <mergeCell ref="B4:I4"/>
+    <mergeCell ref="J4:J5"/>
+    <mergeCell ref="K4:L4"/>
+    <mergeCell ref="M4:M5"/>
+    <mergeCell ref="N4:N5"/>
+    <mergeCell ref="O4:O5"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:X57"/>
   <sheetViews>
@@ -12222,41 +14026,41 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="84" t="s">
+      <c r="A1" s="86" t="s">
         <v>62</v>
       </c>
-      <c r="B1" s="84"/>
-      <c r="C1" s="84"/>
-      <c r="D1" s="84"/>
-      <c r="E1" s="84"/>
-      <c r="F1" s="84"/>
-      <c r="G1" s="84"/>
-      <c r="H1" s="84"/>
-      <c r="I1" s="84"/>
-      <c r="J1" s="84"/>
-      <c r="K1" s="84"/>
-      <c r="L1" s="84"/>
-      <c r="M1" s="84"/>
-      <c r="N1" s="84"/>
-      <c r="O1" s="84"/>
-      <c r="P1" s="84"/>
-      <c r="Q1" s="84"/>
-      <c r="R1" s="84"/>
-      <c r="S1" s="84"/>
-      <c r="T1" s="84"/>
-      <c r="U1" s="84"/>
-      <c r="V1" s="84"/>
+      <c r="B1" s="86"/>
+      <c r="C1" s="86"/>
+      <c r="D1" s="86"/>
+      <c r="E1" s="86"/>
+      <c r="F1" s="86"/>
+      <c r="G1" s="86"/>
+      <c r="H1" s="86"/>
+      <c r="I1" s="86"/>
+      <c r="J1" s="86"/>
+      <c r="K1" s="86"/>
+      <c r="L1" s="86"/>
+      <c r="M1" s="86"/>
+      <c r="N1" s="86"/>
+      <c r="O1" s="86"/>
+      <c r="P1" s="86"/>
+      <c r="Q1" s="86"/>
+      <c r="R1" s="86"/>
+      <c r="S1" s="86"/>
+      <c r="T1" s="86"/>
+      <c r="U1" s="86"/>
+      <c r="V1" s="86"/>
       <c r="W1" s="47"/>
     </row>
     <row r="2" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="85" t="s">
+      <c r="A2" s="87" t="s">
         <v>9</v>
       </c>
-      <c r="B2" s="86"/>
-      <c r="C2" s="86"/>
-      <c r="D2" s="86"/>
-      <c r="E2" s="87"/>
-      <c r="F2" s="87"/>
+      <c r="B2" s="88"/>
+      <c r="C2" s="88"/>
+      <c r="D2" s="88"/>
+      <c r="E2" s="89"/>
+      <c r="F2" s="89"/>
       <c r="G2" s="5"/>
       <c r="H2" s="21"/>
       <c r="I2" s="21"/>
@@ -12301,58 +14105,58 @@
       <c r="W3" s="27"/>
     </row>
     <row r="4" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="88" t="s">
-        <v>0</v>
-      </c>
-      <c r="B4" s="82" t="s">
+      <c r="A4" s="90" t="s">
+        <v>0</v>
+      </c>
+      <c r="B4" s="84" t="s">
         <v>8</v>
       </c>
-      <c r="C4" s="82"/>
-      <c r="D4" s="82"/>
-      <c r="E4" s="82"/>
-      <c r="F4" s="82"/>
-      <c r="G4" s="82"/>
-      <c r="H4" s="82"/>
-      <c r="I4" s="82"/>
-      <c r="J4" s="82" t="s">
+      <c r="C4" s="84"/>
+      <c r="D4" s="84"/>
+      <c r="E4" s="84"/>
+      <c r="F4" s="84"/>
+      <c r="G4" s="84"/>
+      <c r="H4" s="84"/>
+      <c r="I4" s="84"/>
+      <c r="J4" s="84" t="s">
         <v>6</v>
       </c>
-      <c r="K4" s="82" t="s">
+      <c r="K4" s="84" t="s">
         <v>11</v>
       </c>
-      <c r="L4" s="82"/>
-      <c r="M4" s="89" t="s">
+      <c r="L4" s="84"/>
+      <c r="M4" s="91" t="s">
         <v>42</v>
       </c>
-      <c r="N4" s="89" t="s">
+      <c r="N4" s="91" t="s">
         <v>10</v>
       </c>
-      <c r="O4" s="82" t="s">
+      <c r="O4" s="84" t="s">
         <v>7</v>
       </c>
-      <c r="P4" s="81" t="s">
+      <c r="P4" s="83" t="s">
         <v>14</v>
       </c>
-      <c r="Q4" s="82" t="s">
+      <c r="Q4" s="84" t="s">
         <v>39</v>
       </c>
-      <c r="R4" s="82" t="s">
+      <c r="R4" s="84" t="s">
         <v>53</v>
       </c>
-      <c r="S4" s="83" t="s">
+      <c r="S4" s="85" t="s">
         <v>54</v>
       </c>
       <c r="T4" s="27"/>
-      <c r="U4" s="82" t="s">
+      <c r="U4" s="84" t="s">
         <v>39</v>
       </c>
-      <c r="V4" s="82" t="s">
+      <c r="V4" s="84" t="s">
         <v>53</v>
       </c>
       <c r="W4" s="48"/>
     </row>
     <row r="5" spans="1:23" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="88"/>
+      <c r="A5" s="90"/>
       <c r="B5" s="44" t="s">
         <v>1</v>
       </c>
@@ -12377,23 +14181,23 @@
       <c r="I5" s="44" t="s">
         <v>15</v>
       </c>
-      <c r="J5" s="82"/>
+      <c r="J5" s="84"/>
       <c r="K5" s="44" t="s">
         <v>12</v>
       </c>
       <c r="L5" s="44" t="s">
         <v>13</v>
       </c>
-      <c r="M5" s="90"/>
-      <c r="N5" s="90"/>
-      <c r="O5" s="82"/>
-      <c r="P5" s="81"/>
-      <c r="Q5" s="82"/>
-      <c r="R5" s="82"/>
-      <c r="S5" s="83"/>
+      <c r="M5" s="92"/>
+      <c r="N5" s="92"/>
+      <c r="O5" s="84"/>
+      <c r="P5" s="83"/>
+      <c r="Q5" s="84"/>
+      <c r="R5" s="84"/>
+      <c r="S5" s="85"/>
       <c r="T5" s="27"/>
-      <c r="U5" s="82"/>
-      <c r="V5" s="82"/>
+      <c r="U5" s="84"/>
+      <c r="V5" s="84"/>
       <c r="W5" s="48"/>
     </row>
     <row r="6" spans="1:23" s="12" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -12419,7 +14223,7 @@
       <c r="R6" s="38"/>
       <c r="S6" s="4"/>
       <c r="T6" s="43"/>
-      <c r="U6" s="78" t="s">
+      <c r="U6" s="80" t="s">
         <v>18</v>
       </c>
       <c r="V6" s="4" t="s">
@@ -12450,7 +14254,7 @@
       <c r="R7" s="38"/>
       <c r="S7" s="4"/>
       <c r="T7" s="43"/>
-      <c r="U7" s="79"/>
+      <c r="U7" s="81"/>
       <c r="V7" s="4" t="s">
         <v>35</v>
       </c>
@@ -12479,7 +14283,7 @@
       <c r="R8" s="38"/>
       <c r="S8" s="4"/>
       <c r="T8" s="43"/>
-      <c r="U8" s="79"/>
+      <c r="U8" s="81"/>
       <c r="V8" s="4" t="s">
         <v>21</v>
       </c>
@@ -12508,7 +14312,7 @@
       <c r="R9" s="38"/>
       <c r="S9" s="4"/>
       <c r="T9" s="43"/>
-      <c r="U9" s="79"/>
+      <c r="U9" s="81"/>
       <c r="V9" s="4" t="s">
         <v>51</v>
       </c>
@@ -12537,7 +14341,7 @@
       <c r="R10" s="38"/>
       <c r="S10" s="4"/>
       <c r="T10" s="43"/>
-      <c r="U10" s="79"/>
+      <c r="U10" s="81"/>
       <c r="V10" s="4" t="s">
         <v>31</v>
       </c>
@@ -12566,7 +14370,7 @@
       <c r="R11" s="38"/>
       <c r="S11" s="4"/>
       <c r="T11" s="43"/>
-      <c r="U11" s="79"/>
+      <c r="U11" s="81"/>
       <c r="V11" s="4" t="s">
         <v>30</v>
       </c>
@@ -12595,7 +14399,7 @@
       <c r="R12" s="38"/>
       <c r="S12" s="4"/>
       <c r="T12" s="43"/>
-      <c r="U12" s="78" t="s">
+      <c r="U12" s="80" t="s">
         <v>19</v>
       </c>
       <c r="V12" s="4" t="s">
@@ -12626,7 +14430,7 @@
       <c r="R13" s="10"/>
       <c r="S13" s="4"/>
       <c r="T13" s="43"/>
-      <c r="U13" s="79"/>
+      <c r="U13" s="81"/>
       <c r="V13" s="4" t="s">
         <v>37</v>
       </c>
@@ -12655,7 +14459,7 @@
       <c r="R14" s="38"/>
       <c r="S14" s="4"/>
       <c r="T14" s="43"/>
-      <c r="U14" s="79"/>
+      <c r="U14" s="81"/>
       <c r="V14" s="4" t="s">
         <v>36</v>
       </c>
@@ -12684,7 +14488,7 @@
       <c r="R15" s="38"/>
       <c r="S15" s="4"/>
       <c r="T15" s="14"/>
-      <c r="U15" s="79"/>
+      <c r="U15" s="81"/>
       <c r="V15" s="4" t="s">
         <v>24</v>
       </c>
@@ -12713,7 +14517,7 @@
       <c r="R16" s="38"/>
       <c r="S16" s="4"/>
       <c r="T16" s="14"/>
-      <c r="U16" s="80"/>
+      <c r="U16" s="82"/>
       <c r="V16" s="4" t="s">
         <v>25</v>
       </c>

--- a/5. WS/1. Bộ phận bảo hành/1. Thực hiện sửa chữa bảo hành/nam2021/Thang6/02.XuLyBH/XLBH2106_AnhTuanNB.xlsx
+++ b/5. WS/1. Bộ phận bảo hành/1. Thực hiện sửa chữa bảo hành/nam2021/Thang6/02.XuLyBH/XLBH2106_AnhTuanNB.xlsx
@@ -9,11 +9,11 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="-15" yWindow="4035" windowWidth="10320" windowHeight="4065" activeTab="6"/>
+    <workbookView xWindow="-15" yWindow="4035" windowWidth="10320" windowHeight="4065" activeTab="4"/>
   </bookViews>
   <sheets>
-    <sheet name="TOP-1" sheetId="36" r:id="rId1"/>
-    <sheet name="TG102LE-4G" sheetId="35" r:id="rId2"/>
+    <sheet name="TG102LE-4G" sheetId="35" r:id="rId1"/>
+    <sheet name="TOP-1" sheetId="36" r:id="rId2"/>
     <sheet name="TG102E" sheetId="33" r:id="rId3"/>
     <sheet name="TG102LE" sheetId="32" r:id="rId4"/>
     <sheet name="TG102V" sheetId="34" r:id="rId5"/>
@@ -25,26 +25,26 @@
     <definedName name="_xlnm._FilterDatabase" localSheetId="6" hidden="1">PhuKien!$S$4:$S$51</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">TG102E!$S$4:$S$51</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="3" hidden="1">TG102LE!$S$4:$S$51</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">'TG102LE-4G'!$S$4:$S$51</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'TG102LE-4G'!$S$4:$S$51</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="5" hidden="1">TG102SE!$S$4:$S$51</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="4" hidden="1">TG102V!$S$4:$S$51</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="7" hidden="1">TongThang!$S$4:$S$51</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'TOP-1'!$S$4:$S$51</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">'TOP-1'!$S$4:$S$51</definedName>
     <definedName name="_xlnm.Criteria" localSheetId="6">PhuKien!$S$4:$S$51</definedName>
     <definedName name="_xlnm.Criteria" localSheetId="2">TG102E!$S$4:$S$51</definedName>
     <definedName name="_xlnm.Criteria" localSheetId="3">TG102LE!$S$4:$S$51</definedName>
-    <definedName name="_xlnm.Criteria" localSheetId="1">'TG102LE-4G'!$S$4:$S$51</definedName>
+    <definedName name="_xlnm.Criteria" localSheetId="0">'TG102LE-4G'!$S$4:$S$51</definedName>
     <definedName name="_xlnm.Criteria" localSheetId="5">TG102SE!$S$4:$S$51</definedName>
     <definedName name="_xlnm.Criteria" localSheetId="4">TG102V!$S$4:$S$51</definedName>
     <definedName name="_xlnm.Criteria" localSheetId="7">TongThang!$S$4:$S$51</definedName>
-    <definedName name="_xlnm.Criteria" localSheetId="0">'TOP-1'!$S$4:$S$51</definedName>
+    <definedName name="_xlnm.Criteria" localSheetId="1">'TOP-1'!$S$4:$S$51</definedName>
   </definedNames>
   <calcPr calcId="152511"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="673" uniqueCount="100">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="798" uniqueCount="132">
   <si>
     <t>STT</t>
   </si>
@@ -252,9 +252,6 @@
     <t>TG102V</t>
   </si>
   <si>
-    <t>Thaco Giải Phóng (bạn Hướng)</t>
-  </si>
-  <si>
     <t>TG102SE</t>
   </si>
   <si>
@@ -349,6 +346,105 @@
   </si>
   <si>
     <t>SL: 3</t>
+  </si>
+  <si>
+    <t>LE.2.00.---27.200525</t>
+  </si>
+  <si>
+    <t>Lock: 125.212.203.114,16565</t>
+  </si>
+  <si>
+    <t>LE.1.00.---05.190404</t>
+  </si>
+  <si>
+    <t>Lỗi connector</t>
+  </si>
+  <si>
+    <t>LK,NCFW</t>
+  </si>
+  <si>
+    <t>Xử lý lại connector, nâng cấp FW</t>
+  </si>
+  <si>
+    <t>Hết hạn dịch vụ, sim lỗi</t>
+  </si>
+  <si>
+    <t>Đổi mới thiết bị</t>
+  </si>
+  <si>
+    <t>Thiết bị treo</t>
+  </si>
+  <si>
+    <t>Nạp lại FW</t>
+  </si>
+  <si>
+    <t>Thiếu linh kiện giữ lại</t>
+  </si>
+  <si>
+    <t>Cos nguồn lỗi</t>
+  </si>
+  <si>
+    <t>Đổi mới</t>
+  </si>
+  <si>
+    <t>Imei mới: 861881051084938</t>
+  </si>
+  <si>
+    <t>DM</t>
+  </si>
+  <si>
+    <t>SE.3.00.---01.120817</t>
+  </si>
+  <si>
+    <t>SE.4.00.---06.200630</t>
+  </si>
+  <si>
+    <t>SE.3.00.---02.180115</t>
+  </si>
+  <si>
+    <t>Thiết bị chập nguồn 4v4</t>
+  </si>
+  <si>
+    <t>Thay diode, nâng cấp FW</t>
+  </si>
+  <si>
+    <t>SE.3.00.---02.180711</t>
+  </si>
+  <si>
+    <t>Lock: 125.212.203.114,16464</t>
+  </si>
+  <si>
+    <t>Lock: 125.212.203.114,16969</t>
+  </si>
+  <si>
+    <t>SE.4.00.---05.200416</t>
+  </si>
+  <si>
+    <t>SE.3.00.---02.180404</t>
+  </si>
+  <si>
+    <t>SE.3.00.---01.150917</t>
+  </si>
+  <si>
+    <t>Trả lắp đặt</t>
+  </si>
+  <si>
+    <t>Thaco Giải Phóng (bạn Hướng),Trả lắp đặt</t>
+  </si>
+  <si>
+    <t>Imei mới: 862846048307444, Trả lắp đặt</t>
+  </si>
+  <si>
+    <t>Imei mới: 862846048307360, Trả lắp đặt</t>
+  </si>
+  <si>
+    <t>Sim lỗi, Hết hạn DV, Trả lắp đặt</t>
+  </si>
+  <si>
+    <t>Thay module GSM, nâng cấp FW</t>
+  </si>
+  <si>
+    <t>GSM, NCFW</t>
   </si>
 </sst>
 </file>
@@ -548,7 +644,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="93">
+  <cellXfs count="96">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -825,6 +921,15 @@
     </xf>
     <xf numFmtId="0" fontId="7" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="3" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="4" fontId="3" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="4" fontId="3" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1133,7 +1238,7 @@
   <dimension ref="A1:X57"/>
   <sheetViews>
     <sheetView showZeros="0" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B6" sqref="B6:S8"/>
+      <selection activeCell="D7" sqref="D7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -1302,29 +1407,29 @@
       <c r="C5" s="64" t="s">
         <v>2</v>
       </c>
-      <c r="D5" s="76" t="s">
+      <c r="D5" s="74" t="s">
         <v>3</v>
       </c>
-      <c r="E5" s="76" t="s">
+      <c r="E5" s="74" t="s">
         <v>43</v>
       </c>
-      <c r="F5" s="76" t="s">
+      <c r="F5" s="74" t="s">
         <v>4</v>
       </c>
-      <c r="G5" s="76" t="s">
+      <c r="G5" s="74" t="s">
         <v>5</v>
       </c>
-      <c r="H5" s="76" t="s">
+      <c r="H5" s="74" t="s">
         <v>55</v>
       </c>
       <c r="I5" s="55" t="s">
         <v>15</v>
       </c>
       <c r="J5" s="84"/>
-      <c r="K5" s="76" t="s">
+      <c r="K5" s="74" t="s">
         <v>12</v>
       </c>
-      <c r="L5" s="76" t="s">
+      <c r="L5" s="74" t="s">
         <v>13</v>
       </c>
       <c r="M5" s="92"/>
@@ -1346,161 +1451,115 @@
       <c r="B6" s="37">
         <v>44364</v>
       </c>
-      <c r="C6" s="37"/>
+      <c r="C6" s="37">
+        <v>44370</v>
+      </c>
       <c r="D6" s="38" t="s">
-        <v>65</v>
+        <v>56</v>
       </c>
       <c r="E6" s="39">
-        <v>868183037838435</v>
+        <v>861881051089283</v>
       </c>
       <c r="F6" s="38"/>
       <c r="G6" s="38" t="s">
-        <v>64</v>
-      </c>
-      <c r="H6" s="38"/>
+        <v>5</v>
+      </c>
+      <c r="H6" s="38" t="s">
+        <v>112</v>
+      </c>
       <c r="I6" s="50" t="s">
-        <v>70</v>
+        <v>78</v>
       </c>
       <c r="J6" s="1" t="s">
-        <v>71</v>
+        <v>80</v>
       </c>
       <c r="K6" s="61" t="s">
-        <v>69</v>
+        <v>79</v>
       </c>
       <c r="L6" s="40"/>
       <c r="M6" s="40" t="s">
-        <v>72</v>
+        <v>106</v>
       </c>
       <c r="N6" s="41"/>
       <c r="O6" s="40" t="s">
+        <v>113</v>
+      </c>
+      <c r="P6" s="40" t="s">
         <v>73</v>
-      </c>
-      <c r="P6" s="40" t="s">
-        <v>74</v>
       </c>
       <c r="Q6" s="3" t="s">
         <v>18</v>
       </c>
       <c r="R6" s="38" t="s">
-        <v>21</v>
+        <v>35</v>
       </c>
       <c r="S6" s="4"/>
-      <c r="T6" s="77"/>
+      <c r="T6" s="75"/>
       <c r="U6" s="80" t="s">
         <v>18</v>
       </c>
       <c r="V6" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="W6" s="77"/>
+      <c r="W6" s="75"/>
     </row>
     <row r="7" spans="1:23" s="12" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="4">
         <v>2</v>
       </c>
-      <c r="B7" s="37">
-        <v>44364</v>
-      </c>
+      <c r="B7" s="37"/>
       <c r="C7" s="37"/>
-      <c r="D7" s="38" t="s">
-        <v>65</v>
-      </c>
-      <c r="E7" s="39">
-        <v>868183037849200</v>
-      </c>
+      <c r="D7" s="38"/>
+      <c r="E7" s="39"/>
       <c r="F7" s="38"/>
-      <c r="G7" s="38" t="s">
-        <v>64</v>
-      </c>
+      <c r="G7" s="38"/>
       <c r="H7" s="38"/>
-      <c r="I7" s="50" t="s">
-        <v>76</v>
-      </c>
-      <c r="J7" s="40" t="s">
-        <v>77</v>
-      </c>
-      <c r="K7" s="61" t="s">
-        <v>75</v>
-      </c>
-      <c r="L7" s="61" t="s">
-        <v>69</v>
-      </c>
-      <c r="M7" s="40" t="s">
-        <v>78</v>
-      </c>
+      <c r="I7" s="50"/>
+      <c r="J7" s="40"/>
+      <c r="K7" s="61"/>
+      <c r="L7" s="40"/>
+      <c r="M7" s="40"/>
       <c r="N7" s="41"/>
-      <c r="O7" s="40" t="s">
-        <v>73</v>
-      </c>
-      <c r="P7" s="40" t="s">
-        <v>74</v>
-      </c>
-      <c r="Q7" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="R7" s="38" t="s">
-        <v>31</v>
-      </c>
+      <c r="O7" s="40"/>
+      <c r="P7" s="40"/>
+      <c r="Q7" s="3"/>
+      <c r="R7" s="38"/>
       <c r="S7" s="4"/>
-      <c r="T7" s="77"/>
+      <c r="T7" s="75"/>
       <c r="U7" s="81"/>
       <c r="V7" s="4" t="s">
         <v>35</v>
       </c>
-      <c r="W7" s="77"/>
+      <c r="W7" s="75"/>
     </row>
     <row r="8" spans="1:23" s="12" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="4">
         <v>3</v>
       </c>
-      <c r="B8" s="37">
-        <v>44364</v>
-      </c>
+      <c r="B8" s="37"/>
       <c r="C8" s="37"/>
-      <c r="D8" s="38" t="s">
-        <v>65</v>
-      </c>
-      <c r="E8" s="39">
-        <v>868183037812083</v>
-      </c>
+      <c r="D8" s="38"/>
+      <c r="E8" s="39"/>
       <c r="F8" s="38"/>
-      <c r="G8" s="38" t="s">
-        <v>64</v>
-      </c>
+      <c r="G8" s="38"/>
       <c r="H8" s="52"/>
-      <c r="I8" s="50" t="s">
-        <v>70</v>
-      </c>
-      <c r="J8" s="40" t="s">
-        <v>85</v>
-      </c>
-      <c r="K8" s="60" t="s">
-        <v>69</v>
-      </c>
+      <c r="I8" s="50"/>
+      <c r="J8" s="40"/>
+      <c r="K8" s="60"/>
       <c r="L8" s="40"/>
-      <c r="M8" s="40" t="s">
-        <v>84</v>
-      </c>
+      <c r="M8" s="40"/>
       <c r="N8" s="41"/>
-      <c r="O8" s="40" t="s">
-        <v>73</v>
-      </c>
-      <c r="P8" s="40" t="s">
-        <v>74</v>
-      </c>
-      <c r="Q8" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="R8" s="38" t="s">
-        <v>25</v>
-      </c>
+      <c r="O8" s="40"/>
+      <c r="P8" s="40"/>
+      <c r="Q8" s="3"/>
+      <c r="R8" s="38"/>
       <c r="S8" s="4"/>
-      <c r="T8" s="77"/>
+      <c r="T8" s="75"/>
       <c r="U8" s="81"/>
       <c r="V8" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="W8" s="77"/>
+      <c r="W8" s="75"/>
     </row>
     <row r="9" spans="1:23" s="12" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="4">
@@ -1524,12 +1583,12 @@
       <c r="Q9" s="3"/>
       <c r="R9" s="38"/>
       <c r="S9" s="4"/>
-      <c r="T9" s="77"/>
+      <c r="T9" s="75"/>
       <c r="U9" s="81"/>
       <c r="V9" s="4" t="s">
         <v>51</v>
       </c>
-      <c r="W9" s="77"/>
+      <c r="W9" s="75"/>
     </row>
     <row r="10" spans="1:23" s="12" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="4">
@@ -1553,12 +1612,12 @@
       <c r="Q10" s="3"/>
       <c r="R10" s="38"/>
       <c r="S10" s="4"/>
-      <c r="T10" s="77"/>
+      <c r="T10" s="75"/>
       <c r="U10" s="81"/>
       <c r="V10" s="4" t="s">
         <v>31</v>
       </c>
-      <c r="W10" s="77"/>
+      <c r="W10" s="75"/>
     </row>
     <row r="11" spans="1:23" s="12" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="4">
@@ -1582,12 +1641,12 @@
       <c r="Q11" s="3"/>
       <c r="R11" s="38"/>
       <c r="S11" s="4"/>
-      <c r="T11" s="77"/>
+      <c r="T11" s="75"/>
       <c r="U11" s="81"/>
       <c r="V11" s="4" t="s">
         <v>30</v>
       </c>
-      <c r="W11" s="77"/>
+      <c r="W11" s="75"/>
     </row>
     <row r="12" spans="1:23" s="12" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="4">
@@ -1611,14 +1670,14 @@
       <c r="Q12" s="4"/>
       <c r="R12" s="38"/>
       <c r="S12" s="4"/>
-      <c r="T12" s="77"/>
+      <c r="T12" s="75"/>
       <c r="U12" s="80" t="s">
         <v>19</v>
       </c>
       <c r="V12" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="W12" s="77"/>
+      <c r="W12" s="75"/>
     </row>
     <row r="13" spans="1:23" s="12" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="4">
@@ -1642,12 +1701,12 @@
       <c r="Q13" s="3"/>
       <c r="R13" s="10"/>
       <c r="S13" s="4"/>
-      <c r="T13" s="77"/>
+      <c r="T13" s="75"/>
       <c r="U13" s="81"/>
       <c r="V13" s="4" t="s">
         <v>37</v>
       </c>
-      <c r="W13" s="77"/>
+      <c r="W13" s="75"/>
     </row>
     <row r="14" spans="1:23" s="12" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="4">
@@ -1671,12 +1730,12 @@
       <c r="Q14" s="4"/>
       <c r="R14" s="38"/>
       <c r="S14" s="4"/>
-      <c r="T14" s="77"/>
+      <c r="T14" s="75"/>
       <c r="U14" s="81"/>
       <c r="V14" s="4" t="s">
         <v>36</v>
       </c>
-      <c r="W14" s="77"/>
+      <c r="W14" s="75"/>
     </row>
     <row r="15" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="4">
@@ -1705,7 +1764,7 @@
       <c r="V15" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="W15" s="77"/>
+      <c r="W15" s="75"/>
     </row>
     <row r="16" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="4">
@@ -1734,7 +1793,7 @@
       <c r="V16" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="W16" s="77"/>
+      <c r="W16" s="75"/>
     </row>
     <row r="17" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="4">
@@ -1759,9 +1818,9 @@
       <c r="R17" s="38"/>
       <c r="S17" s="4"/>
       <c r="T17" s="14"/>
-      <c r="U17" s="77"/>
+      <c r="U17" s="75"/>
       <c r="V17" s="15"/>
-      <c r="W17" s="77"/>
+      <c r="W17" s="75"/>
     </row>
     <row r="18" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="4">
@@ -1813,7 +1872,7 @@
       <c r="R19" s="10"/>
       <c r="S19" s="4"/>
       <c r="T19" s="14"/>
-      <c r="U19" s="76" t="s">
+      <c r="U19" s="74" t="s">
         <v>39</v>
       </c>
       <c r="V19" s="17" t="s">
@@ -1849,7 +1908,7 @@
       </c>
       <c r="V20" s="10">
         <f>COUNTIF($Q$6:$Q$51,"PM")</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="W20" s="14"/>
     </row>
@@ -1881,7 +1940,7 @@
       </c>
       <c r="V21" s="10">
         <f>COUNTIF($Q$6:$Q$51,"PC")</f>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="W21" s="14"/>
     </row>
@@ -1994,7 +2053,7 @@
       <c r="R25" s="10"/>
       <c r="S25" s="4"/>
       <c r="T25" s="14"/>
-      <c r="U25" s="76" t="s">
+      <c r="U25" s="74" t="s">
         <v>46</v>
       </c>
       <c r="V25" s="17" t="s">
@@ -2062,7 +2121,7 @@
       </c>
       <c r="V27" s="10">
         <f>COUNTIF($R$6:$R$51,"*GSM*")</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="W27" s="14"/>
     </row>
@@ -2094,7 +2153,7 @@
       </c>
       <c r="V28" s="10">
         <f>COUNTIF($R$6:$R$51,"*GPS*")</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="W28" s="14"/>
     </row>
@@ -2126,7 +2185,7 @@
       </c>
       <c r="V29" s="10">
         <f>COUNTIF($R$6:$R$51,"*NG*")</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="W29" s="14"/>
     </row>
@@ -2350,7 +2409,7 @@
       </c>
       <c r="V36" s="10">
         <f>COUNTIF($R$6:$R$51,"*KL*")</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="W36" s="14"/>
     </row>
@@ -2382,7 +2441,7 @@
       </c>
       <c r="V37" s="10">
         <f>SUM(V26:V36)</f>
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="W37" s="14"/>
     </row>
@@ -2468,7 +2527,7 @@
       </c>
       <c r="V40" s="10">
         <f>COUNTIF($O$6:$O$51,"*DM*")</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="W40" s="14"/>
     </row>
@@ -2989,8 +3048,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:X57"/>
   <sheetViews>
-    <sheetView showZeros="0" topLeftCell="L1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B6" sqref="B6:S6"/>
+    <sheetView showZeros="0" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C8" sqref="C8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -3159,29 +3218,29 @@
       <c r="C5" s="64" t="s">
         <v>2</v>
       </c>
-      <c r="D5" s="74" t="s">
+      <c r="D5" s="76" t="s">
         <v>3</v>
       </c>
-      <c r="E5" s="74" t="s">
+      <c r="E5" s="76" t="s">
         <v>43</v>
       </c>
-      <c r="F5" s="74" t="s">
+      <c r="F5" s="76" t="s">
         <v>4</v>
       </c>
-      <c r="G5" s="74" t="s">
+      <c r="G5" s="76" t="s">
         <v>5</v>
       </c>
-      <c r="H5" s="74" t="s">
+      <c r="H5" s="76" t="s">
         <v>55</v>
       </c>
       <c r="I5" s="55" t="s">
         <v>15</v>
       </c>
       <c r="J5" s="84"/>
-      <c r="K5" s="74" t="s">
+      <c r="K5" s="76" t="s">
         <v>12</v>
       </c>
-      <c r="L5" s="74" t="s">
+      <c r="L5" s="76" t="s">
         <v>13</v>
       </c>
       <c r="M5" s="92"/>
@@ -3203,107 +3262,167 @@
       <c r="B6" s="37">
         <v>44364</v>
       </c>
-      <c r="C6" s="37"/>
+      <c r="C6" s="37">
+        <v>44370</v>
+      </c>
       <c r="D6" s="38" t="s">
-        <v>56</v>
+        <v>65</v>
       </c>
       <c r="E6" s="39">
-        <v>861881051089283</v>
+        <v>868183037838435</v>
       </c>
       <c r="F6" s="38"/>
       <c r="G6" s="38" t="s">
-        <v>5</v>
+        <v>64</v>
       </c>
       <c r="H6" s="38"/>
       <c r="I6" s="50" t="s">
-        <v>79</v>
+        <v>69</v>
       </c>
       <c r="J6" s="1" t="s">
-        <v>81</v>
+        <v>70</v>
       </c>
       <c r="K6" s="61" t="s">
-        <v>80</v>
+        <v>68</v>
       </c>
       <c r="L6" s="40"/>
-      <c r="M6" s="40"/>
+      <c r="M6" s="40" t="s">
+        <v>71</v>
+      </c>
       <c r="N6" s="41"/>
-      <c r="O6" s="40"/>
+      <c r="O6" s="40" t="s">
+        <v>72</v>
+      </c>
       <c r="P6" s="40" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="Q6" s="3" t="s">
         <v>18</v>
       </c>
       <c r="R6" s="38" t="s">
-        <v>35</v>
+        <v>21</v>
       </c>
       <c r="S6" s="4"/>
-      <c r="T6" s="75"/>
+      <c r="T6" s="77"/>
       <c r="U6" s="80" t="s">
         <v>18</v>
       </c>
       <c r="V6" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="W6" s="75"/>
+      <c r="W6" s="77"/>
     </row>
     <row r="7" spans="1:23" s="12" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="4">
         <v>2</v>
       </c>
-      <c r="B7" s="37"/>
-      <c r="C7" s="37"/>
-      <c r="D7" s="38"/>
-      <c r="E7" s="39"/>
+      <c r="B7" s="37">
+        <v>44364</v>
+      </c>
+      <c r="C7" s="37">
+        <v>44370</v>
+      </c>
+      <c r="D7" s="38" t="s">
+        <v>65</v>
+      </c>
+      <c r="E7" s="39">
+        <v>868183037849200</v>
+      </c>
       <c r="F7" s="38"/>
-      <c r="G7" s="38"/>
+      <c r="G7" s="38" t="s">
+        <v>64</v>
+      </c>
       <c r="H7" s="38"/>
-      <c r="I7" s="50"/>
-      <c r="J7" s="40"/>
-      <c r="K7" s="61"/>
-      <c r="L7" s="40"/>
-      <c r="M7" s="40"/>
+      <c r="I7" s="50" t="s">
+        <v>75</v>
+      </c>
+      <c r="J7" s="40" t="s">
+        <v>76</v>
+      </c>
+      <c r="K7" s="61" t="s">
+        <v>74</v>
+      </c>
+      <c r="L7" s="61" t="s">
+        <v>68</v>
+      </c>
+      <c r="M7" s="40" t="s">
+        <v>77</v>
+      </c>
       <c r="N7" s="41"/>
-      <c r="O7" s="40"/>
-      <c r="P7" s="40"/>
-      <c r="Q7" s="3"/>
-      <c r="R7" s="38"/>
+      <c r="O7" s="40" t="s">
+        <v>72</v>
+      </c>
+      <c r="P7" s="40" t="s">
+        <v>73</v>
+      </c>
+      <c r="Q7" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="R7" s="38" t="s">
+        <v>31</v>
+      </c>
       <c r="S7" s="4"/>
-      <c r="T7" s="75"/>
+      <c r="T7" s="77"/>
       <c r="U7" s="81"/>
       <c r="V7" s="4" t="s">
         <v>35</v>
       </c>
-      <c r="W7" s="75"/>
+      <c r="W7" s="77"/>
     </row>
     <row r="8" spans="1:23" s="12" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="4">
         <v>3</v>
       </c>
-      <c r="B8" s="37"/>
-      <c r="C8" s="37"/>
-      <c r="D8" s="38"/>
-      <c r="E8" s="39"/>
+      <c r="B8" s="37">
+        <v>44364</v>
+      </c>
+      <c r="C8" s="37">
+        <v>44370</v>
+      </c>
+      <c r="D8" s="38" t="s">
+        <v>65</v>
+      </c>
+      <c r="E8" s="39">
+        <v>868183037812083</v>
+      </c>
       <c r="F8" s="38"/>
-      <c r="G8" s="38"/>
+      <c r="G8" s="38" t="s">
+        <v>64</v>
+      </c>
       <c r="H8" s="52"/>
-      <c r="I8" s="50"/>
-      <c r="J8" s="40"/>
-      <c r="K8" s="60"/>
+      <c r="I8" s="50" t="s">
+        <v>69</v>
+      </c>
+      <c r="J8" s="40" t="s">
+        <v>84</v>
+      </c>
+      <c r="K8" s="60" t="s">
+        <v>68</v>
+      </c>
       <c r="L8" s="40"/>
-      <c r="M8" s="40"/>
+      <c r="M8" s="40" t="s">
+        <v>83</v>
+      </c>
       <c r="N8" s="41"/>
-      <c r="O8" s="40"/>
-      <c r="P8" s="40"/>
-      <c r="Q8" s="3"/>
-      <c r="R8" s="38"/>
+      <c r="O8" s="40" t="s">
+        <v>72</v>
+      </c>
+      <c r="P8" s="40" t="s">
+        <v>73</v>
+      </c>
+      <c r="Q8" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="R8" s="38" t="s">
+        <v>25</v>
+      </c>
       <c r="S8" s="4"/>
-      <c r="T8" s="75"/>
+      <c r="T8" s="77"/>
       <c r="U8" s="81"/>
       <c r="V8" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="W8" s="75"/>
+      <c r="W8" s="77"/>
     </row>
     <row r="9" spans="1:23" s="12" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="4">
@@ -3327,12 +3446,12 @@
       <c r="Q9" s="3"/>
       <c r="R9" s="38"/>
       <c r="S9" s="4"/>
-      <c r="T9" s="75"/>
+      <c r="T9" s="77"/>
       <c r="U9" s="81"/>
       <c r="V9" s="4" t="s">
         <v>51</v>
       </c>
-      <c r="W9" s="75"/>
+      <c r="W9" s="77"/>
     </row>
     <row r="10" spans="1:23" s="12" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="4">
@@ -3356,12 +3475,12 @@
       <c r="Q10" s="3"/>
       <c r="R10" s="38"/>
       <c r="S10" s="4"/>
-      <c r="T10" s="75"/>
+      <c r="T10" s="77"/>
       <c r="U10" s="81"/>
       <c r="V10" s="4" t="s">
         <v>31</v>
       </c>
-      <c r="W10" s="75"/>
+      <c r="W10" s="77"/>
     </row>
     <row r="11" spans="1:23" s="12" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="4">
@@ -3385,12 +3504,12 @@
       <c r="Q11" s="3"/>
       <c r="R11" s="38"/>
       <c r="S11" s="4"/>
-      <c r="T11" s="75"/>
+      <c r="T11" s="77"/>
       <c r="U11" s="81"/>
       <c r="V11" s="4" t="s">
         <v>30</v>
       </c>
-      <c r="W11" s="75"/>
+      <c r="W11" s="77"/>
     </row>
     <row r="12" spans="1:23" s="12" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="4">
@@ -3414,14 +3533,14 @@
       <c r="Q12" s="4"/>
       <c r="R12" s="38"/>
       <c r="S12" s="4"/>
-      <c r="T12" s="75"/>
+      <c r="T12" s="77"/>
       <c r="U12" s="80" t="s">
         <v>19</v>
       </c>
       <c r="V12" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="W12" s="75"/>
+      <c r="W12" s="77"/>
     </row>
     <row r="13" spans="1:23" s="12" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="4">
@@ -3445,12 +3564,12 @@
       <c r="Q13" s="3"/>
       <c r="R13" s="10"/>
       <c r="S13" s="4"/>
-      <c r="T13" s="75"/>
+      <c r="T13" s="77"/>
       <c r="U13" s="81"/>
       <c r="V13" s="4" t="s">
         <v>37</v>
       </c>
-      <c r="W13" s="75"/>
+      <c r="W13" s="77"/>
     </row>
     <row r="14" spans="1:23" s="12" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="4">
@@ -3474,12 +3593,12 @@
       <c r="Q14" s="4"/>
       <c r="R14" s="38"/>
       <c r="S14" s="4"/>
-      <c r="T14" s="75"/>
+      <c r="T14" s="77"/>
       <c r="U14" s="81"/>
       <c r="V14" s="4" t="s">
         <v>36</v>
       </c>
-      <c r="W14" s="75"/>
+      <c r="W14" s="77"/>
     </row>
     <row r="15" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="4">
@@ -3508,7 +3627,7 @@
       <c r="V15" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="W15" s="75"/>
+      <c r="W15" s="77"/>
     </row>
     <row r="16" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="4">
@@ -3537,7 +3656,7 @@
       <c r="V16" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="W16" s="75"/>
+      <c r="W16" s="77"/>
     </row>
     <row r="17" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="4">
@@ -3562,9 +3681,9 @@
       <c r="R17" s="38"/>
       <c r="S17" s="4"/>
       <c r="T17" s="14"/>
-      <c r="U17" s="75"/>
+      <c r="U17" s="77"/>
       <c r="V17" s="15"/>
-      <c r="W17" s="75"/>
+      <c r="W17" s="77"/>
     </row>
     <row r="18" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="4">
@@ -3616,7 +3735,7 @@
       <c r="R19" s="10"/>
       <c r="S19" s="4"/>
       <c r="T19" s="14"/>
-      <c r="U19" s="74" t="s">
+      <c r="U19" s="76" t="s">
         <v>39</v>
       </c>
       <c r="V19" s="17" t="s">
@@ -3652,7 +3771,7 @@
       </c>
       <c r="V20" s="10">
         <f>COUNTIF($Q$6:$Q$51,"PM")</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="W20" s="14"/>
     </row>
@@ -3684,7 +3803,7 @@
       </c>
       <c r="V21" s="10">
         <f>COUNTIF($Q$6:$Q$51,"PC")</f>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="W21" s="14"/>
     </row>
@@ -3797,7 +3916,7 @@
       <c r="R25" s="10"/>
       <c r="S25" s="4"/>
       <c r="T25" s="14"/>
-      <c r="U25" s="74" t="s">
+      <c r="U25" s="76" t="s">
         <v>46</v>
       </c>
       <c r="V25" s="17" t="s">
@@ -3865,7 +3984,7 @@
       </c>
       <c r="V27" s="10">
         <f>COUNTIF($R$6:$R$51,"*GSM*")</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="W27" s="14"/>
     </row>
@@ -3897,7 +4016,7 @@
       </c>
       <c r="V28" s="10">
         <f>COUNTIF($R$6:$R$51,"*GPS*")</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="W28" s="14"/>
     </row>
@@ -3929,7 +4048,7 @@
       </c>
       <c r="V29" s="10">
         <f>COUNTIF($R$6:$R$51,"*NG*")</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="W29" s="14"/>
     </row>
@@ -4153,7 +4272,7 @@
       </c>
       <c r="V36" s="10">
         <f>COUNTIF($R$6:$R$51,"*KL*")</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="W36" s="14"/>
     </row>
@@ -4185,7 +4304,7 @@
       </c>
       <c r="V37" s="10">
         <f>SUM(V26:V36)</f>
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="W37" s="14"/>
     </row>
@@ -4792,8 +4911,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:X57"/>
   <sheetViews>
-    <sheetView showZeros="0" topLeftCell="L1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B6" sqref="B6:S7"/>
+    <sheetView showZeros="0" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C7" sqref="C7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -5006,7 +5125,9 @@
       <c r="B6" s="37">
         <v>44364</v>
       </c>
-      <c r="C6" s="37"/>
+      <c r="C6" s="37">
+        <v>44370</v>
+      </c>
       <c r="D6" s="38" t="s">
         <v>45</v>
       </c>
@@ -5019,24 +5140,24 @@
       </c>
       <c r="H6" s="38"/>
       <c r="I6" s="50" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="J6" s="1" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="K6" s="61" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="L6" s="40"/>
       <c r="M6" s="40" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="N6" s="41"/>
       <c r="O6" s="40" t="s">
+        <v>72</v>
+      </c>
+      <c r="P6" s="40" t="s">
         <v>73</v>
-      </c>
-      <c r="P6" s="40" t="s">
-        <v>74</v>
       </c>
       <c r="Q6" s="3" t="s">
         <v>19</v>
@@ -5061,7 +5182,9 @@
       <c r="B7" s="37">
         <v>44364</v>
       </c>
-      <c r="C7" s="37"/>
+      <c r="C7" s="37">
+        <v>44370</v>
+      </c>
       <c r="D7" s="38" t="s">
         <v>45</v>
       </c>
@@ -5074,24 +5197,24 @@
       </c>
       <c r="H7" s="38"/>
       <c r="I7" s="50" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="J7" s="1" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="K7" s="61" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="L7" s="40"/>
       <c r="M7" s="40" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="N7" s="41"/>
       <c r="O7" s="40" t="s">
+        <v>72</v>
+      </c>
+      <c r="P7" s="40" t="s">
         <v>73</v>
-      </c>
-      <c r="P7" s="40" t="s">
-        <v>74</v>
       </c>
       <c r="Q7" s="3" t="s">
         <v>19</v>
@@ -6595,13 +6718,6 @@
     </row>
   </sheetData>
   <mergeCells count="18">
-    <mergeCell ref="U6:U11"/>
-    <mergeCell ref="U12:U16"/>
-    <mergeCell ref="P4:P5"/>
-    <mergeCell ref="Q4:Q5"/>
-    <mergeCell ref="R4:R5"/>
-    <mergeCell ref="S4:S5"/>
-    <mergeCell ref="U4:U5"/>
     <mergeCell ref="V4:V5"/>
     <mergeCell ref="A1:V1"/>
     <mergeCell ref="A2:D2"/>
@@ -6613,6 +6729,13 @@
     <mergeCell ref="M4:M5"/>
     <mergeCell ref="N4:N5"/>
     <mergeCell ref="O4:O5"/>
+    <mergeCell ref="U6:U11"/>
+    <mergeCell ref="U12:U16"/>
+    <mergeCell ref="P4:P5"/>
+    <mergeCell ref="Q4:Q5"/>
+    <mergeCell ref="R4:R5"/>
+    <mergeCell ref="S4:S5"/>
+    <mergeCell ref="U4:U5"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -6624,7 +6747,7 @@
   <dimension ref="A1:X57"/>
   <sheetViews>
     <sheetView showZeros="0" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B6" sqref="B6:S14"/>
+      <selection activeCell="E18" sqref="E18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -6837,7 +6960,9 @@
       <c r="B6" s="37">
         <v>44364</v>
       </c>
-      <c r="C6" s="37"/>
+      <c r="C6" s="37">
+        <v>44370</v>
+      </c>
       <c r="D6" s="38" t="s">
         <v>44</v>
       </c>
@@ -6850,30 +6975,30 @@
       </c>
       <c r="H6" s="38"/>
       <c r="I6" s="50" t="s">
+        <v>86</v>
+      </c>
+      <c r="J6" s="1" t="s">
         <v>87</v>
       </c>
-      <c r="J6" s="1" t="s">
-        <v>88</v>
-      </c>
       <c r="K6" s="61" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="L6" s="40"/>
       <c r="M6" s="40" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="N6" s="41"/>
       <c r="O6" s="40" t="s">
+        <v>72</v>
+      </c>
+      <c r="P6" s="40" t="s">
         <v>73</v>
       </c>
-      <c r="P6" s="40" t="s">
-        <v>74</v>
-      </c>
       <c r="Q6" s="3" t="s">
+        <v>89</v>
+      </c>
+      <c r="R6" s="38" t="s">
         <v>90</v>
-      </c>
-      <c r="R6" s="38" t="s">
-        <v>91</v>
       </c>
       <c r="S6" s="4"/>
       <c r="T6" s="72"/>
@@ -6892,7 +7017,9 @@
       <c r="B7" s="37">
         <v>44364</v>
       </c>
-      <c r="C7" s="37"/>
+      <c r="C7" s="37">
+        <v>44370</v>
+      </c>
       <c r="D7" s="38" t="s">
         <v>44</v>
       </c>
@@ -6900,33 +7027,33 @@
         <v>868183038490038</v>
       </c>
       <c r="F7" s="38" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="G7" s="38" t="s">
         <v>63</v>
       </c>
       <c r="H7" s="38" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="I7" s="50" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="J7" s="40" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="K7" s="61" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="L7" s="40"/>
       <c r="M7" s="40" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="N7" s="41"/>
       <c r="O7" s="40" t="s">
+        <v>72</v>
+      </c>
+      <c r="P7" s="40" t="s">
         <v>73</v>
-      </c>
-      <c r="P7" s="40" t="s">
-        <v>74</v>
       </c>
       <c r="Q7" s="3" t="s">
         <v>19</v>
@@ -6949,7 +7076,9 @@
       <c r="B8" s="37">
         <v>44364</v>
       </c>
-      <c r="C8" s="37"/>
+      <c r="C8" s="37">
+        <v>44370</v>
+      </c>
       <c r="D8" s="38" t="s">
         <v>44</v>
       </c>
@@ -6961,16 +7090,32 @@
         <v>64</v>
       </c>
       <c r="H8" s="52"/>
-      <c r="I8" s="50"/>
-      <c r="J8" s="40"/>
-      <c r="K8" s="60"/>
+      <c r="I8" s="50" t="s">
+        <v>69</v>
+      </c>
+      <c r="J8" s="40" t="s">
+        <v>84</v>
+      </c>
+      <c r="K8" s="60" t="s">
+        <v>68</v>
+      </c>
       <c r="L8" s="40"/>
-      <c r="M8" s="40"/>
+      <c r="M8" s="40" t="s">
+        <v>83</v>
+      </c>
       <c r="N8" s="41"/>
-      <c r="O8" s="40"/>
-      <c r="P8" s="40"/>
-      <c r="Q8" s="3"/>
-      <c r="R8" s="38"/>
+      <c r="O8" s="40" t="s">
+        <v>72</v>
+      </c>
+      <c r="P8" s="40" t="s">
+        <v>73</v>
+      </c>
+      <c r="Q8" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="R8" s="38" t="s">
+        <v>25</v>
+      </c>
       <c r="S8" s="4"/>
       <c r="T8" s="72"/>
       <c r="U8" s="81"/>
@@ -6986,7 +7131,9 @@
       <c r="B9" s="37">
         <v>44364</v>
       </c>
-      <c r="C9" s="37"/>
+      <c r="C9" s="37">
+        <v>44370</v>
+      </c>
       <c r="D9" s="38" t="s">
         <v>44</v>
       </c>
@@ -6999,24 +7146,24 @@
       </c>
       <c r="H9" s="2"/>
       <c r="I9" s="50" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="J9" s="40" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="K9" s="40" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="L9" s="40"/>
       <c r="M9" s="40" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="N9" s="1"/>
       <c r="O9" s="40" t="s">
+        <v>72</v>
+      </c>
+      <c r="P9" s="40" t="s">
         <v>73</v>
-      </c>
-      <c r="P9" s="40" t="s">
-        <v>74</v>
       </c>
       <c r="Q9" s="3" t="s">
         <v>19</v>
@@ -7039,7 +7186,9 @@
       <c r="B10" s="37">
         <v>44364</v>
       </c>
-      <c r="C10" s="65"/>
+      <c r="C10" s="37">
+        <v>44370</v>
+      </c>
       <c r="D10" s="38" t="s">
         <v>44</v>
       </c>
@@ -7052,24 +7201,24 @@
       </c>
       <c r="H10" s="2"/>
       <c r="I10" s="50" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="J10" s="40" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="K10" s="1" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="L10" s="40"/>
       <c r="M10" s="40" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="N10" s="1"/>
       <c r="O10" s="40" t="s">
+        <v>72</v>
+      </c>
+      <c r="P10" s="1" t="s">
         <v>73</v>
-      </c>
-      <c r="P10" s="1" t="s">
-        <v>74</v>
       </c>
       <c r="Q10" s="3" t="s">
         <v>18</v>
@@ -7092,7 +7241,9 @@
       <c r="B11" s="37">
         <v>44364</v>
       </c>
-      <c r="C11" s="65"/>
+      <c r="C11" s="37">
+        <v>44370</v>
+      </c>
       <c r="D11" s="38" t="s">
         <v>44</v>
       </c>
@@ -7104,16 +7255,34 @@
         <v>63</v>
       </c>
       <c r="H11" s="2"/>
-      <c r="I11" s="50"/>
-      <c r="J11" s="40"/>
-      <c r="K11" s="1"/>
-      <c r="L11" s="40"/>
-      <c r="M11" s="40"/>
+      <c r="I11" s="50" t="s">
+        <v>100</v>
+      </c>
+      <c r="J11" s="40" t="s">
+        <v>84</v>
+      </c>
+      <c r="K11" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="L11" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="M11" s="40" t="s">
+        <v>38</v>
+      </c>
       <c r="N11" s="1"/>
-      <c r="O11" s="40"/>
-      <c r="P11" s="1"/>
-      <c r="Q11" s="3"/>
-      <c r="R11" s="38"/>
+      <c r="O11" s="40" t="s">
+        <v>72</v>
+      </c>
+      <c r="P11" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="Q11" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="R11" s="38" t="s">
+        <v>24</v>
+      </c>
       <c r="S11" s="4"/>
       <c r="T11" s="72"/>
       <c r="U11" s="81"/>
@@ -7129,7 +7298,9 @@
       <c r="B12" s="37">
         <v>44364</v>
       </c>
-      <c r="C12" s="65"/>
+      <c r="C12" s="37">
+        <v>44370</v>
+      </c>
       <c r="D12" s="38" t="s">
         <v>44</v>
       </c>
@@ -7141,16 +7312,34 @@
         <v>63</v>
       </c>
       <c r="H12" s="1"/>
-      <c r="I12" s="56"/>
-      <c r="J12" s="40"/>
-      <c r="K12" s="1"/>
-      <c r="L12" s="40"/>
-      <c r="M12" s="40"/>
+      <c r="I12" s="56" t="s">
+        <v>75</v>
+      </c>
+      <c r="J12" s="40" t="s">
+        <v>84</v>
+      </c>
+      <c r="K12" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="L12" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="M12" s="40" t="s">
+        <v>38</v>
+      </c>
       <c r="N12" s="1"/>
-      <c r="O12" s="40"/>
-      <c r="P12" s="1"/>
-      <c r="Q12" s="4"/>
-      <c r="R12" s="38"/>
+      <c r="O12" s="40" t="s">
+        <v>72</v>
+      </c>
+      <c r="P12" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="Q12" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="R12" s="38" t="s">
+        <v>24</v>
+      </c>
       <c r="S12" s="4"/>
       <c r="T12" s="72"/>
       <c r="U12" s="80" t="s">
@@ -7168,28 +7357,52 @@
       <c r="B13" s="37">
         <v>44364</v>
       </c>
-      <c r="C13" s="65"/>
+      <c r="C13" s="37">
+        <v>44370</v>
+      </c>
       <c r="D13" s="38" t="s">
         <v>44</v>
       </c>
       <c r="E13" s="39">
         <v>868183035852958</v>
       </c>
-      <c r="F13" s="38"/>
+      <c r="F13" s="38" t="s">
+        <v>92</v>
+      </c>
       <c r="G13" s="38" t="s">
         <v>63</v>
       </c>
-      <c r="H13" s="13"/>
-      <c r="I13" s="50"/>
-      <c r="J13" s="1"/>
-      <c r="K13" s="1"/>
-      <c r="L13" s="40"/>
-      <c r="M13" s="1"/>
+      <c r="H13" s="13" t="s">
+        <v>105</v>
+      </c>
+      <c r="I13" s="50" t="s">
+        <v>75</v>
+      </c>
+      <c r="J13" s="40" t="s">
+        <v>102</v>
+      </c>
+      <c r="K13" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="L13" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="M13" s="40" t="s">
+        <v>104</v>
+      </c>
       <c r="N13" s="1"/>
-      <c r="O13" s="40"/>
-      <c r="P13" s="1"/>
-      <c r="Q13" s="3"/>
-      <c r="R13" s="10"/>
+      <c r="O13" s="40" t="s">
+        <v>72</v>
+      </c>
+      <c r="P13" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="Q13" s="3" t="s">
+        <v>89</v>
+      </c>
+      <c r="R13" s="38" t="s">
+        <v>103</v>
+      </c>
       <c r="S13" s="4"/>
       <c r="T13" s="72"/>
       <c r="U13" s="81"/>
@@ -7205,7 +7418,9 @@
       <c r="B14" s="37">
         <v>44364</v>
       </c>
-      <c r="C14" s="65"/>
+      <c r="C14" s="37">
+        <v>44370</v>
+      </c>
       <c r="D14" s="38" t="s">
         <v>44</v>
       </c>
@@ -7217,16 +7432,32 @@
         <v>63</v>
       </c>
       <c r="H14" s="1"/>
-      <c r="I14" s="50"/>
-      <c r="J14" s="40"/>
+      <c r="I14" s="50" t="s">
+        <v>100</v>
+      </c>
+      <c r="J14" s="40" t="s">
+        <v>107</v>
+      </c>
       <c r="K14" s="1"/>
-      <c r="L14" s="40"/>
-      <c r="M14" s="40"/>
+      <c r="L14" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="M14" s="40" t="s">
+        <v>108</v>
+      </c>
       <c r="N14" s="1"/>
-      <c r="O14" s="40"/>
-      <c r="P14" s="1"/>
-      <c r="Q14" s="4"/>
-      <c r="R14" s="38"/>
+      <c r="O14" s="40" t="s">
+        <v>72</v>
+      </c>
+      <c r="P14" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="Q14" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="R14" s="38" t="s">
+        <v>23</v>
+      </c>
       <c r="S14" s="4"/>
       <c r="T14" s="72"/>
       <c r="U14" s="81"/>
@@ -7406,7 +7637,7 @@
       </c>
       <c r="V20" s="10">
         <f>COUNTIF($Q$6:$Q$51,"PM")</f>
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="W20" s="14"/>
     </row>
@@ -7470,7 +7701,7 @@
       </c>
       <c r="V22" s="10">
         <f>COUNTIF($Q$6:$Q$51,"PC+PM")</f>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="W22" s="14"/>
     </row>
@@ -7747,7 +7978,7 @@
       </c>
       <c r="V31" s="10">
         <f>COUNTIF($R$6:$R$51,"*LK*")</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="W31" s="14"/>
     </row>
@@ -7779,7 +8010,7 @@
       </c>
       <c r="V32" s="10">
         <f>COUNTIF($R$6:$R$51,"*MCH*")</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="W32" s="14"/>
     </row>
@@ -7875,7 +8106,7 @@
       </c>
       <c r="V35" s="10">
         <f>COUNTIF($R$6:$R$51,"*NCFW*")</f>
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="W35" s="14"/>
     </row>
@@ -7907,7 +8138,7 @@
       </c>
       <c r="V36" s="10">
         <f>COUNTIF($R$6:$R$51,"*KL*")</f>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="W36" s="14"/>
     </row>
@@ -7939,7 +8170,7 @@
       </c>
       <c r="V37" s="10">
         <f>SUM(V26:V36)</f>
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="W37" s="14"/>
     </row>
@@ -8518,6 +8749,13 @@
     </row>
   </sheetData>
   <mergeCells count="18">
+    <mergeCell ref="U6:U11"/>
+    <mergeCell ref="U12:U16"/>
+    <mergeCell ref="P4:P5"/>
+    <mergeCell ref="Q4:Q5"/>
+    <mergeCell ref="R4:R5"/>
+    <mergeCell ref="S4:S5"/>
+    <mergeCell ref="U4:U5"/>
     <mergeCell ref="V4:V5"/>
     <mergeCell ref="A1:V1"/>
     <mergeCell ref="A2:D2"/>
@@ -8529,13 +8767,6 @@
     <mergeCell ref="M4:M5"/>
     <mergeCell ref="N4:N5"/>
     <mergeCell ref="O4:O5"/>
-    <mergeCell ref="U6:U11"/>
-    <mergeCell ref="U12:U16"/>
-    <mergeCell ref="P4:P5"/>
-    <mergeCell ref="Q4:Q5"/>
-    <mergeCell ref="R4:R5"/>
-    <mergeCell ref="S4:S5"/>
-    <mergeCell ref="U4:U5"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -8546,8 +8777,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:X57"/>
   <sheetViews>
-    <sheetView showZeros="0" topLeftCell="K1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B6" sqref="B6:S9"/>
+    <sheetView showZeros="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="I9" sqref="I9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -8754,35 +8985,37 @@
       <c r="W5" s="48"/>
     </row>
     <row r="6" spans="1:23" s="12" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="4">
+      <c r="A6" s="1">
         <v>1</v>
       </c>
       <c r="B6" s="37">
         <v>44364</v>
       </c>
       <c r="C6" s="37"/>
-      <c r="D6" s="38" t="s">
+      <c r="D6" s="40" t="s">
         <v>66</v>
       </c>
-      <c r="E6" s="39">
+      <c r="E6" s="93">
         <v>866192037814389</v>
       </c>
-      <c r="F6" s="38"/>
-      <c r="G6" s="38" t="s">
+      <c r="F6" s="40"/>
+      <c r="G6" s="40" t="s">
         <v>63</v>
       </c>
-      <c r="H6" s="38"/>
+      <c r="H6" s="40" t="s">
+        <v>109</v>
+      </c>
       <c r="I6" s="50"/>
       <c r="J6" s="1"/>
-      <c r="K6" s="61"/>
+      <c r="K6" s="94"/>
       <c r="L6" s="40"/>
       <c r="M6" s="40"/>
       <c r="N6" s="41"/>
       <c r="O6" s="40"/>
       <c r="P6" s="40"/>
-      <c r="Q6" s="3"/>
-      <c r="R6" s="38"/>
-      <c r="S6" s="4"/>
+      <c r="Q6" s="51"/>
+      <c r="R6" s="40"/>
+      <c r="S6" s="1"/>
       <c r="T6" s="75"/>
       <c r="U6" s="80" t="s">
         <v>18</v>
@@ -8793,35 +9026,37 @@
       <c r="W6" s="75"/>
     </row>
     <row r="7" spans="1:23" s="12" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="4">
+      <c r="A7" s="1">
         <v>2</v>
       </c>
       <c r="B7" s="37">
         <v>44364</v>
       </c>
       <c r="C7" s="37"/>
-      <c r="D7" s="38" t="s">
+      <c r="D7" s="40" t="s">
         <v>66</v>
       </c>
-      <c r="E7" s="39">
+      <c r="E7" s="93">
         <v>868926033917714</v>
       </c>
-      <c r="F7" s="38"/>
-      <c r="G7" s="38" t="s">
+      <c r="F7" s="40"/>
+      <c r="G7" s="40" t="s">
         <v>63</v>
       </c>
-      <c r="H7" s="38"/>
+      <c r="H7" s="40" t="s">
+        <v>109</v>
+      </c>
       <c r="I7" s="50"/>
       <c r="J7" s="40"/>
-      <c r="K7" s="61"/>
+      <c r="K7" s="94"/>
       <c r="L7" s="40"/>
       <c r="M7" s="40"/>
       <c r="N7" s="41"/>
       <c r="O7" s="40"/>
       <c r="P7" s="40"/>
-      <c r="Q7" s="3"/>
-      <c r="R7" s="38"/>
-      <c r="S7" s="4"/>
+      <c r="Q7" s="51"/>
+      <c r="R7" s="40"/>
+      <c r="S7" s="1"/>
       <c r="T7" s="75"/>
       <c r="U7" s="81"/>
       <c r="V7" s="4" t="s">
@@ -8830,37 +9065,37 @@
       <c r="W7" s="75"/>
     </row>
     <row r="8" spans="1:23" s="12" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="4">
+      <c r="A8" s="1">
         <v>3</v>
       </c>
       <c r="B8" s="37">
         <v>44364</v>
       </c>
       <c r="C8" s="37"/>
-      <c r="D8" s="38" t="s">
+      <c r="D8" s="40" t="s">
         <v>66</v>
       </c>
-      <c r="E8" s="39">
+      <c r="E8" s="93">
         <v>868926033936078</v>
       </c>
-      <c r="F8" s="38"/>
-      <c r="G8" s="38" t="s">
+      <c r="F8" s="40"/>
+      <c r="G8" s="40" t="s">
         <v>64</v>
       </c>
-      <c r="H8" s="38" t="s">
-        <v>67</v>
+      <c r="H8" s="40" t="s">
+        <v>109</v>
       </c>
       <c r="I8" s="50"/>
       <c r="J8" s="40"/>
-      <c r="K8" s="60"/>
+      <c r="K8" s="95"/>
       <c r="L8" s="40"/>
       <c r="M8" s="40"/>
       <c r="N8" s="41"/>
       <c r="O8" s="40"/>
       <c r="P8" s="40"/>
-      <c r="Q8" s="3"/>
-      <c r="R8" s="38"/>
-      <c r="S8" s="4"/>
+      <c r="Q8" s="51"/>
+      <c r="R8" s="40"/>
+      <c r="S8" s="1"/>
       <c r="T8" s="75"/>
       <c r="U8" s="81"/>
       <c r="V8" s="4" t="s">
@@ -8869,24 +9104,26 @@
       <c r="W8" s="75"/>
     </row>
     <row r="9" spans="1:23" s="12" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="4">
+      <c r="A9" s="1">
         <v>4</v>
       </c>
       <c r="B9" s="37">
         <v>44364</v>
       </c>
       <c r="C9" s="37"/>
-      <c r="D9" s="38" t="s">
+      <c r="D9" s="40" t="s">
         <v>66</v>
       </c>
-      <c r="E9" s="39">
+      <c r="E9" s="93">
         <v>866192037784913</v>
       </c>
-      <c r="F9" s="38"/>
-      <c r="G9" s="38" t="s">
+      <c r="F9" s="40"/>
+      <c r="G9" s="40" t="s">
         <v>63</v>
       </c>
-      <c r="H9" s="38"/>
+      <c r="H9" s="40" t="s">
+        <v>109</v>
+      </c>
       <c r="I9" s="50"/>
       <c r="J9" s="40"/>
       <c r="K9" s="40"/>
@@ -8895,9 +9132,9 @@
       <c r="N9" s="1"/>
       <c r="O9" s="40"/>
       <c r="P9" s="1"/>
-      <c r="Q9" s="3"/>
-      <c r="R9" s="38"/>
-      <c r="S9" s="4"/>
+      <c r="Q9" s="51"/>
+      <c r="R9" s="40"/>
+      <c r="S9" s="1"/>
       <c r="T9" s="75"/>
       <c r="U9" s="81"/>
       <c r="V9" s="4" t="s">
@@ -10335,13 +10572,6 @@
     </row>
   </sheetData>
   <mergeCells count="18">
-    <mergeCell ref="U6:U11"/>
-    <mergeCell ref="U12:U16"/>
-    <mergeCell ref="P4:P5"/>
-    <mergeCell ref="Q4:Q5"/>
-    <mergeCell ref="R4:R5"/>
-    <mergeCell ref="S4:S5"/>
-    <mergeCell ref="U4:U5"/>
     <mergeCell ref="V4:V5"/>
     <mergeCell ref="A1:V1"/>
     <mergeCell ref="A2:D2"/>
@@ -10353,6 +10583,13 @@
     <mergeCell ref="M4:M5"/>
     <mergeCell ref="N4:N5"/>
     <mergeCell ref="O4:O5"/>
+    <mergeCell ref="U6:U11"/>
+    <mergeCell ref="U12:U16"/>
+    <mergeCell ref="P4:P5"/>
+    <mergeCell ref="Q4:Q5"/>
+    <mergeCell ref="R4:R5"/>
+    <mergeCell ref="S4:S5"/>
+    <mergeCell ref="U4:U5"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -10364,7 +10601,7 @@
   <dimension ref="A1:X57"/>
   <sheetViews>
     <sheetView showZeros="0" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="I18" sqref="I18"/>
+      <selection activeCell="M18" sqref="M18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -10577,9 +10814,11 @@
       <c r="B6" s="37">
         <v>44364</v>
       </c>
-      <c r="C6" s="37"/>
+      <c r="C6" s="37">
+        <v>44370</v>
+      </c>
       <c r="D6" s="38" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="E6" s="39">
         <v>861694031780743</v>
@@ -10588,17 +10827,35 @@
       <c r="G6" s="38" t="s">
         <v>63</v>
       </c>
-      <c r="H6" s="38"/>
-      <c r="I6" s="50"/>
-      <c r="J6" s="1"/>
-      <c r="K6" s="61"/>
+      <c r="H6" s="38" t="s">
+        <v>125</v>
+      </c>
+      <c r="I6" s="50" t="s">
+        <v>91</v>
+      </c>
+      <c r="J6" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="K6" s="61" t="s">
+        <v>122</v>
+      </c>
       <c r="L6" s="40"/>
-      <c r="M6" s="40"/>
+      <c r="M6" s="40" t="s">
+        <v>83</v>
+      </c>
       <c r="N6" s="41"/>
-      <c r="O6" s="40"/>
-      <c r="P6" s="40"/>
-      <c r="Q6" s="3"/>
-      <c r="R6" s="38"/>
+      <c r="O6" s="40" t="s">
+        <v>72</v>
+      </c>
+      <c r="P6" s="40" t="s">
+        <v>73</v>
+      </c>
+      <c r="Q6" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="R6" s="38" t="s">
+        <v>25</v>
+      </c>
       <c r="S6" s="4"/>
       <c r="T6" s="71"/>
       <c r="U6" s="80" t="s">
@@ -10616,9 +10873,11 @@
       <c r="B7" s="37">
         <v>44364</v>
       </c>
-      <c r="C7" s="37"/>
+      <c r="C7" s="37">
+        <v>44370</v>
+      </c>
       <c r="D7" s="38" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="E7" s="39">
         <v>866192037825815</v>
@@ -10627,17 +10886,37 @@
       <c r="G7" s="38" t="s">
         <v>63</v>
       </c>
-      <c r="H7" s="38"/>
-      <c r="I7" s="50"/>
-      <c r="J7" s="40"/>
-      <c r="K7" s="61"/>
-      <c r="L7" s="40"/>
-      <c r="M7" s="40"/>
+      <c r="H7" s="38" t="s">
+        <v>125</v>
+      </c>
+      <c r="I7" s="50" t="s">
+        <v>121</v>
+      </c>
+      <c r="J7" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="K7" s="61" t="s">
+        <v>119</v>
+      </c>
+      <c r="L7" s="40" t="s">
+        <v>115</v>
+      </c>
+      <c r="M7" s="40" t="s">
+        <v>38</v>
+      </c>
       <c r="N7" s="41"/>
-      <c r="O7" s="40"/>
-      <c r="P7" s="40"/>
-      <c r="Q7" s="3"/>
-      <c r="R7" s="38"/>
+      <c r="O7" s="40" t="s">
+        <v>72</v>
+      </c>
+      <c r="P7" s="40" t="s">
+        <v>73</v>
+      </c>
+      <c r="Q7" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="R7" s="38" t="s">
+        <v>24</v>
+      </c>
       <c r="S7" s="4"/>
       <c r="T7" s="71"/>
       <c r="U7" s="81"/>
@@ -10653,9 +10932,11 @@
       <c r="B8" s="37">
         <v>44364</v>
       </c>
-      <c r="C8" s="37"/>
+      <c r="C8" s="37">
+        <v>44370</v>
+      </c>
       <c r="D8" s="38" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="E8" s="39">
         <v>869627031771405</v>
@@ -10665,18 +10946,36 @@
         <v>63</v>
       </c>
       <c r="H8" s="38" t="s">
-        <v>67</v>
-      </c>
-      <c r="I8" s="50"/>
-      <c r="J8" s="40"/>
-      <c r="K8" s="60"/>
-      <c r="L8" s="40"/>
-      <c r="M8" s="40"/>
+        <v>126</v>
+      </c>
+      <c r="I8" s="50" t="s">
+        <v>120</v>
+      </c>
+      <c r="J8" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="K8" s="60" t="s">
+        <v>119</v>
+      </c>
+      <c r="L8" s="40" t="s">
+        <v>115</v>
+      </c>
+      <c r="M8" s="40" t="s">
+        <v>38</v>
+      </c>
       <c r="N8" s="41"/>
-      <c r="O8" s="40"/>
-      <c r="P8" s="40"/>
-      <c r="Q8" s="3"/>
-      <c r="R8" s="38"/>
+      <c r="O8" s="40" t="s">
+        <v>72</v>
+      </c>
+      <c r="P8" s="40" t="s">
+        <v>73</v>
+      </c>
+      <c r="Q8" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="R8" s="38" t="s">
+        <v>24</v>
+      </c>
       <c r="S8" s="4"/>
       <c r="T8" s="71"/>
       <c r="U8" s="81"/>
@@ -10692,9 +10991,11 @@
       <c r="B9" s="37">
         <v>44364</v>
       </c>
-      <c r="C9" s="37"/>
+      <c r="C9" s="37">
+        <v>44370</v>
+      </c>
       <c r="D9" s="38" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="E9" s="39">
         <v>863586032920583</v>
@@ -10704,16 +11005,34 @@
         <v>63</v>
       </c>
       <c r="H9" s="38"/>
-      <c r="I9" s="50"/>
-      <c r="J9" s="40"/>
-      <c r="K9" s="40"/>
-      <c r="L9" s="40"/>
-      <c r="M9" s="40"/>
+      <c r="I9" s="50" t="s">
+        <v>91</v>
+      </c>
+      <c r="J9" s="40" t="s">
+        <v>117</v>
+      </c>
+      <c r="K9" s="40" t="s">
+        <v>116</v>
+      </c>
+      <c r="L9" s="40" t="s">
+        <v>115</v>
+      </c>
+      <c r="M9" s="40" t="s">
+        <v>118</v>
+      </c>
       <c r="N9" s="1"/>
-      <c r="O9" s="40"/>
-      <c r="P9" s="1"/>
-      <c r="Q9" s="3"/>
-      <c r="R9" s="38"/>
+      <c r="O9" s="40" t="s">
+        <v>72</v>
+      </c>
+      <c r="P9" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="Q9" s="3" t="s">
+        <v>89</v>
+      </c>
+      <c r="R9" s="38" t="s">
+        <v>90</v>
+      </c>
       <c r="S9" s="4"/>
       <c r="T9" s="71"/>
       <c r="U9" s="81"/>
@@ -10729,9 +11048,11 @@
       <c r="B10" s="37">
         <v>44364</v>
       </c>
-      <c r="C10" s="65"/>
+      <c r="C10" s="37">
+        <v>44370</v>
+      </c>
       <c r="D10" s="38" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="E10" s="39">
         <v>866192037775812</v>
@@ -10740,17 +11061,37 @@
       <c r="G10" s="38" t="s">
         <v>63</v>
       </c>
-      <c r="H10" s="2"/>
-      <c r="I10" s="50"/>
-      <c r="J10" s="40"/>
-      <c r="K10" s="1"/>
-      <c r="L10" s="40"/>
-      <c r="M10" s="40"/>
+      <c r="H10" s="2" t="s">
+        <v>127</v>
+      </c>
+      <c r="I10" s="50" t="s">
+        <v>91</v>
+      </c>
+      <c r="J10" s="40" t="s">
+        <v>34</v>
+      </c>
+      <c r="K10" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="L10" s="40" t="s">
+        <v>115</v>
+      </c>
+      <c r="M10" s="40" t="s">
+        <v>130</v>
+      </c>
       <c r="N10" s="1"/>
-      <c r="O10" s="40"/>
-      <c r="P10" s="1"/>
-      <c r="Q10" s="3"/>
-      <c r="R10" s="38"/>
+      <c r="O10" s="40" t="s">
+        <v>72</v>
+      </c>
+      <c r="P10" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="Q10" s="3" t="s">
+        <v>89</v>
+      </c>
+      <c r="R10" s="38" t="s">
+        <v>131</v>
+      </c>
       <c r="S10" s="4"/>
       <c r="T10" s="71"/>
       <c r="U10" s="81"/>
@@ -10766,9 +11107,11 @@
       <c r="B11" s="37">
         <v>44364</v>
       </c>
-      <c r="C11" s="65"/>
+      <c r="C11" s="37">
+        <v>44370</v>
+      </c>
       <c r="D11" s="38" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="E11" s="39">
         <v>861694030927311</v>
@@ -10777,17 +11120,37 @@
       <c r="G11" s="38" t="s">
         <v>63</v>
       </c>
-      <c r="H11" s="2"/>
-      <c r="I11" s="50"/>
-      <c r="J11" s="40"/>
-      <c r="K11" s="1"/>
-      <c r="L11" s="40"/>
-      <c r="M11" s="40"/>
+      <c r="H11" s="2" t="s">
+        <v>128</v>
+      </c>
+      <c r="I11" s="50" t="s">
+        <v>91</v>
+      </c>
+      <c r="J11" s="40" t="s">
+        <v>34</v>
+      </c>
+      <c r="K11" s="1" t="s">
+        <v>123</v>
+      </c>
+      <c r="L11" s="40" t="s">
+        <v>115</v>
+      </c>
+      <c r="M11" s="40" t="s">
+        <v>130</v>
+      </c>
       <c r="N11" s="1"/>
-      <c r="O11" s="40"/>
-      <c r="P11" s="1"/>
-      <c r="Q11" s="3"/>
-      <c r="R11" s="38"/>
+      <c r="O11" s="40" t="s">
+        <v>72</v>
+      </c>
+      <c r="P11" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="Q11" s="3" t="s">
+        <v>89</v>
+      </c>
+      <c r="R11" s="38" t="s">
+        <v>131</v>
+      </c>
       <c r="S11" s="4"/>
       <c r="T11" s="71"/>
       <c r="U11" s="81"/>
@@ -10803,28 +11166,52 @@
       <c r="B12" s="37">
         <v>44364</v>
       </c>
-      <c r="C12" s="65"/>
+      <c r="C12" s="37">
+        <v>44370</v>
+      </c>
       <c r="D12" s="38" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="E12" s="39">
         <v>861694037958137</v>
       </c>
-      <c r="F12" s="38"/>
+      <c r="F12" s="38" t="s">
+        <v>92</v>
+      </c>
       <c r="G12" s="38" t="s">
         <v>63</v>
       </c>
-      <c r="H12" s="1"/>
-      <c r="I12" s="56"/>
-      <c r="J12" s="40"/>
-      <c r="K12" s="1"/>
-      <c r="L12" s="40"/>
-      <c r="M12" s="40"/>
+      <c r="H12" s="1" t="s">
+        <v>129</v>
+      </c>
+      <c r="I12" s="56" t="s">
+        <v>91</v>
+      </c>
+      <c r="J12" s="40" t="s">
+        <v>84</v>
+      </c>
+      <c r="K12" s="1" t="s">
+        <v>114</v>
+      </c>
+      <c r="L12" s="40" t="s">
+        <v>115</v>
+      </c>
+      <c r="M12" s="40" t="s">
+        <v>38</v>
+      </c>
       <c r="N12" s="1"/>
-      <c r="O12" s="40"/>
-      <c r="P12" s="1"/>
-      <c r="Q12" s="4"/>
-      <c r="R12" s="38"/>
+      <c r="O12" s="40" t="s">
+        <v>72</v>
+      </c>
+      <c r="P12" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="Q12" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="R12" s="38" t="s">
+        <v>24</v>
+      </c>
       <c r="S12" s="4"/>
       <c r="T12" s="71"/>
       <c r="U12" s="80" t="s">
@@ -11064,7 +11451,7 @@
       </c>
       <c r="V20" s="10">
         <f>COUNTIF($Q$6:$Q$51,"PM")</f>
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="W20" s="14"/>
     </row>
@@ -11128,7 +11515,7 @@
       </c>
       <c r="V22" s="10">
         <f>COUNTIF($Q$6:$Q$51,"PC+PM")</f>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="W22" s="14"/>
     </row>
@@ -11277,7 +11664,7 @@
       </c>
       <c r="V27" s="10">
         <f>COUNTIF($R$6:$R$51,"*GSM*")</f>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="W27" s="14"/>
     </row>
@@ -11341,7 +11728,7 @@
       </c>
       <c r="V29" s="10">
         <f>COUNTIF($R$6:$R$51,"*NG*")</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="W29" s="14"/>
     </row>
@@ -11533,7 +11920,7 @@
       </c>
       <c r="V35" s="10">
         <f>COUNTIF($R$6:$R$51,"*NCFW*")</f>
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="W35" s="14"/>
     </row>
@@ -11565,7 +11952,7 @@
       </c>
       <c r="V36" s="10">
         <f>COUNTIF($R$6:$R$51,"*KL*")</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="W36" s="14"/>
     </row>
@@ -11597,7 +11984,7 @@
       </c>
       <c r="V37" s="10">
         <f>SUM(V26:V36)</f>
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="W37" s="14"/>
     </row>
@@ -11950,7 +12337,7 @@
       <c r="S48" s="4"/>
       <c r="T48" s="35">
         <f>COUNTIF(J9:J20,"*GSM*")</f>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="U48" s="10" t="s">
         <v>57</v>
@@ -12176,13 +12563,6 @@
     </row>
   </sheetData>
   <mergeCells count="18">
-    <mergeCell ref="U6:U11"/>
-    <mergeCell ref="U12:U16"/>
-    <mergeCell ref="P4:P5"/>
-    <mergeCell ref="Q4:Q5"/>
-    <mergeCell ref="R4:R5"/>
-    <mergeCell ref="S4:S5"/>
-    <mergeCell ref="U4:U5"/>
     <mergeCell ref="V4:V5"/>
     <mergeCell ref="A1:V1"/>
     <mergeCell ref="A2:D2"/>
@@ -12194,6 +12574,13 @@
     <mergeCell ref="M4:M5"/>
     <mergeCell ref="N4:N5"/>
     <mergeCell ref="O4:O5"/>
+    <mergeCell ref="U6:U11"/>
+    <mergeCell ref="U12:U16"/>
+    <mergeCell ref="P4:P5"/>
+    <mergeCell ref="Q4:Q5"/>
+    <mergeCell ref="R4:R5"/>
+    <mergeCell ref="S4:S5"/>
+    <mergeCell ref="U4:U5"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -12204,8 +12591,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:X57"/>
   <sheetViews>
-    <sheetView showZeros="0" tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="E7" sqref="E7"/>
+    <sheetView showZeros="0" topLeftCell="J1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="Q6" sqref="Q6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -12418,26 +12805,40 @@
       <c r="B6" s="37">
         <v>44364</v>
       </c>
-      <c r="C6" s="37"/>
+      <c r="C6" s="37">
+        <v>44370</v>
+      </c>
       <c r="D6" s="38" t="s">
+        <v>97</v>
+      </c>
+      <c r="E6" s="39" t="s">
         <v>98</v>
-      </c>
-      <c r="E6" s="39" t="s">
-        <v>99</v>
       </c>
       <c r="F6" s="38"/>
       <c r="G6" s="38"/>
       <c r="H6" s="38"/>
       <c r="I6" s="50"/>
-      <c r="J6" s="1"/>
+      <c r="J6" s="1" t="s">
+        <v>110</v>
+      </c>
       <c r="K6" s="61"/>
       <c r="L6" s="40"/>
-      <c r="M6" s="40"/>
+      <c r="M6" s="40" t="s">
+        <v>111</v>
+      </c>
       <c r="N6" s="41"/>
-      <c r="O6" s="40"/>
-      <c r="P6" s="40"/>
-      <c r="Q6" s="3"/>
-      <c r="R6" s="38"/>
+      <c r="O6" s="40" t="s">
+        <v>72</v>
+      </c>
+      <c r="P6" s="40" t="s">
+        <v>73</v>
+      </c>
+      <c r="Q6" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="R6" s="38" t="s">
+        <v>30</v>
+      </c>
       <c r="S6" s="4"/>
       <c r="T6" s="78"/>
       <c r="U6" s="80" t="s">
@@ -12885,7 +13286,7 @@
       </c>
       <c r="V21" s="10">
         <f>COUNTIF($Q$6:$Q$51,"PC")</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="W21" s="14"/>
     </row>
@@ -13194,7 +13595,7 @@
       </c>
       <c r="V31" s="10">
         <f>COUNTIF($R$6:$R$51,"*LK*")</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="W31" s="14"/>
     </row>
@@ -13386,7 +13787,7 @@
       </c>
       <c r="V37" s="10">
         <f>SUM(V26:V36)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="W37" s="14"/>
     </row>
@@ -13965,13 +14366,6 @@
     </row>
   </sheetData>
   <mergeCells count="18">
-    <mergeCell ref="U6:U11"/>
-    <mergeCell ref="U12:U16"/>
-    <mergeCell ref="P4:P5"/>
-    <mergeCell ref="Q4:Q5"/>
-    <mergeCell ref="R4:R5"/>
-    <mergeCell ref="S4:S5"/>
-    <mergeCell ref="U4:U5"/>
     <mergeCell ref="V4:V5"/>
     <mergeCell ref="A1:V1"/>
     <mergeCell ref="A2:D2"/>
@@ -13983,6 +14377,13 @@
     <mergeCell ref="M4:M5"/>
     <mergeCell ref="N4:N5"/>
     <mergeCell ref="O4:O5"/>
+    <mergeCell ref="U6:U11"/>
+    <mergeCell ref="U12:U16"/>
+    <mergeCell ref="P4:P5"/>
+    <mergeCell ref="Q4:Q5"/>
+    <mergeCell ref="R4:R5"/>
+    <mergeCell ref="S4:S5"/>
+    <mergeCell ref="U4:U5"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -15748,6 +16149,13 @@
     </row>
   </sheetData>
   <mergeCells count="18">
+    <mergeCell ref="U6:U11"/>
+    <mergeCell ref="U12:U16"/>
+    <mergeCell ref="P4:P5"/>
+    <mergeCell ref="Q4:Q5"/>
+    <mergeCell ref="R4:R5"/>
+    <mergeCell ref="S4:S5"/>
+    <mergeCell ref="U4:U5"/>
     <mergeCell ref="V4:V5"/>
     <mergeCell ref="A1:V1"/>
     <mergeCell ref="A2:D2"/>
@@ -15759,13 +16167,6 @@
     <mergeCell ref="M4:M5"/>
     <mergeCell ref="N4:N5"/>
     <mergeCell ref="O4:O5"/>
-    <mergeCell ref="U6:U11"/>
-    <mergeCell ref="U12:U16"/>
-    <mergeCell ref="P4:P5"/>
-    <mergeCell ref="Q4:Q5"/>
-    <mergeCell ref="R4:R5"/>
-    <mergeCell ref="S4:S5"/>
-    <mergeCell ref="U4:U5"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>

--- a/5. WS/1. Bộ phận bảo hành/1. Thực hiện sửa chữa bảo hành/nam2021/Thang6/02.XuLyBH/XLBH2106_AnhTuanNB.xlsx
+++ b/5. WS/1. Bộ phận bảo hành/1. Thực hiện sửa chữa bảo hành/nam2021/Thang6/02.XuLyBH/XLBH2106_AnhTuanNB.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="-15" yWindow="4035" windowWidth="10320" windowHeight="4065" activeTab="7"/>
+    <workbookView xWindow="-15" yWindow="4035" windowWidth="10320" windowHeight="4065" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="TG102LE-4G" sheetId="35" r:id="rId1"/>
@@ -44,7 +44,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1084" uniqueCount="132">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1115" uniqueCount="141">
   <si>
     <t>STT</t>
   </si>
@@ -445,6 +445,33 @@
   </si>
   <si>
     <t>GSM, NCFW</t>
+  </si>
+  <si>
+    <t>W.2.00.---21.200630</t>
+  </si>
+  <si>
+    <t>Thiết bị reset</t>
+  </si>
+  <si>
+    <t>Nạp lại FW, nâng cấp khay sim</t>
+  </si>
+  <si>
+    <t>W.2.00.---19.200416</t>
+  </si>
+  <si>
+    <t>Thiết bị không nhận sim</t>
+  </si>
+  <si>
+    <t>Nâng cấp khay sim, nâng cấp FW</t>
+  </si>
+  <si>
+    <t>VI.1.00.---01.180629</t>
+  </si>
+  <si>
+    <t>Nâng cấp khay sim</t>
+  </si>
+  <si>
+    <t>VI.2.00.---21.200630</t>
   </si>
 </sst>
 </file>
@@ -889,7 +916,22 @@
     <xf numFmtId="4" fontId="3" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="7" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -911,21 +953,6 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1267,41 +1294,41 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="83" t="s">
+      <c r="A1" s="88" t="s">
         <v>61</v>
       </c>
-      <c r="B1" s="83"/>
-      <c r="C1" s="83"/>
-      <c r="D1" s="83"/>
-      <c r="E1" s="83"/>
-      <c r="F1" s="83"/>
-      <c r="G1" s="83"/>
-      <c r="H1" s="83"/>
-      <c r="I1" s="83"/>
-      <c r="J1" s="83"/>
-      <c r="K1" s="83"/>
-      <c r="L1" s="83"/>
-      <c r="M1" s="83"/>
-      <c r="N1" s="83"/>
-      <c r="O1" s="83"/>
-      <c r="P1" s="83"/>
-      <c r="Q1" s="83"/>
-      <c r="R1" s="83"/>
-      <c r="S1" s="83"/>
-      <c r="T1" s="83"/>
-      <c r="U1" s="83"/>
-      <c r="V1" s="83"/>
+      <c r="B1" s="88"/>
+      <c r="C1" s="88"/>
+      <c r="D1" s="88"/>
+      <c r="E1" s="88"/>
+      <c r="F1" s="88"/>
+      <c r="G1" s="88"/>
+      <c r="H1" s="88"/>
+      <c r="I1" s="88"/>
+      <c r="J1" s="88"/>
+      <c r="K1" s="88"/>
+      <c r="L1" s="88"/>
+      <c r="M1" s="88"/>
+      <c r="N1" s="88"/>
+      <c r="O1" s="88"/>
+      <c r="P1" s="88"/>
+      <c r="Q1" s="88"/>
+      <c r="R1" s="88"/>
+      <c r="S1" s="88"/>
+      <c r="T1" s="88"/>
+      <c r="U1" s="88"/>
+      <c r="V1" s="88"/>
       <c r="W1" s="46"/>
     </row>
     <row r="2" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="84" t="s">
+      <c r="A2" s="89" t="s">
         <v>9</v>
       </c>
-      <c r="B2" s="85"/>
-      <c r="C2" s="85"/>
-      <c r="D2" s="85"/>
-      <c r="E2" s="86"/>
-      <c r="F2" s="86"/>
+      <c r="B2" s="90"/>
+      <c r="C2" s="90"/>
+      <c r="D2" s="90"/>
+      <c r="E2" s="91"/>
+      <c r="F2" s="91"/>
       <c r="G2" s="5"/>
       <c r="H2" s="21"/>
       <c r="I2" s="52"/>
@@ -1346,58 +1373,58 @@
       <c r="W3" s="27"/>
     </row>
     <row r="4" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="87" t="s">
-        <v>0</v>
-      </c>
-      <c r="B4" s="82" t="s">
+      <c r="A4" s="92" t="s">
+        <v>0</v>
+      </c>
+      <c r="B4" s="86" t="s">
         <v>8</v>
       </c>
-      <c r="C4" s="82"/>
-      <c r="D4" s="82"/>
-      <c r="E4" s="82"/>
-      <c r="F4" s="82"/>
-      <c r="G4" s="82"/>
-      <c r="H4" s="82"/>
-      <c r="I4" s="82"/>
-      <c r="J4" s="82" t="s">
+      <c r="C4" s="86"/>
+      <c r="D4" s="86"/>
+      <c r="E4" s="86"/>
+      <c r="F4" s="86"/>
+      <c r="G4" s="86"/>
+      <c r="H4" s="86"/>
+      <c r="I4" s="86"/>
+      <c r="J4" s="86" t="s">
         <v>6</v>
       </c>
-      <c r="K4" s="82" t="s">
+      <c r="K4" s="86" t="s">
         <v>11</v>
       </c>
-      <c r="L4" s="82"/>
-      <c r="M4" s="88" t="s">
+      <c r="L4" s="86"/>
+      <c r="M4" s="93" t="s">
         <v>42</v>
       </c>
-      <c r="N4" s="88" t="s">
+      <c r="N4" s="93" t="s">
         <v>10</v>
       </c>
-      <c r="O4" s="82" t="s">
+      <c r="O4" s="86" t="s">
         <v>7</v>
       </c>
-      <c r="P4" s="93" t="s">
+      <c r="P4" s="85" t="s">
         <v>14</v>
       </c>
-      <c r="Q4" s="82" t="s">
+      <c r="Q4" s="86" t="s">
         <v>39</v>
       </c>
-      <c r="R4" s="82" t="s">
+      <c r="R4" s="86" t="s">
         <v>53</v>
       </c>
-      <c r="S4" s="94" t="s">
+      <c r="S4" s="87" t="s">
         <v>54</v>
       </c>
       <c r="T4" s="27"/>
-      <c r="U4" s="82" t="s">
+      <c r="U4" s="86" t="s">
         <v>39</v>
       </c>
-      <c r="V4" s="82" t="s">
+      <c r="V4" s="86" t="s">
         <v>53</v>
       </c>
       <c r="W4" s="47"/>
     </row>
     <row r="5" spans="1:23" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="87"/>
+      <c r="A5" s="92"/>
       <c r="B5" s="63" t="s">
         <v>1</v>
       </c>
@@ -1422,23 +1449,23 @@
       <c r="I5" s="54" t="s">
         <v>15</v>
       </c>
-      <c r="J5" s="82"/>
+      <c r="J5" s="86"/>
       <c r="K5" s="73" t="s">
         <v>12</v>
       </c>
       <c r="L5" s="73" t="s">
         <v>13</v>
       </c>
-      <c r="M5" s="89"/>
-      <c r="N5" s="89"/>
-      <c r="O5" s="82"/>
-      <c r="P5" s="93"/>
-      <c r="Q5" s="82"/>
-      <c r="R5" s="82"/>
-      <c r="S5" s="94"/>
+      <c r="M5" s="94"/>
+      <c r="N5" s="94"/>
+      <c r="O5" s="86"/>
+      <c r="P5" s="85"/>
+      <c r="Q5" s="86"/>
+      <c r="R5" s="86"/>
+      <c r="S5" s="87"/>
       <c r="T5" s="27"/>
-      <c r="U5" s="82"/>
-      <c r="V5" s="82"/>
+      <c r="U5" s="86"/>
+      <c r="V5" s="86"/>
       <c r="W5" s="47"/>
     </row>
     <row r="6" spans="1:23" s="12" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -1492,7 +1519,7 @@
       </c>
       <c r="S6" s="4"/>
       <c r="T6" s="74"/>
-      <c r="U6" s="90" t="s">
+      <c r="U6" s="82" t="s">
         <v>18</v>
       </c>
       <c r="V6" s="4" t="s">
@@ -1523,7 +1550,7 @@
       <c r="R7" s="38"/>
       <c r="S7" s="4"/>
       <c r="T7" s="74"/>
-      <c r="U7" s="91"/>
+      <c r="U7" s="83"/>
       <c r="V7" s="4" t="s">
         <v>35</v>
       </c>
@@ -1552,7 +1579,7 @@
       <c r="R8" s="38"/>
       <c r="S8" s="4"/>
       <c r="T8" s="74"/>
-      <c r="U8" s="91"/>
+      <c r="U8" s="83"/>
       <c r="V8" s="4" t="s">
         <v>21</v>
       </c>
@@ -1581,7 +1608,7 @@
       <c r="R9" s="38"/>
       <c r="S9" s="4"/>
       <c r="T9" s="74"/>
-      <c r="U9" s="91"/>
+      <c r="U9" s="83"/>
       <c r="V9" s="4" t="s">
         <v>51</v>
       </c>
@@ -1610,7 +1637,7 @@
       <c r="R10" s="38"/>
       <c r="S10" s="4"/>
       <c r="T10" s="74"/>
-      <c r="U10" s="91"/>
+      <c r="U10" s="83"/>
       <c r="V10" s="4" t="s">
         <v>31</v>
       </c>
@@ -1639,7 +1666,7 @@
       <c r="R11" s="38"/>
       <c r="S11" s="4"/>
       <c r="T11" s="74"/>
-      <c r="U11" s="91"/>
+      <c r="U11" s="83"/>
       <c r="V11" s="4" t="s">
         <v>30</v>
       </c>
@@ -1668,7 +1695,7 @@
       <c r="R12" s="38"/>
       <c r="S12" s="4"/>
       <c r="T12" s="74"/>
-      <c r="U12" s="90" t="s">
+      <c r="U12" s="82" t="s">
         <v>19</v>
       </c>
       <c r="V12" s="4" t="s">
@@ -1699,7 +1726,7 @@
       <c r="R13" s="10"/>
       <c r="S13" s="4"/>
       <c r="T13" s="74"/>
-      <c r="U13" s="91"/>
+      <c r="U13" s="83"/>
       <c r="V13" s="4" t="s">
         <v>37</v>
       </c>
@@ -1728,7 +1755,7 @@
       <c r="R14" s="38"/>
       <c r="S14" s="4"/>
       <c r="T14" s="74"/>
-      <c r="U14" s="91"/>
+      <c r="U14" s="83"/>
       <c r="V14" s="4" t="s">
         <v>36</v>
       </c>
@@ -1757,7 +1784,7 @@
       <c r="R15" s="38"/>
       <c r="S15" s="4"/>
       <c r="T15" s="14"/>
-      <c r="U15" s="91"/>
+      <c r="U15" s="83"/>
       <c r="V15" s="4" t="s">
         <v>24</v>
       </c>
@@ -1786,7 +1813,7 @@
       <c r="R16" s="38"/>
       <c r="S16" s="4"/>
       <c r="T16" s="14"/>
-      <c r="U16" s="92"/>
+      <c r="U16" s="84"/>
       <c r="V16" s="4" t="s">
         <v>25</v>
       </c>
@@ -3017,13 +3044,6 @@
     </row>
   </sheetData>
   <mergeCells count="18">
-    <mergeCell ref="U6:U11"/>
-    <mergeCell ref="U12:U16"/>
-    <mergeCell ref="P4:P5"/>
-    <mergeCell ref="Q4:Q5"/>
-    <mergeCell ref="R4:R5"/>
-    <mergeCell ref="S4:S5"/>
-    <mergeCell ref="U4:U5"/>
     <mergeCell ref="V4:V5"/>
     <mergeCell ref="A1:V1"/>
     <mergeCell ref="A2:D2"/>
@@ -3035,6 +3055,13 @@
     <mergeCell ref="M4:M5"/>
     <mergeCell ref="N4:N5"/>
     <mergeCell ref="O4:O5"/>
+    <mergeCell ref="U6:U11"/>
+    <mergeCell ref="U12:U16"/>
+    <mergeCell ref="P4:P5"/>
+    <mergeCell ref="Q4:Q5"/>
+    <mergeCell ref="R4:R5"/>
+    <mergeCell ref="S4:S5"/>
+    <mergeCell ref="U4:U5"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -3078,41 +3105,41 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="83" t="s">
+      <c r="A1" s="88" t="s">
         <v>61</v>
       </c>
-      <c r="B1" s="83"/>
-      <c r="C1" s="83"/>
-      <c r="D1" s="83"/>
-      <c r="E1" s="83"/>
-      <c r="F1" s="83"/>
-      <c r="G1" s="83"/>
-      <c r="H1" s="83"/>
-      <c r="I1" s="83"/>
-      <c r="J1" s="83"/>
-      <c r="K1" s="83"/>
-      <c r="L1" s="83"/>
-      <c r="M1" s="83"/>
-      <c r="N1" s="83"/>
-      <c r="O1" s="83"/>
-      <c r="P1" s="83"/>
-      <c r="Q1" s="83"/>
-      <c r="R1" s="83"/>
-      <c r="S1" s="83"/>
-      <c r="T1" s="83"/>
-      <c r="U1" s="83"/>
-      <c r="V1" s="83"/>
+      <c r="B1" s="88"/>
+      <c r="C1" s="88"/>
+      <c r="D1" s="88"/>
+      <c r="E1" s="88"/>
+      <c r="F1" s="88"/>
+      <c r="G1" s="88"/>
+      <c r="H1" s="88"/>
+      <c r="I1" s="88"/>
+      <c r="J1" s="88"/>
+      <c r="K1" s="88"/>
+      <c r="L1" s="88"/>
+      <c r="M1" s="88"/>
+      <c r="N1" s="88"/>
+      <c r="O1" s="88"/>
+      <c r="P1" s="88"/>
+      <c r="Q1" s="88"/>
+      <c r="R1" s="88"/>
+      <c r="S1" s="88"/>
+      <c r="T1" s="88"/>
+      <c r="U1" s="88"/>
+      <c r="V1" s="88"/>
       <c r="W1" s="46"/>
     </row>
     <row r="2" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="84" t="s">
+      <c r="A2" s="89" t="s">
         <v>9</v>
       </c>
-      <c r="B2" s="85"/>
-      <c r="C2" s="85"/>
-      <c r="D2" s="85"/>
-      <c r="E2" s="86"/>
-      <c r="F2" s="86"/>
+      <c r="B2" s="90"/>
+      <c r="C2" s="90"/>
+      <c r="D2" s="90"/>
+      <c r="E2" s="91"/>
+      <c r="F2" s="91"/>
       <c r="G2" s="5"/>
       <c r="H2" s="21"/>
       <c r="I2" s="52"/>
@@ -3157,58 +3184,58 @@
       <c r="W3" s="27"/>
     </row>
     <row r="4" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="87" t="s">
-        <v>0</v>
-      </c>
-      <c r="B4" s="82" t="s">
+      <c r="A4" s="92" t="s">
+        <v>0</v>
+      </c>
+      <c r="B4" s="86" t="s">
         <v>8</v>
       </c>
-      <c r="C4" s="82"/>
-      <c r="D4" s="82"/>
-      <c r="E4" s="82"/>
-      <c r="F4" s="82"/>
-      <c r="G4" s="82"/>
-      <c r="H4" s="82"/>
-      <c r="I4" s="82"/>
-      <c r="J4" s="82" t="s">
+      <c r="C4" s="86"/>
+      <c r="D4" s="86"/>
+      <c r="E4" s="86"/>
+      <c r="F4" s="86"/>
+      <c r="G4" s="86"/>
+      <c r="H4" s="86"/>
+      <c r="I4" s="86"/>
+      <c r="J4" s="86" t="s">
         <v>6</v>
       </c>
-      <c r="K4" s="82" t="s">
+      <c r="K4" s="86" t="s">
         <v>11</v>
       </c>
-      <c r="L4" s="82"/>
-      <c r="M4" s="88" t="s">
+      <c r="L4" s="86"/>
+      <c r="M4" s="93" t="s">
         <v>42</v>
       </c>
-      <c r="N4" s="88" t="s">
+      <c r="N4" s="93" t="s">
         <v>10</v>
       </c>
-      <c r="O4" s="82" t="s">
+      <c r="O4" s="86" t="s">
         <v>7</v>
       </c>
-      <c r="P4" s="93" t="s">
+      <c r="P4" s="85" t="s">
         <v>14</v>
       </c>
-      <c r="Q4" s="82" t="s">
+      <c r="Q4" s="86" t="s">
         <v>39</v>
       </c>
-      <c r="R4" s="82" t="s">
+      <c r="R4" s="86" t="s">
         <v>53</v>
       </c>
-      <c r="S4" s="94" t="s">
+      <c r="S4" s="87" t="s">
         <v>54</v>
       </c>
       <c r="T4" s="27"/>
-      <c r="U4" s="82" t="s">
+      <c r="U4" s="86" t="s">
         <v>39</v>
       </c>
-      <c r="V4" s="82" t="s">
+      <c r="V4" s="86" t="s">
         <v>53</v>
       </c>
       <c r="W4" s="47"/>
     </row>
     <row r="5" spans="1:23" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="87"/>
+      <c r="A5" s="92"/>
       <c r="B5" s="63" t="s">
         <v>1</v>
       </c>
@@ -3233,23 +3260,23 @@
       <c r="I5" s="54" t="s">
         <v>15</v>
       </c>
-      <c r="J5" s="82"/>
+      <c r="J5" s="86"/>
       <c r="K5" s="75" t="s">
         <v>12</v>
       </c>
       <c r="L5" s="75" t="s">
         <v>13</v>
       </c>
-      <c r="M5" s="89"/>
-      <c r="N5" s="89"/>
-      <c r="O5" s="82"/>
-      <c r="P5" s="93"/>
-      <c r="Q5" s="82"/>
-      <c r="R5" s="82"/>
-      <c r="S5" s="94"/>
+      <c r="M5" s="94"/>
+      <c r="N5" s="94"/>
+      <c r="O5" s="86"/>
+      <c r="P5" s="85"/>
+      <c r="Q5" s="86"/>
+      <c r="R5" s="86"/>
+      <c r="S5" s="87"/>
       <c r="T5" s="27"/>
-      <c r="U5" s="82"/>
-      <c r="V5" s="82"/>
+      <c r="U5" s="86"/>
+      <c r="V5" s="86"/>
       <c r="W5" s="47"/>
     </row>
     <row r="6" spans="1:23" s="12" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -3301,7 +3328,7 @@
       </c>
       <c r="S6" s="4"/>
       <c r="T6" s="76"/>
-      <c r="U6" s="90" t="s">
+      <c r="U6" s="82" t="s">
         <v>18</v>
       </c>
       <c r="V6" s="4" t="s">
@@ -3360,7 +3387,7 @@
       </c>
       <c r="S7" s="4"/>
       <c r="T7" s="76"/>
-      <c r="U7" s="91"/>
+      <c r="U7" s="83"/>
       <c r="V7" s="4" t="s">
         <v>35</v>
       </c>
@@ -3415,7 +3442,7 @@
       </c>
       <c r="S8" s="4"/>
       <c r="T8" s="76"/>
-      <c r="U8" s="91"/>
+      <c r="U8" s="83"/>
       <c r="V8" s="4" t="s">
         <v>21</v>
       </c>
@@ -3444,7 +3471,7 @@
       <c r="R9" s="38"/>
       <c r="S9" s="4"/>
       <c r="T9" s="76"/>
-      <c r="U9" s="91"/>
+      <c r="U9" s="83"/>
       <c r="V9" s="4" t="s">
         <v>51</v>
       </c>
@@ -3473,7 +3500,7 @@
       <c r="R10" s="38"/>
       <c r="S10" s="4"/>
       <c r="T10" s="76"/>
-      <c r="U10" s="91"/>
+      <c r="U10" s="83"/>
       <c r="V10" s="4" t="s">
         <v>31</v>
       </c>
@@ -3502,7 +3529,7 @@
       <c r="R11" s="38"/>
       <c r="S11" s="4"/>
       <c r="T11" s="76"/>
-      <c r="U11" s="91"/>
+      <c r="U11" s="83"/>
       <c r="V11" s="4" t="s">
         <v>30</v>
       </c>
@@ -3531,7 +3558,7 @@
       <c r="R12" s="38"/>
       <c r="S12" s="4"/>
       <c r="T12" s="76"/>
-      <c r="U12" s="90" t="s">
+      <c r="U12" s="82" t="s">
         <v>19</v>
       </c>
       <c r="V12" s="4" t="s">
@@ -3562,7 +3589,7 @@
       <c r="R13" s="10"/>
       <c r="S13" s="4"/>
       <c r="T13" s="76"/>
-      <c r="U13" s="91"/>
+      <c r="U13" s="83"/>
       <c r="V13" s="4" t="s">
         <v>37</v>
       </c>
@@ -3591,7 +3618,7 @@
       <c r="R14" s="38"/>
       <c r="S14" s="4"/>
       <c r="T14" s="76"/>
-      <c r="U14" s="91"/>
+      <c r="U14" s="83"/>
       <c r="V14" s="4" t="s">
         <v>36</v>
       </c>
@@ -3620,7 +3647,7 @@
       <c r="R15" s="38"/>
       <c r="S15" s="4"/>
       <c r="T15" s="14"/>
-      <c r="U15" s="91"/>
+      <c r="U15" s="83"/>
       <c r="V15" s="4" t="s">
         <v>24</v>
       </c>
@@ -3649,7 +3676,7 @@
       <c r="R16" s="38"/>
       <c r="S16" s="4"/>
       <c r="T16" s="14"/>
-      <c r="U16" s="92"/>
+      <c r="U16" s="84"/>
       <c r="V16" s="4" t="s">
         <v>25</v>
       </c>
@@ -4880,6 +4907,13 @@
     </row>
   </sheetData>
   <mergeCells count="18">
+    <mergeCell ref="U6:U11"/>
+    <mergeCell ref="U12:U16"/>
+    <mergeCell ref="P4:P5"/>
+    <mergeCell ref="Q4:Q5"/>
+    <mergeCell ref="R4:R5"/>
+    <mergeCell ref="S4:S5"/>
+    <mergeCell ref="U4:U5"/>
     <mergeCell ref="V4:V5"/>
     <mergeCell ref="A1:V1"/>
     <mergeCell ref="A2:D2"/>
@@ -4891,13 +4925,6 @@
     <mergeCell ref="M4:M5"/>
     <mergeCell ref="N4:N5"/>
     <mergeCell ref="O4:O5"/>
-    <mergeCell ref="U6:U11"/>
-    <mergeCell ref="U12:U16"/>
-    <mergeCell ref="P4:P5"/>
-    <mergeCell ref="Q4:Q5"/>
-    <mergeCell ref="R4:R5"/>
-    <mergeCell ref="S4:S5"/>
-    <mergeCell ref="U4:U5"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -4941,41 +4968,41 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="83" t="s">
+      <c r="A1" s="88" t="s">
         <v>61</v>
       </c>
-      <c r="B1" s="83"/>
-      <c r="C1" s="83"/>
-      <c r="D1" s="83"/>
-      <c r="E1" s="83"/>
-      <c r="F1" s="83"/>
-      <c r="G1" s="83"/>
-      <c r="H1" s="83"/>
-      <c r="I1" s="83"/>
-      <c r="J1" s="83"/>
-      <c r="K1" s="83"/>
-      <c r="L1" s="83"/>
-      <c r="M1" s="83"/>
-      <c r="N1" s="83"/>
-      <c r="O1" s="83"/>
-      <c r="P1" s="83"/>
-      <c r="Q1" s="83"/>
-      <c r="R1" s="83"/>
-      <c r="S1" s="83"/>
-      <c r="T1" s="83"/>
-      <c r="U1" s="83"/>
-      <c r="V1" s="83"/>
+      <c r="B1" s="88"/>
+      <c r="C1" s="88"/>
+      <c r="D1" s="88"/>
+      <c r="E1" s="88"/>
+      <c r="F1" s="88"/>
+      <c r="G1" s="88"/>
+      <c r="H1" s="88"/>
+      <c r="I1" s="88"/>
+      <c r="J1" s="88"/>
+      <c r="K1" s="88"/>
+      <c r="L1" s="88"/>
+      <c r="M1" s="88"/>
+      <c r="N1" s="88"/>
+      <c r="O1" s="88"/>
+      <c r="P1" s="88"/>
+      <c r="Q1" s="88"/>
+      <c r="R1" s="88"/>
+      <c r="S1" s="88"/>
+      <c r="T1" s="88"/>
+      <c r="U1" s="88"/>
+      <c r="V1" s="88"/>
       <c r="W1" s="46"/>
     </row>
     <row r="2" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="84" t="s">
+      <c r="A2" s="89" t="s">
         <v>9</v>
       </c>
-      <c r="B2" s="85"/>
-      <c r="C2" s="85"/>
-      <c r="D2" s="85"/>
-      <c r="E2" s="86"/>
-      <c r="F2" s="86"/>
+      <c r="B2" s="90"/>
+      <c r="C2" s="90"/>
+      <c r="D2" s="90"/>
+      <c r="E2" s="91"/>
+      <c r="F2" s="91"/>
       <c r="G2" s="5"/>
       <c r="H2" s="21"/>
       <c r="I2" s="52"/>
@@ -5020,58 +5047,58 @@
       <c r="W3" s="27"/>
     </row>
     <row r="4" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="87" t="s">
-        <v>0</v>
-      </c>
-      <c r="B4" s="82" t="s">
+      <c r="A4" s="92" t="s">
+        <v>0</v>
+      </c>
+      <c r="B4" s="86" t="s">
         <v>8</v>
       </c>
-      <c r="C4" s="82"/>
-      <c r="D4" s="82"/>
-      <c r="E4" s="82"/>
-      <c r="F4" s="82"/>
-      <c r="G4" s="82"/>
-      <c r="H4" s="82"/>
-      <c r="I4" s="82"/>
-      <c r="J4" s="82" t="s">
+      <c r="C4" s="86"/>
+      <c r="D4" s="86"/>
+      <c r="E4" s="86"/>
+      <c r="F4" s="86"/>
+      <c r="G4" s="86"/>
+      <c r="H4" s="86"/>
+      <c r="I4" s="86"/>
+      <c r="J4" s="86" t="s">
         <v>6</v>
       </c>
-      <c r="K4" s="82" t="s">
+      <c r="K4" s="86" t="s">
         <v>11</v>
       </c>
-      <c r="L4" s="82"/>
-      <c r="M4" s="88" t="s">
+      <c r="L4" s="86"/>
+      <c r="M4" s="93" t="s">
         <v>42</v>
       </c>
-      <c r="N4" s="88" t="s">
+      <c r="N4" s="93" t="s">
         <v>10</v>
       </c>
-      <c r="O4" s="82" t="s">
+      <c r="O4" s="86" t="s">
         <v>7</v>
       </c>
-      <c r="P4" s="93" t="s">
+      <c r="P4" s="85" t="s">
         <v>14</v>
       </c>
-      <c r="Q4" s="82" t="s">
+      <c r="Q4" s="86" t="s">
         <v>39</v>
       </c>
-      <c r="R4" s="82" t="s">
+      <c r="R4" s="86" t="s">
         <v>53</v>
       </c>
-      <c r="S4" s="94" t="s">
+      <c r="S4" s="87" t="s">
         <v>54</v>
       </c>
       <c r="T4" s="27"/>
-      <c r="U4" s="82" t="s">
+      <c r="U4" s="86" t="s">
         <v>39</v>
       </c>
-      <c r="V4" s="82" t="s">
+      <c r="V4" s="86" t="s">
         <v>53</v>
       </c>
       <c r="W4" s="47"/>
     </row>
     <row r="5" spans="1:23" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="87"/>
+      <c r="A5" s="92"/>
       <c r="B5" s="63" t="s">
         <v>1</v>
       </c>
@@ -5096,23 +5123,23 @@
       <c r="I5" s="54" t="s">
         <v>15</v>
       </c>
-      <c r="J5" s="82"/>
+      <c r="J5" s="86"/>
       <c r="K5" s="73" t="s">
         <v>12</v>
       </c>
       <c r="L5" s="73" t="s">
         <v>13</v>
       </c>
-      <c r="M5" s="89"/>
-      <c r="N5" s="89"/>
-      <c r="O5" s="82"/>
-      <c r="P5" s="93"/>
-      <c r="Q5" s="82"/>
-      <c r="R5" s="82"/>
-      <c r="S5" s="94"/>
+      <c r="M5" s="94"/>
+      <c r="N5" s="94"/>
+      <c r="O5" s="86"/>
+      <c r="P5" s="85"/>
+      <c r="Q5" s="86"/>
+      <c r="R5" s="86"/>
+      <c r="S5" s="87"/>
       <c r="T5" s="27"/>
-      <c r="U5" s="82"/>
-      <c r="V5" s="82"/>
+      <c r="U5" s="86"/>
+      <c r="V5" s="86"/>
       <c r="W5" s="47"/>
     </row>
     <row r="6" spans="1:23" s="12" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -5164,7 +5191,7 @@
       </c>
       <c r="S6" s="4"/>
       <c r="T6" s="74"/>
-      <c r="U6" s="90" t="s">
+      <c r="U6" s="82" t="s">
         <v>18</v>
       </c>
       <c r="V6" s="4" t="s">
@@ -5221,7 +5248,7 @@
       </c>
       <c r="S7" s="4"/>
       <c r="T7" s="74"/>
-      <c r="U7" s="91"/>
+      <c r="U7" s="83"/>
       <c r="V7" s="4" t="s">
         <v>35</v>
       </c>
@@ -5250,7 +5277,7 @@
       <c r="R8" s="38"/>
       <c r="S8" s="4"/>
       <c r="T8" s="74"/>
-      <c r="U8" s="91"/>
+      <c r="U8" s="83"/>
       <c r="V8" s="4" t="s">
         <v>21</v>
       </c>
@@ -5279,7 +5306,7 @@
       <c r="R9" s="38"/>
       <c r="S9" s="4"/>
       <c r="T9" s="74"/>
-      <c r="U9" s="91"/>
+      <c r="U9" s="83"/>
       <c r="V9" s="4" t="s">
         <v>51</v>
       </c>
@@ -5308,7 +5335,7 @@
       <c r="R10" s="38"/>
       <c r="S10" s="4"/>
       <c r="T10" s="74"/>
-      <c r="U10" s="91"/>
+      <c r="U10" s="83"/>
       <c r="V10" s="4" t="s">
         <v>31</v>
       </c>
@@ -5337,7 +5364,7 @@
       <c r="R11" s="38"/>
       <c r="S11" s="4"/>
       <c r="T11" s="74"/>
-      <c r="U11" s="91"/>
+      <c r="U11" s="83"/>
       <c r="V11" s="4" t="s">
         <v>30</v>
       </c>
@@ -5366,7 +5393,7 @@
       <c r="R12" s="38"/>
       <c r="S12" s="4"/>
       <c r="T12" s="74"/>
-      <c r="U12" s="90" t="s">
+      <c r="U12" s="82" t="s">
         <v>19</v>
       </c>
       <c r="V12" s="4" t="s">
@@ -5397,7 +5424,7 @@
       <c r="R13" s="10"/>
       <c r="S13" s="4"/>
       <c r="T13" s="74"/>
-      <c r="U13" s="91"/>
+      <c r="U13" s="83"/>
       <c r="V13" s="4" t="s">
         <v>37</v>
       </c>
@@ -5426,7 +5453,7 @@
       <c r="R14" s="38"/>
       <c r="S14" s="4"/>
       <c r="T14" s="74"/>
-      <c r="U14" s="91"/>
+      <c r="U14" s="83"/>
       <c r="V14" s="4" t="s">
         <v>36</v>
       </c>
@@ -5455,7 +5482,7 @@
       <c r="R15" s="38"/>
       <c r="S15" s="4"/>
       <c r="T15" s="14"/>
-      <c r="U15" s="91"/>
+      <c r="U15" s="83"/>
       <c r="V15" s="4" t="s">
         <v>24</v>
       </c>
@@ -5484,7 +5511,7 @@
       <c r="R16" s="38"/>
       <c r="S16" s="4"/>
       <c r="T16" s="14"/>
-      <c r="U16" s="92"/>
+      <c r="U16" s="84"/>
       <c r="V16" s="4" t="s">
         <v>25</v>
       </c>
@@ -6715,13 +6742,6 @@
     </row>
   </sheetData>
   <mergeCells count="18">
-    <mergeCell ref="U6:U11"/>
-    <mergeCell ref="U12:U16"/>
-    <mergeCell ref="P4:P5"/>
-    <mergeCell ref="Q4:Q5"/>
-    <mergeCell ref="R4:R5"/>
-    <mergeCell ref="S4:S5"/>
-    <mergeCell ref="U4:U5"/>
     <mergeCell ref="V4:V5"/>
     <mergeCell ref="A1:V1"/>
     <mergeCell ref="A2:D2"/>
@@ -6733,6 +6753,13 @@
     <mergeCell ref="M4:M5"/>
     <mergeCell ref="N4:N5"/>
     <mergeCell ref="O4:O5"/>
+    <mergeCell ref="U6:U11"/>
+    <mergeCell ref="U12:U16"/>
+    <mergeCell ref="P4:P5"/>
+    <mergeCell ref="Q4:Q5"/>
+    <mergeCell ref="R4:R5"/>
+    <mergeCell ref="S4:S5"/>
+    <mergeCell ref="U4:U5"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -6776,41 +6803,41 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="83" t="s">
+      <c r="A1" s="88" t="s">
         <v>61</v>
       </c>
-      <c r="B1" s="83"/>
-      <c r="C1" s="83"/>
-      <c r="D1" s="83"/>
-      <c r="E1" s="83"/>
-      <c r="F1" s="83"/>
-      <c r="G1" s="83"/>
-      <c r="H1" s="83"/>
-      <c r="I1" s="83"/>
-      <c r="J1" s="83"/>
-      <c r="K1" s="83"/>
-      <c r="L1" s="83"/>
-      <c r="M1" s="83"/>
-      <c r="N1" s="83"/>
-      <c r="O1" s="83"/>
-      <c r="P1" s="83"/>
-      <c r="Q1" s="83"/>
-      <c r="R1" s="83"/>
-      <c r="S1" s="83"/>
-      <c r="T1" s="83"/>
-      <c r="U1" s="83"/>
-      <c r="V1" s="83"/>
+      <c r="B1" s="88"/>
+      <c r="C1" s="88"/>
+      <c r="D1" s="88"/>
+      <c r="E1" s="88"/>
+      <c r="F1" s="88"/>
+      <c r="G1" s="88"/>
+      <c r="H1" s="88"/>
+      <c r="I1" s="88"/>
+      <c r="J1" s="88"/>
+      <c r="K1" s="88"/>
+      <c r="L1" s="88"/>
+      <c r="M1" s="88"/>
+      <c r="N1" s="88"/>
+      <c r="O1" s="88"/>
+      <c r="P1" s="88"/>
+      <c r="Q1" s="88"/>
+      <c r="R1" s="88"/>
+      <c r="S1" s="88"/>
+      <c r="T1" s="88"/>
+      <c r="U1" s="88"/>
+      <c r="V1" s="88"/>
       <c r="W1" s="46"/>
     </row>
     <row r="2" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="84" t="s">
+      <c r="A2" s="89" t="s">
         <v>9</v>
       </c>
-      <c r="B2" s="85"/>
-      <c r="C2" s="85"/>
-      <c r="D2" s="85"/>
-      <c r="E2" s="86"/>
-      <c r="F2" s="86"/>
+      <c r="B2" s="90"/>
+      <c r="C2" s="90"/>
+      <c r="D2" s="90"/>
+      <c r="E2" s="91"/>
+      <c r="F2" s="91"/>
       <c r="G2" s="5"/>
       <c r="H2" s="21"/>
       <c r="I2" s="52"/>
@@ -6855,58 +6882,58 @@
       <c r="W3" s="27"/>
     </row>
     <row r="4" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="87" t="s">
-        <v>0</v>
-      </c>
-      <c r="B4" s="82" t="s">
+      <c r="A4" s="92" t="s">
+        <v>0</v>
+      </c>
+      <c r="B4" s="86" t="s">
         <v>8</v>
       </c>
-      <c r="C4" s="82"/>
-      <c r="D4" s="82"/>
-      <c r="E4" s="82"/>
-      <c r="F4" s="82"/>
-      <c r="G4" s="82"/>
-      <c r="H4" s="82"/>
-      <c r="I4" s="82"/>
-      <c r="J4" s="82" t="s">
+      <c r="C4" s="86"/>
+      <c r="D4" s="86"/>
+      <c r="E4" s="86"/>
+      <c r="F4" s="86"/>
+      <c r="G4" s="86"/>
+      <c r="H4" s="86"/>
+      <c r="I4" s="86"/>
+      <c r="J4" s="86" t="s">
         <v>6</v>
       </c>
-      <c r="K4" s="82" t="s">
+      <c r="K4" s="86" t="s">
         <v>11</v>
       </c>
-      <c r="L4" s="82"/>
-      <c r="M4" s="88" t="s">
+      <c r="L4" s="86"/>
+      <c r="M4" s="93" t="s">
         <v>42</v>
       </c>
-      <c r="N4" s="88" t="s">
+      <c r="N4" s="93" t="s">
         <v>10</v>
       </c>
-      <c r="O4" s="82" t="s">
+      <c r="O4" s="86" t="s">
         <v>7</v>
       </c>
-      <c r="P4" s="93" t="s">
+      <c r="P4" s="85" t="s">
         <v>14</v>
       </c>
-      <c r="Q4" s="82" t="s">
+      <c r="Q4" s="86" t="s">
         <v>39</v>
       </c>
-      <c r="R4" s="82" t="s">
+      <c r="R4" s="86" t="s">
         <v>53</v>
       </c>
-      <c r="S4" s="94" t="s">
+      <c r="S4" s="87" t="s">
         <v>54</v>
       </c>
       <c r="T4" s="27"/>
-      <c r="U4" s="82" t="s">
+      <c r="U4" s="86" t="s">
         <v>39</v>
       </c>
-      <c r="V4" s="82" t="s">
+      <c r="V4" s="86" t="s">
         <v>53</v>
       </c>
       <c r="W4" s="47"/>
     </row>
     <row r="5" spans="1:23" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="87"/>
+      <c r="A5" s="92"/>
       <c r="B5" s="63" t="s">
         <v>1</v>
       </c>
@@ -6931,23 +6958,23 @@
       <c r="I5" s="54" t="s">
         <v>15</v>
       </c>
-      <c r="J5" s="82"/>
+      <c r="J5" s="86"/>
       <c r="K5" s="72" t="s">
         <v>12</v>
       </c>
       <c r="L5" s="72" t="s">
         <v>13</v>
       </c>
-      <c r="M5" s="89"/>
-      <c r="N5" s="89"/>
-      <c r="O5" s="82"/>
-      <c r="P5" s="93"/>
-      <c r="Q5" s="82"/>
-      <c r="R5" s="82"/>
-      <c r="S5" s="94"/>
+      <c r="M5" s="94"/>
+      <c r="N5" s="94"/>
+      <c r="O5" s="86"/>
+      <c r="P5" s="85"/>
+      <c r="Q5" s="86"/>
+      <c r="R5" s="86"/>
+      <c r="S5" s="87"/>
       <c r="T5" s="27"/>
-      <c r="U5" s="82"/>
-      <c r="V5" s="82"/>
+      <c r="U5" s="86"/>
+      <c r="V5" s="86"/>
       <c r="W5" s="47"/>
     </row>
     <row r="6" spans="1:23" s="12" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -6999,7 +7026,7 @@
       </c>
       <c r="S6" s="4"/>
       <c r="T6" s="71"/>
-      <c r="U6" s="90" t="s">
+      <c r="U6" s="82" t="s">
         <v>18</v>
       </c>
       <c r="V6" s="4" t="s">
@@ -7060,7 +7087,7 @@
       </c>
       <c r="S7" s="4"/>
       <c r="T7" s="71"/>
-      <c r="U7" s="91"/>
+      <c r="U7" s="83"/>
       <c r="V7" s="4" t="s">
         <v>35</v>
       </c>
@@ -7115,7 +7142,7 @@
       </c>
       <c r="S8" s="4"/>
       <c r="T8" s="71"/>
-      <c r="U8" s="91"/>
+      <c r="U8" s="83"/>
       <c r="V8" s="4" t="s">
         <v>21</v>
       </c>
@@ -7170,7 +7197,7 @@
       </c>
       <c r="S9" s="4"/>
       <c r="T9" s="71"/>
-      <c r="U9" s="91"/>
+      <c r="U9" s="83"/>
       <c r="V9" s="4" t="s">
         <v>51</v>
       </c>
@@ -7225,7 +7252,7 @@
       </c>
       <c r="S10" s="4"/>
       <c r="T10" s="71"/>
-      <c r="U10" s="91"/>
+      <c r="U10" s="83"/>
       <c r="V10" s="4" t="s">
         <v>31</v>
       </c>
@@ -7282,7 +7309,7 @@
       </c>
       <c r="S11" s="4"/>
       <c r="T11" s="71"/>
-      <c r="U11" s="91"/>
+      <c r="U11" s="83"/>
       <c r="V11" s="4" t="s">
         <v>30</v>
       </c>
@@ -7339,7 +7366,7 @@
       </c>
       <c r="S12" s="4"/>
       <c r="T12" s="71"/>
-      <c r="U12" s="90" t="s">
+      <c r="U12" s="82" t="s">
         <v>19</v>
       </c>
       <c r="V12" s="4" t="s">
@@ -7402,7 +7429,7 @@
       </c>
       <c r="S13" s="4"/>
       <c r="T13" s="71"/>
-      <c r="U13" s="91"/>
+      <c r="U13" s="83"/>
       <c r="V13" s="4" t="s">
         <v>37</v>
       </c>
@@ -7457,7 +7484,7 @@
       </c>
       <c r="S14" s="4"/>
       <c r="T14" s="71"/>
-      <c r="U14" s="91"/>
+      <c r="U14" s="83"/>
       <c r="V14" s="4" t="s">
         <v>36</v>
       </c>
@@ -7486,7 +7513,7 @@
       <c r="R15" s="38"/>
       <c r="S15" s="4"/>
       <c r="T15" s="14"/>
-      <c r="U15" s="91"/>
+      <c r="U15" s="83"/>
       <c r="V15" s="4" t="s">
         <v>24</v>
       </c>
@@ -7515,7 +7542,7 @@
       <c r="R16" s="38"/>
       <c r="S16" s="4"/>
       <c r="T16" s="14"/>
-      <c r="U16" s="92"/>
+      <c r="U16" s="84"/>
       <c r="V16" s="4" t="s">
         <v>25</v>
       </c>
@@ -8746,6 +8773,13 @@
     </row>
   </sheetData>
   <mergeCells count="18">
+    <mergeCell ref="U6:U11"/>
+    <mergeCell ref="U12:U16"/>
+    <mergeCell ref="P4:P5"/>
+    <mergeCell ref="Q4:Q5"/>
+    <mergeCell ref="R4:R5"/>
+    <mergeCell ref="S4:S5"/>
+    <mergeCell ref="U4:U5"/>
     <mergeCell ref="V4:V5"/>
     <mergeCell ref="A1:V1"/>
     <mergeCell ref="A2:D2"/>
@@ -8757,13 +8791,6 @@
     <mergeCell ref="M4:M5"/>
     <mergeCell ref="N4:N5"/>
     <mergeCell ref="O4:O5"/>
-    <mergeCell ref="U6:U11"/>
-    <mergeCell ref="U12:U16"/>
-    <mergeCell ref="P4:P5"/>
-    <mergeCell ref="Q4:Q5"/>
-    <mergeCell ref="R4:R5"/>
-    <mergeCell ref="S4:S5"/>
-    <mergeCell ref="U4:U5"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -8774,8 +8801,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:X57"/>
   <sheetViews>
-    <sheetView showZeros="0" topLeftCell="L1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B6" sqref="B6:S9"/>
+    <sheetView showZeros="0" tabSelected="1" topLeftCell="B1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="I8" sqref="I8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -8807,41 +8834,41 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="83" t="s">
+      <c r="A1" s="88" t="s">
         <v>61</v>
       </c>
-      <c r="B1" s="83"/>
-      <c r="C1" s="83"/>
-      <c r="D1" s="83"/>
-      <c r="E1" s="83"/>
-      <c r="F1" s="83"/>
-      <c r="G1" s="83"/>
-      <c r="H1" s="83"/>
-      <c r="I1" s="83"/>
-      <c r="J1" s="83"/>
-      <c r="K1" s="83"/>
-      <c r="L1" s="83"/>
-      <c r="M1" s="83"/>
-      <c r="N1" s="83"/>
-      <c r="O1" s="83"/>
-      <c r="P1" s="83"/>
-      <c r="Q1" s="83"/>
-      <c r="R1" s="83"/>
-      <c r="S1" s="83"/>
-      <c r="T1" s="83"/>
-      <c r="U1" s="83"/>
-      <c r="V1" s="83"/>
+      <c r="B1" s="88"/>
+      <c r="C1" s="88"/>
+      <c r="D1" s="88"/>
+      <c r="E1" s="88"/>
+      <c r="F1" s="88"/>
+      <c r="G1" s="88"/>
+      <c r="H1" s="88"/>
+      <c r="I1" s="88"/>
+      <c r="J1" s="88"/>
+      <c r="K1" s="88"/>
+      <c r="L1" s="88"/>
+      <c r="M1" s="88"/>
+      <c r="N1" s="88"/>
+      <c r="O1" s="88"/>
+      <c r="P1" s="88"/>
+      <c r="Q1" s="88"/>
+      <c r="R1" s="88"/>
+      <c r="S1" s="88"/>
+      <c r="T1" s="88"/>
+      <c r="U1" s="88"/>
+      <c r="V1" s="88"/>
       <c r="W1" s="46"/>
     </row>
     <row r="2" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="84" t="s">
+      <c r="A2" s="89" t="s">
         <v>9</v>
       </c>
-      <c r="B2" s="85"/>
-      <c r="C2" s="85"/>
-      <c r="D2" s="85"/>
-      <c r="E2" s="86"/>
-      <c r="F2" s="86"/>
+      <c r="B2" s="90"/>
+      <c r="C2" s="90"/>
+      <c r="D2" s="90"/>
+      <c r="E2" s="91"/>
+      <c r="F2" s="91"/>
       <c r="G2" s="5"/>
       <c r="H2" s="21"/>
       <c r="I2" s="52"/>
@@ -8886,58 +8913,58 @@
       <c r="W3" s="27"/>
     </row>
     <row r="4" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="87" t="s">
-        <v>0</v>
-      </c>
-      <c r="B4" s="82" t="s">
+      <c r="A4" s="92" t="s">
+        <v>0</v>
+      </c>
+      <c r="B4" s="86" t="s">
         <v>8</v>
       </c>
-      <c r="C4" s="82"/>
-      <c r="D4" s="82"/>
-      <c r="E4" s="82"/>
-      <c r="F4" s="82"/>
-      <c r="G4" s="82"/>
-      <c r="H4" s="82"/>
-      <c r="I4" s="82"/>
-      <c r="J4" s="82" t="s">
+      <c r="C4" s="86"/>
+      <c r="D4" s="86"/>
+      <c r="E4" s="86"/>
+      <c r="F4" s="86"/>
+      <c r="G4" s="86"/>
+      <c r="H4" s="86"/>
+      <c r="I4" s="86"/>
+      <c r="J4" s="86" t="s">
         <v>6</v>
       </c>
-      <c r="K4" s="82" t="s">
+      <c r="K4" s="86" t="s">
         <v>11</v>
       </c>
-      <c r="L4" s="82"/>
-      <c r="M4" s="88" t="s">
+      <c r="L4" s="86"/>
+      <c r="M4" s="93" t="s">
         <v>42</v>
       </c>
-      <c r="N4" s="88" t="s">
+      <c r="N4" s="93" t="s">
         <v>10</v>
       </c>
-      <c r="O4" s="82" t="s">
+      <c r="O4" s="86" t="s">
         <v>7</v>
       </c>
-      <c r="P4" s="93" t="s">
+      <c r="P4" s="85" t="s">
         <v>14</v>
       </c>
-      <c r="Q4" s="82" t="s">
+      <c r="Q4" s="86" t="s">
         <v>39</v>
       </c>
-      <c r="R4" s="82" t="s">
+      <c r="R4" s="86" t="s">
         <v>53</v>
       </c>
-      <c r="S4" s="94" t="s">
+      <c r="S4" s="87" t="s">
         <v>54</v>
       </c>
       <c r="T4" s="27"/>
-      <c r="U4" s="82" t="s">
+      <c r="U4" s="86" t="s">
         <v>39</v>
       </c>
-      <c r="V4" s="82" t="s">
+      <c r="V4" s="86" t="s">
         <v>53</v>
       </c>
       <c r="W4" s="47"/>
     </row>
     <row r="5" spans="1:23" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="87"/>
+      <c r="A5" s="92"/>
       <c r="B5" s="63" t="s">
         <v>1</v>
       </c>
@@ -8962,23 +8989,23 @@
       <c r="I5" s="54" t="s">
         <v>15</v>
       </c>
-      <c r="J5" s="82"/>
+      <c r="J5" s="86"/>
       <c r="K5" s="73" t="s">
         <v>12</v>
       </c>
       <c r="L5" s="73" t="s">
         <v>13</v>
       </c>
-      <c r="M5" s="89"/>
-      <c r="N5" s="89"/>
-      <c r="O5" s="82"/>
-      <c r="P5" s="93"/>
-      <c r="Q5" s="82"/>
-      <c r="R5" s="82"/>
-      <c r="S5" s="94"/>
+      <c r="M5" s="94"/>
+      <c r="N5" s="94"/>
+      <c r="O5" s="86"/>
+      <c r="P5" s="85"/>
+      <c r="Q5" s="86"/>
+      <c r="R5" s="86"/>
+      <c r="S5" s="87"/>
       <c r="T5" s="27"/>
-      <c r="U5" s="82"/>
-      <c r="V5" s="82"/>
+      <c r="U5" s="86"/>
+      <c r="V5" s="86"/>
       <c r="W5" s="47"/>
     </row>
     <row r="6" spans="1:23" s="12" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -9002,25 +9029,37 @@
       <c r="H6" s="40" t="s">
         <v>109</v>
       </c>
-      <c r="I6" s="49"/>
-      <c r="J6" s="1"/>
-      <c r="K6" s="80"/>
-      <c r="L6" s="40"/>
-      <c r="M6" s="40"/>
+      <c r="I6" s="49" t="s">
+        <v>91</v>
+      </c>
+      <c r="J6" s="1" t="s">
+        <v>136</v>
+      </c>
+      <c r="K6" s="80" t="s">
+        <v>138</v>
+      </c>
+      <c r="L6" s="40" t="s">
+        <v>140</v>
+      </c>
+      <c r="M6" s="40" t="s">
+        <v>137</v>
+      </c>
       <c r="N6" s="41"/>
-      <c r="O6" s="40"/>
+      <c r="O6" s="40" t="s">
+        <v>72</v>
+      </c>
       <c r="P6" s="40" t="s">
         <v>73</v>
       </c>
       <c r="Q6" s="50" t="s">
-        <v>18</v>
+        <v>89</v>
       </c>
       <c r="R6" s="40" t="s">
-        <v>30</v>
+        <v>103</v>
       </c>
       <c r="S6" s="1"/>
       <c r="T6" s="74"/>
-      <c r="U6" s="90" t="s">
+      <c r="U6" s="82" t="s">
         <v>18</v>
       </c>
       <c r="V6" s="4" t="s">
@@ -9049,13 +9088,21 @@
       <c r="H7" s="40" t="s">
         <v>109</v>
       </c>
-      <c r="I7" s="49"/>
+      <c r="I7" s="49" t="s">
+        <v>100</v>
+      </c>
       <c r="J7" s="40"/>
-      <c r="K7" s="80"/>
+      <c r="K7" s="80" t="s">
+        <v>132</v>
+      </c>
       <c r="L7" s="40"/>
-      <c r="M7" s="40"/>
+      <c r="M7" s="40" t="s">
+        <v>139</v>
+      </c>
       <c r="N7" s="41"/>
-      <c r="O7" s="40"/>
+      <c r="O7" s="40" t="s">
+        <v>72</v>
+      </c>
       <c r="P7" s="40" t="s">
         <v>73</v>
       </c>
@@ -9067,7 +9114,7 @@
       </c>
       <c r="S7" s="1"/>
       <c r="T7" s="74"/>
-      <c r="U7" s="91"/>
+      <c r="U7" s="83"/>
       <c r="V7" s="4" t="s">
         <v>35</v>
       </c>
@@ -9094,13 +9141,21 @@
       <c r="H8" s="40" t="s">
         <v>109</v>
       </c>
-      <c r="I8" s="49"/>
+      <c r="I8" s="49" t="s">
+        <v>100</v>
+      </c>
       <c r="J8" s="40"/>
-      <c r="K8" s="81"/>
+      <c r="K8" s="81" t="s">
+        <v>132</v>
+      </c>
       <c r="L8" s="40"/>
-      <c r="M8" s="40"/>
+      <c r="M8" s="40" t="s">
+        <v>139</v>
+      </c>
       <c r="N8" s="41"/>
-      <c r="O8" s="40"/>
+      <c r="O8" s="40" t="s">
+        <v>72</v>
+      </c>
       <c r="P8" s="40" t="s">
         <v>73</v>
       </c>
@@ -9112,7 +9167,7 @@
       </c>
       <c r="S8" s="1"/>
       <c r="T8" s="74"/>
-      <c r="U8" s="91"/>
+      <c r="U8" s="83"/>
       <c r="V8" s="4" t="s">
         <v>21</v>
       </c>
@@ -9139,25 +9194,37 @@
       <c r="H9" s="40" t="s">
         <v>109</v>
       </c>
-      <c r="I9" s="49"/>
-      <c r="J9" s="40"/>
-      <c r="K9" s="40"/>
-      <c r="L9" s="40"/>
-      <c r="M9" s="40"/>
-      <c r="N9" s="1"/>
-      <c r="O9" s="40"/>
+      <c r="I9" s="49" t="s">
+        <v>91</v>
+      </c>
+      <c r="J9" s="1" t="s">
+        <v>136</v>
+      </c>
+      <c r="K9" s="40" t="s">
+        <v>135</v>
+      </c>
+      <c r="L9" s="40" t="s">
+        <v>132</v>
+      </c>
+      <c r="M9" s="40" t="s">
+        <v>137</v>
+      </c>
+      <c r="N9" s="41"/>
+      <c r="O9" s="40" t="s">
+        <v>72</v>
+      </c>
       <c r="P9" s="40" t="s">
         <v>73</v>
       </c>
       <c r="Q9" s="50" t="s">
-        <v>18</v>
+        <v>89</v>
       </c>
       <c r="R9" s="40" t="s">
-        <v>30</v>
+        <v>103</v>
       </c>
       <c r="S9" s="1"/>
       <c r="T9" s="74"/>
-      <c r="U9" s="91"/>
+      <c r="U9" s="83"/>
       <c r="V9" s="4" t="s">
         <v>51</v>
       </c>
@@ -9186,7 +9253,7 @@
       <c r="R10" s="38"/>
       <c r="S10" s="4"/>
       <c r="T10" s="74"/>
-      <c r="U10" s="91"/>
+      <c r="U10" s="83"/>
       <c r="V10" s="4" t="s">
         <v>31</v>
       </c>
@@ -9215,7 +9282,7 @@
       <c r="R11" s="38"/>
       <c r="S11" s="4"/>
       <c r="T11" s="74"/>
-      <c r="U11" s="91"/>
+      <c r="U11" s="83"/>
       <c r="V11" s="4" t="s">
         <v>30</v>
       </c>
@@ -9244,7 +9311,7 @@
       <c r="R12" s="38"/>
       <c r="S12" s="4"/>
       <c r="T12" s="74"/>
-      <c r="U12" s="90" t="s">
+      <c r="U12" s="82" t="s">
         <v>19</v>
       </c>
       <c r="V12" s="4" t="s">
@@ -9275,7 +9342,7 @@
       <c r="R13" s="10"/>
       <c r="S13" s="4"/>
       <c r="T13" s="74"/>
-      <c r="U13" s="91"/>
+      <c r="U13" s="83"/>
       <c r="V13" s="4" t="s">
         <v>37</v>
       </c>
@@ -9304,7 +9371,7 @@
       <c r="R14" s="38"/>
       <c r="S14" s="4"/>
       <c r="T14" s="74"/>
-      <c r="U14" s="91"/>
+      <c r="U14" s="83"/>
       <c r="V14" s="4" t="s">
         <v>36</v>
       </c>
@@ -9333,7 +9400,7 @@
       <c r="R15" s="38"/>
       <c r="S15" s="4"/>
       <c r="T15" s="14"/>
-      <c r="U15" s="91"/>
+      <c r="U15" s="83"/>
       <c r="V15" s="4" t="s">
         <v>24</v>
       </c>
@@ -9362,7 +9429,7 @@
       <c r="R16" s="38"/>
       <c r="S16" s="4"/>
       <c r="T16" s="14"/>
-      <c r="U16" s="92"/>
+      <c r="U16" s="84"/>
       <c r="V16" s="4" t="s">
         <v>25</v>
       </c>
@@ -9513,7 +9580,7 @@
       </c>
       <c r="V21" s="10">
         <f>COUNTIF($Q$6:$Q$51,"PC")</f>
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="W21" s="14"/>
     </row>
@@ -9545,7 +9612,7 @@
       </c>
       <c r="V22" s="10">
         <f>COUNTIF($Q$6:$Q$51,"PC+PM")</f>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="W22" s="14"/>
     </row>
@@ -9950,7 +10017,7 @@
       </c>
       <c r="V35" s="10">
         <f>COUNTIF($R$6:$R$51,"*NCFW*")</f>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="W35" s="14"/>
     </row>
@@ -10014,7 +10081,7 @@
       </c>
       <c r="V37" s="10">
         <f>SUM(V26:V36)</f>
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="W37" s="14"/>
     </row>
@@ -10593,13 +10660,6 @@
     </row>
   </sheetData>
   <mergeCells count="18">
-    <mergeCell ref="U6:U11"/>
-    <mergeCell ref="U12:U16"/>
-    <mergeCell ref="P4:P5"/>
-    <mergeCell ref="Q4:Q5"/>
-    <mergeCell ref="R4:R5"/>
-    <mergeCell ref="S4:S5"/>
-    <mergeCell ref="U4:U5"/>
     <mergeCell ref="V4:V5"/>
     <mergeCell ref="A1:V1"/>
     <mergeCell ref="A2:D2"/>
@@ -10611,6 +10671,13 @@
     <mergeCell ref="M4:M5"/>
     <mergeCell ref="N4:N5"/>
     <mergeCell ref="O4:O5"/>
+    <mergeCell ref="U6:U11"/>
+    <mergeCell ref="U12:U16"/>
+    <mergeCell ref="P4:P5"/>
+    <mergeCell ref="Q4:Q5"/>
+    <mergeCell ref="R4:R5"/>
+    <mergeCell ref="S4:S5"/>
+    <mergeCell ref="U4:U5"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -10654,41 +10721,41 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="83" t="s">
+      <c r="A1" s="88" t="s">
         <v>61</v>
       </c>
-      <c r="B1" s="83"/>
-      <c r="C1" s="83"/>
-      <c r="D1" s="83"/>
-      <c r="E1" s="83"/>
-      <c r="F1" s="83"/>
-      <c r="G1" s="83"/>
-      <c r="H1" s="83"/>
-      <c r="I1" s="83"/>
-      <c r="J1" s="83"/>
-      <c r="K1" s="83"/>
-      <c r="L1" s="83"/>
-      <c r="M1" s="83"/>
-      <c r="N1" s="83"/>
-      <c r="O1" s="83"/>
-      <c r="P1" s="83"/>
-      <c r="Q1" s="83"/>
-      <c r="R1" s="83"/>
-      <c r="S1" s="83"/>
-      <c r="T1" s="83"/>
-      <c r="U1" s="83"/>
-      <c r="V1" s="83"/>
+      <c r="B1" s="88"/>
+      <c r="C1" s="88"/>
+      <c r="D1" s="88"/>
+      <c r="E1" s="88"/>
+      <c r="F1" s="88"/>
+      <c r="G1" s="88"/>
+      <c r="H1" s="88"/>
+      <c r="I1" s="88"/>
+      <c r="J1" s="88"/>
+      <c r="K1" s="88"/>
+      <c r="L1" s="88"/>
+      <c r="M1" s="88"/>
+      <c r="N1" s="88"/>
+      <c r="O1" s="88"/>
+      <c r="P1" s="88"/>
+      <c r="Q1" s="88"/>
+      <c r="R1" s="88"/>
+      <c r="S1" s="88"/>
+      <c r="T1" s="88"/>
+      <c r="U1" s="88"/>
+      <c r="V1" s="88"/>
       <c r="W1" s="46"/>
     </row>
     <row r="2" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="84" t="s">
+      <c r="A2" s="89" t="s">
         <v>9</v>
       </c>
-      <c r="B2" s="85"/>
-      <c r="C2" s="85"/>
-      <c r="D2" s="85"/>
-      <c r="E2" s="86"/>
-      <c r="F2" s="86"/>
+      <c r="B2" s="90"/>
+      <c r="C2" s="90"/>
+      <c r="D2" s="90"/>
+      <c r="E2" s="91"/>
+      <c r="F2" s="91"/>
       <c r="G2" s="5"/>
       <c r="H2" s="21"/>
       <c r="I2" s="52"/>
@@ -10733,58 +10800,58 @@
       <c r="W3" s="27"/>
     </row>
     <row r="4" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="87" t="s">
-        <v>0</v>
-      </c>
-      <c r="B4" s="82" t="s">
+      <c r="A4" s="92" t="s">
+        <v>0</v>
+      </c>
+      <c r="B4" s="86" t="s">
         <v>8</v>
       </c>
-      <c r="C4" s="82"/>
-      <c r="D4" s="82"/>
-      <c r="E4" s="82"/>
-      <c r="F4" s="82"/>
-      <c r="G4" s="82"/>
-      <c r="H4" s="82"/>
-      <c r="I4" s="82"/>
-      <c r="J4" s="82" t="s">
+      <c r="C4" s="86"/>
+      <c r="D4" s="86"/>
+      <c r="E4" s="86"/>
+      <c r="F4" s="86"/>
+      <c r="G4" s="86"/>
+      <c r="H4" s="86"/>
+      <c r="I4" s="86"/>
+      <c r="J4" s="86" t="s">
         <v>6</v>
       </c>
-      <c r="K4" s="82" t="s">
+      <c r="K4" s="86" t="s">
         <v>11</v>
       </c>
-      <c r="L4" s="82"/>
-      <c r="M4" s="88" t="s">
+      <c r="L4" s="86"/>
+      <c r="M4" s="93" t="s">
         <v>42</v>
       </c>
-      <c r="N4" s="88" t="s">
+      <c r="N4" s="93" t="s">
         <v>10</v>
       </c>
-      <c r="O4" s="82" t="s">
+      <c r="O4" s="86" t="s">
         <v>7</v>
       </c>
-      <c r="P4" s="93" t="s">
+      <c r="P4" s="85" t="s">
         <v>14</v>
       </c>
-      <c r="Q4" s="82" t="s">
+      <c r="Q4" s="86" t="s">
         <v>39</v>
       </c>
-      <c r="R4" s="82" t="s">
+      <c r="R4" s="86" t="s">
         <v>53</v>
       </c>
-      <c r="S4" s="94" t="s">
+      <c r="S4" s="87" t="s">
         <v>54</v>
       </c>
       <c r="T4" s="27"/>
-      <c r="U4" s="82" t="s">
+      <c r="U4" s="86" t="s">
         <v>39</v>
       </c>
-      <c r="V4" s="82" t="s">
+      <c r="V4" s="86" t="s">
         <v>53</v>
       </c>
       <c r="W4" s="47"/>
     </row>
     <row r="5" spans="1:23" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="87"/>
+      <c r="A5" s="92"/>
       <c r="B5" s="63" t="s">
         <v>1</v>
       </c>
@@ -10809,23 +10876,23 @@
       <c r="I5" s="54" t="s">
         <v>15</v>
       </c>
-      <c r="J5" s="82"/>
+      <c r="J5" s="86"/>
       <c r="K5" s="69" t="s">
         <v>12</v>
       </c>
       <c r="L5" s="69" t="s">
         <v>13</v>
       </c>
-      <c r="M5" s="89"/>
-      <c r="N5" s="89"/>
-      <c r="O5" s="82"/>
-      <c r="P5" s="93"/>
-      <c r="Q5" s="82"/>
-      <c r="R5" s="82"/>
-      <c r="S5" s="94"/>
+      <c r="M5" s="94"/>
+      <c r="N5" s="94"/>
+      <c r="O5" s="86"/>
+      <c r="P5" s="85"/>
+      <c r="Q5" s="86"/>
+      <c r="R5" s="86"/>
+      <c r="S5" s="87"/>
       <c r="T5" s="27"/>
-      <c r="U5" s="82"/>
-      <c r="V5" s="82"/>
+      <c r="U5" s="86"/>
+      <c r="V5" s="86"/>
       <c r="W5" s="47"/>
     </row>
     <row r="6" spans="1:23" s="12" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -10879,7 +10946,7 @@
       </c>
       <c r="S6" s="4"/>
       <c r="T6" s="70"/>
-      <c r="U6" s="90" t="s">
+      <c r="U6" s="82" t="s">
         <v>18</v>
       </c>
       <c r="V6" s="4" t="s">
@@ -10940,7 +11007,7 @@
       </c>
       <c r="S7" s="4"/>
       <c r="T7" s="70"/>
-      <c r="U7" s="91"/>
+      <c r="U7" s="83"/>
       <c r="V7" s="4" t="s">
         <v>35</v>
       </c>
@@ -10999,7 +11066,7 @@
       </c>
       <c r="S8" s="4"/>
       <c r="T8" s="70"/>
-      <c r="U8" s="91"/>
+      <c r="U8" s="83"/>
       <c r="V8" s="4" t="s">
         <v>21</v>
       </c>
@@ -11056,7 +11123,7 @@
       </c>
       <c r="S9" s="4"/>
       <c r="T9" s="70"/>
-      <c r="U9" s="91"/>
+      <c r="U9" s="83"/>
       <c r="V9" s="4" t="s">
         <v>51</v>
       </c>
@@ -11115,7 +11182,7 @@
       </c>
       <c r="S10" s="4"/>
       <c r="T10" s="70"/>
-      <c r="U10" s="91"/>
+      <c r="U10" s="83"/>
       <c r="V10" s="4" t="s">
         <v>31</v>
       </c>
@@ -11174,7 +11241,7 @@
       </c>
       <c r="S11" s="4"/>
       <c r="T11" s="70"/>
-      <c r="U11" s="91"/>
+      <c r="U11" s="83"/>
       <c r="V11" s="4" t="s">
         <v>30</v>
       </c>
@@ -11235,7 +11302,7 @@
       </c>
       <c r="S12" s="4"/>
       <c r="T12" s="70"/>
-      <c r="U12" s="90" t="s">
+      <c r="U12" s="82" t="s">
         <v>19</v>
       </c>
       <c r="V12" s="4" t="s">
@@ -11266,7 +11333,7 @@
       <c r="R13" s="10"/>
       <c r="S13" s="4"/>
       <c r="T13" s="70"/>
-      <c r="U13" s="91"/>
+      <c r="U13" s="83"/>
       <c r="V13" s="4" t="s">
         <v>37</v>
       </c>
@@ -11295,7 +11362,7 @@
       <c r="R14" s="38"/>
       <c r="S14" s="4"/>
       <c r="T14" s="70"/>
-      <c r="U14" s="91"/>
+      <c r="U14" s="83"/>
       <c r="V14" s="4" t="s">
         <v>36</v>
       </c>
@@ -11324,7 +11391,7 @@
       <c r="R15" s="38"/>
       <c r="S15" s="4"/>
       <c r="T15" s="14"/>
-      <c r="U15" s="91"/>
+      <c r="U15" s="83"/>
       <c r="V15" s="4" t="s">
         <v>24</v>
       </c>
@@ -11353,7 +11420,7 @@
       <c r="R16" s="38"/>
       <c r="S16" s="4"/>
       <c r="T16" s="14"/>
-      <c r="U16" s="92"/>
+      <c r="U16" s="84"/>
       <c r="V16" s="4" t="s">
         <v>25</v>
       </c>
@@ -12584,13 +12651,6 @@
     </row>
   </sheetData>
   <mergeCells count="18">
-    <mergeCell ref="U6:U11"/>
-    <mergeCell ref="U12:U16"/>
-    <mergeCell ref="P4:P5"/>
-    <mergeCell ref="Q4:Q5"/>
-    <mergeCell ref="R4:R5"/>
-    <mergeCell ref="S4:S5"/>
-    <mergeCell ref="U4:U5"/>
     <mergeCell ref="V4:V5"/>
     <mergeCell ref="A1:V1"/>
     <mergeCell ref="A2:D2"/>
@@ -12602,6 +12662,13 @@
     <mergeCell ref="M4:M5"/>
     <mergeCell ref="N4:N5"/>
     <mergeCell ref="O4:O5"/>
+    <mergeCell ref="U6:U11"/>
+    <mergeCell ref="U12:U16"/>
+    <mergeCell ref="P4:P5"/>
+    <mergeCell ref="Q4:Q5"/>
+    <mergeCell ref="R4:R5"/>
+    <mergeCell ref="S4:S5"/>
+    <mergeCell ref="U4:U5"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -12645,41 +12712,41 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="83" t="s">
+      <c r="A1" s="88" t="s">
         <v>61</v>
       </c>
-      <c r="B1" s="83"/>
-      <c r="C1" s="83"/>
-      <c r="D1" s="83"/>
-      <c r="E1" s="83"/>
-      <c r="F1" s="83"/>
-      <c r="G1" s="83"/>
-      <c r="H1" s="83"/>
-      <c r="I1" s="83"/>
-      <c r="J1" s="83"/>
-      <c r="K1" s="83"/>
-      <c r="L1" s="83"/>
-      <c r="M1" s="83"/>
-      <c r="N1" s="83"/>
-      <c r="O1" s="83"/>
-      <c r="P1" s="83"/>
-      <c r="Q1" s="83"/>
-      <c r="R1" s="83"/>
-      <c r="S1" s="83"/>
-      <c r="T1" s="83"/>
-      <c r="U1" s="83"/>
-      <c r="V1" s="83"/>
+      <c r="B1" s="88"/>
+      <c r="C1" s="88"/>
+      <c r="D1" s="88"/>
+      <c r="E1" s="88"/>
+      <c r="F1" s="88"/>
+      <c r="G1" s="88"/>
+      <c r="H1" s="88"/>
+      <c r="I1" s="88"/>
+      <c r="J1" s="88"/>
+      <c r="K1" s="88"/>
+      <c r="L1" s="88"/>
+      <c r="M1" s="88"/>
+      <c r="N1" s="88"/>
+      <c r="O1" s="88"/>
+      <c r="P1" s="88"/>
+      <c r="Q1" s="88"/>
+      <c r="R1" s="88"/>
+      <c r="S1" s="88"/>
+      <c r="T1" s="88"/>
+      <c r="U1" s="88"/>
+      <c r="V1" s="88"/>
       <c r="W1" s="46"/>
     </row>
     <row r="2" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="84" t="s">
+      <c r="A2" s="89" t="s">
         <v>9</v>
       </c>
-      <c r="B2" s="85"/>
-      <c r="C2" s="85"/>
-      <c r="D2" s="85"/>
-      <c r="E2" s="86"/>
-      <c r="F2" s="86"/>
+      <c r="B2" s="90"/>
+      <c r="C2" s="90"/>
+      <c r="D2" s="90"/>
+      <c r="E2" s="91"/>
+      <c r="F2" s="91"/>
       <c r="G2" s="5"/>
       <c r="H2" s="21"/>
       <c r="I2" s="52"/>
@@ -12724,58 +12791,58 @@
       <c r="W3" s="27"/>
     </row>
     <row r="4" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="87" t="s">
-        <v>0</v>
-      </c>
-      <c r="B4" s="82" t="s">
+      <c r="A4" s="92" t="s">
+        <v>0</v>
+      </c>
+      <c r="B4" s="86" t="s">
         <v>8</v>
       </c>
-      <c r="C4" s="82"/>
-      <c r="D4" s="82"/>
-      <c r="E4" s="82"/>
-      <c r="F4" s="82"/>
-      <c r="G4" s="82"/>
-      <c r="H4" s="82"/>
-      <c r="I4" s="82"/>
-      <c r="J4" s="82" t="s">
+      <c r="C4" s="86"/>
+      <c r="D4" s="86"/>
+      <c r="E4" s="86"/>
+      <c r="F4" s="86"/>
+      <c r="G4" s="86"/>
+      <c r="H4" s="86"/>
+      <c r="I4" s="86"/>
+      <c r="J4" s="86" t="s">
         <v>6</v>
       </c>
-      <c r="K4" s="82" t="s">
+      <c r="K4" s="86" t="s">
         <v>11</v>
       </c>
-      <c r="L4" s="82"/>
-      <c r="M4" s="88" t="s">
+      <c r="L4" s="86"/>
+      <c r="M4" s="93" t="s">
         <v>42</v>
       </c>
-      <c r="N4" s="88" t="s">
+      <c r="N4" s="93" t="s">
         <v>10</v>
       </c>
-      <c r="O4" s="82" t="s">
+      <c r="O4" s="86" t="s">
         <v>7</v>
       </c>
-      <c r="P4" s="93" t="s">
+      <c r="P4" s="85" t="s">
         <v>14</v>
       </c>
-      <c r="Q4" s="82" t="s">
+      <c r="Q4" s="86" t="s">
         <v>39</v>
       </c>
-      <c r="R4" s="82" t="s">
+      <c r="R4" s="86" t="s">
         <v>53</v>
       </c>
-      <c r="S4" s="94" t="s">
+      <c r="S4" s="87" t="s">
         <v>54</v>
       </c>
       <c r="T4" s="27"/>
-      <c r="U4" s="82" t="s">
+      <c r="U4" s="86" t="s">
         <v>39</v>
       </c>
-      <c r="V4" s="82" t="s">
+      <c r="V4" s="86" t="s">
         <v>53</v>
       </c>
       <c r="W4" s="47"/>
     </row>
     <row r="5" spans="1:23" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="87"/>
+      <c r="A5" s="92"/>
       <c r="B5" s="63" t="s">
         <v>1</v>
       </c>
@@ -12800,23 +12867,23 @@
       <c r="I5" s="54" t="s">
         <v>15</v>
       </c>
-      <c r="J5" s="82"/>
+      <c r="J5" s="86"/>
       <c r="K5" s="78" t="s">
         <v>12</v>
       </c>
       <c r="L5" s="78" t="s">
         <v>13</v>
       </c>
-      <c r="M5" s="89"/>
-      <c r="N5" s="89"/>
-      <c r="O5" s="82"/>
-      <c r="P5" s="93"/>
-      <c r="Q5" s="82"/>
-      <c r="R5" s="82"/>
-      <c r="S5" s="94"/>
+      <c r="M5" s="94"/>
+      <c r="N5" s="94"/>
+      <c r="O5" s="86"/>
+      <c r="P5" s="85"/>
+      <c r="Q5" s="86"/>
+      <c r="R5" s="86"/>
+      <c r="S5" s="87"/>
       <c r="T5" s="27"/>
-      <c r="U5" s="82"/>
-      <c r="V5" s="82"/>
+      <c r="U5" s="86"/>
+      <c r="V5" s="86"/>
       <c r="W5" s="47"/>
     </row>
     <row r="6" spans="1:23" s="12" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -12862,7 +12929,7 @@
       </c>
       <c r="S6" s="4"/>
       <c r="T6" s="77"/>
-      <c r="U6" s="90" t="s">
+      <c r="U6" s="82" t="s">
         <v>18</v>
       </c>
       <c r="V6" s="4" t="s">
@@ -12893,7 +12960,7 @@
       <c r="R7" s="38"/>
       <c r="S7" s="4"/>
       <c r="T7" s="77"/>
-      <c r="U7" s="91"/>
+      <c r="U7" s="83"/>
       <c r="V7" s="4" t="s">
         <v>35</v>
       </c>
@@ -12922,7 +12989,7 @@
       <c r="R8" s="38"/>
       <c r="S8" s="4"/>
       <c r="T8" s="77"/>
-      <c r="U8" s="91"/>
+      <c r="U8" s="83"/>
       <c r="V8" s="4" t="s">
         <v>21</v>
       </c>
@@ -12951,7 +13018,7 @@
       <c r="R9" s="38"/>
       <c r="S9" s="4"/>
       <c r="T9" s="77"/>
-      <c r="U9" s="91"/>
+      <c r="U9" s="83"/>
       <c r="V9" s="4" t="s">
         <v>51</v>
       </c>
@@ -12980,7 +13047,7 @@
       <c r="R10" s="38"/>
       <c r="S10" s="4"/>
       <c r="T10" s="77"/>
-      <c r="U10" s="91"/>
+      <c r="U10" s="83"/>
       <c r="V10" s="4" t="s">
         <v>31</v>
       </c>
@@ -13009,7 +13076,7 @@
       <c r="R11" s="38"/>
       <c r="S11" s="4"/>
       <c r="T11" s="77"/>
-      <c r="U11" s="91"/>
+      <c r="U11" s="83"/>
       <c r="V11" s="4" t="s">
         <v>30</v>
       </c>
@@ -13038,7 +13105,7 @@
       <c r="R12" s="38"/>
       <c r="S12" s="4"/>
       <c r="T12" s="77"/>
-      <c r="U12" s="90" t="s">
+      <c r="U12" s="82" t="s">
         <v>19</v>
       </c>
       <c r="V12" s="4" t="s">
@@ -13069,7 +13136,7 @@
       <c r="R13" s="10"/>
       <c r="S13" s="4"/>
       <c r="T13" s="77"/>
-      <c r="U13" s="91"/>
+      <c r="U13" s="83"/>
       <c r="V13" s="4" t="s">
         <v>37</v>
       </c>
@@ -13098,7 +13165,7 @@
       <c r="R14" s="38"/>
       <c r="S14" s="4"/>
       <c r="T14" s="77"/>
-      <c r="U14" s="91"/>
+      <c r="U14" s="83"/>
       <c r="V14" s="4" t="s">
         <v>36</v>
       </c>
@@ -13127,7 +13194,7 @@
       <c r="R15" s="38"/>
       <c r="S15" s="4"/>
       <c r="T15" s="14"/>
-      <c r="U15" s="91"/>
+      <c r="U15" s="83"/>
       <c r="V15" s="4" t="s">
         <v>24</v>
       </c>
@@ -13156,7 +13223,7 @@
       <c r="R16" s="38"/>
       <c r="S16" s="4"/>
       <c r="T16" s="14"/>
-      <c r="U16" s="92"/>
+      <c r="U16" s="84"/>
       <c r="V16" s="4" t="s">
         <v>25</v>
       </c>
@@ -14387,13 +14454,6 @@
     </row>
   </sheetData>
   <mergeCells count="18">
-    <mergeCell ref="U6:U11"/>
-    <mergeCell ref="U12:U16"/>
-    <mergeCell ref="P4:P5"/>
-    <mergeCell ref="Q4:Q5"/>
-    <mergeCell ref="R4:R5"/>
-    <mergeCell ref="S4:S5"/>
-    <mergeCell ref="U4:U5"/>
     <mergeCell ref="V4:V5"/>
     <mergeCell ref="A1:V1"/>
     <mergeCell ref="A2:D2"/>
@@ -14405,6 +14465,13 @@
     <mergeCell ref="M4:M5"/>
     <mergeCell ref="N4:N5"/>
     <mergeCell ref="O4:O5"/>
+    <mergeCell ref="U6:U11"/>
+    <mergeCell ref="U12:U16"/>
+    <mergeCell ref="P4:P5"/>
+    <mergeCell ref="Q4:Q5"/>
+    <mergeCell ref="R4:R5"/>
+    <mergeCell ref="S4:S5"/>
+    <mergeCell ref="U4:U5"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -14415,8 +14482,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:X57"/>
   <sheetViews>
-    <sheetView showZeros="0" tabSelected="1" topLeftCell="M19" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="R37" sqref="R37"/>
+    <sheetView showZeros="0" topLeftCell="A13" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="I25" sqref="I25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -14448,41 +14515,41 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="83" t="s">
+      <c r="A1" s="88" t="s">
         <v>62</v>
       </c>
-      <c r="B1" s="83"/>
-      <c r="C1" s="83"/>
-      <c r="D1" s="83"/>
-      <c r="E1" s="83"/>
-      <c r="F1" s="83"/>
-      <c r="G1" s="83"/>
-      <c r="H1" s="83"/>
-      <c r="I1" s="83"/>
-      <c r="J1" s="83"/>
-      <c r="K1" s="83"/>
-      <c r="L1" s="83"/>
-      <c r="M1" s="83"/>
-      <c r="N1" s="83"/>
-      <c r="O1" s="83"/>
-      <c r="P1" s="83"/>
-      <c r="Q1" s="83"/>
-      <c r="R1" s="83"/>
-      <c r="S1" s="83"/>
-      <c r="T1" s="83"/>
-      <c r="U1" s="83"/>
-      <c r="V1" s="83"/>
+      <c r="B1" s="88"/>
+      <c r="C1" s="88"/>
+      <c r="D1" s="88"/>
+      <c r="E1" s="88"/>
+      <c r="F1" s="88"/>
+      <c r="G1" s="88"/>
+      <c r="H1" s="88"/>
+      <c r="I1" s="88"/>
+      <c r="J1" s="88"/>
+      <c r="K1" s="88"/>
+      <c r="L1" s="88"/>
+      <c r="M1" s="88"/>
+      <c r="N1" s="88"/>
+      <c r="O1" s="88"/>
+      <c r="P1" s="88"/>
+      <c r="Q1" s="88"/>
+      <c r="R1" s="88"/>
+      <c r="S1" s="88"/>
+      <c r="T1" s="88"/>
+      <c r="U1" s="88"/>
+      <c r="V1" s="88"/>
       <c r="W1" s="46"/>
     </row>
     <row r="2" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="84" t="s">
+      <c r="A2" s="89" t="s">
         <v>9</v>
       </c>
-      <c r="B2" s="85"/>
-      <c r="C2" s="85"/>
-      <c r="D2" s="85"/>
-      <c r="E2" s="86"/>
-      <c r="F2" s="86"/>
+      <c r="B2" s="90"/>
+      <c r="C2" s="90"/>
+      <c r="D2" s="90"/>
+      <c r="E2" s="91"/>
+      <c r="F2" s="91"/>
       <c r="G2" s="5"/>
       <c r="H2" s="21"/>
       <c r="I2" s="21"/>
@@ -14527,58 +14594,58 @@
       <c r="W3" s="27"/>
     </row>
     <row r="4" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="87" t="s">
-        <v>0</v>
-      </c>
-      <c r="B4" s="82" t="s">
+      <c r="A4" s="92" t="s">
+        <v>0</v>
+      </c>
+      <c r="B4" s="86" t="s">
         <v>8</v>
       </c>
-      <c r="C4" s="82"/>
-      <c r="D4" s="82"/>
-      <c r="E4" s="82"/>
-      <c r="F4" s="82"/>
-      <c r="G4" s="82"/>
-      <c r="H4" s="82"/>
-      <c r="I4" s="82"/>
-      <c r="J4" s="82" t="s">
+      <c r="C4" s="86"/>
+      <c r="D4" s="86"/>
+      <c r="E4" s="86"/>
+      <c r="F4" s="86"/>
+      <c r="G4" s="86"/>
+      <c r="H4" s="86"/>
+      <c r="I4" s="86"/>
+      <c r="J4" s="86" t="s">
         <v>6</v>
       </c>
-      <c r="K4" s="82" t="s">
+      <c r="K4" s="86" t="s">
         <v>11</v>
       </c>
-      <c r="L4" s="82"/>
-      <c r="M4" s="88" t="s">
+      <c r="L4" s="86"/>
+      <c r="M4" s="93" t="s">
         <v>42</v>
       </c>
-      <c r="N4" s="88" t="s">
+      <c r="N4" s="93" t="s">
         <v>10</v>
       </c>
-      <c r="O4" s="82" t="s">
+      <c r="O4" s="86" t="s">
         <v>7</v>
       </c>
-      <c r="P4" s="93" t="s">
+      <c r="P4" s="85" t="s">
         <v>14</v>
       </c>
-      <c r="Q4" s="82" t="s">
+      <c r="Q4" s="86" t="s">
         <v>39</v>
       </c>
-      <c r="R4" s="82" t="s">
+      <c r="R4" s="86" t="s">
         <v>53</v>
       </c>
-      <c r="S4" s="94" t="s">
+      <c r="S4" s="87" t="s">
         <v>54</v>
       </c>
       <c r="T4" s="27"/>
-      <c r="U4" s="82" t="s">
+      <c r="U4" s="86" t="s">
         <v>39</v>
       </c>
-      <c r="V4" s="82" t="s">
+      <c r="V4" s="86" t="s">
         <v>53</v>
       </c>
       <c r="W4" s="47"/>
     </row>
     <row r="5" spans="1:23" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="87"/>
+      <c r="A5" s="92"/>
       <c r="B5" s="43" t="s">
         <v>1</v>
       </c>
@@ -14603,23 +14670,23 @@
       <c r="I5" s="43" t="s">
         <v>15</v>
       </c>
-      <c r="J5" s="82"/>
+      <c r="J5" s="86"/>
       <c r="K5" s="43" t="s">
         <v>12</v>
       </c>
       <c r="L5" s="43" t="s">
         <v>13</v>
       </c>
-      <c r="M5" s="89"/>
-      <c r="N5" s="89"/>
-      <c r="O5" s="82"/>
-      <c r="P5" s="93"/>
-      <c r="Q5" s="82"/>
-      <c r="R5" s="82"/>
-      <c r="S5" s="94"/>
+      <c r="M5" s="94"/>
+      <c r="N5" s="94"/>
+      <c r="O5" s="86"/>
+      <c r="P5" s="85"/>
+      <c r="Q5" s="86"/>
+      <c r="R5" s="86"/>
+      <c r="S5" s="87"/>
       <c r="T5" s="27"/>
-      <c r="U5" s="82"/>
-      <c r="V5" s="82"/>
+      <c r="U5" s="86"/>
+      <c r="V5" s="86"/>
       <c r="W5" s="47"/>
     </row>
     <row r="6" spans="1:23" s="12" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -14673,7 +14740,7 @@
       </c>
       <c r="S6" s="4"/>
       <c r="T6" s="42"/>
-      <c r="U6" s="90" t="s">
+      <c r="U6" s="82" t="s">
         <v>18</v>
       </c>
       <c r="V6" s="4" t="s">
@@ -14730,7 +14797,7 @@
       </c>
       <c r="S7" s="4"/>
       <c r="T7" s="42"/>
-      <c r="U7" s="91"/>
+      <c r="U7" s="83"/>
       <c r="V7" s="4" t="s">
         <v>35</v>
       </c>
@@ -14787,7 +14854,7 @@
       </c>
       <c r="S8" s="4"/>
       <c r="T8" s="42"/>
-      <c r="U8" s="91"/>
+      <c r="U8" s="83"/>
       <c r="V8" s="4" t="s">
         <v>21</v>
       </c>
@@ -14842,7 +14909,7 @@
       </c>
       <c r="S9" s="4"/>
       <c r="T9" s="42"/>
-      <c r="U9" s="91"/>
+      <c r="U9" s="83"/>
       <c r="V9" s="4" t="s">
         <v>51</v>
       </c>
@@ -14897,7 +14964,7 @@
       </c>
       <c r="S10" s="4"/>
       <c r="T10" s="42"/>
-      <c r="U10" s="91"/>
+      <c r="U10" s="83"/>
       <c r="V10" s="4" t="s">
         <v>31</v>
       </c>
@@ -14952,7 +15019,7 @@
       </c>
       <c r="S11" s="4"/>
       <c r="T11" s="42"/>
-      <c r="U11" s="91"/>
+      <c r="U11" s="83"/>
       <c r="V11" s="4" t="s">
         <v>30</v>
       </c>
@@ -15007,7 +15074,7 @@
       </c>
       <c r="S12" s="4"/>
       <c r="T12" s="42"/>
-      <c r="U12" s="90" t="s">
+      <c r="U12" s="82" t="s">
         <v>19</v>
       </c>
       <c r="V12" s="4" t="s">
@@ -15068,7 +15135,7 @@
       </c>
       <c r="S13" s="4"/>
       <c r="T13" s="42"/>
-      <c r="U13" s="91"/>
+      <c r="U13" s="83"/>
       <c r="V13" s="4" t="s">
         <v>37</v>
       </c>
@@ -15123,7 +15190,7 @@
       </c>
       <c r="S14" s="4"/>
       <c r="T14" s="42"/>
-      <c r="U14" s="91"/>
+      <c r="U14" s="83"/>
       <c r="V14" s="4" t="s">
         <v>36</v>
       </c>
@@ -15178,7 +15245,7 @@
       </c>
       <c r="S15" s="4"/>
       <c r="T15" s="14"/>
-      <c r="U15" s="91"/>
+      <c r="U15" s="83"/>
       <c r="V15" s="4" t="s">
         <v>24</v>
       </c>
@@ -15233,7 +15300,7 @@
       </c>
       <c r="S16" s="4"/>
       <c r="T16" s="14"/>
-      <c r="U16" s="92"/>
+      <c r="U16" s="84"/>
       <c r="V16" s="4" t="s">
         <v>25</v>
       </c>
@@ -15491,9 +15558,13 @@
       <c r="H21" s="40" t="s">
         <v>109</v>
       </c>
-      <c r="I21" s="49"/>
+      <c r="I21" s="49" t="s">
+        <v>91</v>
+      </c>
       <c r="J21" s="1"/>
-      <c r="K21" s="80"/>
+      <c r="K21" s="80" t="s">
+        <v>138</v>
+      </c>
       <c r="L21" s="40"/>
       <c r="M21" s="40"/>
       <c r="N21" s="41"/>
@@ -15514,7 +15585,7 @@
       </c>
       <c r="V21" s="10">
         <f>COUNTIF($Q$6:$Q$51,"PC")</f>
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="W21" s="14"/>
     </row>
@@ -15536,24 +15607,32 @@
       <c r="G22" s="40" t="s">
         <v>63</v>
       </c>
-      <c r="H22" s="40" t="s">
-        <v>109</v>
-      </c>
-      <c r="I22" s="49"/>
-      <c r="J22" s="40"/>
+      <c r="H22" s="40"/>
+      <c r="I22" s="49" t="s">
+        <v>100</v>
+      </c>
+      <c r="J22" s="40" t="s">
+        <v>133</v>
+      </c>
       <c r="K22" s="80"/>
-      <c r="L22" s="40"/>
-      <c r="M22" s="40"/>
+      <c r="L22" s="40" t="s">
+        <v>132</v>
+      </c>
+      <c r="M22" s="40" t="s">
+        <v>134</v>
+      </c>
       <c r="N22" s="41"/>
-      <c r="O22" s="40"/>
+      <c r="O22" s="40" t="s">
+        <v>72</v>
+      </c>
       <c r="P22" s="40" t="s">
         <v>73</v>
       </c>
       <c r="Q22" s="50" t="s">
-        <v>18</v>
+        <v>89</v>
       </c>
       <c r="R22" s="40" t="s">
-        <v>30</v>
+        <v>103</v>
       </c>
       <c r="S22" s="1"/>
       <c r="T22" s="14"/>
@@ -15562,7 +15641,7 @@
       </c>
       <c r="V22" s="10">
         <f>COUNTIF($Q$6:$Q$51,"PC+PM")</f>
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="W22" s="14"/>
     </row>
@@ -15584,24 +15663,34 @@
       <c r="G23" s="40" t="s">
         <v>64</v>
       </c>
-      <c r="H23" s="40" t="s">
-        <v>109</v>
-      </c>
-      <c r="I23" s="49"/>
-      <c r="J23" s="40"/>
-      <c r="K23" s="81"/>
-      <c r="L23" s="40"/>
-      <c r="M23" s="40"/>
+      <c r="H23" s="40"/>
+      <c r="I23" s="49" t="s">
+        <v>100</v>
+      </c>
+      <c r="J23" s="40" t="s">
+        <v>136</v>
+      </c>
+      <c r="K23" s="81" t="s">
+        <v>135</v>
+      </c>
+      <c r="L23" s="40" t="s">
+        <v>132</v>
+      </c>
+      <c r="M23" s="40" t="s">
+        <v>137</v>
+      </c>
       <c r="N23" s="41"/>
-      <c r="O23" s="40"/>
+      <c r="O23" s="40" t="s">
+        <v>72</v>
+      </c>
       <c r="P23" s="40" t="s">
         <v>73</v>
       </c>
       <c r="Q23" s="50" t="s">
-        <v>18</v>
+        <v>89</v>
       </c>
       <c r="R23" s="40" t="s">
-        <v>30</v>
+        <v>103</v>
       </c>
       <c r="S23" s="1"/>
       <c r="T23" s="14"/>
@@ -16227,7 +16316,7 @@
       </c>
       <c r="V35" s="10">
         <f>COUNTIF($R$6:$R$51,"*NCFW*")</f>
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="W35" s="14"/>
     </row>
@@ -16291,7 +16380,7 @@
       </c>
       <c r="V37" s="10">
         <f>SUM(V26:V36)</f>
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="W37" s="14"/>
     </row>
@@ -16870,6 +16959,13 @@
     </row>
   </sheetData>
   <mergeCells count="18">
+    <mergeCell ref="U6:U11"/>
+    <mergeCell ref="U12:U16"/>
+    <mergeCell ref="P4:P5"/>
+    <mergeCell ref="Q4:Q5"/>
+    <mergeCell ref="R4:R5"/>
+    <mergeCell ref="S4:S5"/>
+    <mergeCell ref="U4:U5"/>
     <mergeCell ref="V4:V5"/>
     <mergeCell ref="A1:V1"/>
     <mergeCell ref="A2:D2"/>
@@ -16881,13 +16977,6 @@
     <mergeCell ref="M4:M5"/>
     <mergeCell ref="N4:N5"/>
     <mergeCell ref="O4:O5"/>
-    <mergeCell ref="U6:U11"/>
-    <mergeCell ref="U12:U16"/>
-    <mergeCell ref="P4:P5"/>
-    <mergeCell ref="Q4:Q5"/>
-    <mergeCell ref="R4:R5"/>
-    <mergeCell ref="S4:S5"/>
-    <mergeCell ref="U4:U5"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>

--- a/5. WS/1. Bộ phận bảo hành/1. Thực hiện sửa chữa bảo hành/nam2021/Thang6/02.XuLyBH/XLBH2106_AnhTuanNB.xlsx
+++ b/5. WS/1. Bộ phận bảo hành/1. Thực hiện sửa chữa bảo hành/nam2021/Thang6/02.XuLyBH/XLBH2106_AnhTuanNB.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\VNET\5. WS\1. Bộ phận bảo hành\1. Thực hiện sửa chữa bảo hành\nam2021\Thang6\02.XuLyBH\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\PhongBaoHanh\VNET\5. WS\1. Bộ phận bảo hành\1. Thực hiện sửa chữa bảo hành\nam2021\Thang6\02.XuLyBH\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -916,22 +916,7 @@
     <xf numFmtId="4" fontId="3" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="7" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -953,6 +938,21 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1294,41 +1294,41 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="88" t="s">
+      <c r="A1" s="83" t="s">
         <v>61</v>
       </c>
-      <c r="B1" s="88"/>
-      <c r="C1" s="88"/>
-      <c r="D1" s="88"/>
-      <c r="E1" s="88"/>
-      <c r="F1" s="88"/>
-      <c r="G1" s="88"/>
-      <c r="H1" s="88"/>
-      <c r="I1" s="88"/>
-      <c r="J1" s="88"/>
-      <c r="K1" s="88"/>
-      <c r="L1" s="88"/>
-      <c r="M1" s="88"/>
-      <c r="N1" s="88"/>
-      <c r="O1" s="88"/>
-      <c r="P1" s="88"/>
-      <c r="Q1" s="88"/>
-      <c r="R1" s="88"/>
-      <c r="S1" s="88"/>
-      <c r="T1" s="88"/>
-      <c r="U1" s="88"/>
-      <c r="V1" s="88"/>
+      <c r="B1" s="83"/>
+      <c r="C1" s="83"/>
+      <c r="D1" s="83"/>
+      <c r="E1" s="83"/>
+      <c r="F1" s="83"/>
+      <c r="G1" s="83"/>
+      <c r="H1" s="83"/>
+      <c r="I1" s="83"/>
+      <c r="J1" s="83"/>
+      <c r="K1" s="83"/>
+      <c r="L1" s="83"/>
+      <c r="M1" s="83"/>
+      <c r="N1" s="83"/>
+      <c r="O1" s="83"/>
+      <c r="P1" s="83"/>
+      <c r="Q1" s="83"/>
+      <c r="R1" s="83"/>
+      <c r="S1" s="83"/>
+      <c r="T1" s="83"/>
+      <c r="U1" s="83"/>
+      <c r="V1" s="83"/>
       <c r="W1" s="46"/>
     </row>
     <row r="2" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="89" t="s">
+      <c r="A2" s="84" t="s">
         <v>9</v>
       </c>
-      <c r="B2" s="90"/>
-      <c r="C2" s="90"/>
-      <c r="D2" s="90"/>
-      <c r="E2" s="91"/>
-      <c r="F2" s="91"/>
+      <c r="B2" s="85"/>
+      <c r="C2" s="85"/>
+      <c r="D2" s="85"/>
+      <c r="E2" s="86"/>
+      <c r="F2" s="86"/>
       <c r="G2" s="5"/>
       <c r="H2" s="21"/>
       <c r="I2" s="52"/>
@@ -1373,58 +1373,58 @@
       <c r="W3" s="27"/>
     </row>
     <row r="4" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="92" t="s">
-        <v>0</v>
-      </c>
-      <c r="B4" s="86" t="s">
+      <c r="A4" s="87" t="s">
+        <v>0</v>
+      </c>
+      <c r="B4" s="82" t="s">
         <v>8</v>
       </c>
-      <c r="C4" s="86"/>
-      <c r="D4" s="86"/>
-      <c r="E4" s="86"/>
-      <c r="F4" s="86"/>
-      <c r="G4" s="86"/>
-      <c r="H4" s="86"/>
-      <c r="I4" s="86"/>
-      <c r="J4" s="86" t="s">
+      <c r="C4" s="82"/>
+      <c r="D4" s="82"/>
+      <c r="E4" s="82"/>
+      <c r="F4" s="82"/>
+      <c r="G4" s="82"/>
+      <c r="H4" s="82"/>
+      <c r="I4" s="82"/>
+      <c r="J4" s="82" t="s">
         <v>6</v>
       </c>
-      <c r="K4" s="86" t="s">
+      <c r="K4" s="82" t="s">
         <v>11</v>
       </c>
-      <c r="L4" s="86"/>
-      <c r="M4" s="93" t="s">
+      <c r="L4" s="82"/>
+      <c r="M4" s="88" t="s">
         <v>42</v>
       </c>
-      <c r="N4" s="93" t="s">
+      <c r="N4" s="88" t="s">
         <v>10</v>
       </c>
-      <c r="O4" s="86" t="s">
+      <c r="O4" s="82" t="s">
         <v>7</v>
       </c>
-      <c r="P4" s="85" t="s">
+      <c r="P4" s="93" t="s">
         <v>14</v>
       </c>
-      <c r="Q4" s="86" t="s">
+      <c r="Q4" s="82" t="s">
         <v>39</v>
       </c>
-      <c r="R4" s="86" t="s">
+      <c r="R4" s="82" t="s">
         <v>53</v>
       </c>
-      <c r="S4" s="87" t="s">
+      <c r="S4" s="94" t="s">
         <v>54</v>
       </c>
       <c r="T4" s="27"/>
-      <c r="U4" s="86" t="s">
+      <c r="U4" s="82" t="s">
         <v>39</v>
       </c>
-      <c r="V4" s="86" t="s">
+      <c r="V4" s="82" t="s">
         <v>53</v>
       </c>
       <c r="W4" s="47"/>
     </row>
     <row r="5" spans="1:23" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="92"/>
+      <c r="A5" s="87"/>
       <c r="B5" s="63" t="s">
         <v>1</v>
       </c>
@@ -1449,23 +1449,23 @@
       <c r="I5" s="54" t="s">
         <v>15</v>
       </c>
-      <c r="J5" s="86"/>
+      <c r="J5" s="82"/>
       <c r="K5" s="73" t="s">
         <v>12</v>
       </c>
       <c r="L5" s="73" t="s">
         <v>13</v>
       </c>
-      <c r="M5" s="94"/>
-      <c r="N5" s="94"/>
-      <c r="O5" s="86"/>
-      <c r="P5" s="85"/>
-      <c r="Q5" s="86"/>
-      <c r="R5" s="86"/>
-      <c r="S5" s="87"/>
+      <c r="M5" s="89"/>
+      <c r="N5" s="89"/>
+      <c r="O5" s="82"/>
+      <c r="P5" s="93"/>
+      <c r="Q5" s="82"/>
+      <c r="R5" s="82"/>
+      <c r="S5" s="94"/>
       <c r="T5" s="27"/>
-      <c r="U5" s="86"/>
-      <c r="V5" s="86"/>
+      <c r="U5" s="82"/>
+      <c r="V5" s="82"/>
       <c r="W5" s="47"/>
     </row>
     <row r="6" spans="1:23" s="12" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -1519,7 +1519,7 @@
       </c>
       <c r="S6" s="4"/>
       <c r="T6" s="74"/>
-      <c r="U6" s="82" t="s">
+      <c r="U6" s="90" t="s">
         <v>18</v>
       </c>
       <c r="V6" s="4" t="s">
@@ -1550,7 +1550,7 @@
       <c r="R7" s="38"/>
       <c r="S7" s="4"/>
       <c r="T7" s="74"/>
-      <c r="U7" s="83"/>
+      <c r="U7" s="91"/>
       <c r="V7" s="4" t="s">
         <v>35</v>
       </c>
@@ -1579,7 +1579,7 @@
       <c r="R8" s="38"/>
       <c r="S8" s="4"/>
       <c r="T8" s="74"/>
-      <c r="U8" s="83"/>
+      <c r="U8" s="91"/>
       <c r="V8" s="4" t="s">
         <v>21</v>
       </c>
@@ -1608,7 +1608,7 @@
       <c r="R9" s="38"/>
       <c r="S9" s="4"/>
       <c r="T9" s="74"/>
-      <c r="U9" s="83"/>
+      <c r="U9" s="91"/>
       <c r="V9" s="4" t="s">
         <v>51</v>
       </c>
@@ -1637,7 +1637,7 @@
       <c r="R10" s="38"/>
       <c r="S10" s="4"/>
       <c r="T10" s="74"/>
-      <c r="U10" s="83"/>
+      <c r="U10" s="91"/>
       <c r="V10" s="4" t="s">
         <v>31</v>
       </c>
@@ -1666,7 +1666,7 @@
       <c r="R11" s="38"/>
       <c r="S11" s="4"/>
       <c r="T11" s="74"/>
-      <c r="U11" s="83"/>
+      <c r="U11" s="91"/>
       <c r="V11" s="4" t="s">
         <v>30</v>
       </c>
@@ -1695,7 +1695,7 @@
       <c r="R12" s="38"/>
       <c r="S12" s="4"/>
       <c r="T12" s="74"/>
-      <c r="U12" s="82" t="s">
+      <c r="U12" s="90" t="s">
         <v>19</v>
       </c>
       <c r="V12" s="4" t="s">
@@ -1726,7 +1726,7 @@
       <c r="R13" s="10"/>
       <c r="S13" s="4"/>
       <c r="T13" s="74"/>
-      <c r="U13" s="83"/>
+      <c r="U13" s="91"/>
       <c r="V13" s="4" t="s">
         <v>37</v>
       </c>
@@ -1755,7 +1755,7 @@
       <c r="R14" s="38"/>
       <c r="S14" s="4"/>
       <c r="T14" s="74"/>
-      <c r="U14" s="83"/>
+      <c r="U14" s="91"/>
       <c r="V14" s="4" t="s">
         <v>36</v>
       </c>
@@ -1784,7 +1784,7 @@
       <c r="R15" s="38"/>
       <c r="S15" s="4"/>
       <c r="T15" s="14"/>
-      <c r="U15" s="83"/>
+      <c r="U15" s="91"/>
       <c r="V15" s="4" t="s">
         <v>24</v>
       </c>
@@ -1813,7 +1813,7 @@
       <c r="R16" s="38"/>
       <c r="S16" s="4"/>
       <c r="T16" s="14"/>
-      <c r="U16" s="84"/>
+      <c r="U16" s="92"/>
       <c r="V16" s="4" t="s">
         <v>25</v>
       </c>
@@ -3044,6 +3044,13 @@
     </row>
   </sheetData>
   <mergeCells count="18">
+    <mergeCell ref="U6:U11"/>
+    <mergeCell ref="U12:U16"/>
+    <mergeCell ref="P4:P5"/>
+    <mergeCell ref="Q4:Q5"/>
+    <mergeCell ref="R4:R5"/>
+    <mergeCell ref="S4:S5"/>
+    <mergeCell ref="U4:U5"/>
     <mergeCell ref="V4:V5"/>
     <mergeCell ref="A1:V1"/>
     <mergeCell ref="A2:D2"/>
@@ -3055,13 +3062,6 @@
     <mergeCell ref="M4:M5"/>
     <mergeCell ref="N4:N5"/>
     <mergeCell ref="O4:O5"/>
-    <mergeCell ref="U6:U11"/>
-    <mergeCell ref="U12:U16"/>
-    <mergeCell ref="P4:P5"/>
-    <mergeCell ref="Q4:Q5"/>
-    <mergeCell ref="R4:R5"/>
-    <mergeCell ref="S4:S5"/>
-    <mergeCell ref="U4:U5"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -3105,41 +3105,41 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="88" t="s">
+      <c r="A1" s="83" t="s">
         <v>61</v>
       </c>
-      <c r="B1" s="88"/>
-      <c r="C1" s="88"/>
-      <c r="D1" s="88"/>
-      <c r="E1" s="88"/>
-      <c r="F1" s="88"/>
-      <c r="G1" s="88"/>
-      <c r="H1" s="88"/>
-      <c r="I1" s="88"/>
-      <c r="J1" s="88"/>
-      <c r="K1" s="88"/>
-      <c r="L1" s="88"/>
-      <c r="M1" s="88"/>
-      <c r="N1" s="88"/>
-      <c r="O1" s="88"/>
-      <c r="P1" s="88"/>
-      <c r="Q1" s="88"/>
-      <c r="R1" s="88"/>
-      <c r="S1" s="88"/>
-      <c r="T1" s="88"/>
-      <c r="U1" s="88"/>
-      <c r="V1" s="88"/>
+      <c r="B1" s="83"/>
+      <c r="C1" s="83"/>
+      <c r="D1" s="83"/>
+      <c r="E1" s="83"/>
+      <c r="F1" s="83"/>
+      <c r="G1" s="83"/>
+      <c r="H1" s="83"/>
+      <c r="I1" s="83"/>
+      <c r="J1" s="83"/>
+      <c r="K1" s="83"/>
+      <c r="L1" s="83"/>
+      <c r="M1" s="83"/>
+      <c r="N1" s="83"/>
+      <c r="O1" s="83"/>
+      <c r="P1" s="83"/>
+      <c r="Q1" s="83"/>
+      <c r="R1" s="83"/>
+      <c r="S1" s="83"/>
+      <c r="T1" s="83"/>
+      <c r="U1" s="83"/>
+      <c r="V1" s="83"/>
       <c r="W1" s="46"/>
     </row>
     <row r="2" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="89" t="s">
+      <c r="A2" s="84" t="s">
         <v>9</v>
       </c>
-      <c r="B2" s="90"/>
-      <c r="C2" s="90"/>
-      <c r="D2" s="90"/>
-      <c r="E2" s="91"/>
-      <c r="F2" s="91"/>
+      <c r="B2" s="85"/>
+      <c r="C2" s="85"/>
+      <c r="D2" s="85"/>
+      <c r="E2" s="86"/>
+      <c r="F2" s="86"/>
       <c r="G2" s="5"/>
       <c r="H2" s="21"/>
       <c r="I2" s="52"/>
@@ -3184,58 +3184,58 @@
       <c r="W3" s="27"/>
     </row>
     <row r="4" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="92" t="s">
-        <v>0</v>
-      </c>
-      <c r="B4" s="86" t="s">
+      <c r="A4" s="87" t="s">
+        <v>0</v>
+      </c>
+      <c r="B4" s="82" t="s">
         <v>8</v>
       </c>
-      <c r="C4" s="86"/>
-      <c r="D4" s="86"/>
-      <c r="E4" s="86"/>
-      <c r="F4" s="86"/>
-      <c r="G4" s="86"/>
-      <c r="H4" s="86"/>
-      <c r="I4" s="86"/>
-      <c r="J4" s="86" t="s">
+      <c r="C4" s="82"/>
+      <c r="D4" s="82"/>
+      <c r="E4" s="82"/>
+      <c r="F4" s="82"/>
+      <c r="G4" s="82"/>
+      <c r="H4" s="82"/>
+      <c r="I4" s="82"/>
+      <c r="J4" s="82" t="s">
         <v>6</v>
       </c>
-      <c r="K4" s="86" t="s">
+      <c r="K4" s="82" t="s">
         <v>11</v>
       </c>
-      <c r="L4" s="86"/>
-      <c r="M4" s="93" t="s">
+      <c r="L4" s="82"/>
+      <c r="M4" s="88" t="s">
         <v>42</v>
       </c>
-      <c r="N4" s="93" t="s">
+      <c r="N4" s="88" t="s">
         <v>10</v>
       </c>
-      <c r="O4" s="86" t="s">
+      <c r="O4" s="82" t="s">
         <v>7</v>
       </c>
-      <c r="P4" s="85" t="s">
+      <c r="P4" s="93" t="s">
         <v>14</v>
       </c>
-      <c r="Q4" s="86" t="s">
+      <c r="Q4" s="82" t="s">
         <v>39</v>
       </c>
-      <c r="R4" s="86" t="s">
+      <c r="R4" s="82" t="s">
         <v>53</v>
       </c>
-      <c r="S4" s="87" t="s">
+      <c r="S4" s="94" t="s">
         <v>54</v>
       </c>
       <c r="T4" s="27"/>
-      <c r="U4" s="86" t="s">
+      <c r="U4" s="82" t="s">
         <v>39</v>
       </c>
-      <c r="V4" s="86" t="s">
+      <c r="V4" s="82" t="s">
         <v>53</v>
       </c>
       <c r="W4" s="47"/>
     </row>
     <row r="5" spans="1:23" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="92"/>
+      <c r="A5" s="87"/>
       <c r="B5" s="63" t="s">
         <v>1</v>
       </c>
@@ -3260,23 +3260,23 @@
       <c r="I5" s="54" t="s">
         <v>15</v>
       </c>
-      <c r="J5" s="86"/>
+      <c r="J5" s="82"/>
       <c r="K5" s="75" t="s">
         <v>12</v>
       </c>
       <c r="L5" s="75" t="s">
         <v>13</v>
       </c>
-      <c r="M5" s="94"/>
-      <c r="N5" s="94"/>
-      <c r="O5" s="86"/>
-      <c r="P5" s="85"/>
-      <c r="Q5" s="86"/>
-      <c r="R5" s="86"/>
-      <c r="S5" s="87"/>
+      <c r="M5" s="89"/>
+      <c r="N5" s="89"/>
+      <c r="O5" s="82"/>
+      <c r="P5" s="93"/>
+      <c r="Q5" s="82"/>
+      <c r="R5" s="82"/>
+      <c r="S5" s="94"/>
       <c r="T5" s="27"/>
-      <c r="U5" s="86"/>
-      <c r="V5" s="86"/>
+      <c r="U5" s="82"/>
+      <c r="V5" s="82"/>
       <c r="W5" s="47"/>
     </row>
     <row r="6" spans="1:23" s="12" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -3328,7 +3328,7 @@
       </c>
       <c r="S6" s="4"/>
       <c r="T6" s="76"/>
-      <c r="U6" s="82" t="s">
+      <c r="U6" s="90" t="s">
         <v>18</v>
       </c>
       <c r="V6" s="4" t="s">
@@ -3387,7 +3387,7 @@
       </c>
       <c r="S7" s="4"/>
       <c r="T7" s="76"/>
-      <c r="U7" s="83"/>
+      <c r="U7" s="91"/>
       <c r="V7" s="4" t="s">
         <v>35</v>
       </c>
@@ -3442,7 +3442,7 @@
       </c>
       <c r="S8" s="4"/>
       <c r="T8" s="76"/>
-      <c r="U8" s="83"/>
+      <c r="U8" s="91"/>
       <c r="V8" s="4" t="s">
         <v>21</v>
       </c>
@@ -3471,7 +3471,7 @@
       <c r="R9" s="38"/>
       <c r="S9" s="4"/>
       <c r="T9" s="76"/>
-      <c r="U9" s="83"/>
+      <c r="U9" s="91"/>
       <c r="V9" s="4" t="s">
         <v>51</v>
       </c>
@@ -3500,7 +3500,7 @@
       <c r="R10" s="38"/>
       <c r="S10" s="4"/>
       <c r="T10" s="76"/>
-      <c r="U10" s="83"/>
+      <c r="U10" s="91"/>
       <c r="V10" s="4" t="s">
         <v>31</v>
       </c>
@@ -3529,7 +3529,7 @@
       <c r="R11" s="38"/>
       <c r="S11" s="4"/>
       <c r="T11" s="76"/>
-      <c r="U11" s="83"/>
+      <c r="U11" s="91"/>
       <c r="V11" s="4" t="s">
         <v>30</v>
       </c>
@@ -3558,7 +3558,7 @@
       <c r="R12" s="38"/>
       <c r="S12" s="4"/>
       <c r="T12" s="76"/>
-      <c r="U12" s="82" t="s">
+      <c r="U12" s="90" t="s">
         <v>19</v>
       </c>
       <c r="V12" s="4" t="s">
@@ -3589,7 +3589,7 @@
       <c r="R13" s="10"/>
       <c r="S13" s="4"/>
       <c r="T13" s="76"/>
-      <c r="U13" s="83"/>
+      <c r="U13" s="91"/>
       <c r="V13" s="4" t="s">
         <v>37</v>
       </c>
@@ -3618,7 +3618,7 @@
       <c r="R14" s="38"/>
       <c r="S14" s="4"/>
       <c r="T14" s="76"/>
-      <c r="U14" s="83"/>
+      <c r="U14" s="91"/>
       <c r="V14" s="4" t="s">
         <v>36</v>
       </c>
@@ -3647,7 +3647,7 @@
       <c r="R15" s="38"/>
       <c r="S15" s="4"/>
       <c r="T15" s="14"/>
-      <c r="U15" s="83"/>
+      <c r="U15" s="91"/>
       <c r="V15" s="4" t="s">
         <v>24</v>
       </c>
@@ -3676,7 +3676,7 @@
       <c r="R16" s="38"/>
       <c r="S16" s="4"/>
       <c r="T16" s="14"/>
-      <c r="U16" s="84"/>
+      <c r="U16" s="92"/>
       <c r="V16" s="4" t="s">
         <v>25</v>
       </c>
@@ -4907,13 +4907,6 @@
     </row>
   </sheetData>
   <mergeCells count="18">
-    <mergeCell ref="U6:U11"/>
-    <mergeCell ref="U12:U16"/>
-    <mergeCell ref="P4:P5"/>
-    <mergeCell ref="Q4:Q5"/>
-    <mergeCell ref="R4:R5"/>
-    <mergeCell ref="S4:S5"/>
-    <mergeCell ref="U4:U5"/>
     <mergeCell ref="V4:V5"/>
     <mergeCell ref="A1:V1"/>
     <mergeCell ref="A2:D2"/>
@@ -4925,6 +4918,13 @@
     <mergeCell ref="M4:M5"/>
     <mergeCell ref="N4:N5"/>
     <mergeCell ref="O4:O5"/>
+    <mergeCell ref="U6:U11"/>
+    <mergeCell ref="U12:U16"/>
+    <mergeCell ref="P4:P5"/>
+    <mergeCell ref="Q4:Q5"/>
+    <mergeCell ref="R4:R5"/>
+    <mergeCell ref="S4:S5"/>
+    <mergeCell ref="U4:U5"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -4935,8 +4935,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:X57"/>
   <sheetViews>
-    <sheetView showZeros="0" topLeftCell="M1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B6" sqref="B6:S7"/>
+    <sheetView showZeros="0" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="M25" sqref="E22:M25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -4968,41 +4968,41 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="88" t="s">
+      <c r="A1" s="83" t="s">
         <v>61</v>
       </c>
-      <c r="B1" s="88"/>
-      <c r="C1" s="88"/>
-      <c r="D1" s="88"/>
-      <c r="E1" s="88"/>
-      <c r="F1" s="88"/>
-      <c r="G1" s="88"/>
-      <c r="H1" s="88"/>
-      <c r="I1" s="88"/>
-      <c r="J1" s="88"/>
-      <c r="K1" s="88"/>
-      <c r="L1" s="88"/>
-      <c r="M1" s="88"/>
-      <c r="N1" s="88"/>
-      <c r="O1" s="88"/>
-      <c r="P1" s="88"/>
-      <c r="Q1" s="88"/>
-      <c r="R1" s="88"/>
-      <c r="S1" s="88"/>
-      <c r="T1" s="88"/>
-      <c r="U1" s="88"/>
-      <c r="V1" s="88"/>
+      <c r="B1" s="83"/>
+      <c r="C1" s="83"/>
+      <c r="D1" s="83"/>
+      <c r="E1" s="83"/>
+      <c r="F1" s="83"/>
+      <c r="G1" s="83"/>
+      <c r="H1" s="83"/>
+      <c r="I1" s="83"/>
+      <c r="J1" s="83"/>
+      <c r="K1" s="83"/>
+      <c r="L1" s="83"/>
+      <c r="M1" s="83"/>
+      <c r="N1" s="83"/>
+      <c r="O1" s="83"/>
+      <c r="P1" s="83"/>
+      <c r="Q1" s="83"/>
+      <c r="R1" s="83"/>
+      <c r="S1" s="83"/>
+      <c r="T1" s="83"/>
+      <c r="U1" s="83"/>
+      <c r="V1" s="83"/>
       <c r="W1" s="46"/>
     </row>
     <row r="2" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="89" t="s">
+      <c r="A2" s="84" t="s">
         <v>9</v>
       </c>
-      <c r="B2" s="90"/>
-      <c r="C2" s="90"/>
-      <c r="D2" s="90"/>
-      <c r="E2" s="91"/>
-      <c r="F2" s="91"/>
+      <c r="B2" s="85"/>
+      <c r="C2" s="85"/>
+      <c r="D2" s="85"/>
+      <c r="E2" s="86"/>
+      <c r="F2" s="86"/>
       <c r="G2" s="5"/>
       <c r="H2" s="21"/>
       <c r="I2" s="52"/>
@@ -5047,58 +5047,58 @@
       <c r="W3" s="27"/>
     </row>
     <row r="4" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="92" t="s">
-        <v>0</v>
-      </c>
-      <c r="B4" s="86" t="s">
+      <c r="A4" s="87" t="s">
+        <v>0</v>
+      </c>
+      <c r="B4" s="82" t="s">
         <v>8</v>
       </c>
-      <c r="C4" s="86"/>
-      <c r="D4" s="86"/>
-      <c r="E4" s="86"/>
-      <c r="F4" s="86"/>
-      <c r="G4" s="86"/>
-      <c r="H4" s="86"/>
-      <c r="I4" s="86"/>
-      <c r="J4" s="86" t="s">
+      <c r="C4" s="82"/>
+      <c r="D4" s="82"/>
+      <c r="E4" s="82"/>
+      <c r="F4" s="82"/>
+      <c r="G4" s="82"/>
+      <c r="H4" s="82"/>
+      <c r="I4" s="82"/>
+      <c r="J4" s="82" t="s">
         <v>6</v>
       </c>
-      <c r="K4" s="86" t="s">
+      <c r="K4" s="82" t="s">
         <v>11</v>
       </c>
-      <c r="L4" s="86"/>
-      <c r="M4" s="93" t="s">
+      <c r="L4" s="82"/>
+      <c r="M4" s="88" t="s">
         <v>42</v>
       </c>
-      <c r="N4" s="93" t="s">
+      <c r="N4" s="88" t="s">
         <v>10</v>
       </c>
-      <c r="O4" s="86" t="s">
+      <c r="O4" s="82" t="s">
         <v>7</v>
       </c>
-      <c r="P4" s="85" t="s">
+      <c r="P4" s="93" t="s">
         <v>14</v>
       </c>
-      <c r="Q4" s="86" t="s">
+      <c r="Q4" s="82" t="s">
         <v>39</v>
       </c>
-      <c r="R4" s="86" t="s">
+      <c r="R4" s="82" t="s">
         <v>53</v>
       </c>
-      <c r="S4" s="87" t="s">
+      <c r="S4" s="94" t="s">
         <v>54</v>
       </c>
       <c r="T4" s="27"/>
-      <c r="U4" s="86" t="s">
+      <c r="U4" s="82" t="s">
         <v>39</v>
       </c>
-      <c r="V4" s="86" t="s">
+      <c r="V4" s="82" t="s">
         <v>53</v>
       </c>
       <c r="W4" s="47"/>
     </row>
     <row r="5" spans="1:23" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="92"/>
+      <c r="A5" s="87"/>
       <c r="B5" s="63" t="s">
         <v>1</v>
       </c>
@@ -5123,23 +5123,23 @@
       <c r="I5" s="54" t="s">
         <v>15</v>
       </c>
-      <c r="J5" s="86"/>
+      <c r="J5" s="82"/>
       <c r="K5" s="73" t="s">
         <v>12</v>
       </c>
       <c r="L5" s="73" t="s">
         <v>13</v>
       </c>
-      <c r="M5" s="94"/>
-      <c r="N5" s="94"/>
-      <c r="O5" s="86"/>
-      <c r="P5" s="85"/>
-      <c r="Q5" s="86"/>
-      <c r="R5" s="86"/>
-      <c r="S5" s="87"/>
+      <c r="M5" s="89"/>
+      <c r="N5" s="89"/>
+      <c r="O5" s="82"/>
+      <c r="P5" s="93"/>
+      <c r="Q5" s="82"/>
+      <c r="R5" s="82"/>
+      <c r="S5" s="94"/>
       <c r="T5" s="27"/>
-      <c r="U5" s="86"/>
-      <c r="V5" s="86"/>
+      <c r="U5" s="82"/>
+      <c r="V5" s="82"/>
       <c r="W5" s="47"/>
     </row>
     <row r="6" spans="1:23" s="12" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -5191,7 +5191,7 @@
       </c>
       <c r="S6" s="4"/>
       <c r="T6" s="74"/>
-      <c r="U6" s="82" t="s">
+      <c r="U6" s="90" t="s">
         <v>18</v>
       </c>
       <c r="V6" s="4" t="s">
@@ -5248,7 +5248,7 @@
       </c>
       <c r="S7" s="4"/>
       <c r="T7" s="74"/>
-      <c r="U7" s="83"/>
+      <c r="U7" s="91"/>
       <c r="V7" s="4" t="s">
         <v>35</v>
       </c>
@@ -5277,7 +5277,7 @@
       <c r="R8" s="38"/>
       <c r="S8" s="4"/>
       <c r="T8" s="74"/>
-      <c r="U8" s="83"/>
+      <c r="U8" s="91"/>
       <c r="V8" s="4" t="s">
         <v>21</v>
       </c>
@@ -5306,7 +5306,7 @@
       <c r="R9" s="38"/>
       <c r="S9" s="4"/>
       <c r="T9" s="74"/>
-      <c r="U9" s="83"/>
+      <c r="U9" s="91"/>
       <c r="V9" s="4" t="s">
         <v>51</v>
       </c>
@@ -5335,7 +5335,7 @@
       <c r="R10" s="38"/>
       <c r="S10" s="4"/>
       <c r="T10" s="74"/>
-      <c r="U10" s="83"/>
+      <c r="U10" s="91"/>
       <c r="V10" s="4" t="s">
         <v>31</v>
       </c>
@@ -5364,7 +5364,7 @@
       <c r="R11" s="38"/>
       <c r="S11" s="4"/>
       <c r="T11" s="74"/>
-      <c r="U11" s="83"/>
+      <c r="U11" s="91"/>
       <c r="V11" s="4" t="s">
         <v>30</v>
       </c>
@@ -5393,7 +5393,7 @@
       <c r="R12" s="38"/>
       <c r="S12" s="4"/>
       <c r="T12" s="74"/>
-      <c r="U12" s="82" t="s">
+      <c r="U12" s="90" t="s">
         <v>19</v>
       </c>
       <c r="V12" s="4" t="s">
@@ -5424,7 +5424,7 @@
       <c r="R13" s="10"/>
       <c r="S13" s="4"/>
       <c r="T13" s="74"/>
-      <c r="U13" s="83"/>
+      <c r="U13" s="91"/>
       <c r="V13" s="4" t="s">
         <v>37</v>
       </c>
@@ -5453,7 +5453,7 @@
       <c r="R14" s="38"/>
       <c r="S14" s="4"/>
       <c r="T14" s="74"/>
-      <c r="U14" s="83"/>
+      <c r="U14" s="91"/>
       <c r="V14" s="4" t="s">
         <v>36</v>
       </c>
@@ -5482,7 +5482,7 @@
       <c r="R15" s="38"/>
       <c r="S15" s="4"/>
       <c r="T15" s="14"/>
-      <c r="U15" s="83"/>
+      <c r="U15" s="91"/>
       <c r="V15" s="4" t="s">
         <v>24</v>
       </c>
@@ -5511,7 +5511,7 @@
       <c r="R16" s="38"/>
       <c r="S16" s="4"/>
       <c r="T16" s="14"/>
-      <c r="U16" s="84"/>
+      <c r="U16" s="92"/>
       <c r="V16" s="4" t="s">
         <v>25</v>
       </c>
@@ -6742,6 +6742,13 @@
     </row>
   </sheetData>
   <mergeCells count="18">
+    <mergeCell ref="U6:U11"/>
+    <mergeCell ref="U12:U16"/>
+    <mergeCell ref="P4:P5"/>
+    <mergeCell ref="Q4:Q5"/>
+    <mergeCell ref="R4:R5"/>
+    <mergeCell ref="S4:S5"/>
+    <mergeCell ref="U4:U5"/>
     <mergeCell ref="V4:V5"/>
     <mergeCell ref="A1:V1"/>
     <mergeCell ref="A2:D2"/>
@@ -6753,13 +6760,6 @@
     <mergeCell ref="M4:M5"/>
     <mergeCell ref="N4:N5"/>
     <mergeCell ref="O4:O5"/>
-    <mergeCell ref="U6:U11"/>
-    <mergeCell ref="U12:U16"/>
-    <mergeCell ref="P4:P5"/>
-    <mergeCell ref="Q4:Q5"/>
-    <mergeCell ref="R4:R5"/>
-    <mergeCell ref="S4:S5"/>
-    <mergeCell ref="U4:U5"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -6770,8 +6770,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:X57"/>
   <sheetViews>
-    <sheetView showZeros="0" topLeftCell="M1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B6" sqref="B6:S14"/>
+    <sheetView showZeros="0" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="M31" sqref="A25:M31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -6803,41 +6803,41 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="88" t="s">
+      <c r="A1" s="83" t="s">
         <v>61</v>
       </c>
-      <c r="B1" s="88"/>
-      <c r="C1" s="88"/>
-      <c r="D1" s="88"/>
-      <c r="E1" s="88"/>
-      <c r="F1" s="88"/>
-      <c r="G1" s="88"/>
-      <c r="H1" s="88"/>
-      <c r="I1" s="88"/>
-      <c r="J1" s="88"/>
-      <c r="K1" s="88"/>
-      <c r="L1" s="88"/>
-      <c r="M1" s="88"/>
-      <c r="N1" s="88"/>
-      <c r="O1" s="88"/>
-      <c r="P1" s="88"/>
-      <c r="Q1" s="88"/>
-      <c r="R1" s="88"/>
-      <c r="S1" s="88"/>
-      <c r="T1" s="88"/>
-      <c r="U1" s="88"/>
-      <c r="V1" s="88"/>
+      <c r="B1" s="83"/>
+      <c r="C1" s="83"/>
+      <c r="D1" s="83"/>
+      <c r="E1" s="83"/>
+      <c r="F1" s="83"/>
+      <c r="G1" s="83"/>
+      <c r="H1" s="83"/>
+      <c r="I1" s="83"/>
+      <c r="J1" s="83"/>
+      <c r="K1" s="83"/>
+      <c r="L1" s="83"/>
+      <c r="M1" s="83"/>
+      <c r="N1" s="83"/>
+      <c r="O1" s="83"/>
+      <c r="P1" s="83"/>
+      <c r="Q1" s="83"/>
+      <c r="R1" s="83"/>
+      <c r="S1" s="83"/>
+      <c r="T1" s="83"/>
+      <c r="U1" s="83"/>
+      <c r="V1" s="83"/>
       <c r="W1" s="46"/>
     </row>
     <row r="2" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="89" t="s">
+      <c r="A2" s="84" t="s">
         <v>9</v>
       </c>
-      <c r="B2" s="90"/>
-      <c r="C2" s="90"/>
-      <c r="D2" s="90"/>
-      <c r="E2" s="91"/>
-      <c r="F2" s="91"/>
+      <c r="B2" s="85"/>
+      <c r="C2" s="85"/>
+      <c r="D2" s="85"/>
+      <c r="E2" s="86"/>
+      <c r="F2" s="86"/>
       <c r="G2" s="5"/>
       <c r="H2" s="21"/>
       <c r="I2" s="52"/>
@@ -6882,58 +6882,58 @@
       <c r="W3" s="27"/>
     </row>
     <row r="4" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="92" t="s">
-        <v>0</v>
-      </c>
-      <c r="B4" s="86" t="s">
+      <c r="A4" s="87" t="s">
+        <v>0</v>
+      </c>
+      <c r="B4" s="82" t="s">
         <v>8</v>
       </c>
-      <c r="C4" s="86"/>
-      <c r="D4" s="86"/>
-      <c r="E4" s="86"/>
-      <c r="F4" s="86"/>
-      <c r="G4" s="86"/>
-      <c r="H4" s="86"/>
-      <c r="I4" s="86"/>
-      <c r="J4" s="86" t="s">
+      <c r="C4" s="82"/>
+      <c r="D4" s="82"/>
+      <c r="E4" s="82"/>
+      <c r="F4" s="82"/>
+      <c r="G4" s="82"/>
+      <c r="H4" s="82"/>
+      <c r="I4" s="82"/>
+      <c r="J4" s="82" t="s">
         <v>6</v>
       </c>
-      <c r="K4" s="86" t="s">
+      <c r="K4" s="82" t="s">
         <v>11</v>
       </c>
-      <c r="L4" s="86"/>
-      <c r="M4" s="93" t="s">
+      <c r="L4" s="82"/>
+      <c r="M4" s="88" t="s">
         <v>42</v>
       </c>
-      <c r="N4" s="93" t="s">
+      <c r="N4" s="88" t="s">
         <v>10</v>
       </c>
-      <c r="O4" s="86" t="s">
+      <c r="O4" s="82" t="s">
         <v>7</v>
       </c>
-      <c r="P4" s="85" t="s">
+      <c r="P4" s="93" t="s">
         <v>14</v>
       </c>
-      <c r="Q4" s="86" t="s">
+      <c r="Q4" s="82" t="s">
         <v>39</v>
       </c>
-      <c r="R4" s="86" t="s">
+      <c r="R4" s="82" t="s">
         <v>53</v>
       </c>
-      <c r="S4" s="87" t="s">
+      <c r="S4" s="94" t="s">
         <v>54</v>
       </c>
       <c r="T4" s="27"/>
-      <c r="U4" s="86" t="s">
+      <c r="U4" s="82" t="s">
         <v>39</v>
       </c>
-      <c r="V4" s="86" t="s">
+      <c r="V4" s="82" t="s">
         <v>53</v>
       </c>
       <c r="W4" s="47"/>
     </row>
     <row r="5" spans="1:23" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="92"/>
+      <c r="A5" s="87"/>
       <c r="B5" s="63" t="s">
         <v>1</v>
       </c>
@@ -6958,23 +6958,23 @@
       <c r="I5" s="54" t="s">
         <v>15</v>
       </c>
-      <c r="J5" s="86"/>
+      <c r="J5" s="82"/>
       <c r="K5" s="72" t="s">
         <v>12</v>
       </c>
       <c r="L5" s="72" t="s">
         <v>13</v>
       </c>
-      <c r="M5" s="94"/>
-      <c r="N5" s="94"/>
-      <c r="O5" s="86"/>
-      <c r="P5" s="85"/>
-      <c r="Q5" s="86"/>
-      <c r="R5" s="86"/>
-      <c r="S5" s="87"/>
+      <c r="M5" s="89"/>
+      <c r="N5" s="89"/>
+      <c r="O5" s="82"/>
+      <c r="P5" s="93"/>
+      <c r="Q5" s="82"/>
+      <c r="R5" s="82"/>
+      <c r="S5" s="94"/>
       <c r="T5" s="27"/>
-      <c r="U5" s="86"/>
-      <c r="V5" s="86"/>
+      <c r="U5" s="82"/>
+      <c r="V5" s="82"/>
       <c r="W5" s="47"/>
     </row>
     <row r="6" spans="1:23" s="12" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -7026,7 +7026,7 @@
       </c>
       <c r="S6" s="4"/>
       <c r="T6" s="71"/>
-      <c r="U6" s="82" t="s">
+      <c r="U6" s="90" t="s">
         <v>18</v>
       </c>
       <c r="V6" s="4" t="s">
@@ -7087,7 +7087,7 @@
       </c>
       <c r="S7" s="4"/>
       <c r="T7" s="71"/>
-      <c r="U7" s="83"/>
+      <c r="U7" s="91"/>
       <c r="V7" s="4" t="s">
         <v>35</v>
       </c>
@@ -7142,7 +7142,7 @@
       </c>
       <c r="S8" s="4"/>
       <c r="T8" s="71"/>
-      <c r="U8" s="83"/>
+      <c r="U8" s="91"/>
       <c r="V8" s="4" t="s">
         <v>21</v>
       </c>
@@ -7197,7 +7197,7 @@
       </c>
       <c r="S9" s="4"/>
       <c r="T9" s="71"/>
-      <c r="U9" s="83"/>
+      <c r="U9" s="91"/>
       <c r="V9" s="4" t="s">
         <v>51</v>
       </c>
@@ -7252,7 +7252,7 @@
       </c>
       <c r="S10" s="4"/>
       <c r="T10" s="71"/>
-      <c r="U10" s="83"/>
+      <c r="U10" s="91"/>
       <c r="V10" s="4" t="s">
         <v>31</v>
       </c>
@@ -7309,7 +7309,7 @@
       </c>
       <c r="S11" s="4"/>
       <c r="T11" s="71"/>
-      <c r="U11" s="83"/>
+      <c r="U11" s="91"/>
       <c r="V11" s="4" t="s">
         <v>30</v>
       </c>
@@ -7366,7 +7366,7 @@
       </c>
       <c r="S12" s="4"/>
       <c r="T12" s="71"/>
-      <c r="U12" s="82" t="s">
+      <c r="U12" s="90" t="s">
         <v>19</v>
       </c>
       <c r="V12" s="4" t="s">
@@ -7429,7 +7429,7 @@
       </c>
       <c r="S13" s="4"/>
       <c r="T13" s="71"/>
-      <c r="U13" s="83"/>
+      <c r="U13" s="91"/>
       <c r="V13" s="4" t="s">
         <v>37</v>
       </c>
@@ -7484,7 +7484,7 @@
       </c>
       <c r="S14" s="4"/>
       <c r="T14" s="71"/>
-      <c r="U14" s="83"/>
+      <c r="U14" s="91"/>
       <c r="V14" s="4" t="s">
         <v>36</v>
       </c>
@@ -7513,7 +7513,7 @@
       <c r="R15" s="38"/>
       <c r="S15" s="4"/>
       <c r="T15" s="14"/>
-      <c r="U15" s="83"/>
+      <c r="U15" s="91"/>
       <c r="V15" s="4" t="s">
         <v>24</v>
       </c>
@@ -7542,7 +7542,7 @@
       <c r="R16" s="38"/>
       <c r="S16" s="4"/>
       <c r="T16" s="14"/>
-      <c r="U16" s="84"/>
+      <c r="U16" s="92"/>
       <c r="V16" s="4" t="s">
         <v>25</v>
       </c>
@@ -8773,13 +8773,6 @@
     </row>
   </sheetData>
   <mergeCells count="18">
-    <mergeCell ref="U6:U11"/>
-    <mergeCell ref="U12:U16"/>
-    <mergeCell ref="P4:P5"/>
-    <mergeCell ref="Q4:Q5"/>
-    <mergeCell ref="R4:R5"/>
-    <mergeCell ref="S4:S5"/>
-    <mergeCell ref="U4:U5"/>
     <mergeCell ref="V4:V5"/>
     <mergeCell ref="A1:V1"/>
     <mergeCell ref="A2:D2"/>
@@ -8791,6 +8784,13 @@
     <mergeCell ref="M4:M5"/>
     <mergeCell ref="N4:N5"/>
     <mergeCell ref="O4:O5"/>
+    <mergeCell ref="U6:U11"/>
+    <mergeCell ref="U12:U16"/>
+    <mergeCell ref="P4:P5"/>
+    <mergeCell ref="Q4:Q5"/>
+    <mergeCell ref="R4:R5"/>
+    <mergeCell ref="S4:S5"/>
+    <mergeCell ref="U4:U5"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -8801,8 +8801,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:X57"/>
   <sheetViews>
-    <sheetView showZeros="0" tabSelected="1" topLeftCell="B1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="I8" sqref="I8"/>
+    <sheetView showZeros="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C6" sqref="C6:C9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -8834,41 +8834,41 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="88" t="s">
+      <c r="A1" s="83" t="s">
         <v>61</v>
       </c>
-      <c r="B1" s="88"/>
-      <c r="C1" s="88"/>
-      <c r="D1" s="88"/>
-      <c r="E1" s="88"/>
-      <c r="F1" s="88"/>
-      <c r="G1" s="88"/>
-      <c r="H1" s="88"/>
-      <c r="I1" s="88"/>
-      <c r="J1" s="88"/>
-      <c r="K1" s="88"/>
-      <c r="L1" s="88"/>
-      <c r="M1" s="88"/>
-      <c r="N1" s="88"/>
-      <c r="O1" s="88"/>
-      <c r="P1" s="88"/>
-      <c r="Q1" s="88"/>
-      <c r="R1" s="88"/>
-      <c r="S1" s="88"/>
-      <c r="T1" s="88"/>
-      <c r="U1" s="88"/>
-      <c r="V1" s="88"/>
+      <c r="B1" s="83"/>
+      <c r="C1" s="83"/>
+      <c r="D1" s="83"/>
+      <c r="E1" s="83"/>
+      <c r="F1" s="83"/>
+      <c r="G1" s="83"/>
+      <c r="H1" s="83"/>
+      <c r="I1" s="83"/>
+      <c r="J1" s="83"/>
+      <c r="K1" s="83"/>
+      <c r="L1" s="83"/>
+      <c r="M1" s="83"/>
+      <c r="N1" s="83"/>
+      <c r="O1" s="83"/>
+      <c r="P1" s="83"/>
+      <c r="Q1" s="83"/>
+      <c r="R1" s="83"/>
+      <c r="S1" s="83"/>
+      <c r="T1" s="83"/>
+      <c r="U1" s="83"/>
+      <c r="V1" s="83"/>
       <c r="W1" s="46"/>
     </row>
     <row r="2" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="89" t="s">
+      <c r="A2" s="84" t="s">
         <v>9</v>
       </c>
-      <c r="B2" s="90"/>
-      <c r="C2" s="90"/>
-      <c r="D2" s="90"/>
-      <c r="E2" s="91"/>
-      <c r="F2" s="91"/>
+      <c r="B2" s="85"/>
+      <c r="C2" s="85"/>
+      <c r="D2" s="85"/>
+      <c r="E2" s="86"/>
+      <c r="F2" s="86"/>
       <c r="G2" s="5"/>
       <c r="H2" s="21"/>
       <c r="I2" s="52"/>
@@ -8913,58 +8913,58 @@
       <c r="W3" s="27"/>
     </row>
     <row r="4" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="92" t="s">
-        <v>0</v>
-      </c>
-      <c r="B4" s="86" t="s">
+      <c r="A4" s="87" t="s">
+        <v>0</v>
+      </c>
+      <c r="B4" s="82" t="s">
         <v>8</v>
       </c>
-      <c r="C4" s="86"/>
-      <c r="D4" s="86"/>
-      <c r="E4" s="86"/>
-      <c r="F4" s="86"/>
-      <c r="G4" s="86"/>
-      <c r="H4" s="86"/>
-      <c r="I4" s="86"/>
-      <c r="J4" s="86" t="s">
+      <c r="C4" s="82"/>
+      <c r="D4" s="82"/>
+      <c r="E4" s="82"/>
+      <c r="F4" s="82"/>
+      <c r="G4" s="82"/>
+      <c r="H4" s="82"/>
+      <c r="I4" s="82"/>
+      <c r="J4" s="82" t="s">
         <v>6</v>
       </c>
-      <c r="K4" s="86" t="s">
+      <c r="K4" s="82" t="s">
         <v>11</v>
       </c>
-      <c r="L4" s="86"/>
-      <c r="M4" s="93" t="s">
+      <c r="L4" s="82"/>
+      <c r="M4" s="88" t="s">
         <v>42</v>
       </c>
-      <c r="N4" s="93" t="s">
+      <c r="N4" s="88" t="s">
         <v>10</v>
       </c>
-      <c r="O4" s="86" t="s">
+      <c r="O4" s="82" t="s">
         <v>7</v>
       </c>
-      <c r="P4" s="85" t="s">
+      <c r="P4" s="93" t="s">
         <v>14</v>
       </c>
-      <c r="Q4" s="86" t="s">
+      <c r="Q4" s="82" t="s">
         <v>39</v>
       </c>
-      <c r="R4" s="86" t="s">
+      <c r="R4" s="82" t="s">
         <v>53</v>
       </c>
-      <c r="S4" s="87" t="s">
+      <c r="S4" s="94" t="s">
         <v>54</v>
       </c>
       <c r="T4" s="27"/>
-      <c r="U4" s="86" t="s">
+      <c r="U4" s="82" t="s">
         <v>39</v>
       </c>
-      <c r="V4" s="86" t="s">
+      <c r="V4" s="82" t="s">
         <v>53</v>
       </c>
       <c r="W4" s="47"/>
     </row>
     <row r="5" spans="1:23" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="92"/>
+      <c r="A5" s="87"/>
       <c r="B5" s="63" t="s">
         <v>1</v>
       </c>
@@ -8989,23 +8989,23 @@
       <c r="I5" s="54" t="s">
         <v>15</v>
       </c>
-      <c r="J5" s="86"/>
+      <c r="J5" s="82"/>
       <c r="K5" s="73" t="s">
         <v>12</v>
       </c>
       <c r="L5" s="73" t="s">
         <v>13</v>
       </c>
-      <c r="M5" s="94"/>
-      <c r="N5" s="94"/>
-      <c r="O5" s="86"/>
-      <c r="P5" s="85"/>
-      <c r="Q5" s="86"/>
-      <c r="R5" s="86"/>
-      <c r="S5" s="87"/>
+      <c r="M5" s="89"/>
+      <c r="N5" s="89"/>
+      <c r="O5" s="82"/>
+      <c r="P5" s="93"/>
+      <c r="Q5" s="82"/>
+      <c r="R5" s="82"/>
+      <c r="S5" s="94"/>
       <c r="T5" s="27"/>
-      <c r="U5" s="86"/>
-      <c r="V5" s="86"/>
+      <c r="U5" s="82"/>
+      <c r="V5" s="82"/>
       <c r="W5" s="47"/>
     </row>
     <row r="6" spans="1:23" s="12" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -9015,7 +9015,9 @@
       <c r="B6" s="37">
         <v>44364</v>
       </c>
-      <c r="C6" s="37"/>
+      <c r="C6" s="37">
+        <v>44364</v>
+      </c>
       <c r="D6" s="40" t="s">
         <v>66</v>
       </c>
@@ -9059,7 +9061,7 @@
       </c>
       <c r="S6" s="1"/>
       <c r="T6" s="74"/>
-      <c r="U6" s="82" t="s">
+      <c r="U6" s="90" t="s">
         <v>18</v>
       </c>
       <c r="V6" s="4" t="s">
@@ -9074,7 +9076,9 @@
       <c r="B7" s="37">
         <v>44364</v>
       </c>
-      <c r="C7" s="37"/>
+      <c r="C7" s="37">
+        <v>44364</v>
+      </c>
       <c r="D7" s="40" t="s">
         <v>66</v>
       </c>
@@ -9114,7 +9118,7 @@
       </c>
       <c r="S7" s="1"/>
       <c r="T7" s="74"/>
-      <c r="U7" s="83"/>
+      <c r="U7" s="91"/>
       <c r="V7" s="4" t="s">
         <v>35</v>
       </c>
@@ -9127,7 +9131,9 @@
       <c r="B8" s="37">
         <v>44364</v>
       </c>
-      <c r="C8" s="37"/>
+      <c r="C8" s="37">
+        <v>44364</v>
+      </c>
       <c r="D8" s="40" t="s">
         <v>66</v>
       </c>
@@ -9167,7 +9173,7 @@
       </c>
       <c r="S8" s="1"/>
       <c r="T8" s="74"/>
-      <c r="U8" s="83"/>
+      <c r="U8" s="91"/>
       <c r="V8" s="4" t="s">
         <v>21</v>
       </c>
@@ -9180,7 +9186,9 @@
       <c r="B9" s="37">
         <v>44364</v>
       </c>
-      <c r="C9" s="37"/>
+      <c r="C9" s="37">
+        <v>44364</v>
+      </c>
       <c r="D9" s="40" t="s">
         <v>66</v>
       </c>
@@ -9224,7 +9232,7 @@
       </c>
       <c r="S9" s="1"/>
       <c r="T9" s="74"/>
-      <c r="U9" s="83"/>
+      <c r="U9" s="91"/>
       <c r="V9" s="4" t="s">
         <v>51</v>
       </c>
@@ -9253,7 +9261,7 @@
       <c r="R10" s="38"/>
       <c r="S10" s="4"/>
       <c r="T10" s="74"/>
-      <c r="U10" s="83"/>
+      <c r="U10" s="91"/>
       <c r="V10" s="4" t="s">
         <v>31</v>
       </c>
@@ -9282,7 +9290,7 @@
       <c r="R11" s="38"/>
       <c r="S11" s="4"/>
       <c r="T11" s="74"/>
-      <c r="U11" s="83"/>
+      <c r="U11" s="91"/>
       <c r="V11" s="4" t="s">
         <v>30</v>
       </c>
@@ -9311,7 +9319,7 @@
       <c r="R12" s="38"/>
       <c r="S12" s="4"/>
       <c r="T12" s="74"/>
-      <c r="U12" s="82" t="s">
+      <c r="U12" s="90" t="s">
         <v>19</v>
       </c>
       <c r="V12" s="4" t="s">
@@ -9342,7 +9350,7 @@
       <c r="R13" s="10"/>
       <c r="S13" s="4"/>
       <c r="T13" s="74"/>
-      <c r="U13" s="83"/>
+      <c r="U13" s="91"/>
       <c r="V13" s="4" t="s">
         <v>37</v>
       </c>
@@ -9371,7 +9379,7 @@
       <c r="R14" s="38"/>
       <c r="S14" s="4"/>
       <c r="T14" s="74"/>
-      <c r="U14" s="83"/>
+      <c r="U14" s="91"/>
       <c r="V14" s="4" t="s">
         <v>36</v>
       </c>
@@ -9400,7 +9408,7 @@
       <c r="R15" s="38"/>
       <c r="S15" s="4"/>
       <c r="T15" s="14"/>
-      <c r="U15" s="83"/>
+      <c r="U15" s="91"/>
       <c r="V15" s="4" t="s">
         <v>24</v>
       </c>
@@ -9429,7 +9437,7 @@
       <c r="R16" s="38"/>
       <c r="S16" s="4"/>
       <c r="T16" s="14"/>
-      <c r="U16" s="84"/>
+      <c r="U16" s="92"/>
       <c r="V16" s="4" t="s">
         <v>25</v>
       </c>
@@ -10660,6 +10668,13 @@
     </row>
   </sheetData>
   <mergeCells count="18">
+    <mergeCell ref="U6:U11"/>
+    <mergeCell ref="U12:U16"/>
+    <mergeCell ref="P4:P5"/>
+    <mergeCell ref="Q4:Q5"/>
+    <mergeCell ref="R4:R5"/>
+    <mergeCell ref="S4:S5"/>
+    <mergeCell ref="U4:U5"/>
     <mergeCell ref="V4:V5"/>
     <mergeCell ref="A1:V1"/>
     <mergeCell ref="A2:D2"/>
@@ -10671,13 +10686,6 @@
     <mergeCell ref="M4:M5"/>
     <mergeCell ref="N4:N5"/>
     <mergeCell ref="O4:O5"/>
-    <mergeCell ref="U6:U11"/>
-    <mergeCell ref="U12:U16"/>
-    <mergeCell ref="P4:P5"/>
-    <mergeCell ref="Q4:Q5"/>
-    <mergeCell ref="R4:R5"/>
-    <mergeCell ref="S4:S5"/>
-    <mergeCell ref="U4:U5"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -10688,8 +10696,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:X57"/>
   <sheetViews>
-    <sheetView showZeros="0" topLeftCell="K1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="B6" sqref="B6:S12"/>
+    <sheetView showZeros="0" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
+      <selection activeCell="F29" sqref="F29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -10721,41 +10729,41 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="88" t="s">
+      <c r="A1" s="83" t="s">
         <v>61</v>
       </c>
-      <c r="B1" s="88"/>
-      <c r="C1" s="88"/>
-      <c r="D1" s="88"/>
-      <c r="E1" s="88"/>
-      <c r="F1" s="88"/>
-      <c r="G1" s="88"/>
-      <c r="H1" s="88"/>
-      <c r="I1" s="88"/>
-      <c r="J1" s="88"/>
-      <c r="K1" s="88"/>
-      <c r="L1" s="88"/>
-      <c r="M1" s="88"/>
-      <c r="N1" s="88"/>
-      <c r="O1" s="88"/>
-      <c r="P1" s="88"/>
-      <c r="Q1" s="88"/>
-      <c r="R1" s="88"/>
-      <c r="S1" s="88"/>
-      <c r="T1" s="88"/>
-      <c r="U1" s="88"/>
-      <c r="V1" s="88"/>
+      <c r="B1" s="83"/>
+      <c r="C1" s="83"/>
+      <c r="D1" s="83"/>
+      <c r="E1" s="83"/>
+      <c r="F1" s="83"/>
+      <c r="G1" s="83"/>
+      <c r="H1" s="83"/>
+      <c r="I1" s="83"/>
+      <c r="J1" s="83"/>
+      <c r="K1" s="83"/>
+      <c r="L1" s="83"/>
+      <c r="M1" s="83"/>
+      <c r="N1" s="83"/>
+      <c r="O1" s="83"/>
+      <c r="P1" s="83"/>
+      <c r="Q1" s="83"/>
+      <c r="R1" s="83"/>
+      <c r="S1" s="83"/>
+      <c r="T1" s="83"/>
+      <c r="U1" s="83"/>
+      <c r="V1" s="83"/>
       <c r="W1" s="46"/>
     </row>
     <row r="2" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="89" t="s">
+      <c r="A2" s="84" t="s">
         <v>9</v>
       </c>
-      <c r="B2" s="90"/>
-      <c r="C2" s="90"/>
-      <c r="D2" s="90"/>
-      <c r="E2" s="91"/>
-      <c r="F2" s="91"/>
+      <c r="B2" s="85"/>
+      <c r="C2" s="85"/>
+      <c r="D2" s="85"/>
+      <c r="E2" s="86"/>
+      <c r="F2" s="86"/>
       <c r="G2" s="5"/>
       <c r="H2" s="21"/>
       <c r="I2" s="52"/>
@@ -10800,58 +10808,58 @@
       <c r="W3" s="27"/>
     </row>
     <row r="4" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="92" t="s">
-        <v>0</v>
-      </c>
-      <c r="B4" s="86" t="s">
+      <c r="A4" s="87" t="s">
+        <v>0</v>
+      </c>
+      <c r="B4" s="82" t="s">
         <v>8</v>
       </c>
-      <c r="C4" s="86"/>
-      <c r="D4" s="86"/>
-      <c r="E4" s="86"/>
-      <c r="F4" s="86"/>
-      <c r="G4" s="86"/>
-      <c r="H4" s="86"/>
-      <c r="I4" s="86"/>
-      <c r="J4" s="86" t="s">
+      <c r="C4" s="82"/>
+      <c r="D4" s="82"/>
+      <c r="E4" s="82"/>
+      <c r="F4" s="82"/>
+      <c r="G4" s="82"/>
+      <c r="H4" s="82"/>
+      <c r="I4" s="82"/>
+      <c r="J4" s="82" t="s">
         <v>6</v>
       </c>
-      <c r="K4" s="86" t="s">
+      <c r="K4" s="82" t="s">
         <v>11</v>
       </c>
-      <c r="L4" s="86"/>
-      <c r="M4" s="93" t="s">
+      <c r="L4" s="82"/>
+      <c r="M4" s="88" t="s">
         <v>42</v>
       </c>
-      <c r="N4" s="93" t="s">
+      <c r="N4" s="88" t="s">
         <v>10</v>
       </c>
-      <c r="O4" s="86" t="s">
+      <c r="O4" s="82" t="s">
         <v>7</v>
       </c>
-      <c r="P4" s="85" t="s">
+      <c r="P4" s="93" t="s">
         <v>14</v>
       </c>
-      <c r="Q4" s="86" t="s">
+      <c r="Q4" s="82" t="s">
         <v>39</v>
       </c>
-      <c r="R4" s="86" t="s">
+      <c r="R4" s="82" t="s">
         <v>53</v>
       </c>
-      <c r="S4" s="87" t="s">
+      <c r="S4" s="94" t="s">
         <v>54</v>
       </c>
       <c r="T4" s="27"/>
-      <c r="U4" s="86" t="s">
+      <c r="U4" s="82" t="s">
         <v>39</v>
       </c>
-      <c r="V4" s="86" t="s">
+      <c r="V4" s="82" t="s">
         <v>53</v>
       </c>
       <c r="W4" s="47"/>
     </row>
     <row r="5" spans="1:23" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="92"/>
+      <c r="A5" s="87"/>
       <c r="B5" s="63" t="s">
         <v>1</v>
       </c>
@@ -10876,23 +10884,23 @@
       <c r="I5" s="54" t="s">
         <v>15</v>
       </c>
-      <c r="J5" s="86"/>
+      <c r="J5" s="82"/>
       <c r="K5" s="69" t="s">
         <v>12</v>
       </c>
       <c r="L5" s="69" t="s">
         <v>13</v>
       </c>
-      <c r="M5" s="94"/>
-      <c r="N5" s="94"/>
-      <c r="O5" s="86"/>
-      <c r="P5" s="85"/>
-      <c r="Q5" s="86"/>
-      <c r="R5" s="86"/>
-      <c r="S5" s="87"/>
+      <c r="M5" s="89"/>
+      <c r="N5" s="89"/>
+      <c r="O5" s="82"/>
+      <c r="P5" s="93"/>
+      <c r="Q5" s="82"/>
+      <c r="R5" s="82"/>
+      <c r="S5" s="94"/>
       <c r="T5" s="27"/>
-      <c r="U5" s="86"/>
-      <c r="V5" s="86"/>
+      <c r="U5" s="82"/>
+      <c r="V5" s="82"/>
       <c r="W5" s="47"/>
     </row>
     <row r="6" spans="1:23" s="12" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -10946,7 +10954,7 @@
       </c>
       <c r="S6" s="4"/>
       <c r="T6" s="70"/>
-      <c r="U6" s="82" t="s">
+      <c r="U6" s="90" t="s">
         <v>18</v>
       </c>
       <c r="V6" s="4" t="s">
@@ -11007,7 +11015,7 @@
       </c>
       <c r="S7" s="4"/>
       <c r="T7" s="70"/>
-      <c r="U7" s="83"/>
+      <c r="U7" s="91"/>
       <c r="V7" s="4" t="s">
         <v>35</v>
       </c>
@@ -11066,7 +11074,7 @@
       </c>
       <c r="S8" s="4"/>
       <c r="T8" s="70"/>
-      <c r="U8" s="83"/>
+      <c r="U8" s="91"/>
       <c r="V8" s="4" t="s">
         <v>21</v>
       </c>
@@ -11123,7 +11131,7 @@
       </c>
       <c r="S9" s="4"/>
       <c r="T9" s="70"/>
-      <c r="U9" s="83"/>
+      <c r="U9" s="91"/>
       <c r="V9" s="4" t="s">
         <v>51</v>
       </c>
@@ -11182,7 +11190,7 @@
       </c>
       <c r="S10" s="4"/>
       <c r="T10" s="70"/>
-      <c r="U10" s="83"/>
+      <c r="U10" s="91"/>
       <c r="V10" s="4" t="s">
         <v>31</v>
       </c>
@@ -11241,7 +11249,7 @@
       </c>
       <c r="S11" s="4"/>
       <c r="T11" s="70"/>
-      <c r="U11" s="83"/>
+      <c r="U11" s="91"/>
       <c r="V11" s="4" t="s">
         <v>30</v>
       </c>
@@ -11302,7 +11310,7 @@
       </c>
       <c r="S12" s="4"/>
       <c r="T12" s="70"/>
-      <c r="U12" s="82" t="s">
+      <c r="U12" s="90" t="s">
         <v>19</v>
       </c>
       <c r="V12" s="4" t="s">
@@ -11333,7 +11341,7 @@
       <c r="R13" s="10"/>
       <c r="S13" s="4"/>
       <c r="T13" s="70"/>
-      <c r="U13" s="83"/>
+      <c r="U13" s="91"/>
       <c r="V13" s="4" t="s">
         <v>37</v>
       </c>
@@ -11362,7 +11370,7 @@
       <c r="R14" s="38"/>
       <c r="S14" s="4"/>
       <c r="T14" s="70"/>
-      <c r="U14" s="83"/>
+      <c r="U14" s="91"/>
       <c r="V14" s="4" t="s">
         <v>36</v>
       </c>
@@ -11391,7 +11399,7 @@
       <c r="R15" s="38"/>
       <c r="S15" s="4"/>
       <c r="T15" s="14"/>
-      <c r="U15" s="83"/>
+      <c r="U15" s="91"/>
       <c r="V15" s="4" t="s">
         <v>24</v>
       </c>
@@ -11420,7 +11428,7 @@
       <c r="R16" s="38"/>
       <c r="S16" s="4"/>
       <c r="T16" s="14"/>
-      <c r="U16" s="84"/>
+      <c r="U16" s="92"/>
       <c r="V16" s="4" t="s">
         <v>25</v>
       </c>
@@ -12651,6 +12659,13 @@
     </row>
   </sheetData>
   <mergeCells count="18">
+    <mergeCell ref="U6:U11"/>
+    <mergeCell ref="U12:U16"/>
+    <mergeCell ref="P4:P5"/>
+    <mergeCell ref="Q4:Q5"/>
+    <mergeCell ref="R4:R5"/>
+    <mergeCell ref="S4:S5"/>
+    <mergeCell ref="U4:U5"/>
     <mergeCell ref="V4:V5"/>
     <mergeCell ref="A1:V1"/>
     <mergeCell ref="A2:D2"/>
@@ -12662,13 +12677,6 @@
     <mergeCell ref="M4:M5"/>
     <mergeCell ref="N4:N5"/>
     <mergeCell ref="O4:O5"/>
-    <mergeCell ref="U6:U11"/>
-    <mergeCell ref="U12:U16"/>
-    <mergeCell ref="P4:P5"/>
-    <mergeCell ref="Q4:Q5"/>
-    <mergeCell ref="R4:R5"/>
-    <mergeCell ref="S4:S5"/>
-    <mergeCell ref="U4:U5"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -12680,7 +12688,7 @@
   <dimension ref="A1:X57"/>
   <sheetViews>
     <sheetView showZeros="0" topLeftCell="L1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="B6" sqref="B6:S6"/>
+      <selection activeCell="M39" sqref="M39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -12712,41 +12720,41 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="88" t="s">
+      <c r="A1" s="83" t="s">
         <v>61</v>
       </c>
-      <c r="B1" s="88"/>
-      <c r="C1" s="88"/>
-      <c r="D1" s="88"/>
-      <c r="E1" s="88"/>
-      <c r="F1" s="88"/>
-      <c r="G1" s="88"/>
-      <c r="H1" s="88"/>
-      <c r="I1" s="88"/>
-      <c r="J1" s="88"/>
-      <c r="K1" s="88"/>
-      <c r="L1" s="88"/>
-      <c r="M1" s="88"/>
-      <c r="N1" s="88"/>
-      <c r="O1" s="88"/>
-      <c r="P1" s="88"/>
-      <c r="Q1" s="88"/>
-      <c r="R1" s="88"/>
-      <c r="S1" s="88"/>
-      <c r="T1" s="88"/>
-      <c r="U1" s="88"/>
-      <c r="V1" s="88"/>
+      <c r="B1" s="83"/>
+      <c r="C1" s="83"/>
+      <c r="D1" s="83"/>
+      <c r="E1" s="83"/>
+      <c r="F1" s="83"/>
+      <c r="G1" s="83"/>
+      <c r="H1" s="83"/>
+      <c r="I1" s="83"/>
+      <c r="J1" s="83"/>
+      <c r="K1" s="83"/>
+      <c r="L1" s="83"/>
+      <c r="M1" s="83"/>
+      <c r="N1" s="83"/>
+      <c r="O1" s="83"/>
+      <c r="P1" s="83"/>
+      <c r="Q1" s="83"/>
+      <c r="R1" s="83"/>
+      <c r="S1" s="83"/>
+      <c r="T1" s="83"/>
+      <c r="U1" s="83"/>
+      <c r="V1" s="83"/>
       <c r="W1" s="46"/>
     </row>
     <row r="2" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="89" t="s">
+      <c r="A2" s="84" t="s">
         <v>9</v>
       </c>
-      <c r="B2" s="90"/>
-      <c r="C2" s="90"/>
-      <c r="D2" s="90"/>
-      <c r="E2" s="91"/>
-      <c r="F2" s="91"/>
+      <c r="B2" s="85"/>
+      <c r="C2" s="85"/>
+      <c r="D2" s="85"/>
+      <c r="E2" s="86"/>
+      <c r="F2" s="86"/>
       <c r="G2" s="5"/>
       <c r="H2" s="21"/>
       <c r="I2" s="52"/>
@@ -12791,58 +12799,58 @@
       <c r="W3" s="27"/>
     </row>
     <row r="4" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="92" t="s">
-        <v>0</v>
-      </c>
-      <c r="B4" s="86" t="s">
+      <c r="A4" s="87" t="s">
+        <v>0</v>
+      </c>
+      <c r="B4" s="82" t="s">
         <v>8</v>
       </c>
-      <c r="C4" s="86"/>
-      <c r="D4" s="86"/>
-      <c r="E4" s="86"/>
-      <c r="F4" s="86"/>
-      <c r="G4" s="86"/>
-      <c r="H4" s="86"/>
-      <c r="I4" s="86"/>
-      <c r="J4" s="86" t="s">
+      <c r="C4" s="82"/>
+      <c r="D4" s="82"/>
+      <c r="E4" s="82"/>
+      <c r="F4" s="82"/>
+      <c r="G4" s="82"/>
+      <c r="H4" s="82"/>
+      <c r="I4" s="82"/>
+      <c r="J4" s="82" t="s">
         <v>6</v>
       </c>
-      <c r="K4" s="86" t="s">
+      <c r="K4" s="82" t="s">
         <v>11</v>
       </c>
-      <c r="L4" s="86"/>
-      <c r="M4" s="93" t="s">
+      <c r="L4" s="82"/>
+      <c r="M4" s="88" t="s">
         <v>42</v>
       </c>
-      <c r="N4" s="93" t="s">
+      <c r="N4" s="88" t="s">
         <v>10</v>
       </c>
-      <c r="O4" s="86" t="s">
+      <c r="O4" s="82" t="s">
         <v>7</v>
       </c>
-      <c r="P4" s="85" t="s">
+      <c r="P4" s="93" t="s">
         <v>14</v>
       </c>
-      <c r="Q4" s="86" t="s">
+      <c r="Q4" s="82" t="s">
         <v>39</v>
       </c>
-      <c r="R4" s="86" t="s">
+      <c r="R4" s="82" t="s">
         <v>53</v>
       </c>
-      <c r="S4" s="87" t="s">
+      <c r="S4" s="94" t="s">
         <v>54</v>
       </c>
       <c r="T4" s="27"/>
-      <c r="U4" s="86" t="s">
+      <c r="U4" s="82" t="s">
         <v>39</v>
       </c>
-      <c r="V4" s="86" t="s">
+      <c r="V4" s="82" t="s">
         <v>53</v>
       </c>
       <c r="W4" s="47"/>
     </row>
     <row r="5" spans="1:23" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="92"/>
+      <c r="A5" s="87"/>
       <c r="B5" s="63" t="s">
         <v>1</v>
       </c>
@@ -12867,23 +12875,23 @@
       <c r="I5" s="54" t="s">
         <v>15</v>
       </c>
-      <c r="J5" s="86"/>
+      <c r="J5" s="82"/>
       <c r="K5" s="78" t="s">
         <v>12</v>
       </c>
       <c r="L5" s="78" t="s">
         <v>13</v>
       </c>
-      <c r="M5" s="94"/>
-      <c r="N5" s="94"/>
-      <c r="O5" s="86"/>
-      <c r="P5" s="85"/>
-      <c r="Q5" s="86"/>
-      <c r="R5" s="86"/>
-      <c r="S5" s="87"/>
+      <c r="M5" s="89"/>
+      <c r="N5" s="89"/>
+      <c r="O5" s="82"/>
+      <c r="P5" s="93"/>
+      <c r="Q5" s="82"/>
+      <c r="R5" s="82"/>
+      <c r="S5" s="94"/>
       <c r="T5" s="27"/>
-      <c r="U5" s="86"/>
-      <c r="V5" s="86"/>
+      <c r="U5" s="82"/>
+      <c r="V5" s="82"/>
       <c r="W5" s="47"/>
     </row>
     <row r="6" spans="1:23" s="12" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -12929,7 +12937,7 @@
       </c>
       <c r="S6" s="4"/>
       <c r="T6" s="77"/>
-      <c r="U6" s="82" t="s">
+      <c r="U6" s="90" t="s">
         <v>18</v>
       </c>
       <c r="V6" s="4" t="s">
@@ -12960,7 +12968,7 @@
       <c r="R7" s="38"/>
       <c r="S7" s="4"/>
       <c r="T7" s="77"/>
-      <c r="U7" s="83"/>
+      <c r="U7" s="91"/>
       <c r="V7" s="4" t="s">
         <v>35</v>
       </c>
@@ -12989,7 +12997,7 @@
       <c r="R8" s="38"/>
       <c r="S8" s="4"/>
       <c r="T8" s="77"/>
-      <c r="U8" s="83"/>
+      <c r="U8" s="91"/>
       <c r="V8" s="4" t="s">
         <v>21</v>
       </c>
@@ -13018,7 +13026,7 @@
       <c r="R9" s="38"/>
       <c r="S9" s="4"/>
       <c r="T9" s="77"/>
-      <c r="U9" s="83"/>
+      <c r="U9" s="91"/>
       <c r="V9" s="4" t="s">
         <v>51</v>
       </c>
@@ -13047,7 +13055,7 @@
       <c r="R10" s="38"/>
       <c r="S10" s="4"/>
       <c r="T10" s="77"/>
-      <c r="U10" s="83"/>
+      <c r="U10" s="91"/>
       <c r="V10" s="4" t="s">
         <v>31</v>
       </c>
@@ -13076,7 +13084,7 @@
       <c r="R11" s="38"/>
       <c r="S11" s="4"/>
       <c r="T11" s="77"/>
-      <c r="U11" s="83"/>
+      <c r="U11" s="91"/>
       <c r="V11" s="4" t="s">
         <v>30</v>
       </c>
@@ -13105,7 +13113,7 @@
       <c r="R12" s="38"/>
       <c r="S12" s="4"/>
       <c r="T12" s="77"/>
-      <c r="U12" s="82" t="s">
+      <c r="U12" s="90" t="s">
         <v>19</v>
       </c>
       <c r="V12" s="4" t="s">
@@ -13136,7 +13144,7 @@
       <c r="R13" s="10"/>
       <c r="S13" s="4"/>
       <c r="T13" s="77"/>
-      <c r="U13" s="83"/>
+      <c r="U13" s="91"/>
       <c r="V13" s="4" t="s">
         <v>37</v>
       </c>
@@ -13165,7 +13173,7 @@
       <c r="R14" s="38"/>
       <c r="S14" s="4"/>
       <c r="T14" s="77"/>
-      <c r="U14" s="83"/>
+      <c r="U14" s="91"/>
       <c r="V14" s="4" t="s">
         <v>36</v>
       </c>
@@ -13194,7 +13202,7 @@
       <c r="R15" s="38"/>
       <c r="S15" s="4"/>
       <c r="T15" s="14"/>
-      <c r="U15" s="83"/>
+      <c r="U15" s="91"/>
       <c r="V15" s="4" t="s">
         <v>24</v>
       </c>
@@ -13223,7 +13231,7 @@
       <c r="R16" s="38"/>
       <c r="S16" s="4"/>
       <c r="T16" s="14"/>
-      <c r="U16" s="84"/>
+      <c r="U16" s="92"/>
       <c r="V16" s="4" t="s">
         <v>25</v>
       </c>
@@ -14454,6 +14462,13 @@
     </row>
   </sheetData>
   <mergeCells count="18">
+    <mergeCell ref="U6:U11"/>
+    <mergeCell ref="U12:U16"/>
+    <mergeCell ref="P4:P5"/>
+    <mergeCell ref="Q4:Q5"/>
+    <mergeCell ref="R4:R5"/>
+    <mergeCell ref="S4:S5"/>
+    <mergeCell ref="U4:U5"/>
     <mergeCell ref="V4:V5"/>
     <mergeCell ref="A1:V1"/>
     <mergeCell ref="A2:D2"/>
@@ -14465,13 +14480,6 @@
     <mergeCell ref="M4:M5"/>
     <mergeCell ref="N4:N5"/>
     <mergeCell ref="O4:O5"/>
-    <mergeCell ref="U6:U11"/>
-    <mergeCell ref="U12:U16"/>
-    <mergeCell ref="P4:P5"/>
-    <mergeCell ref="Q4:Q5"/>
-    <mergeCell ref="R4:R5"/>
-    <mergeCell ref="S4:S5"/>
-    <mergeCell ref="U4:U5"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -14515,41 +14523,41 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="88" t="s">
+      <c r="A1" s="83" t="s">
         <v>62</v>
       </c>
-      <c r="B1" s="88"/>
-      <c r="C1" s="88"/>
-      <c r="D1" s="88"/>
-      <c r="E1" s="88"/>
-      <c r="F1" s="88"/>
-      <c r="G1" s="88"/>
-      <c r="H1" s="88"/>
-      <c r="I1" s="88"/>
-      <c r="J1" s="88"/>
-      <c r="K1" s="88"/>
-      <c r="L1" s="88"/>
-      <c r="M1" s="88"/>
-      <c r="N1" s="88"/>
-      <c r="O1" s="88"/>
-      <c r="P1" s="88"/>
-      <c r="Q1" s="88"/>
-      <c r="R1" s="88"/>
-      <c r="S1" s="88"/>
-      <c r="T1" s="88"/>
-      <c r="U1" s="88"/>
-      <c r="V1" s="88"/>
+      <c r="B1" s="83"/>
+      <c r="C1" s="83"/>
+      <c r="D1" s="83"/>
+      <c r="E1" s="83"/>
+      <c r="F1" s="83"/>
+      <c r="G1" s="83"/>
+      <c r="H1" s="83"/>
+      <c r="I1" s="83"/>
+      <c r="J1" s="83"/>
+      <c r="K1" s="83"/>
+      <c r="L1" s="83"/>
+      <c r="M1" s="83"/>
+      <c r="N1" s="83"/>
+      <c r="O1" s="83"/>
+      <c r="P1" s="83"/>
+      <c r="Q1" s="83"/>
+      <c r="R1" s="83"/>
+      <c r="S1" s="83"/>
+      <c r="T1" s="83"/>
+      <c r="U1" s="83"/>
+      <c r="V1" s="83"/>
       <c r="W1" s="46"/>
     </row>
     <row r="2" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="89" t="s">
+      <c r="A2" s="84" t="s">
         <v>9</v>
       </c>
-      <c r="B2" s="90"/>
-      <c r="C2" s="90"/>
-      <c r="D2" s="90"/>
-      <c r="E2" s="91"/>
-      <c r="F2" s="91"/>
+      <c r="B2" s="85"/>
+      <c r="C2" s="85"/>
+      <c r="D2" s="85"/>
+      <c r="E2" s="86"/>
+      <c r="F2" s="86"/>
       <c r="G2" s="5"/>
       <c r="H2" s="21"/>
       <c r="I2" s="21"/>
@@ -14594,58 +14602,58 @@
       <c r="W3" s="27"/>
     </row>
     <row r="4" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="92" t="s">
-        <v>0</v>
-      </c>
-      <c r="B4" s="86" t="s">
+      <c r="A4" s="87" t="s">
+        <v>0</v>
+      </c>
+      <c r="B4" s="82" t="s">
         <v>8</v>
       </c>
-      <c r="C4" s="86"/>
-      <c r="D4" s="86"/>
-      <c r="E4" s="86"/>
-      <c r="F4" s="86"/>
-      <c r="G4" s="86"/>
-      <c r="H4" s="86"/>
-      <c r="I4" s="86"/>
-      <c r="J4" s="86" t="s">
+      <c r="C4" s="82"/>
+      <c r="D4" s="82"/>
+      <c r="E4" s="82"/>
+      <c r="F4" s="82"/>
+      <c r="G4" s="82"/>
+      <c r="H4" s="82"/>
+      <c r="I4" s="82"/>
+      <c r="J4" s="82" t="s">
         <v>6</v>
       </c>
-      <c r="K4" s="86" t="s">
+      <c r="K4" s="82" t="s">
         <v>11</v>
       </c>
-      <c r="L4" s="86"/>
-      <c r="M4" s="93" t="s">
+      <c r="L4" s="82"/>
+      <c r="M4" s="88" t="s">
         <v>42</v>
       </c>
-      <c r="N4" s="93" t="s">
+      <c r="N4" s="88" t="s">
         <v>10</v>
       </c>
-      <c r="O4" s="86" t="s">
+      <c r="O4" s="82" t="s">
         <v>7</v>
       </c>
-      <c r="P4" s="85" t="s">
+      <c r="P4" s="93" t="s">
         <v>14</v>
       </c>
-      <c r="Q4" s="86" t="s">
+      <c r="Q4" s="82" t="s">
         <v>39</v>
       </c>
-      <c r="R4" s="86" t="s">
+      <c r="R4" s="82" t="s">
         <v>53</v>
       </c>
-      <c r="S4" s="87" t="s">
+      <c r="S4" s="94" t="s">
         <v>54</v>
       </c>
       <c r="T4" s="27"/>
-      <c r="U4" s="86" t="s">
+      <c r="U4" s="82" t="s">
         <v>39</v>
       </c>
-      <c r="V4" s="86" t="s">
+      <c r="V4" s="82" t="s">
         <v>53</v>
       </c>
       <c r="W4" s="47"/>
     </row>
     <row r="5" spans="1:23" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="92"/>
+      <c r="A5" s="87"/>
       <c r="B5" s="43" t="s">
         <v>1</v>
       </c>
@@ -14670,23 +14678,23 @@
       <c r="I5" s="43" t="s">
         <v>15</v>
       </c>
-      <c r="J5" s="86"/>
+      <c r="J5" s="82"/>
       <c r="K5" s="43" t="s">
         <v>12</v>
       </c>
       <c r="L5" s="43" t="s">
         <v>13</v>
       </c>
-      <c r="M5" s="94"/>
-      <c r="N5" s="94"/>
-      <c r="O5" s="86"/>
-      <c r="P5" s="85"/>
-      <c r="Q5" s="86"/>
-      <c r="R5" s="86"/>
-      <c r="S5" s="87"/>
+      <c r="M5" s="89"/>
+      <c r="N5" s="89"/>
+      <c r="O5" s="82"/>
+      <c r="P5" s="93"/>
+      <c r="Q5" s="82"/>
+      <c r="R5" s="82"/>
+      <c r="S5" s="94"/>
       <c r="T5" s="27"/>
-      <c r="U5" s="86"/>
-      <c r="V5" s="86"/>
+      <c r="U5" s="82"/>
+      <c r="V5" s="82"/>
       <c r="W5" s="47"/>
     </row>
     <row r="6" spans="1:23" s="12" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -14740,7 +14748,7 @@
       </c>
       <c r="S6" s="4"/>
       <c r="T6" s="42"/>
-      <c r="U6" s="82" t="s">
+      <c r="U6" s="90" t="s">
         <v>18</v>
       </c>
       <c r="V6" s="4" t="s">
@@ -14797,7 +14805,7 @@
       </c>
       <c r="S7" s="4"/>
       <c r="T7" s="42"/>
-      <c r="U7" s="83"/>
+      <c r="U7" s="91"/>
       <c r="V7" s="4" t="s">
         <v>35</v>
       </c>
@@ -14854,7 +14862,7 @@
       </c>
       <c r="S8" s="4"/>
       <c r="T8" s="42"/>
-      <c r="U8" s="83"/>
+      <c r="U8" s="91"/>
       <c r="V8" s="4" t="s">
         <v>21</v>
       </c>
@@ -14909,7 +14917,7 @@
       </c>
       <c r="S9" s="4"/>
       <c r="T9" s="42"/>
-      <c r="U9" s="83"/>
+      <c r="U9" s="91"/>
       <c r="V9" s="4" t="s">
         <v>51</v>
       </c>
@@ -14964,7 +14972,7 @@
       </c>
       <c r="S10" s="4"/>
       <c r="T10" s="42"/>
-      <c r="U10" s="83"/>
+      <c r="U10" s="91"/>
       <c r="V10" s="4" t="s">
         <v>31</v>
       </c>
@@ -15019,7 +15027,7 @@
       </c>
       <c r="S11" s="4"/>
       <c r="T11" s="42"/>
-      <c r="U11" s="83"/>
+      <c r="U11" s="91"/>
       <c r="V11" s="4" t="s">
         <v>30</v>
       </c>
@@ -15074,7 +15082,7 @@
       </c>
       <c r="S12" s="4"/>
       <c r="T12" s="42"/>
-      <c r="U12" s="82" t="s">
+      <c r="U12" s="90" t="s">
         <v>19</v>
       </c>
       <c r="V12" s="4" t="s">
@@ -15135,7 +15143,7 @@
       </c>
       <c r="S13" s="4"/>
       <c r="T13" s="42"/>
-      <c r="U13" s="83"/>
+      <c r="U13" s="91"/>
       <c r="V13" s="4" t="s">
         <v>37</v>
       </c>
@@ -15190,7 +15198,7 @@
       </c>
       <c r="S14" s="4"/>
       <c r="T14" s="42"/>
-      <c r="U14" s="83"/>
+      <c r="U14" s="91"/>
       <c r="V14" s="4" t="s">
         <v>36</v>
       </c>
@@ -15245,7 +15253,7 @@
       </c>
       <c r="S15" s="4"/>
       <c r="T15" s="14"/>
-      <c r="U15" s="83"/>
+      <c r="U15" s="91"/>
       <c r="V15" s="4" t="s">
         <v>24</v>
       </c>
@@ -15300,7 +15308,7 @@
       </c>
       <c r="S16" s="4"/>
       <c r="T16" s="14"/>
-      <c r="U16" s="84"/>
+      <c r="U16" s="92"/>
       <c r="V16" s="4" t="s">
         <v>25</v>
       </c>
@@ -16959,13 +16967,6 @@
     </row>
   </sheetData>
   <mergeCells count="18">
-    <mergeCell ref="U6:U11"/>
-    <mergeCell ref="U12:U16"/>
-    <mergeCell ref="P4:P5"/>
-    <mergeCell ref="Q4:Q5"/>
-    <mergeCell ref="R4:R5"/>
-    <mergeCell ref="S4:S5"/>
-    <mergeCell ref="U4:U5"/>
     <mergeCell ref="V4:V5"/>
     <mergeCell ref="A1:V1"/>
     <mergeCell ref="A2:D2"/>
@@ -16977,6 +16978,13 @@
     <mergeCell ref="M4:M5"/>
     <mergeCell ref="N4:N5"/>
     <mergeCell ref="O4:O5"/>
+    <mergeCell ref="U6:U11"/>
+    <mergeCell ref="U12:U16"/>
+    <mergeCell ref="P4:P5"/>
+    <mergeCell ref="Q4:Q5"/>
+    <mergeCell ref="R4:R5"/>
+    <mergeCell ref="S4:S5"/>
+    <mergeCell ref="U4:U5"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
